--- a/BackTest/2019-10-19 BackTest LTC.xlsx
+++ b/BackTest/2019-10-19 BackTest LTC.xlsx
@@ -917,7 +917,9 @@
       <c r="J12" t="n">
         <v>250</v>
       </c>
-      <c r="K12" t="inlineStr"/>
+      <c r="K12" t="n">
+        <v>20</v>
+      </c>
       <c r="L12" t="n">
         <v>63015</v>
       </c>
@@ -962,7 +964,9 @@
       <c r="J13" t="n">
         <v>300</v>
       </c>
-      <c r="K13" t="inlineStr"/>
+      <c r="K13" t="n">
+        <v>33.33333333333333</v>
+      </c>
       <c r="L13" t="n">
         <v>63025</v>
       </c>
@@ -1007,7 +1011,9 @@
       <c r="J14" t="n">
         <v>300</v>
       </c>
-      <c r="K14" t="inlineStr"/>
+      <c r="K14" t="n">
+        <v>20</v>
+      </c>
       <c r="L14" t="n">
         <v>63035</v>
       </c>
@@ -1052,7 +1058,9 @@
       <c r="J15" t="n">
         <v>300</v>
       </c>
-      <c r="K15" t="inlineStr"/>
+      <c r="K15" t="n">
+        <v>50</v>
+      </c>
       <c r="L15" t="n">
         <v>63040</v>
       </c>
@@ -1097,7 +1105,9 @@
       <c r="J16" t="n">
         <v>300</v>
       </c>
-      <c r="K16" t="inlineStr"/>
+      <c r="K16" t="n">
+        <v>100</v>
+      </c>
       <c r="L16" t="n">
         <v>63050</v>
       </c>
@@ -1142,7 +1152,9 @@
       <c r="J17" t="n">
         <v>300</v>
       </c>
-      <c r="K17" t="inlineStr"/>
+      <c r="K17" t="n">
+        <v>100</v>
+      </c>
       <c r="L17" t="n">
         <v>63065</v>
       </c>
@@ -1187,7 +1199,9 @@
       <c r="J18" t="n">
         <v>400</v>
       </c>
-      <c r="K18" t="inlineStr"/>
+      <c r="K18" t="n">
+        <v>100</v>
+      </c>
       <c r="L18" t="n">
         <v>63090</v>
       </c>
@@ -1232,7 +1246,9 @@
       <c r="J19" t="n">
         <v>600</v>
       </c>
-      <c r="K19" t="inlineStr"/>
+      <c r="K19" t="n">
+        <v>100</v>
+      </c>
       <c r="L19" t="n">
         <v>63125</v>
       </c>
@@ -1277,7 +1293,9 @@
       <c r="J20" t="n">
         <v>700</v>
       </c>
-      <c r="K20" t="inlineStr"/>
+      <c r="K20" t="n">
+        <v>55.55555555555556</v>
+      </c>
       <c r="L20" t="n">
         <v>63150</v>
       </c>
@@ -1322,7 +1340,9 @@
       <c r="J21" t="n">
         <v>700</v>
       </c>
-      <c r="K21" t="inlineStr"/>
+      <c r="K21" t="n">
+        <v>55.55555555555556</v>
+      </c>
       <c r="L21" t="n">
         <v>63175</v>
       </c>
@@ -1369,7 +1389,9 @@
       <c r="J22" t="n">
         <v>800</v>
       </c>
-      <c r="K22" t="inlineStr"/>
+      <c r="K22" t="n">
+        <v>20</v>
+      </c>
       <c r="L22" t="n">
         <v>63190</v>
       </c>
@@ -1417,7 +1439,7 @@
         <v>800</v>
       </c>
       <c r="K23" t="n">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="L23" t="n">
         <v>63200</v>
@@ -1466,7 +1488,7 @@
         <v>900</v>
       </c>
       <c r="K24" t="n">
-        <v>11.11111111111111</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
         <v>63200</v>
@@ -1515,7 +1537,7 @@
         <v>1000</v>
       </c>
       <c r="K25" t="n">
-        <v>15.78947368421053</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L25" t="n">
         <v>63210</v>
@@ -1564,7 +1586,7 @@
         <v>1100</v>
       </c>
       <c r="K26" t="n">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="L26" t="n">
         <v>63230</v>
@@ -1613,7 +1635,7 @@
         <v>1200</v>
       </c>
       <c r="K27" t="n">
-        <v>23.80952380952381</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
         <v>63240</v>
@@ -1662,7 +1684,7 @@
         <v>1250</v>
       </c>
       <c r="K28" t="n">
-        <v>18.18181818181818</v>
+        <v>-38.46153846153847</v>
       </c>
       <c r="L28" t="n">
         <v>63235</v>
@@ -1711,7 +1733,7 @@
         <v>1250</v>
       </c>
       <c r="K29" t="n">
-        <v>10</v>
+        <v>-27.27272727272727</v>
       </c>
       <c r="L29" t="n">
         <v>63210</v>
@@ -1760,7 +1782,7 @@
         <v>1300</v>
       </c>
       <c r="K30" t="n">
-        <v>4.761904761904762</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L30" t="n">
         <v>63190</v>
@@ -1809,7 +1831,7 @@
         <v>1300</v>
       </c>
       <c r="K31" t="n">
-        <v>4.761904761904762</v>
+        <v>-20</v>
       </c>
       <c r="L31" t="n">
         <v>63170</v>
@@ -1860,7 +1882,7 @@
         <v>1300</v>
       </c>
       <c r="K32" t="n">
-        <v>4.761904761904762</v>
+        <v>-20</v>
       </c>
       <c r="L32" t="n">
         <v>63160</v>
@@ -1962,7 +1984,7 @@
         <v>1300</v>
       </c>
       <c r="K34" t="n">
-        <v>0</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L34" t="n">
         <v>63150</v>
@@ -2013,7 +2035,7 @@
         <v>1350</v>
       </c>
       <c r="K35" t="n">
-        <v>-4.761904761904762</v>
+        <v>-100</v>
       </c>
       <c r="L35" t="n">
         <v>63135</v>
@@ -2064,7 +2086,7 @@
         <v>1450</v>
       </c>
       <c r="K36" t="n">
-        <v>4.347826086956522</v>
+        <v>-20</v>
       </c>
       <c r="L36" t="n">
         <v>63120</v>
@@ -2115,7 +2137,7 @@
         <v>1600</v>
       </c>
       <c r="K37" t="n">
-        <v>-7.692307692307693</v>
+        <v>-42.85714285714285</v>
       </c>
       <c r="L37" t="n">
         <v>63100</v>
@@ -2166,7 +2188,7 @@
         <v>1600</v>
       </c>
       <c r="K38" t="n">
-        <v>-16.66666666666666</v>
+        <v>-42.85714285714285</v>
       </c>
       <c r="L38" t="n">
         <v>63085</v>
@@ -2217,7 +2239,7 @@
         <v>1800</v>
       </c>
       <c r="K39" t="n">
-        <v>-16.66666666666666</v>
+        <v>20</v>
       </c>
       <c r="L39" t="n">
         <v>63090</v>
@@ -2268,7 +2290,7 @@
         <v>1800</v>
       </c>
       <c r="K40" t="n">
-        <v>-9.090909090909092</v>
+        <v>20</v>
       </c>
       <c r="L40" t="n">
         <v>63100</v>
@@ -2319,7 +2341,7 @@
         <v>1800</v>
       </c>
       <c r="K41" t="n">
-        <v>-9.090909090909092</v>
+        <v>20</v>
       </c>
       <c r="L41" t="n">
         <v>63110</v>
@@ -2370,7 +2392,7 @@
         <v>1850</v>
       </c>
       <c r="K42" t="n">
-        <v>4.761904761904762</v>
+        <v>27.27272727272727</v>
       </c>
       <c r="L42" t="n">
         <v>63125</v>
@@ -2421,7 +2443,7 @@
         <v>1850</v>
       </c>
       <c r="K43" t="n">
-        <v>4.761904761904762</v>
+        <v>27.27272727272727</v>
       </c>
       <c r="L43" t="n">
         <v>63140</v>
@@ -2472,7 +2494,7 @@
         <v>1850</v>
       </c>
       <c r="K44" t="n">
-        <v>15.78947368421053</v>
+        <v>40</v>
       </c>
       <c r="L44" t="n">
         <v>63155</v>
@@ -2523,7 +2545,7 @@
         <v>1900</v>
       </c>
       <c r="K45" t="n">
-        <v>11.11111111111111</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L45" t="n">
         <v>63180</v>
@@ -2574,7 +2596,7 @@
         <v>1950</v>
       </c>
       <c r="K46" t="n">
-        <v>5.88235294117647</v>
+        <v>100</v>
       </c>
       <c r="L46" t="n">
         <v>63200</v>
@@ -2625,7 +2647,7 @@
         <v>1950</v>
       </c>
       <c r="K47" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="L47" t="n">
         <v>63235</v>
@@ -2676,7 +2698,7 @@
         <v>2100</v>
       </c>
       <c r="K48" t="n">
-        <v>5.88235294117647</v>
+        <v>0</v>
       </c>
       <c r="L48" t="n">
         <v>63255</v>
@@ -2727,7 +2749,7 @@
         <v>2100</v>
       </c>
       <c r="K49" t="n">
-        <v>5.88235294117647</v>
+        <v>0</v>
       </c>
       <c r="L49" t="n">
         <v>63255</v>
@@ -2778,7 +2800,7 @@
         <v>2100</v>
       </c>
       <c r="K50" t="n">
-        <v>12.5</v>
+        <v>0</v>
       </c>
       <c r="L50" t="n">
         <v>63255</v>
@@ -2835,7 +2857,7 @@
         <v>2200</v>
       </c>
       <c r="K51" t="n">
-        <v>22.22222222222222</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L51" t="n">
         <v>63265</v>
@@ -2894,7 +2916,7 @@
         <v>2300</v>
       </c>
       <c r="K52" t="n">
-        <v>10</v>
+        <v>-11.11111111111111</v>
       </c>
       <c r="L52" t="n">
         <v>63260</v>
@@ -2957,7 +2979,7 @@
         <v>2300</v>
       </c>
       <c r="K53" t="n">
-        <v>10</v>
+        <v>-11.11111111111111</v>
       </c>
       <c r="L53" t="n">
         <v>63255</v>
@@ -3020,7 +3042,7 @@
         <v>2300</v>
       </c>
       <c r="K54" t="n">
-        <v>10</v>
+        <v>-25</v>
       </c>
       <c r="L54" t="n">
         <v>63250</v>
@@ -3083,7 +3105,7 @@
         <v>2400</v>
       </c>
       <c r="K55" t="n">
-        <v>4.761904761904762</v>
+        <v>-55.55555555555556</v>
       </c>
       <c r="L55" t="n">
         <v>63230</v>
@@ -3144,7 +3166,7 @@
         <v>2600</v>
       </c>
       <c r="K56" t="n">
-        <v>13.04347826086956</v>
+        <v>-7.692307692307693</v>
       </c>
       <c r="L56" t="n">
         <v>63225</v>
@@ -3203,7 +3225,7 @@
         <v>2800</v>
       </c>
       <c r="K57" t="n">
-        <v>8.333333333333332</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L57" t="n">
         <v>63200</v>
@@ -3266,7 +3288,7 @@
         <v>2850</v>
       </c>
       <c r="K58" t="n">
-        <v>12</v>
+        <v>-6.666666666666667</v>
       </c>
       <c r="L58" t="n">
         <v>63195</v>
@@ -3329,7 +3351,7 @@
         <v>2900</v>
       </c>
       <c r="K59" t="n">
-        <v>-9.090909090909092</v>
+        <v>-12.5</v>
       </c>
       <c r="L59" t="n">
         <v>63185</v>
@@ -3392,7 +3414,7 @@
         <v>3000</v>
       </c>
       <c r="K60" t="n">
-        <v>-16.66666666666666</v>
+        <v>-37.5</v>
       </c>
       <c r="L60" t="n">
         <v>63165</v>
@@ -3453,7 +3475,7 @@
         <v>3100</v>
       </c>
       <c r="K61" t="n">
-        <v>-7.692307692307693</v>
+        <v>-12.5</v>
       </c>
       <c r="L61" t="n">
         <v>63145</v>
@@ -3512,7 +3534,7 @@
         <v>3150</v>
       </c>
       <c r="K62" t="n">
-        <v>-15.38461538461539</v>
+        <v>-17.64705882352941</v>
       </c>
       <c r="L62" t="n">
         <v>63130</v>
@@ -3575,7 +3597,7 @@
         <v>3150</v>
       </c>
       <c r="K63" t="n">
-        <v>-15.38461538461539</v>
+        <v>-17.64705882352941</v>
       </c>
       <c r="L63" t="n">
         <v>63115</v>
@@ -3636,7 +3658,7 @@
         <v>3150</v>
       </c>
       <c r="K64" t="n">
-        <v>-15.38461538461539</v>
+        <v>-6.666666666666667</v>
       </c>
       <c r="L64" t="n">
         <v>63100</v>
@@ -3695,7 +3717,7 @@
         <v>3300</v>
       </c>
       <c r="K65" t="n">
-        <v>-28.57142857142857</v>
+        <v>-57.14285714285714</v>
       </c>
       <c r="L65" t="n">
         <v>63080</v>
@@ -3758,7 +3780,7 @@
         <v>3350</v>
       </c>
       <c r="K66" t="n">
-        <v>-28.57142857142857</v>
+        <v>-27.27272727272727</v>
       </c>
       <c r="L66" t="n">
         <v>63045</v>
@@ -3821,7 +3843,7 @@
         <v>3400</v>
       </c>
       <c r="K67" t="n">
-        <v>-24.13793103448276</v>
+        <v>-27.27272727272727</v>
       </c>
       <c r="L67" t="n">
         <v>63035</v>
@@ -3882,7 +3904,7 @@
         <v>3450</v>
       </c>
       <c r="K68" t="n">
-        <v>-18.51851851851852</v>
+        <v>-27.27272727272727</v>
       </c>
       <c r="L68" t="n">
         <v>63015</v>
@@ -3943,7 +3965,7 @@
         <v>3450</v>
       </c>
       <c r="K69" t="n">
-        <v>-18.51851851851852</v>
+        <v>-11.11111111111111</v>
       </c>
       <c r="L69" t="n">
         <v>63000</v>
@@ -3994,7 +4016,7 @@
         <v>3500</v>
       </c>
       <c r="K70" t="n">
-        <v>-21.42857142857143</v>
+        <v>-50</v>
       </c>
       <c r="L70" t="n">
         <v>62990</v>
@@ -4045,7 +4067,7 @@
         <v>3500</v>
       </c>
       <c r="K71" t="n">
-        <v>-30.76923076923077</v>
+        <v>-42.85714285714285</v>
       </c>
       <c r="L71" t="n">
         <v>62970</v>
@@ -4096,7 +4118,7 @@
         <v>3500</v>
       </c>
       <c r="K72" t="n">
-        <v>-25</v>
+        <v>-42.85714285714285</v>
       </c>
       <c r="L72" t="n">
         <v>62955</v>
@@ -4147,7 +4169,7 @@
         <v>3500</v>
       </c>
       <c r="K73" t="n">
-        <v>-25</v>
+        <v>-42.85714285714285</v>
       </c>
       <c r="L73" t="n">
         <v>62940</v>
@@ -4198,7 +4220,7 @@
         <v>3500</v>
       </c>
       <c r="K74" t="n">
-        <v>-25</v>
+        <v>0</v>
       </c>
       <c r="L74" t="n">
         <v>62925</v>
@@ -4249,7 +4271,7 @@
         <v>3500</v>
       </c>
       <c r="K75" t="n">
-        <v>-18.18181818181818</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L75" t="n">
         <v>62925</v>
@@ -4300,7 +4322,7 @@
         <v>3500</v>
       </c>
       <c r="K76" t="n">
-        <v>-44.44444444444444</v>
+        <v>-100</v>
       </c>
       <c r="L76" t="n">
         <v>62920</v>
@@ -4351,7 +4373,7 @@
         <v>3600</v>
       </c>
       <c r="K77" t="n">
-        <v>-12.5</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L77" t="n">
         <v>62920</v>
@@ -4402,7 +4424,7 @@
         <v>3700</v>
       </c>
       <c r="K78" t="n">
-        <v>-29.41176470588236</v>
+        <v>-20</v>
       </c>
       <c r="L78" t="n">
         <v>62915</v>
@@ -4453,7 +4475,7 @@
         <v>3700</v>
       </c>
       <c r="K79" t="n">
-        <v>-25</v>
+        <v>0</v>
       </c>
       <c r="L79" t="n">
         <v>62910</v>
@@ -4504,7 +4526,7 @@
         <v>3700</v>
       </c>
       <c r="K80" t="n">
-        <v>-14.28571428571428</v>
+        <v>0</v>
       </c>
       <c r="L80" t="n">
         <v>62910</v>
@@ -4555,7 +4577,7 @@
         <v>3750</v>
       </c>
       <c r="K81" t="n">
-        <v>-23.07692307692308</v>
+        <v>20</v>
       </c>
       <c r="L81" t="n">
         <v>62915</v>
@@ -4606,7 +4628,7 @@
         <v>3850</v>
       </c>
       <c r="K82" t="n">
-        <v>0</v>
+        <v>42.85714285714285</v>
       </c>
       <c r="L82" t="n">
         <v>62930</v>
@@ -4657,7 +4679,7 @@
         <v>3950</v>
       </c>
       <c r="K83" t="n">
-        <v>-12.5</v>
+        <v>11.11111111111111</v>
       </c>
       <c r="L83" t="n">
         <v>62935</v>
@@ -4708,7 +4730,7 @@
         <v>3950</v>
       </c>
       <c r="K84" t="n">
-        <v>-12.5</v>
+        <v>11.11111111111111</v>
       </c>
       <c r="L84" t="n">
         <v>62940</v>
@@ -4759,7 +4781,7 @@
         <v>3950</v>
       </c>
       <c r="K85" t="n">
-        <v>7.692307692307693</v>
+        <v>11.11111111111111</v>
       </c>
       <c r="L85" t="n">
         <v>62945</v>
@@ -4810,7 +4832,7 @@
         <v>4000</v>
       </c>
       <c r="K86" t="n">
-        <v>7.692307692307693</v>
+        <v>0</v>
       </c>
       <c r="L86" t="n">
         <v>62955</v>
@@ -4861,7 +4883,7 @@
         <v>4050</v>
       </c>
       <c r="K87" t="n">
-        <v>-7.692307692307693</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L87" t="n">
         <v>62950</v>
@@ -4912,7 +4934,7 @@
         <v>4050</v>
       </c>
       <c r="K88" t="n">
-        <v>0</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L88" t="n">
         <v>62955</v>
@@ -4963,7 +4985,7 @@
         <v>4050</v>
       </c>
       <c r="K89" t="n">
-        <v>0</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L89" t="n">
         <v>62960</v>
@@ -5014,7 +5036,7 @@
         <v>4050</v>
       </c>
       <c r="K90" t="n">
-        <v>9.090909090909092</v>
+        <v>0</v>
       </c>
       <c r="L90" t="n">
         <v>62965</v>
@@ -5065,7 +5087,7 @@
         <v>4200</v>
       </c>
       <c r="K91" t="n">
-        <v>-14.28571428571428</v>
+        <v>-71.42857142857143</v>
       </c>
       <c r="L91" t="n">
         <v>62950</v>
@@ -5116,7 +5138,7 @@
         <v>4200</v>
       </c>
       <c r="K92" t="n">
-        <v>-14.28571428571428</v>
+        <v>-60</v>
       </c>
       <c r="L92" t="n">
         <v>62925</v>
@@ -5167,7 +5189,7 @@
         <v>4200</v>
       </c>
       <c r="K93" t="n">
-        <v>-14.28571428571428</v>
+        <v>-60</v>
       </c>
       <c r="L93" t="n">
         <v>62910</v>
@@ -5218,7 +5240,7 @@
         <v>4300</v>
       </c>
       <c r="K94" t="n">
-        <v>-25</v>
+        <v>-71.42857142857143</v>
       </c>
       <c r="L94" t="n">
         <v>62885</v>
@@ -5269,7 +5291,7 @@
         <v>4300</v>
       </c>
       <c r="K95" t="n">
-        <v>-25</v>
+        <v>-100</v>
       </c>
       <c r="L95" t="n">
         <v>62860</v>
@@ -5320,7 +5342,7 @@
         <v>4450</v>
       </c>
       <c r="K96" t="n">
-        <v>-5.263157894736842</v>
+        <v>-25</v>
       </c>
       <c r="L96" t="n">
         <v>62845</v>
@@ -5371,7 +5393,7 @@
         <v>4500</v>
       </c>
       <c r="K97" t="n">
-        <v>-22.22222222222222</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L97" t="n">
         <v>62830</v>
@@ -5422,7 +5444,7 @@
         <v>4600</v>
       </c>
       <c r="K98" t="n">
-        <v>-22.22222222222222</v>
+        <v>-45.45454545454545</v>
       </c>
       <c r="L98" t="n">
         <v>62805</v>
@@ -5473,7 +5495,7 @@
         <v>4650</v>
       </c>
       <c r="K99" t="n">
-        <v>-15.78947368421053</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L99" t="n">
         <v>62785</v>
@@ -5524,7 +5546,7 @@
         <v>4650</v>
       </c>
       <c r="K100" t="n">
-        <v>-15.78947368421053</v>
+        <v>-11.11111111111111</v>
       </c>
       <c r="L100" t="n">
         <v>62765</v>
@@ -5575,7 +5597,7 @@
         <v>4800</v>
       </c>
       <c r="K101" t="n">
-        <v>-4.761904761904762</v>
+        <v>16.66666666666666</v>
       </c>
       <c r="L101" t="n">
         <v>62775</v>
@@ -5626,7 +5648,7 @@
         <v>4800</v>
       </c>
       <c r="K102" t="n">
-        <v>-15.78947368421053</v>
+        <v>16.66666666666666</v>
       </c>
       <c r="L102" t="n">
         <v>62785</v>
@@ -5677,7 +5699,7 @@
         <v>4800</v>
       </c>
       <c r="K103" t="n">
-        <v>-5.88235294117647</v>
+        <v>40</v>
       </c>
       <c r="L103" t="n">
         <v>62795</v>
@@ -5728,7 +5750,7 @@
         <v>4850</v>
       </c>
       <c r="K104" t="n">
-        <v>-11.11111111111111</v>
+        <v>27.27272727272727</v>
       </c>
       <c r="L104" t="n">
         <v>62810</v>
@@ -5779,7 +5801,7 @@
         <v>5000</v>
       </c>
       <c r="K105" t="n">
-        <v>4.761904761904762</v>
+        <v>27.27272727272727</v>
       </c>
       <c r="L105" t="n">
         <v>62840</v>
@@ -5830,7 +5852,7 @@
         <v>5100</v>
       </c>
       <c r="K106" t="n">
-        <v>9.090909090909092</v>
+        <v>50</v>
       </c>
       <c r="L106" t="n">
         <v>62865</v>
@@ -5881,7 +5903,7 @@
         <v>5200</v>
       </c>
       <c r="K107" t="n">
-        <v>21.73913043478261</v>
+        <v>83.33333333333334</v>
       </c>
       <c r="L107" t="n">
         <v>62905</v>
@@ -5932,7 +5954,7 @@
         <v>5300</v>
       </c>
       <c r="K108" t="n">
-        <v>28</v>
+        <v>84.61538461538461</v>
       </c>
       <c r="L108" t="n">
         <v>62965</v>
@@ -5983,7 +6005,7 @@
         <v>5300</v>
       </c>
       <c r="K109" t="n">
-        <v>28</v>
+        <v>84.61538461538461</v>
       </c>
       <c r="L109" t="n">
         <v>63020</v>
@@ -6034,7 +6056,7 @@
         <v>5350</v>
       </c>
       <c r="K110" t="n">
-        <v>30.76923076923077</v>
+        <v>81.81818181818183</v>
       </c>
       <c r="L110" t="n">
         <v>63080</v>
@@ -6085,7 +6107,7 @@
         <v>5400</v>
       </c>
       <c r="K111" t="n">
-        <v>41.66666666666667</v>
+        <v>66.66666666666666</v>
       </c>
       <c r="L111" t="n">
         <v>63120</v>
@@ -6136,7 +6158,7 @@
         <v>5400</v>
       </c>
       <c r="K112" t="n">
-        <v>41.66666666666667</v>
+        <v>66.66666666666666</v>
       </c>
       <c r="L112" t="n">
         <v>63160</v>
@@ -6187,7 +6209,7 @@
         <v>5500</v>
       </c>
       <c r="K113" t="n">
-        <v>46.15384615384615</v>
+        <v>84.61538461538461</v>
       </c>
       <c r="L113" t="n">
         <v>63210</v>
@@ -6238,7 +6260,7 @@
         <v>5600</v>
       </c>
       <c r="K114" t="n">
-        <v>61.53846153846154</v>
+        <v>83.33333333333334</v>
       </c>
       <c r="L114" t="n">
         <v>63275</v>
@@ -6289,7 +6311,7 @@
         <v>5650</v>
       </c>
       <c r="K115" t="n">
-        <v>62.96296296296296</v>
+        <v>81.81818181818183</v>
       </c>
       <c r="L115" t="n">
         <v>63330</v>
@@ -6340,7 +6362,7 @@
         <v>5700</v>
       </c>
       <c r="K116" t="n">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="L116" t="n">
         <v>63370</v>
@@ -6391,7 +6413,7 @@
         <v>5800</v>
       </c>
       <c r="K117" t="n">
-        <v>46.15384615384615</v>
+        <v>20</v>
       </c>
       <c r="L117" t="n">
         <v>63390</v>
@@ -6442,7 +6464,7 @@
         <v>5800</v>
       </c>
       <c r="K118" t="n">
-        <v>58.33333333333334</v>
+        <v>20</v>
       </c>
       <c r="L118" t="n">
         <v>63400</v>
@@ -6493,7 +6515,7 @@
         <v>5850</v>
       </c>
       <c r="K119" t="n">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="L119" t="n">
         <v>63405</v>
@@ -6544,7 +6566,7 @@
         <v>6000</v>
       </c>
       <c r="K120" t="n">
-        <v>33.33333333333333</v>
+        <v>-16.66666666666666</v>
       </c>
       <c r="L120" t="n">
         <v>63390</v>
@@ -6595,7 +6617,7 @@
         <v>6050</v>
       </c>
       <c r="K121" t="n">
-        <v>20</v>
+        <v>-23.07692307692308</v>
       </c>
       <c r="L121" t="n">
         <v>63375</v>
@@ -6646,7 +6668,7 @@
         <v>6050</v>
       </c>
       <c r="K122" t="n">
-        <v>20</v>
+        <v>-45.45454545454545</v>
       </c>
       <c r="L122" t="n">
         <v>63360</v>
@@ -6697,7 +6719,7 @@
         <v>6100</v>
       </c>
       <c r="K123" t="n">
-        <v>23.07692307692308</v>
+        <v>-60</v>
       </c>
       <c r="L123" t="n">
         <v>63340</v>
@@ -6748,7 +6770,7 @@
         <v>6200</v>
       </c>
       <c r="K124" t="n">
-        <v>18.51851851851852</v>
+        <v>-81.81818181818183</v>
       </c>
       <c r="L124" t="n">
         <v>63300</v>
@@ -6799,7 +6821,7 @@
         <v>6300</v>
       </c>
       <c r="K125" t="n">
-        <v>0</v>
+        <v>-83.33333333333334</v>
       </c>
       <c r="L125" t="n">
         <v>63245</v>
@@ -6850,7 +6872,7 @@
         <v>6650</v>
       </c>
       <c r="K126" t="n">
-        <v>16.12903225806452</v>
+        <v>-5.88235294117647</v>
       </c>
       <c r="L126" t="n">
         <v>63230</v>
@@ -6901,7 +6923,7 @@
         <v>6800</v>
       </c>
       <c r="K127" t="n">
-        <v>0</v>
+        <v>-20</v>
       </c>
       <c r="L127" t="n">
         <v>63210</v>
@@ -6952,7 +6974,7 @@
         <v>6800</v>
       </c>
       <c r="K128" t="n">
-        <v>-6.666666666666667</v>
+        <v>-15.78947368421053</v>
       </c>
       <c r="L128" t="n">
         <v>63190</v>
@@ -7003,7 +7025,7 @@
         <v>6850</v>
       </c>
       <c r="K129" t="n">
-        <v>-3.225806451612903</v>
+        <v>5.88235294117647</v>
       </c>
       <c r="L129" t="n">
         <v>63180</v>
@@ -7054,7 +7076,7 @@
         <v>6900</v>
       </c>
       <c r="K130" t="n">
-        <v>-9.67741935483871</v>
+        <v>5.88235294117647</v>
       </c>
       <c r="L130" t="n">
         <v>63180</v>
@@ -7105,7 +7127,7 @@
         <v>6900</v>
       </c>
       <c r="K131" t="n">
-        <v>-6.666666666666667</v>
+        <v>5.88235294117647</v>
       </c>
       <c r="L131" t="n">
         <v>63185</v>
@@ -7156,7 +7178,7 @@
         <v>6900</v>
       </c>
       <c r="K132" t="n">
-        <v>-6.666666666666667</v>
+        <v>0</v>
       </c>
       <c r="L132" t="n">
         <v>63190</v>
@@ -7207,7 +7229,7 @@
         <v>6900</v>
       </c>
       <c r="K133" t="n">
-        <v>-14.28571428571428</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L133" t="n">
         <v>63190</v>
@@ -7258,7 +7280,7 @@
         <v>6900</v>
       </c>
       <c r="K134" t="n">
-        <v>-23.07692307692308</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L134" t="n">
         <v>63200</v>
@@ -7309,7 +7331,7 @@
         <v>7000</v>
       </c>
       <c r="K135" t="n">
-        <v>-18.51851851851852</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L135" t="n">
         <v>63230</v>
@@ -7360,7 +7382,7 @@
         <v>7100</v>
       </c>
       <c r="K136" t="n">
-        <v>-21.42857142857143</v>
+        <v>0</v>
       </c>
       <c r="L136" t="n">
         <v>63215</v>
@@ -7411,7 +7433,7 @@
         <v>7100</v>
       </c>
       <c r="K137" t="n">
-        <v>-15.38461538461539</v>
+        <v>0</v>
       </c>
       <c r="L137" t="n">
         <v>63215</v>
@@ -7462,7 +7484,7 @@
         <v>7250</v>
       </c>
       <c r="K138" t="n">
-        <v>-24.13793103448276</v>
+        <v>-50</v>
       </c>
       <c r="L138" t="n">
         <v>63200</v>
@@ -7513,7 +7535,7 @@
         <v>7250</v>
       </c>
       <c r="K139" t="n">
-        <v>-21.42857142857143</v>
+        <v>-42.85714285714285</v>
       </c>
       <c r="L139" t="n">
         <v>63180</v>
@@ -7564,7 +7586,7 @@
         <v>7300</v>
       </c>
       <c r="K140" t="n">
-        <v>-15.38461538461539</v>
+        <v>-50</v>
       </c>
       <c r="L140" t="n">
         <v>63160</v>
@@ -7615,7 +7637,7 @@
         <v>7300</v>
       </c>
       <c r="K141" t="n">
-        <v>-12</v>
+        <v>-50</v>
       </c>
       <c r="L141" t="n">
         <v>63140</v>
@@ -7666,7 +7688,7 @@
         <v>7450</v>
       </c>
       <c r="K142" t="n">
-        <v>0</v>
+        <v>-9.090909090909092</v>
       </c>
       <c r="L142" t="n">
         <v>63135</v>
@@ -7717,7 +7739,7 @@
         <v>7550</v>
       </c>
       <c r="K143" t="n">
-        <v>-10.3448275862069</v>
+        <v>-23.07692307692308</v>
       </c>
       <c r="L143" t="n">
         <v>63120</v>
@@ -7768,7 +7790,7 @@
         <v>7550</v>
       </c>
       <c r="K144" t="n">
-        <v>-3.703703703703703</v>
+        <v>-45.45454545454545</v>
       </c>
       <c r="L144" t="n">
         <v>63105</v>
@@ -7819,7 +7841,7 @@
         <v>7550</v>
       </c>
       <c r="K145" t="n">
-        <v>4</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L145" t="n">
         <v>63080</v>
@@ -7870,7 +7892,7 @@
         <v>7600</v>
       </c>
       <c r="K146" t="n">
-        <v>-36.84210526315789</v>
+        <v>-40</v>
       </c>
       <c r="L146" t="n">
         <v>63060</v>
@@ -7921,7 +7943,7 @@
         <v>7700</v>
       </c>
       <c r="K147" t="n">
-        <v>-11.11111111111111</v>
+        <v>11.11111111111111</v>
       </c>
       <c r="L147" t="n">
         <v>63050</v>
@@ -7972,7 +7994,7 @@
         <v>7800</v>
       </c>
       <c r="K148" t="n">
-        <v>0</v>
+        <v>27.27272727272727</v>
       </c>
       <c r="L148" t="n">
         <v>63065</v>
@@ -8023,7 +8045,7 @@
         <v>7900</v>
       </c>
       <c r="K149" t="n">
-        <v>-14.28571428571428</v>
+        <v>16.66666666666666</v>
       </c>
       <c r="L149" t="n">
         <v>63070</v>
@@ -8074,7 +8096,7 @@
         <v>8000</v>
       </c>
       <c r="K150" t="n">
-        <v>-18.18181818181818</v>
+        <v>0</v>
       </c>
       <c r="L150" t="n">
         <v>63070</v>
@@ -8125,7 +8147,7 @@
         <v>8000</v>
       </c>
       <c r="K151" t="n">
-        <v>-18.18181818181818</v>
+        <v>-27.27272727272727</v>
       </c>
       <c r="L151" t="n">
         <v>63070</v>
@@ -8176,7 +8198,7 @@
         <v>8000</v>
       </c>
       <c r="K152" t="n">
-        <v>-18.18181818181818</v>
+        <v>-11.11111111111111</v>
       </c>
       <c r="L152" t="n">
         <v>63055</v>
@@ -8227,7 +8249,7 @@
         <v>8050</v>
       </c>
       <c r="K153" t="n">
-        <v>-13.04347826086956</v>
+        <v>0</v>
       </c>
       <c r="L153" t="n">
         <v>63055</v>
@@ -8329,7 +8351,7 @@
         <v>8200</v>
       </c>
       <c r="K155" t="n">
-        <v>-33.33333333333333</v>
+        <v>-16.66666666666666</v>
       </c>
       <c r="L155" t="n">
         <v>63025</v>
@@ -8380,7 +8402,7 @@
         <v>8200</v>
       </c>
       <c r="K156" t="n">
-        <v>-27.27272727272727</v>
+        <v>-40</v>
       </c>
       <c r="L156" t="n">
         <v>63015</v>
@@ -8431,7 +8453,7 @@
         <v>8200</v>
       </c>
       <c r="K157" t="n">
-        <v>-27.27272727272727</v>
+        <v>-75</v>
       </c>
       <c r="L157" t="n">
         <v>62995</v>
@@ -8482,7 +8504,7 @@
         <v>8300</v>
       </c>
       <c r="K158" t="n">
-        <v>-4.761904761904762</v>
+        <v>-25</v>
       </c>
       <c r="L158" t="n">
         <v>62975</v>
@@ -8533,7 +8555,7 @@
         <v>8400</v>
       </c>
       <c r="K159" t="n">
-        <v>4.347826086956522</v>
+        <v>25</v>
       </c>
       <c r="L159" t="n">
         <v>62975</v>
@@ -8584,7 +8606,7 @@
         <v>8400</v>
       </c>
       <c r="K160" t="n">
-        <v>9.090909090909092</v>
+        <v>25</v>
       </c>
       <c r="L160" t="n">
         <v>62985</v>
@@ -8635,7 +8657,7 @@
         <v>8450</v>
       </c>
       <c r="K161" t="n">
-        <v>4.347826086956522</v>
+        <v>11.11111111111111</v>
       </c>
       <c r="L161" t="n">
         <v>62990</v>
@@ -8686,7 +8708,7 @@
         <v>8450</v>
       </c>
       <c r="K162" t="n">
-        <v>-10</v>
+        <v>0</v>
       </c>
       <c r="L162" t="n">
         <v>62995</v>
@@ -8737,7 +8759,7 @@
         <v>8500</v>
       </c>
       <c r="K163" t="n">
-        <v>-5.263157894736842</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L163" t="n">
         <v>62990</v>
@@ -8788,7 +8810,7 @@
         <v>8600</v>
       </c>
       <c r="K164" t="n">
-        <v>4.761904761904762</v>
+        <v>50</v>
       </c>
       <c r="L164" t="n">
         <v>63010</v>
@@ -8839,7 +8861,7 @@
         <v>8650</v>
       </c>
       <c r="K165" t="n">
-        <v>0</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L165" t="n">
         <v>63025</v>
@@ -8890,7 +8912,7 @@
         <v>8750</v>
       </c>
       <c r="K166" t="n">
-        <v>-4.347826086956522</v>
+        <v>9.090909090909092</v>
       </c>
       <c r="L166" t="n">
         <v>63030</v>
@@ -8941,7 +8963,7 @@
         <v>8900</v>
       </c>
       <c r="K167" t="n">
-        <v>0</v>
+        <v>16.66666666666666</v>
       </c>
       <c r="L167" t="n">
         <v>63050</v>
@@ -8992,7 +9014,7 @@
         <v>9100</v>
       </c>
       <c r="K168" t="n">
-        <v>-23.07692307692308</v>
+        <v>-28.57142857142857</v>
       </c>
       <c r="L168" t="n">
         <v>63040</v>
@@ -9043,7 +9065,7 @@
         <v>9200</v>
       </c>
       <c r="K169" t="n">
-        <v>-7.692307692307693</v>
+        <v>-12.5</v>
       </c>
       <c r="L169" t="n">
         <v>63030</v>
@@ -9094,7 +9116,7 @@
         <v>9250</v>
       </c>
       <c r="K170" t="n">
-        <v>-4</v>
+        <v>-12.5</v>
       </c>
       <c r="L170" t="n">
         <v>63015</v>
@@ -9145,7 +9167,7 @@
         <v>9250</v>
       </c>
       <c r="K171" t="n">
-        <v>-4</v>
+        <v>-12.5</v>
       </c>
       <c r="L171" t="n">
         <v>63005</v>
@@ -9196,7 +9218,7 @@
         <v>9250</v>
       </c>
       <c r="K172" t="n">
-        <v>-4</v>
+        <v>-6.666666666666667</v>
       </c>
       <c r="L172" t="n">
         <v>62995</v>
@@ -9247,7 +9269,7 @@
         <v>9250</v>
       </c>
       <c r="K173" t="n">
-        <v>-8.333333333333332</v>
+        <v>-23.07692307692308</v>
       </c>
       <c r="L173" t="n">
         <v>62990</v>
@@ -9298,7 +9320,7 @@
         <v>9300</v>
       </c>
       <c r="K174" t="n">
-        <v>9.090909090909092</v>
+        <v>-7.692307692307693</v>
       </c>
       <c r="L174" t="n">
         <v>62980</v>
@@ -9400,7 +9422,7 @@
         <v>9400</v>
       </c>
       <c r="K176" t="n">
-        <v>0</v>
+        <v>-40</v>
       </c>
       <c r="L176" t="n">
         <v>62970</v>
@@ -9451,7 +9473,7 @@
         <v>9500</v>
       </c>
       <c r="K177" t="n">
-        <v>-7.692307692307693</v>
+        <v>-25</v>
       </c>
       <c r="L177" t="n">
         <v>62940</v>
@@ -9502,7 +9524,7 @@
         <v>9500</v>
       </c>
       <c r="K178" t="n">
-        <v>-16.66666666666666</v>
+        <v>-66.66666666666666</v>
       </c>
       <c r="L178" t="n">
         <v>62930</v>
@@ -9553,7 +9575,7 @@
         <v>9500</v>
       </c>
       <c r="K179" t="n">
-        <v>-27.27272727272727</v>
+        <v>-60</v>
       </c>
       <c r="L179" t="n">
         <v>62910</v>
@@ -9604,7 +9626,7 @@
         <v>9600</v>
       </c>
       <c r="K180" t="n">
-        <v>-16.66666666666666</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L180" t="n">
         <v>62905</v>
@@ -9655,7 +9677,7 @@
         <v>9600</v>
       </c>
       <c r="K181" t="n">
-        <v>-13.04347826086956</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L181" t="n">
         <v>62900</v>
@@ -9706,7 +9728,7 @@
         <v>9750</v>
       </c>
       <c r="K182" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="L182" t="n">
         <v>62910</v>
@@ -9757,7 +9779,7 @@
         <v>9800</v>
       </c>
       <c r="K183" t="n">
-        <v>7.692307692307693</v>
+        <v>20</v>
       </c>
       <c r="L183" t="n">
         <v>62925</v>
@@ -9808,7 +9830,7 @@
         <v>9900</v>
       </c>
       <c r="K184" t="n">
-        <v>7.692307692307693</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L184" t="n">
         <v>62945</v>
@@ -9859,7 +9881,7 @@
         <v>9950</v>
       </c>
       <c r="K185" t="n">
-        <v>15.38461538461539</v>
+        <v>63.63636363636363</v>
       </c>
       <c r="L185" t="n">
         <v>62970</v>
@@ -9910,7 +9932,7 @@
         <v>10000</v>
       </c>
       <c r="K186" t="n">
-        <v>28</v>
+        <v>100</v>
       </c>
       <c r="L186" t="n">
         <v>63010</v>
@@ -9961,7 +9983,7 @@
         <v>10000</v>
       </c>
       <c r="K187" t="n">
-        <v>18.18181818181818</v>
+        <v>100</v>
       </c>
       <c r="L187" t="n">
         <v>63060</v>
@@ -10012,7 +10034,7 @@
         <v>10000</v>
       </c>
       <c r="K188" t="n">
-        <v>44.44444444444444</v>
+        <v>100</v>
       </c>
       <c r="L188" t="n">
         <v>63110</v>
@@ -10063,7 +10085,7 @@
         <v>10000</v>
       </c>
       <c r="K189" t="n">
-        <v>37.5</v>
+        <v>100</v>
       </c>
       <c r="L189" t="n">
         <v>63160</v>
@@ -10114,7 +10136,7 @@
         <v>10000</v>
       </c>
       <c r="K190" t="n">
-        <v>46.66666666666666</v>
+        <v>100</v>
       </c>
       <c r="L190" t="n">
         <v>63200</v>
@@ -10165,7 +10187,7 @@
         <v>10100</v>
       </c>
       <c r="K191" t="n">
-        <v>29.41176470588236</v>
+        <v>42.85714285714285</v>
       </c>
       <c r="L191" t="n">
         <v>63230</v>
@@ -10216,7 +10238,7 @@
         <v>10150</v>
       </c>
       <c r="K192" t="n">
-        <v>33.33333333333333</v>
+        <v>42.85714285714285</v>
       </c>
       <c r="L192" t="n">
         <v>63250</v>
@@ -10267,7 +10289,7 @@
         <v>10150</v>
       </c>
       <c r="K193" t="n">
-        <v>33.33333333333333</v>
+        <v>20</v>
       </c>
       <c r="L193" t="n">
         <v>63265</v>
@@ -10318,7 +10340,7 @@
         <v>10200</v>
       </c>
       <c r="K194" t="n">
-        <v>33.33333333333333</v>
+        <v>20</v>
       </c>
       <c r="L194" t="n">
         <v>63275</v>
@@ -10369,7 +10391,7 @@
         <v>10200</v>
       </c>
       <c r="K195" t="n">
-        <v>33.33333333333333</v>
+        <v>0</v>
       </c>
       <c r="L195" t="n">
         <v>63280</v>
@@ -10420,7 +10442,7 @@
         <v>10200</v>
       </c>
       <c r="K196" t="n">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="L196" t="n">
         <v>63280</v>
@@ -10471,7 +10493,7 @@
         <v>10250</v>
       </c>
       <c r="K197" t="n">
-        <v>73.33333333333333</v>
+        <v>20</v>
       </c>
       <c r="L197" t="n">
         <v>63285</v>
@@ -10522,7 +10544,7 @@
         <v>10400</v>
       </c>
       <c r="K198" t="n">
-        <v>44.44444444444444</v>
+        <v>-25</v>
       </c>
       <c r="L198" t="n">
         <v>63275</v>
@@ -10573,7 +10595,7 @@
         <v>10500</v>
       </c>
       <c r="K199" t="n">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="L199" t="n">
         <v>63275</v>
@@ -10624,7 +10646,7 @@
         <v>10500</v>
       </c>
       <c r="K200" t="n">
-        <v>44.44444444444444</v>
+        <v>25</v>
       </c>
       <c r="L200" t="n">
         <v>63275</v>
@@ -10675,7 +10697,7 @@
         <v>10550</v>
       </c>
       <c r="K201" t="n">
-        <v>47.36842105263158</v>
+        <v>25</v>
       </c>
       <c r="L201" t="n">
         <v>63290</v>
@@ -10726,7 +10748,7 @@
         <v>10700</v>
       </c>
       <c r="K202" t="n">
-        <v>15.78947368421053</v>
+        <v>-9.090909090909092</v>
       </c>
       <c r="L202" t="n">
         <v>63285</v>
@@ -10777,7 +10799,7 @@
         <v>10700</v>
       </c>
       <c r="K203" t="n">
-        <v>11.11111111111111</v>
+        <v>-20</v>
       </c>
       <c r="L203" t="n">
         <v>63280</v>
@@ -10828,7 +10850,7 @@
         <v>10800</v>
       </c>
       <c r="K204" t="n">
-        <v>-11.11111111111111</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L204" t="n">
         <v>63260</v>
@@ -10879,7 +10901,7 @@
         <v>10800</v>
       </c>
       <c r="K205" t="n">
-        <v>-17.64705882352941</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L205" t="n">
         <v>63240</v>
@@ -10930,7 +10952,7 @@
         <v>10900</v>
       </c>
       <c r="K206" t="n">
-        <v>-11.11111111111111</v>
+        <v>-23.07692307692308</v>
       </c>
       <c r="L206" t="n">
         <v>63230</v>
@@ -10981,7 +11003,7 @@
         <v>10900</v>
       </c>
       <c r="K207" t="n">
-        <v>-11.11111111111111</v>
+        <v>0</v>
       </c>
       <c r="L207" t="n">
         <v>63215</v>
@@ -11032,7 +11054,7 @@
         <v>10900</v>
       </c>
       <c r="K208" t="n">
-        <v>-11.11111111111111</v>
+        <v>-25</v>
       </c>
       <c r="L208" t="n">
         <v>63215</v>
@@ -11083,7 +11105,7 @@
         <v>10900</v>
       </c>
       <c r="K209" t="n">
-        <v>-11.11111111111111</v>
+        <v>-25</v>
       </c>
       <c r="L209" t="n">
         <v>63205</v>
@@ -11134,7 +11156,7 @@
         <v>10900</v>
       </c>
       <c r="K210" t="n">
-        <v>-11.11111111111111</v>
+        <v>-42.85714285714285</v>
       </c>
       <c r="L210" t="n">
         <v>63195</v>
@@ -11236,7 +11258,7 @@
         <v>10900</v>
       </c>
       <c r="K212" t="n">
-        <v>-6.666666666666667</v>
+        <v>0</v>
       </c>
       <c r="L212" t="n">
         <v>63180</v>
@@ -11287,7 +11309,7 @@
         <v>11000</v>
       </c>
       <c r="K213" t="n">
-        <v>5.88235294117647</v>
+        <v>100</v>
       </c>
       <c r="L213" t="n">
         <v>63190</v>
@@ -11338,7 +11360,7 @@
         <v>11000</v>
       </c>
       <c r="K214" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L214" t="n">
         <v>63210</v>
@@ -11389,7 +11411,7 @@
         <v>11100</v>
       </c>
       <c r="K215" t="n">
-        <v>-11.11111111111111</v>
+        <v>0</v>
       </c>
       <c r="L215" t="n">
         <v>63220</v>
@@ -11440,7 +11462,7 @@
         <v>11200</v>
       </c>
       <c r="K216" t="n">
-        <v>0</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L216" t="n">
         <v>63230</v>
@@ -11491,7 +11513,7 @@
         <v>11250</v>
       </c>
       <c r="K217" t="n">
-        <v>0</v>
+        <v>42.85714285714285</v>
       </c>
       <c r="L217" t="n">
         <v>63245</v>
@@ -11593,7 +11615,7 @@
         <v>11400</v>
       </c>
       <c r="K219" t="n">
-        <v>-11.11111111111111</v>
+        <v>0</v>
       </c>
       <c r="L219" t="n">
         <v>63245</v>
@@ -11644,7 +11666,7 @@
         <v>11550</v>
       </c>
       <c r="K220" t="n">
-        <v>4.761904761904762</v>
+        <v>23.07692307692308</v>
       </c>
       <c r="L220" t="n">
         <v>63260</v>
@@ -11695,7 +11717,7 @@
         <v>11650</v>
       </c>
       <c r="K221" t="n">
-        <v>-9.090909090909092</v>
+        <v>6.666666666666667</v>
       </c>
       <c r="L221" t="n">
         <v>63265</v>
@@ -11746,7 +11768,7 @@
         <v>11700</v>
       </c>
       <c r="K222" t="n">
-        <v>0</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L222" t="n">
         <v>63265</v>
@@ -11797,7 +11819,7 @@
         <v>11700</v>
       </c>
       <c r="K223" t="n">
-        <v>0</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L223" t="n">
         <v>63255</v>
@@ -11848,7 +11870,7 @@
         <v>11850</v>
       </c>
       <c r="K224" t="n">
-        <v>-4.761904761904762</v>
+        <v>-20</v>
       </c>
       <c r="L224" t="n">
         <v>63230</v>
@@ -11899,7 +11921,7 @@
         <v>11900</v>
       </c>
       <c r="K225" t="n">
-        <v>-9.090909090909092</v>
+        <v>-42.85714285714285</v>
       </c>
       <c r="L225" t="n">
         <v>63210</v>
@@ -11950,7 +11972,7 @@
         <v>11900</v>
       </c>
       <c r="K226" t="n">
-        <v>-20</v>
+        <v>-53.84615384615385</v>
       </c>
       <c r="L226" t="n">
         <v>63180</v>
@@ -12052,7 +12074,7 @@
         <v>12200</v>
       </c>
       <c r="K228" t="n">
-        <v>-7.692307692307693</v>
+        <v>-12.5</v>
       </c>
       <c r="L228" t="n">
         <v>63155</v>
@@ -12103,7 +12125,7 @@
         <v>12300</v>
       </c>
       <c r="K229" t="n">
-        <v>-14.28571428571428</v>
+        <v>-46.66666666666666</v>
       </c>
       <c r="L229" t="n">
         <v>63135</v>
@@ -12154,7 +12176,7 @@
         <v>12300</v>
       </c>
       <c r="K230" t="n">
-        <v>-14.28571428571428</v>
+        <v>-38.46153846153847</v>
       </c>
       <c r="L230" t="n">
         <v>63100</v>
@@ -12205,7 +12227,7 @@
         <v>12350</v>
       </c>
       <c r="K231" t="n">
-        <v>-10.3448275862069</v>
+        <v>-23.07692307692308</v>
       </c>
       <c r="L231" t="n">
         <v>63080</v>
@@ -12256,7 +12278,7 @@
         <v>12400</v>
       </c>
       <c r="K232" t="n">
-        <v>-6.666666666666667</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L232" t="n">
         <v>63070</v>
@@ -12307,7 +12329,7 @@
         <v>12400</v>
       </c>
       <c r="K233" t="n">
-        <v>-14.28571428571428</v>
+        <v>9.090909090909092</v>
       </c>
       <c r="L233" t="n">
         <v>63060</v>
@@ -12358,7 +12380,7 @@
         <v>12400</v>
       </c>
       <c r="K234" t="n">
-        <v>-14.28571428571428</v>
+        <v>20</v>
       </c>
       <c r="L234" t="n">
         <v>63065</v>
@@ -12409,7 +12431,7 @@
         <v>12500</v>
       </c>
       <c r="K235" t="n">
-        <v>0</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L235" t="n">
         <v>63085</v>
@@ -12460,7 +12482,7 @@
         <v>12500</v>
       </c>
       <c r="K236" t="n">
-        <v>-7.692307692307693</v>
+        <v>0</v>
       </c>
       <c r="L236" t="n">
         <v>63105</v>
@@ -12511,7 +12533,7 @@
         <v>12550</v>
       </c>
       <c r="K237" t="n">
-        <v>-15.38461538461539</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L237" t="n">
         <v>63100</v>
@@ -12562,7 +12584,7 @@
         <v>12600</v>
       </c>
       <c r="K238" t="n">
-        <v>0</v>
+        <v>66.66666666666666</v>
       </c>
       <c r="L238" t="n">
         <v>63110</v>
@@ -12613,7 +12635,7 @@
         <v>12600</v>
       </c>
       <c r="K239" t="n">
-        <v>0</v>
+        <v>66.66666666666666</v>
       </c>
       <c r="L239" t="n">
         <v>63130</v>
@@ -12664,7 +12686,7 @@
         <v>12750</v>
       </c>
       <c r="K240" t="n">
-        <v>-25</v>
+        <v>0</v>
       </c>
       <c r="L240" t="n">
         <v>63135</v>
@@ -12715,7 +12737,7 @@
         <v>12750</v>
       </c>
       <c r="K241" t="n">
-        <v>-18.18181818181818</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L241" t="n">
         <v>63135</v>
@@ -12817,7 +12839,7 @@
         <v>12800</v>
       </c>
       <c r="K243" t="n">
-        <v>-18.18181818181818</v>
+        <v>-25</v>
       </c>
       <c r="L243" t="n">
         <v>63120</v>
@@ -12868,7 +12890,7 @@
         <v>12900</v>
       </c>
       <c r="K244" t="n">
-        <v>4.761904761904762</v>
+        <v>-25</v>
       </c>
       <c r="L244" t="n">
         <v>63120</v>
@@ -12919,7 +12941,7 @@
         <v>12900</v>
       </c>
       <c r="K245" t="n">
-        <v>10</v>
+        <v>-25</v>
       </c>
       <c r="L245" t="n">
         <v>63110</v>
@@ -12970,7 +12992,7 @@
         <v>12900</v>
       </c>
       <c r="K246" t="n">
-        <v>10</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L246" t="n">
         <v>63100</v>
@@ -13021,7 +13043,7 @@
         <v>12950</v>
       </c>
       <c r="K247" t="n">
-        <v>-5.88235294117647</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L247" t="n">
         <v>63100</v>
@@ -13072,7 +13094,7 @@
         <v>12950</v>
       </c>
       <c r="K248" t="n">
-        <v>6.666666666666667</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L248" t="n">
         <v>63095</v>
@@ -13123,7 +13145,7 @@
         <v>13100</v>
       </c>
       <c r="K249" t="n">
-        <v>0</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L249" t="n">
         <v>63075</v>
@@ -13174,7 +13196,7 @@
         <v>13350</v>
       </c>
       <c r="K250" t="n">
-        <v>-23.80952380952381</v>
+        <v>-50</v>
       </c>
       <c r="L250" t="n">
         <v>63045</v>
@@ -13225,7 +13247,7 @@
         <v>13600</v>
       </c>
       <c r="K251" t="n">
-        <v>-44</v>
+        <v>-64.70588235294117</v>
       </c>
       <c r="L251" t="n">
         <v>62990</v>
@@ -13276,7 +13298,7 @@
         <v>13700</v>
       </c>
       <c r="K252" t="n">
-        <v>-38.46153846153847</v>
+        <v>-44.44444444444444</v>
       </c>
       <c r="L252" t="n">
         <v>62945</v>
@@ -13327,7 +13349,7 @@
         <v>13850</v>
       </c>
       <c r="K253" t="n">
-        <v>-24.13793103448276</v>
+        <v>-36.84210526315789</v>
       </c>
       <c r="L253" t="n">
         <v>62920</v>
@@ -13378,7 +13400,7 @@
         <v>13900</v>
       </c>
       <c r="K254" t="n">
-        <v>-26.66666666666667</v>
+        <v>-40</v>
       </c>
       <c r="L254" t="n">
         <v>62880</v>
@@ -13429,7 +13451,7 @@
         <v>14000</v>
       </c>
       <c r="K255" t="n">
-        <v>-26.66666666666667</v>
+        <v>-27.27272727272727</v>
       </c>
       <c r="L255" t="n">
         <v>62850</v>
@@ -13480,7 +13502,7 @@
         <v>14000</v>
       </c>
       <c r="K256" t="n">
-        <v>-26.66666666666667</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L256" t="n">
         <v>62820</v>
@@ -13531,7 +13553,7 @@
         <v>14100</v>
       </c>
       <c r="K257" t="n">
-        <v>-29.03225806451613</v>
+        <v>-39.1304347826087</v>
       </c>
       <c r="L257" t="n">
         <v>62775</v>
@@ -13582,7 +13604,7 @@
         <v>14100</v>
       </c>
       <c r="K258" t="n">
-        <v>-33.33333333333333</v>
+        <v>-30</v>
       </c>
       <c r="L258" t="n">
         <v>62730</v>
@@ -13633,7 +13655,7 @@
         <v>14200</v>
       </c>
       <c r="K259" t="n">
-        <v>-25</v>
+        <v>5.88235294117647</v>
       </c>
       <c r="L259" t="n">
         <v>62710</v>
@@ -13684,7 +13706,7 @@
         <v>14350</v>
       </c>
       <c r="K260" t="n">
-        <v>-6.25</v>
+        <v>60</v>
       </c>
       <c r="L260" t="n">
         <v>62730</v>
@@ -13735,7 +13757,7 @@
         <v>14400</v>
       </c>
       <c r="K261" t="n">
-        <v>-9.090909090909092</v>
+        <v>42.85714285714285</v>
       </c>
       <c r="L261" t="n">
         <v>62770</v>
@@ -13786,7 +13808,7 @@
         <v>14400</v>
       </c>
       <c r="K262" t="n">
-        <v>-9.090909090909092</v>
+        <v>27.27272727272727</v>
       </c>
       <c r="L262" t="n">
         <v>62800</v>
@@ -13837,7 +13859,7 @@
         <v>14400</v>
       </c>
       <c r="K263" t="n">
-        <v>-6.25</v>
+        <v>40</v>
       </c>
       <c r="L263" t="n">
         <v>62815</v>
@@ -13888,7 +13910,7 @@
         <v>14400</v>
       </c>
       <c r="K264" t="n">
-        <v>-13.33333333333333</v>
+        <v>25</v>
       </c>
       <c r="L264" t="n">
         <v>62835</v>
@@ -13939,7 +13961,7 @@
         <v>14550</v>
       </c>
       <c r="K265" t="n">
-        <v>-21.21212121212121</v>
+        <v>-9.090909090909092</v>
       </c>
       <c r="L265" t="n">
         <v>62830</v>
@@ -13990,7 +14012,7 @@
         <v>14700</v>
       </c>
       <c r="K266" t="n">
-        <v>-11.11111111111111</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L266" t="n">
         <v>62840</v>
@@ -14041,7 +14063,7 @@
         <v>15300</v>
       </c>
       <c r="K267" t="n">
-        <v>14.8936170212766</v>
+        <v>66.66666666666666</v>
       </c>
       <c r="L267" t="n">
         <v>62920</v>
@@ -14092,7 +14114,7 @@
         <v>15300</v>
       </c>
       <c r="K268" t="n">
-        <v>14.8936170212766</v>
+        <v>63.63636363636363</v>
       </c>
       <c r="L268" t="n">
         <v>63000</v>
@@ -14143,7 +14165,7 @@
         <v>15400</v>
       </c>
       <c r="K269" t="n">
-        <v>17.39130434782609</v>
+        <v>42.85714285714285</v>
       </c>
       <c r="L269" t="n">
         <v>63060</v>
@@ -14194,7 +14216,7 @@
         <v>15600</v>
       </c>
       <c r="K270" t="n">
-        <v>37.77777777777778</v>
+        <v>58.33333333333334</v>
       </c>
       <c r="L270" t="n">
         <v>63125</v>
@@ -14245,7 +14267,7 @@
         <v>15600</v>
       </c>
       <c r="K271" t="n">
-        <v>55.00000000000001</v>
+        <v>58.33333333333334</v>
       </c>
       <c r="L271" t="n">
         <v>63195</v>
@@ -14296,7 +14318,7 @@
         <v>15700</v>
       </c>
       <c r="K272" t="n">
-        <v>45</v>
+        <v>46.15384615384615</v>
       </c>
       <c r="L272" t="n">
         <v>63255</v>
@@ -14347,7 +14369,7 @@
         <v>15850</v>
       </c>
       <c r="K273" t="n">
-        <v>30</v>
+        <v>31.03448275862069</v>
       </c>
       <c r="L273" t="n">
         <v>63300</v>
@@ -14398,7 +14420,7 @@
         <v>15900</v>
       </c>
       <c r="K274" t="n">
-        <v>30</v>
+        <v>40.74074074074074</v>
       </c>
       <c r="L274" t="n">
         <v>63340</v>
@@ -14449,7 +14471,7 @@
         <v>16100</v>
       </c>
       <c r="K275" t="n">
-        <v>33.33333333333333</v>
+        <v>42.85714285714285</v>
       </c>
       <c r="L275" t="n">
         <v>63415</v>
@@ -14500,7 +14522,7 @@
         <v>16200</v>
       </c>
       <c r="K276" t="n">
-        <v>36.36363636363637</v>
+        <v>11.11111111111111</v>
       </c>
       <c r="L276" t="n">
         <v>63485</v>
@@ -14551,7 +14573,7 @@
         <v>16200</v>
       </c>
       <c r="K277" t="n">
-        <v>42.85714285714285</v>
+        <v>11.11111111111111</v>
       </c>
       <c r="L277" t="n">
         <v>63495</v>
@@ -14602,7 +14624,7 @@
         <v>16250</v>
       </c>
       <c r="K278" t="n">
-        <v>39.53488372093023</v>
+        <v>17.64705882352941</v>
       </c>
       <c r="L278" t="n">
         <v>63500</v>
@@ -14653,7 +14675,7 @@
         <v>16300</v>
       </c>
       <c r="K279" t="n">
-        <v>33.33333333333333</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L279" t="n">
         <v>63510</v>
@@ -14704,7 +14726,7 @@
         <v>16300</v>
       </c>
       <c r="K280" t="n">
-        <v>28.2051282051282</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L280" t="n">
         <v>63500</v>

--- a/BackTest/2019-10-19 BackTest LTC.xlsx
+++ b/BackTest/2019-10-19 BackTest LTC.xlsx
@@ -1154,7 +1154,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr"/>
@@ -3706,17 +3706,13 @@
         <v>63036.66666666666</v>
       </c>
       <c r="H95" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I95" t="n">
         <v>0</v>
       </c>
-      <c r="J95" t="n">
-        <v>62700</v>
-      </c>
-      <c r="K95" t="n">
-        <v>62700</v>
-      </c>
+      <c r="J95" t="inlineStr"/>
+      <c r="K95" t="inlineStr"/>
       <c r="L95" t="inlineStr"/>
       <c r="M95" t="n">
         <v>1</v>
@@ -3751,16 +3747,12 @@
         <v>0</v>
       </c>
       <c r="J96" t="n">
-        <v>62850</v>
+        <v>62700</v>
       </c>
       <c r="K96" t="n">
         <v>62700</v>
       </c>
-      <c r="L96" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="L96" t="inlineStr"/>
       <c r="M96" t="n">
         <v>1</v>
       </c>
@@ -3794,7 +3786,7 @@
         <v>0</v>
       </c>
       <c r="J97" t="n">
-        <v>62800</v>
+        <v>62850</v>
       </c>
       <c r="K97" t="n">
         <v>62700</v>
@@ -3837,12 +3829,16 @@
         <v>0</v>
       </c>
       <c r="J98" t="n">
-        <v>62700</v>
+        <v>62800</v>
       </c>
       <c r="K98" t="n">
         <v>62700</v>
       </c>
-      <c r="L98" t="inlineStr"/>
+      <c r="L98" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M98" t="n">
         <v>1</v>
       </c>
@@ -3876,16 +3872,12 @@
         <v>0</v>
       </c>
       <c r="J99" t="n">
-        <v>62750</v>
+        <v>62700</v>
       </c>
       <c r="K99" t="n">
         <v>62700</v>
       </c>
-      <c r="L99" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="L99" t="inlineStr"/>
       <c r="M99" t="n">
         <v>1</v>
       </c>
@@ -3919,7 +3911,7 @@
         <v>0</v>
       </c>
       <c r="J100" t="n">
-        <v>62850</v>
+        <v>62750</v>
       </c>
       <c r="K100" t="n">
         <v>62700</v>
@@ -3962,12 +3954,16 @@
         <v>0</v>
       </c>
       <c r="J101" t="n">
-        <v>62900</v>
+        <v>62750</v>
       </c>
       <c r="K101" t="n">
-        <v>62900</v>
-      </c>
-      <c r="L101" t="inlineStr"/>
+        <v>62700</v>
+      </c>
+      <c r="L101" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M101" t="n">
         <v>1</v>
       </c>
@@ -4006,11 +4002,7 @@
       <c r="K102" t="n">
         <v>62900</v>
       </c>
-      <c r="L102" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="L102" t="inlineStr"/>
       <c r="M102" t="n">
         <v>1</v>
       </c>
@@ -4081,18 +4073,20 @@
         <v>62985</v>
       </c>
       <c r="H104" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I104" t="n">
         <v>0</v>
       </c>
-      <c r="J104" t="n">
-        <v>62850</v>
-      </c>
+      <c r="J104" t="inlineStr"/>
       <c r="K104" t="n">
-        <v>62850</v>
-      </c>
-      <c r="L104" t="inlineStr"/>
+        <v>62900</v>
+      </c>
+      <c r="L104" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M104" t="n">
         <v>1</v>
       </c>
@@ -4120,22 +4114,14 @@
         <v>62980</v>
       </c>
       <c r="H105" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I105" t="n">
         <v>0</v>
       </c>
-      <c r="J105" t="n">
-        <v>62900</v>
-      </c>
-      <c r="K105" t="n">
-        <v>62850</v>
-      </c>
-      <c r="L105" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J105" t="inlineStr"/>
+      <c r="K105" t="inlineStr"/>
+      <c r="L105" t="inlineStr"/>
       <c r="M105" t="n">
         <v>1</v>
       </c>
@@ -4163,22 +4149,14 @@
         <v>62975.83333333334</v>
       </c>
       <c r="H106" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I106" t="n">
         <v>0</v>
       </c>
-      <c r="J106" t="n">
-        <v>63100</v>
-      </c>
-      <c r="K106" t="n">
-        <v>62850</v>
-      </c>
-      <c r="L106" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J106" t="inlineStr"/>
+      <c r="K106" t="inlineStr"/>
+      <c r="L106" t="inlineStr"/>
       <c r="M106" t="n">
         <v>1</v>
       </c>
@@ -4206,22 +4184,14 @@
         <v>62973.33333333334</v>
       </c>
       <c r="H107" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I107" t="n">
         <v>0</v>
       </c>
-      <c r="J107" t="n">
-        <v>63200</v>
-      </c>
-      <c r="K107" t="n">
-        <v>62850</v>
-      </c>
-      <c r="L107" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="J107" t="inlineStr"/>
+      <c r="K107" t="inlineStr"/>
+      <c r="L107" t="inlineStr"/>
       <c r="M107" t="n">
         <v>1</v>
       </c>
@@ -4255,14 +4225,8 @@
         <v>0</v>
       </c>
       <c r="J108" t="inlineStr"/>
-      <c r="K108" t="n">
-        <v>62850</v>
-      </c>
-      <c r="L108" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K108" t="inlineStr"/>
+      <c r="L108" t="inlineStr"/>
       <c r="M108" t="n">
         <v>1</v>
       </c>
@@ -4296,14 +4260,8 @@
         <v>0</v>
       </c>
       <c r="J109" t="inlineStr"/>
-      <c r="K109" t="n">
-        <v>62850</v>
-      </c>
-      <c r="L109" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K109" t="inlineStr"/>
+      <c r="L109" t="inlineStr"/>
       <c r="M109" t="n">
         <v>1</v>
       </c>
@@ -4337,14 +4295,8 @@
         <v>0</v>
       </c>
       <c r="J110" t="inlineStr"/>
-      <c r="K110" t="n">
-        <v>62850</v>
-      </c>
-      <c r="L110" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K110" t="inlineStr"/>
+      <c r="L110" t="inlineStr"/>
       <c r="M110" t="n">
         <v>1</v>
       </c>
@@ -4378,14 +4330,8 @@
         <v>0</v>
       </c>
       <c r="J111" t="inlineStr"/>
-      <c r="K111" t="n">
-        <v>62850</v>
-      </c>
-      <c r="L111" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K111" t="inlineStr"/>
+      <c r="L111" t="inlineStr"/>
       <c r="M111" t="n">
         <v>1</v>
       </c>
@@ -4419,14 +4365,8 @@
         <v>0</v>
       </c>
       <c r="J112" t="inlineStr"/>
-      <c r="K112" t="n">
-        <v>62850</v>
-      </c>
-      <c r="L112" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K112" t="inlineStr"/>
+      <c r="L112" t="inlineStr"/>
       <c r="M112" t="n">
         <v>1</v>
       </c>
@@ -4460,14 +4400,8 @@
         <v>0</v>
       </c>
       <c r="J113" t="inlineStr"/>
-      <c r="K113" t="n">
-        <v>62850</v>
-      </c>
-      <c r="L113" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K113" t="inlineStr"/>
+      <c r="L113" t="inlineStr"/>
       <c r="M113" t="n">
         <v>1</v>
       </c>
@@ -4498,17 +4432,11 @@
         <v>0</v>
       </c>
       <c r="I114" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J114" t="inlineStr"/>
-      <c r="K114" t="n">
-        <v>62850</v>
-      </c>
-      <c r="L114" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K114" t="inlineStr"/>
+      <c r="L114" t="inlineStr"/>
       <c r="M114" t="n">
         <v>1</v>
       </c>
@@ -4542,14 +4470,8 @@
         <v>0</v>
       </c>
       <c r="J115" t="inlineStr"/>
-      <c r="K115" t="n">
-        <v>62850</v>
-      </c>
-      <c r="L115" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K115" t="inlineStr"/>
+      <c r="L115" t="inlineStr"/>
       <c r="M115" t="n">
         <v>1</v>
       </c>
@@ -4583,14 +4505,8 @@
         <v>0</v>
       </c>
       <c r="J116" t="inlineStr"/>
-      <c r="K116" t="n">
-        <v>62850</v>
-      </c>
-      <c r="L116" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K116" t="inlineStr"/>
+      <c r="L116" t="inlineStr"/>
       <c r="M116" t="n">
         <v>1</v>
       </c>
@@ -4624,14 +4540,8 @@
         <v>0</v>
       </c>
       <c r="J117" t="inlineStr"/>
-      <c r="K117" t="n">
-        <v>62850</v>
-      </c>
-      <c r="L117" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K117" t="inlineStr"/>
+      <c r="L117" t="inlineStr"/>
       <c r="M117" t="n">
         <v>1</v>
       </c>
@@ -4662,19 +4572,13 @@
         <v>0</v>
       </c>
       <c r="I118" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J118" t="inlineStr"/>
-      <c r="K118" t="n">
-        <v>62850</v>
-      </c>
-      <c r="L118" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
+      <c r="K118" t="inlineStr"/>
+      <c r="L118" t="inlineStr"/>
       <c r="M118" t="n">
-        <v>1.003750994431186</v>
+        <v>1</v>
       </c>
     </row>
     <row r="119">

--- a/BackTest/2019-10-19 BackTest LTC.xlsx
+++ b/BackTest/2019-10-19 BackTest LTC.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M259"/>
+  <dimension ref="A1:M260"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -433,7 +433,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>62950</v>
+        <v>63000</v>
       </c>
       <c r="C2" t="n">
         <v>63000</v>
@@ -442,13 +442,13 @@
         <v>63000</v>
       </c>
       <c r="E2" t="n">
-        <v>62950</v>
+        <v>63000</v>
       </c>
       <c r="F2" t="n">
-        <v>25.2107</v>
+        <v>3.7674</v>
       </c>
       <c r="G2" t="n">
-        <v>63030.83333333334</v>
+        <v>63029.16666666666</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -468,7 +468,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>63000</v>
+        <v>62950</v>
       </c>
       <c r="C3" t="n">
         <v>63000</v>
@@ -477,10 +477,10 @@
         <v>63000</v>
       </c>
       <c r="E3" t="n">
-        <v>63000</v>
+        <v>62950</v>
       </c>
       <c r="F3" t="n">
-        <v>11.0101</v>
+        <v>25.2107</v>
       </c>
       <c r="G3" t="n">
         <v>63030.83333333334</v>
@@ -515,7 +515,7 @@
         <v>63000</v>
       </c>
       <c r="F4" t="n">
-        <v>36.2572</v>
+        <v>11.0101</v>
       </c>
       <c r="G4" t="n">
         <v>63030.83333333334</v>
@@ -541,19 +541,19 @@
         <v>63000</v>
       </c>
       <c r="C5" t="n">
-        <v>63050</v>
+        <v>63000</v>
       </c>
       <c r="D5" t="n">
-        <v>63050</v>
+        <v>63000</v>
       </c>
       <c r="E5" t="n">
         <v>63000</v>
       </c>
       <c r="F5" t="n">
-        <v>55.7</v>
+        <v>36.2572</v>
       </c>
       <c r="G5" t="n">
-        <v>63031.66666666666</v>
+        <v>63030.83333333334</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -576,16 +576,16 @@
         <v>63000</v>
       </c>
       <c r="C6" t="n">
-        <v>63000</v>
+        <v>63050</v>
       </c>
       <c r="D6" t="n">
-        <v>63000</v>
+        <v>63050</v>
       </c>
       <c r="E6" t="n">
         <v>63000</v>
       </c>
       <c r="F6" t="n">
-        <v>0.3179</v>
+        <v>55.7</v>
       </c>
       <c r="G6" t="n">
         <v>63031.66666666666</v>
@@ -608,22 +608,22 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>62950</v>
+        <v>63000</v>
       </c>
       <c r="C7" t="n">
-        <v>62950</v>
+        <v>63000</v>
       </c>
       <c r="D7" t="n">
-        <v>62950</v>
+        <v>63000</v>
       </c>
       <c r="E7" t="n">
-        <v>62950</v>
+        <v>63000</v>
       </c>
       <c r="F7" t="n">
-        <v>0.1019</v>
+        <v>0.3179</v>
       </c>
       <c r="G7" t="n">
-        <v>63034.16666666666</v>
+        <v>63031.66666666666</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -655,19 +655,23 @@
         <v>62950</v>
       </c>
       <c r="F8" t="n">
-        <v>7.3310405</v>
+        <v>0.1019</v>
       </c>
       <c r="G8" t="n">
-        <v>63035</v>
+        <v>63034.16666666666</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
       </c>
-      <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
+      <c r="J8" t="n">
+        <v>63000</v>
+      </c>
+      <c r="K8" t="n">
+        <v>63000</v>
+      </c>
       <c r="L8" t="inlineStr"/>
       <c r="M8" t="n">
         <v>1</v>
@@ -678,22 +682,22 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>63050</v>
+        <v>62950</v>
       </c>
       <c r="C9" t="n">
-        <v>63050</v>
+        <v>62950</v>
       </c>
       <c r="D9" t="n">
-        <v>63050</v>
+        <v>62950</v>
       </c>
       <c r="E9" t="n">
-        <v>63050</v>
+        <v>62950</v>
       </c>
       <c r="F9" t="n">
-        <v>1</v>
+        <v>7.3310405</v>
       </c>
       <c r="G9" t="n">
-        <v>63039.16666666666</v>
+        <v>63035</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -702,8 +706,14 @@
         <v>0</v>
       </c>
       <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr"/>
+      <c r="K9" t="n">
+        <v>63000</v>
+      </c>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M9" t="n">
         <v>1</v>
       </c>
@@ -725,10 +735,10 @@
         <v>63050</v>
       </c>
       <c r="F10" t="n">
-        <v>3.5</v>
+        <v>1</v>
       </c>
       <c r="G10" t="n">
-        <v>63045</v>
+        <v>63039.16666666666</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -737,8 +747,14 @@
         <v>0</v>
       </c>
       <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr"/>
+      <c r="K10" t="n">
+        <v>63000</v>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M10" t="n">
         <v>1</v>
       </c>
@@ -748,22 +764,22 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>63100</v>
+        <v>63050</v>
       </c>
       <c r="C11" t="n">
         <v>63050</v>
       </c>
       <c r="D11" t="n">
-        <v>63100</v>
+        <v>63050</v>
       </c>
       <c r="E11" t="n">
         <v>63050</v>
       </c>
       <c r="F11" t="n">
-        <v>11.1674</v>
+        <v>3.5</v>
       </c>
       <c r="G11" t="n">
-        <v>63051.66666666666</v>
+        <v>63045</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -783,22 +799,22 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>63000</v>
+        <v>63100</v>
       </c>
       <c r="C12" t="n">
         <v>63050</v>
       </c>
       <c r="D12" t="n">
+        <v>63100</v>
+      </c>
+      <c r="E12" t="n">
         <v>63050</v>
       </c>
-      <c r="E12" t="n">
-        <v>63000</v>
-      </c>
       <c r="F12" t="n">
-        <v>4.479</v>
+        <v>11.1674</v>
       </c>
       <c r="G12" t="n">
-        <v>63058.33333333334</v>
+        <v>63051.66666666666</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -818,22 +834,22 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>63100</v>
+        <v>63000</v>
       </c>
       <c r="C13" t="n">
-        <v>63100</v>
+        <v>63050</v>
       </c>
       <c r="D13" t="n">
-        <v>63100</v>
+        <v>63050</v>
       </c>
       <c r="E13" t="n">
-        <v>63100</v>
+        <v>63000</v>
       </c>
       <c r="F13" t="n">
-        <v>4.4347</v>
+        <v>4.479</v>
       </c>
       <c r="G13" t="n">
-        <v>63066.66666666666</v>
+        <v>63058.33333333334</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -865,10 +881,10 @@
         <v>63100</v>
       </c>
       <c r="F14" t="n">
-        <v>0.2136</v>
+        <v>4.4347</v>
       </c>
       <c r="G14" t="n">
-        <v>63073.33333333334</v>
+        <v>63066.66666666666</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -900,10 +916,10 @@
         <v>63100</v>
       </c>
       <c r="F15" t="n">
-        <v>22.8001</v>
+        <v>0.2136</v>
       </c>
       <c r="G15" t="n">
-        <v>63080.83333333334</v>
+        <v>63073.33333333334</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -935,10 +951,10 @@
         <v>63100</v>
       </c>
       <c r="F16" t="n">
-        <v>10.66</v>
+        <v>22.8001</v>
       </c>
       <c r="G16" t="n">
-        <v>63085.83333333334</v>
+        <v>63080.83333333334</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -970,10 +986,10 @@
         <v>63100</v>
       </c>
       <c r="F17" t="n">
-        <v>1.0419</v>
+        <v>10.66</v>
       </c>
       <c r="G17" t="n">
-        <v>63090.83333333334</v>
+        <v>63085.83333333334</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -993,22 +1009,22 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>63200</v>
+        <v>63100</v>
       </c>
       <c r="C18" t="n">
-        <v>63200</v>
+        <v>63100</v>
       </c>
       <c r="D18" t="n">
-        <v>63200</v>
+        <v>63100</v>
       </c>
       <c r="E18" t="n">
-        <v>63200</v>
+        <v>63100</v>
       </c>
       <c r="F18" t="n">
-        <v>30</v>
+        <v>1.0419</v>
       </c>
       <c r="G18" t="n">
-        <v>63096.66666666666</v>
+        <v>63090.83333333334</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1028,22 +1044,22 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>63350</v>
+        <v>63200</v>
       </c>
       <c r="C19" t="n">
-        <v>63400</v>
+        <v>63200</v>
       </c>
       <c r="D19" t="n">
-        <v>63400</v>
+        <v>63200</v>
       </c>
       <c r="E19" t="n">
-        <v>63350</v>
+        <v>63200</v>
       </c>
       <c r="F19" t="n">
-        <v>23.0901</v>
+        <v>30</v>
       </c>
       <c r="G19" t="n">
-        <v>63106.66666666666</v>
+        <v>63096.66666666666</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -1063,22 +1079,22 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>63300</v>
+        <v>63350</v>
       </c>
       <c r="C20" t="n">
-        <v>63300</v>
+        <v>63400</v>
       </c>
       <c r="D20" t="n">
-        <v>63300</v>
+        <v>63400</v>
       </c>
       <c r="E20" t="n">
-        <v>63300</v>
+        <v>63350</v>
       </c>
       <c r="F20" t="n">
-        <v>3.8</v>
+        <v>23.0901</v>
       </c>
       <c r="G20" t="n">
-        <v>63114.16666666666</v>
+        <v>63106.66666666666</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -1110,10 +1126,10 @@
         <v>63300</v>
       </c>
       <c r="F21" t="n">
-        <v>18.5484</v>
+        <v>3.8</v>
       </c>
       <c r="G21" t="n">
-        <v>63120.83333333334</v>
+        <v>63114.16666666666</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -1133,28 +1149,28 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>63200</v>
+        <v>63300</v>
       </c>
       <c r="C22" t="n">
-        <v>63200</v>
+        <v>63300</v>
       </c>
       <c r="D22" t="n">
-        <v>63200</v>
+        <v>63300</v>
       </c>
       <c r="E22" t="n">
-        <v>63200</v>
+        <v>63300</v>
       </c>
       <c r="F22" t="n">
-        <v>12.2758</v>
+        <v>18.5484</v>
       </c>
       <c r="G22" t="n">
-        <v>63124.16666666666</v>
+        <v>63120.83333333334</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr"/>
@@ -1180,10 +1196,10 @@
         <v>63200</v>
       </c>
       <c r="F23" t="n">
-        <v>28.6544</v>
+        <v>12.2758</v>
       </c>
       <c r="G23" t="n">
-        <v>63125.83333333334</v>
+        <v>63124.16666666666</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -1203,19 +1219,19 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>63100</v>
+        <v>63200</v>
       </c>
       <c r="C24" t="n">
-        <v>63100</v>
+        <v>63200</v>
       </c>
       <c r="D24" t="n">
-        <v>63100</v>
+        <v>63200</v>
       </c>
       <c r="E24" t="n">
-        <v>63100</v>
+        <v>63200</v>
       </c>
       <c r="F24" t="n">
-        <v>0.2493</v>
+        <v>28.6544</v>
       </c>
       <c r="G24" t="n">
         <v>63125.83333333334</v>
@@ -1238,22 +1254,22 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>63200</v>
+        <v>63100</v>
       </c>
       <c r="C25" t="n">
-        <v>63200</v>
+        <v>63100</v>
       </c>
       <c r="D25" t="n">
-        <v>63200</v>
+        <v>63100</v>
       </c>
       <c r="E25" t="n">
-        <v>63200</v>
+        <v>63100</v>
       </c>
       <c r="F25" t="n">
-        <v>1.8801</v>
+        <v>0.2493</v>
       </c>
       <c r="G25" t="n">
-        <v>63127.5</v>
+        <v>63125.83333333334</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -1273,22 +1289,22 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>63300</v>
+        <v>63200</v>
       </c>
       <c r="C26" t="n">
-        <v>63300</v>
+        <v>63200</v>
       </c>
       <c r="D26" t="n">
-        <v>63300</v>
+        <v>63200</v>
       </c>
       <c r="E26" t="n">
-        <v>63300</v>
+        <v>63200</v>
       </c>
       <c r="F26" t="n">
-        <v>58.4</v>
+        <v>1.8801</v>
       </c>
       <c r="G26" t="n">
-        <v>63129.16666666666</v>
+        <v>63127.5</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -1308,19 +1324,19 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>63250</v>
+        <v>63300</v>
       </c>
       <c r="C27" t="n">
-        <v>63200</v>
+        <v>63300</v>
       </c>
       <c r="D27" t="n">
-        <v>63250</v>
+        <v>63300</v>
       </c>
       <c r="E27" t="n">
-        <v>63200</v>
+        <v>63300</v>
       </c>
       <c r="F27" t="n">
-        <v>12.0002</v>
+        <v>58.4</v>
       </c>
       <c r="G27" t="n">
         <v>63129.16666666666</v>
@@ -1343,22 +1359,22 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>63150</v>
+        <v>63250</v>
       </c>
       <c r="C28" t="n">
-        <v>63150</v>
+        <v>63200</v>
       </c>
       <c r="D28" t="n">
-        <v>63150</v>
+        <v>63250</v>
       </c>
       <c r="E28" t="n">
-        <v>63150</v>
+        <v>63200</v>
       </c>
       <c r="F28" t="n">
-        <v>10.1865</v>
+        <v>12.0002</v>
       </c>
       <c r="G28" t="n">
-        <v>63131.66666666666</v>
+        <v>63129.16666666666</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -1390,10 +1406,10 @@
         <v>63150</v>
       </c>
       <c r="F29" t="n">
-        <v>86.8412</v>
+        <v>10.1865</v>
       </c>
       <c r="G29" t="n">
-        <v>63134.16666666666</v>
+        <v>63131.66666666666</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -1413,22 +1429,22 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>63100</v>
+        <v>63150</v>
       </c>
       <c r="C30" t="n">
-        <v>63100</v>
+        <v>63150</v>
       </c>
       <c r="D30" t="n">
-        <v>63100</v>
+        <v>63150</v>
       </c>
       <c r="E30" t="n">
-        <v>63100</v>
+        <v>63150</v>
       </c>
       <c r="F30" t="n">
-        <v>3.2099</v>
+        <v>86.8412</v>
       </c>
       <c r="G30" t="n">
-        <v>63135</v>
+        <v>63134.16666666666</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -1460,10 +1476,10 @@
         <v>63100</v>
       </c>
       <c r="F31" t="n">
-        <v>45.5559</v>
+        <v>3.2099</v>
       </c>
       <c r="G31" t="n">
-        <v>63133.33333333334</v>
+        <v>63135</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -1495,10 +1511,10 @@
         <v>63100</v>
       </c>
       <c r="F32" t="n">
-        <v>44.6154</v>
+        <v>45.5559</v>
       </c>
       <c r="G32" t="n">
-        <v>63131.66666666666</v>
+        <v>63133.33333333334</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -1530,10 +1546,10 @@
         <v>63100</v>
       </c>
       <c r="F33" t="n">
-        <v>5.3481</v>
+        <v>44.6154</v>
       </c>
       <c r="G33" t="n">
-        <v>63126.66666666666</v>
+        <v>63131.66666666666</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -1565,10 +1581,10 @@
         <v>63100</v>
       </c>
       <c r="F34" t="n">
-        <v>6.0001</v>
+        <v>5.3481</v>
       </c>
       <c r="G34" t="n">
-        <v>63118.33333333334</v>
+        <v>63126.66666666666</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -1588,22 +1604,22 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>63150</v>
+        <v>63100</v>
       </c>
       <c r="C35" t="n">
-        <v>63050</v>
+        <v>63100</v>
       </c>
       <c r="D35" t="n">
-        <v>63150</v>
+        <v>63100</v>
       </c>
       <c r="E35" t="n">
-        <v>63050</v>
+        <v>63100</v>
       </c>
       <c r="F35" t="n">
-        <v>16.6906</v>
+        <v>6.0001</v>
       </c>
       <c r="G35" t="n">
-        <v>63114.16666666666</v>
+        <v>63118.33333333334</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -1626,19 +1642,19 @@
         <v>63150</v>
       </c>
       <c r="C36" t="n">
-        <v>63150</v>
+        <v>63050</v>
       </c>
       <c r="D36" t="n">
         <v>63150</v>
       </c>
       <c r="E36" t="n">
-        <v>63150</v>
+        <v>63050</v>
       </c>
       <c r="F36" t="n">
-        <v>1.0031</v>
+        <v>16.6906</v>
       </c>
       <c r="G36" t="n">
-        <v>63113.33333333334</v>
+        <v>63114.16666666666</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -1658,22 +1674,22 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>63000</v>
+        <v>63150</v>
       </c>
       <c r="C37" t="n">
-        <v>63000</v>
+        <v>63150</v>
       </c>
       <c r="D37" t="n">
-        <v>63000</v>
+        <v>63150</v>
       </c>
       <c r="E37" t="n">
-        <v>63000</v>
+        <v>63150</v>
       </c>
       <c r="F37" t="n">
-        <v>2.9077</v>
+        <v>1.0031</v>
       </c>
       <c r="G37" t="n">
-        <v>63110</v>
+        <v>63113.33333333334</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -1705,10 +1721,10 @@
         <v>63000</v>
       </c>
       <c r="F38" t="n">
-        <v>6.3214</v>
+        <v>2.9077</v>
       </c>
       <c r="G38" t="n">
-        <v>63108.33333333334</v>
+        <v>63110</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -1728,22 +1744,22 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>63200</v>
+        <v>63000</v>
       </c>
       <c r="C39" t="n">
-        <v>63200</v>
+        <v>63000</v>
       </c>
       <c r="D39" t="n">
-        <v>63200</v>
+        <v>63000</v>
       </c>
       <c r="E39" t="n">
-        <v>63200</v>
+        <v>63000</v>
       </c>
       <c r="F39" t="n">
-        <v>1</v>
+        <v>6.3214</v>
       </c>
       <c r="G39" t="n">
-        <v>63110.83333333334</v>
+        <v>63108.33333333334</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -1775,7 +1791,7 @@
         <v>63200</v>
       </c>
       <c r="F40" t="n">
-        <v>16.3507</v>
+        <v>1</v>
       </c>
       <c r="G40" t="n">
         <v>63110.83333333334</v>
@@ -1810,7 +1826,7 @@
         <v>63200</v>
       </c>
       <c r="F41" t="n">
-        <v>82.6493</v>
+        <v>16.3507</v>
       </c>
       <c r="G41" t="n">
         <v>63110.83333333334</v>
@@ -1833,22 +1849,22 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>63250</v>
+        <v>63200</v>
       </c>
       <c r="C42" t="n">
-        <v>63250</v>
+        <v>63200</v>
       </c>
       <c r="D42" t="n">
-        <v>63250</v>
+        <v>63200</v>
       </c>
       <c r="E42" t="n">
-        <v>63250</v>
+        <v>63200</v>
       </c>
       <c r="F42" t="n">
-        <v>0.4762</v>
+        <v>82.6493</v>
       </c>
       <c r="G42" t="n">
-        <v>63111.66666666666</v>
+        <v>63110.83333333334</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -1880,10 +1896,10 @@
         <v>63250</v>
       </c>
       <c r="F43" t="n">
-        <v>0.6548</v>
+        <v>0.4762</v>
       </c>
       <c r="G43" t="n">
-        <v>63112.5</v>
+        <v>63111.66666666666</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -1903,22 +1919,22 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>63350</v>
+        <v>63250</v>
       </c>
       <c r="C44" t="n">
         <v>63250</v>
       </c>
       <c r="D44" t="n">
-        <v>63350</v>
+        <v>63250</v>
       </c>
       <c r="E44" t="n">
         <v>63250</v>
       </c>
       <c r="F44" t="n">
-        <v>64.1982</v>
+        <v>0.6548</v>
       </c>
       <c r="G44" t="n">
-        <v>63115</v>
+        <v>63112.5</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -1941,19 +1957,19 @@
         <v>63350</v>
       </c>
       <c r="C45" t="n">
-        <v>63300</v>
+        <v>63250</v>
       </c>
       <c r="D45" t="n">
         <v>63350</v>
       </c>
       <c r="E45" t="n">
-        <v>63300</v>
+        <v>63250</v>
       </c>
       <c r="F45" t="n">
-        <v>2.089</v>
+        <v>64.1982</v>
       </c>
       <c r="G45" t="n">
-        <v>63118.33333333334</v>
+        <v>63115</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -1976,19 +1992,19 @@
         <v>63350</v>
       </c>
       <c r="C46" t="n">
-        <v>63350</v>
+        <v>63300</v>
       </c>
       <c r="D46" t="n">
         <v>63350</v>
       </c>
       <c r="E46" t="n">
-        <v>63350</v>
+        <v>63300</v>
       </c>
       <c r="F46" t="n">
-        <v>4.3282</v>
+        <v>2.089</v>
       </c>
       <c r="G46" t="n">
-        <v>63122.5</v>
+        <v>63118.33333333334</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -2020,10 +2036,10 @@
         <v>63350</v>
       </c>
       <c r="F47" t="n">
-        <v>13.3059</v>
+        <v>4.3282</v>
       </c>
       <c r="G47" t="n">
-        <v>63125</v>
+        <v>63122.5</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -2043,22 +2059,22 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>63200</v>
+        <v>63350</v>
       </c>
       <c r="C48" t="n">
-        <v>63200</v>
+        <v>63350</v>
       </c>
       <c r="D48" t="n">
-        <v>63200</v>
+        <v>63350</v>
       </c>
       <c r="E48" t="n">
-        <v>63200</v>
+        <v>63350</v>
       </c>
       <c r="F48" t="n">
-        <v>5.1155</v>
+        <v>13.3059</v>
       </c>
       <c r="G48" t="n">
-        <v>63123.33333333334</v>
+        <v>63125</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -2090,10 +2106,10 @@
         <v>63200</v>
       </c>
       <c r="F49" t="n">
-        <v>4.8863</v>
+        <v>5.1155</v>
       </c>
       <c r="G49" t="n">
-        <v>63121.66666666666</v>
+        <v>63123.33333333334</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -2113,7 +2129,7 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>63150</v>
+        <v>63200</v>
       </c>
       <c r="C50" t="n">
         <v>63200</v>
@@ -2122,13 +2138,13 @@
         <v>63200</v>
       </c>
       <c r="E50" t="n">
-        <v>63150</v>
+        <v>63200</v>
       </c>
       <c r="F50" t="n">
-        <v>21.9873</v>
+        <v>4.8863</v>
       </c>
       <c r="G50" t="n">
-        <v>63120.83333333334</v>
+        <v>63121.66666666666</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -2148,22 +2164,22 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>63300</v>
+        <v>63150</v>
       </c>
       <c r="C51" t="n">
-        <v>63300</v>
+        <v>63200</v>
       </c>
       <c r="D51" t="n">
-        <v>63300</v>
+        <v>63200</v>
       </c>
       <c r="E51" t="n">
-        <v>63300</v>
+        <v>63150</v>
       </c>
       <c r="F51" t="n">
-        <v>11.1585</v>
+        <v>21.9873</v>
       </c>
       <c r="G51" t="n">
-        <v>63122.5</v>
+        <v>63120.83333333334</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -2183,19 +2199,19 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>63200</v>
+        <v>63300</v>
       </c>
       <c r="C52" t="n">
-        <v>63200</v>
+        <v>63300</v>
       </c>
       <c r="D52" t="n">
-        <v>63200</v>
+        <v>63300</v>
       </c>
       <c r="E52" t="n">
-        <v>63200</v>
+        <v>63300</v>
       </c>
       <c r="F52" t="n">
-        <v>1.2458</v>
+        <v>11.1585</v>
       </c>
       <c r="G52" t="n">
         <v>63122.5</v>
@@ -2230,10 +2246,10 @@
         <v>63200</v>
       </c>
       <c r="F53" t="n">
-        <v>3.3463</v>
+        <v>1.2458</v>
       </c>
       <c r="G53" t="n">
-        <v>63123.33333333334</v>
+        <v>63122.5</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -2265,10 +2281,10 @@
         <v>63200</v>
       </c>
       <c r="F54" t="n">
-        <v>3.627</v>
+        <v>3.3463</v>
       </c>
       <c r="G54" t="n">
-        <v>63125</v>
+        <v>63123.33333333334</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -2291,19 +2307,19 @@
         <v>63200</v>
       </c>
       <c r="C55" t="n">
-        <v>63100</v>
+        <v>63200</v>
       </c>
       <c r="D55" t="n">
         <v>63200</v>
       </c>
       <c r="E55" t="n">
-        <v>63100</v>
+        <v>63200</v>
       </c>
       <c r="F55" t="n">
-        <v>15.3393</v>
+        <v>3.627</v>
       </c>
       <c r="G55" t="n">
-        <v>63126.66666666666</v>
+        <v>63125</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -2326,19 +2342,19 @@
         <v>63200</v>
       </c>
       <c r="C56" t="n">
-        <v>63300</v>
+        <v>63100</v>
       </c>
       <c r="D56" t="n">
-        <v>63300</v>
+        <v>63200</v>
       </c>
       <c r="E56" t="n">
-        <v>63200</v>
+        <v>63100</v>
       </c>
       <c r="F56" t="n">
-        <v>56.0358</v>
+        <v>15.3393</v>
       </c>
       <c r="G56" t="n">
-        <v>63134.16666666666</v>
+        <v>63126.66666666666</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -2361,19 +2377,19 @@
         <v>63200</v>
       </c>
       <c r="C57" t="n">
-        <v>63100</v>
+        <v>63300</v>
       </c>
       <c r="D57" t="n">
-        <v>63200</v>
+        <v>63300</v>
       </c>
       <c r="E57" t="n">
-        <v>63100</v>
+        <v>63200</v>
       </c>
       <c r="F57" t="n">
-        <v>36.6872</v>
+        <v>56.0358</v>
       </c>
       <c r="G57" t="n">
-        <v>63139.16666666666</v>
+        <v>63134.16666666666</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -2393,22 +2409,22 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>63150</v>
+        <v>63200</v>
       </c>
       <c r="C58" t="n">
-        <v>63150</v>
+        <v>63100</v>
       </c>
       <c r="D58" t="n">
-        <v>63150</v>
+        <v>63200</v>
       </c>
       <c r="E58" t="n">
-        <v>63150</v>
+        <v>63100</v>
       </c>
       <c r="F58" t="n">
-        <v>5.5129</v>
+        <v>36.6872</v>
       </c>
       <c r="G58" t="n">
-        <v>63142.5</v>
+        <v>63139.16666666666</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -2428,22 +2444,22 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>63100</v>
+        <v>63150</v>
       </c>
       <c r="C59" t="n">
-        <v>63100</v>
+        <v>63150</v>
       </c>
       <c r="D59" t="n">
-        <v>63100</v>
+        <v>63150</v>
       </c>
       <c r="E59" t="n">
-        <v>63100</v>
+        <v>63150</v>
       </c>
       <c r="F59" t="n">
-        <v>0.5436</v>
+        <v>5.5129</v>
       </c>
       <c r="G59" t="n">
-        <v>63144.16666666666</v>
+        <v>63142.5</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -2463,19 +2479,19 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>63050</v>
+        <v>63100</v>
       </c>
       <c r="C60" t="n">
-        <v>63000</v>
+        <v>63100</v>
       </c>
       <c r="D60" t="n">
-        <v>63050</v>
+        <v>63100</v>
       </c>
       <c r="E60" t="n">
-        <v>63000</v>
+        <v>63100</v>
       </c>
       <c r="F60" t="n">
-        <v>37.3312</v>
+        <v>0.5436</v>
       </c>
       <c r="G60" t="n">
         <v>63144.16666666666</v>
@@ -2498,22 +2514,22 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>63100</v>
+        <v>63050</v>
       </c>
       <c r="C61" t="n">
-        <v>63100</v>
+        <v>63000</v>
       </c>
       <c r="D61" t="n">
-        <v>63100</v>
+        <v>63050</v>
       </c>
       <c r="E61" t="n">
-        <v>63100</v>
+        <v>63000</v>
       </c>
       <c r="F61" t="n">
-        <v>0.5924</v>
+        <v>37.3312</v>
       </c>
       <c r="G61" t="n">
-        <v>63145.83333333334</v>
+        <v>63144.16666666666</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -2533,22 +2549,22 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>63050</v>
+        <v>63100</v>
       </c>
       <c r="C62" t="n">
-        <v>63050</v>
+        <v>63100</v>
       </c>
       <c r="D62" t="n">
-        <v>63050</v>
+        <v>63100</v>
       </c>
       <c r="E62" t="n">
-        <v>63050</v>
+        <v>63100</v>
       </c>
       <c r="F62" t="n">
-        <v>7.8393</v>
+        <v>0.5924</v>
       </c>
       <c r="G62" t="n">
-        <v>63146.66666666666</v>
+        <v>63145.83333333334</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -2577,13 +2593,13 @@
         <v>63050</v>
       </c>
       <c r="E63" t="n">
-        <v>62900</v>
+        <v>63050</v>
       </c>
       <c r="F63" t="n">
-        <v>69.5305</v>
+        <v>7.8393</v>
       </c>
       <c r="G63" t="n">
-        <v>63147.5</v>
+        <v>63146.66666666666</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -2612,13 +2628,13 @@
         <v>63050</v>
       </c>
       <c r="E64" t="n">
-        <v>63050</v>
+        <v>62900</v>
       </c>
       <c r="F64" t="n">
-        <v>1.0989</v>
+        <v>69.5305</v>
       </c>
       <c r="G64" t="n">
-        <v>63148.33333333334</v>
+        <v>63147.5</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -2638,22 +2654,22 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>62900</v>
+        <v>63050</v>
       </c>
       <c r="C65" t="n">
-        <v>62900</v>
+        <v>63050</v>
       </c>
       <c r="D65" t="n">
-        <v>62900</v>
+        <v>63050</v>
       </c>
       <c r="E65" t="n">
-        <v>62900</v>
+        <v>63050</v>
       </c>
       <c r="F65" t="n">
-        <v>11.6555</v>
+        <v>1.0989</v>
       </c>
       <c r="G65" t="n">
-        <v>63145.83333333334</v>
+        <v>63148.33333333334</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -2673,22 +2689,22 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>62950</v>
+        <v>62900</v>
       </c>
       <c r="C66" t="n">
-        <v>62950</v>
+        <v>62900</v>
       </c>
       <c r="D66" t="n">
-        <v>62950</v>
+        <v>62900</v>
       </c>
       <c r="E66" t="n">
-        <v>62950</v>
+        <v>62900</v>
       </c>
       <c r="F66" t="n">
-        <v>0.5575</v>
+        <v>11.6555</v>
       </c>
       <c r="G66" t="n">
-        <v>63145</v>
+        <v>63145.83333333334</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -2708,22 +2724,22 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>63100</v>
+        <v>62950</v>
       </c>
       <c r="C67" t="n">
-        <v>63000</v>
+        <v>62950</v>
       </c>
       <c r="D67" t="n">
-        <v>63100</v>
+        <v>62950</v>
       </c>
       <c r="E67" t="n">
-        <v>63000</v>
+        <v>62950</v>
       </c>
       <c r="F67" t="n">
-        <v>6.4</v>
+        <v>0.5575</v>
       </c>
       <c r="G67" t="n">
-        <v>63145.83333333334</v>
+        <v>63145</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -2743,19 +2759,19 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>63000</v>
+        <v>63100</v>
       </c>
       <c r="C68" t="n">
-        <v>62950</v>
+        <v>63000</v>
       </c>
       <c r="D68" t="n">
-        <v>63000</v>
+        <v>63100</v>
       </c>
       <c r="E68" t="n">
-        <v>62950</v>
+        <v>63000</v>
       </c>
       <c r="F68" t="n">
-        <v>2.5491</v>
+        <v>6.4</v>
       </c>
       <c r="G68" t="n">
         <v>63145.83333333334</v>
@@ -2778,22 +2794,22 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>62950</v>
+        <v>63000</v>
       </c>
       <c r="C69" t="n">
         <v>62950</v>
       </c>
       <c r="D69" t="n">
-        <v>62950</v>
+        <v>63000</v>
       </c>
       <c r="E69" t="n">
         <v>62950</v>
       </c>
       <c r="F69" t="n">
-        <v>26.1049</v>
+        <v>2.5491</v>
       </c>
       <c r="G69" t="n">
-        <v>63144.16666666666</v>
+        <v>63145.83333333334</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -2816,19 +2832,19 @@
         <v>62950</v>
       </c>
       <c r="C70" t="n">
-        <v>62900</v>
+        <v>62950</v>
       </c>
       <c r="D70" t="n">
         <v>62950</v>
       </c>
       <c r="E70" t="n">
-        <v>62900</v>
+        <v>62950</v>
       </c>
       <c r="F70" t="n">
-        <v>0.6883</v>
+        <v>26.1049</v>
       </c>
       <c r="G70" t="n">
-        <v>63141.66666666666</v>
+        <v>63144.16666666666</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -2848,22 +2864,22 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>62900</v>
+        <v>62950</v>
       </c>
       <c r="C71" t="n">
         <v>62900</v>
       </c>
       <c r="D71" t="n">
-        <v>62900</v>
+        <v>62950</v>
       </c>
       <c r="E71" t="n">
         <v>62900</v>
       </c>
       <c r="F71" t="n">
-        <v>37.5913</v>
+        <v>0.6883</v>
       </c>
       <c r="G71" t="n">
-        <v>63139.16666666666</v>
+        <v>63141.66666666666</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -2895,10 +2911,10 @@
         <v>62900</v>
       </c>
       <c r="F72" t="n">
-        <v>1</v>
+        <v>37.5913</v>
       </c>
       <c r="G72" t="n">
-        <v>63136.66666666666</v>
+        <v>63139.16666666666</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -2930,10 +2946,10 @@
         <v>62900</v>
       </c>
       <c r="F73" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="G73" t="n">
-        <v>63133.33333333334</v>
+        <v>63136.66666666666</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -2965,10 +2981,10 @@
         <v>62900</v>
       </c>
       <c r="F74" t="n">
-        <v>15.5556</v>
+        <v>5</v>
       </c>
       <c r="G74" t="n">
-        <v>63130</v>
+        <v>63133.33333333334</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -3000,10 +3016,10 @@
         <v>62900</v>
       </c>
       <c r="F75" t="n">
-        <v>4.014</v>
+        <v>15.5556</v>
       </c>
       <c r="G75" t="n">
-        <v>63126.66666666666</v>
+        <v>63130</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -3035,10 +3051,10 @@
         <v>62900</v>
       </c>
       <c r="F76" t="n">
-        <v>66.8391</v>
+        <v>4.014</v>
       </c>
       <c r="G76" t="n">
-        <v>63123.33333333334</v>
+        <v>63126.66666666666</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -3058,22 +3074,22 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>63000</v>
+        <v>62900</v>
       </c>
       <c r="C77" t="n">
-        <v>63000</v>
+        <v>62900</v>
       </c>
       <c r="D77" t="n">
-        <v>63000</v>
+        <v>62900</v>
       </c>
       <c r="E77" t="n">
-        <v>63000</v>
+        <v>62900</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1</v>
+        <v>66.8391</v>
       </c>
       <c r="G77" t="n">
-        <v>63121.66666666666</v>
+        <v>63123.33333333334</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -3093,22 +3109,22 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>62900</v>
+        <v>63000</v>
       </c>
       <c r="C78" t="n">
-        <v>62900</v>
+        <v>63000</v>
       </c>
       <c r="D78" t="n">
-        <v>62900</v>
+        <v>63000</v>
       </c>
       <c r="E78" t="n">
-        <v>62900</v>
+        <v>63000</v>
       </c>
       <c r="F78" t="n">
-        <v>7.9144</v>
+        <v>0.1</v>
       </c>
       <c r="G78" t="n">
-        <v>63116.66666666666</v>
+        <v>63121.66666666666</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -3140,10 +3156,10 @@
         <v>62900</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1044</v>
+        <v>7.9144</v>
       </c>
       <c r="G79" t="n">
-        <v>63108.33333333334</v>
+        <v>63116.66666666666</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -3175,10 +3191,10 @@
         <v>62900</v>
       </c>
       <c r="F80" t="n">
-        <v>23.803</v>
+        <v>0.1044</v>
       </c>
       <c r="G80" t="n">
-        <v>63101.66666666666</v>
+        <v>63108.33333333334</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -3198,22 +3214,22 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>62950</v>
+        <v>62900</v>
       </c>
       <c r="C81" t="n">
-        <v>62950</v>
+        <v>62900</v>
       </c>
       <c r="D81" t="n">
-        <v>62950</v>
+        <v>62900</v>
       </c>
       <c r="E81" t="n">
-        <v>62950</v>
+        <v>62900</v>
       </c>
       <c r="F81" t="n">
-        <v>0.355</v>
+        <v>23.803</v>
       </c>
       <c r="G81" t="n">
-        <v>63095.83333333334</v>
+        <v>63101.66666666666</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -3233,22 +3249,22 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>63050</v>
+        <v>62950</v>
       </c>
       <c r="C82" t="n">
-        <v>63050</v>
+        <v>62950</v>
       </c>
       <c r="D82" t="n">
-        <v>63050</v>
+        <v>62950</v>
       </c>
       <c r="E82" t="n">
-        <v>63050</v>
+        <v>62950</v>
       </c>
       <c r="F82" t="n">
-        <v>1</v>
+        <v>0.355</v>
       </c>
       <c r="G82" t="n">
-        <v>63093.33333333334</v>
+        <v>63095.83333333334</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -3268,22 +3284,22 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>62950</v>
+        <v>63050</v>
       </c>
       <c r="C83" t="n">
-        <v>62950</v>
+        <v>63050</v>
       </c>
       <c r="D83" t="n">
-        <v>62950</v>
+        <v>63050</v>
       </c>
       <c r="E83" t="n">
-        <v>62950</v>
+        <v>63050</v>
       </c>
       <c r="F83" t="n">
-        <v>2.7512</v>
+        <v>1</v>
       </c>
       <c r="G83" t="n">
-        <v>63089.16666666666</v>
+        <v>63093.33333333334</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -3315,10 +3331,10 @@
         <v>62950</v>
       </c>
       <c r="F84" t="n">
-        <v>0.3205</v>
+        <v>2.7512</v>
       </c>
       <c r="G84" t="n">
-        <v>63086.66666666666</v>
+        <v>63089.16666666666</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -3350,10 +3366,10 @@
         <v>62950</v>
       </c>
       <c r="F85" t="n">
-        <v>9.9999</v>
+        <v>0.3205</v>
       </c>
       <c r="G85" t="n">
-        <v>63082.5</v>
+        <v>63086.66666666666</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -3373,22 +3389,22 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>63000</v>
+        <v>62950</v>
       </c>
       <c r="C86" t="n">
-        <v>63000</v>
+        <v>62950</v>
       </c>
       <c r="D86" t="n">
-        <v>63000</v>
+        <v>62950</v>
       </c>
       <c r="E86" t="n">
-        <v>63000</v>
+        <v>62950</v>
       </c>
       <c r="F86" t="n">
-        <v>100</v>
+        <v>9.9999</v>
       </c>
       <c r="G86" t="n">
-        <v>63077.5</v>
+        <v>63082.5</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -3411,19 +3427,19 @@
         <v>63000</v>
       </c>
       <c r="C87" t="n">
-        <v>62950</v>
+        <v>63000</v>
       </c>
       <c r="D87" t="n">
         <v>63000</v>
       </c>
       <c r="E87" t="n">
-        <v>62950</v>
+        <v>63000</v>
       </c>
       <c r="F87" t="n">
-        <v>5.3778</v>
+        <v>100</v>
       </c>
       <c r="G87" t="n">
-        <v>63073.33333333334</v>
+        <v>63077.5</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -3443,22 +3459,22 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>62950</v>
+        <v>63000</v>
       </c>
       <c r="C88" t="n">
         <v>62950</v>
       </c>
       <c r="D88" t="n">
-        <v>62950</v>
+        <v>63000</v>
       </c>
       <c r="E88" t="n">
         <v>62950</v>
       </c>
       <c r="F88" t="n">
-        <v>2.06</v>
+        <v>5.3778</v>
       </c>
       <c r="G88" t="n">
-        <v>63070</v>
+        <v>63073.33333333334</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -3490,10 +3506,10 @@
         <v>62950</v>
       </c>
       <c r="F89" t="n">
-        <v>0.5124</v>
+        <v>2.06</v>
       </c>
       <c r="G89" t="n">
-        <v>63066.66666666666</v>
+        <v>63070</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -3525,10 +3541,10 @@
         <v>62950</v>
       </c>
       <c r="F90" t="n">
-        <v>4.356</v>
+        <v>0.5124</v>
       </c>
       <c r="G90" t="n">
-        <v>63064.16666666666</v>
+        <v>63066.66666666666</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -3548,22 +3564,22 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>62900</v>
+        <v>62950</v>
       </c>
       <c r="C91" t="n">
-        <v>62800</v>
+        <v>62950</v>
       </c>
       <c r="D91" t="n">
-        <v>62900</v>
+        <v>62950</v>
       </c>
       <c r="E91" t="n">
-        <v>62750</v>
+        <v>62950</v>
       </c>
       <c r="F91" t="n">
-        <v>52.1669</v>
+        <v>4.356</v>
       </c>
       <c r="G91" t="n">
-        <v>63059.16666666666</v>
+        <v>63064.16666666666</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -3583,22 +3599,22 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>62800</v>
+        <v>62900</v>
       </c>
       <c r="C92" t="n">
         <v>62800</v>
       </c>
       <c r="D92" t="n">
-        <v>62800</v>
+        <v>62900</v>
       </c>
       <c r="E92" t="n">
-        <v>62800</v>
+        <v>62750</v>
       </c>
       <c r="F92" t="n">
-        <v>2.4249</v>
+        <v>52.1669</v>
       </c>
       <c r="G92" t="n">
-        <v>63054.16666666666</v>
+        <v>63059.16666666666</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -3630,10 +3646,10 @@
         <v>62800</v>
       </c>
       <c r="F93" t="n">
-        <v>13.1572</v>
+        <v>2.4249</v>
       </c>
       <c r="G93" t="n">
-        <v>63049.16666666666</v>
+        <v>63054.16666666666</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -3653,22 +3669,22 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>62700</v>
+        <v>62800</v>
       </c>
       <c r="C94" t="n">
-        <v>62700</v>
+        <v>62800</v>
       </c>
       <c r="D94" t="n">
-        <v>62700</v>
+        <v>62800</v>
       </c>
       <c r="E94" t="n">
-        <v>62700</v>
+        <v>62800</v>
       </c>
       <c r="F94" t="n">
-        <v>1.4981</v>
+        <v>13.1572</v>
       </c>
       <c r="G94" t="n">
-        <v>63042.5</v>
+        <v>63049.16666666666</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -3700,10 +3716,10 @@
         <v>62700</v>
       </c>
       <c r="F95" t="n">
-        <v>0.4766</v>
+        <v>1.4981</v>
       </c>
       <c r="G95" t="n">
-        <v>63036.66666666666</v>
+        <v>63042.5</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -3723,35 +3739,31 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>62850</v>
+        <v>62700</v>
       </c>
       <c r="C96" t="n">
-        <v>62850</v>
+        <v>62700</v>
       </c>
       <c r="D96" t="n">
-        <v>62850</v>
+        <v>62700</v>
       </c>
       <c r="E96" t="n">
-        <v>62850</v>
+        <v>62700</v>
       </c>
       <c r="F96" t="n">
-        <v>0.1</v>
+        <v>0.4766</v>
       </c>
       <c r="G96" t="n">
-        <v>63031.66666666666</v>
+        <v>63036.66666666666</v>
       </c>
       <c r="H96" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I96" t="n">
         <v>0</v>
       </c>
-      <c r="J96" t="n">
-        <v>62700</v>
-      </c>
-      <c r="K96" t="n">
-        <v>62700</v>
-      </c>
+      <c r="J96" t="inlineStr"/>
+      <c r="K96" t="inlineStr"/>
       <c r="L96" t="inlineStr"/>
       <c r="M96" t="n">
         <v>1</v>
@@ -3762,40 +3774,32 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>62800</v>
+        <v>62850</v>
       </c>
       <c r="C97" t="n">
-        <v>62800</v>
+        <v>62850</v>
       </c>
       <c r="D97" t="n">
-        <v>62800</v>
+        <v>62850</v>
       </c>
       <c r="E97" t="n">
-        <v>62800</v>
+        <v>62850</v>
       </c>
       <c r="F97" t="n">
-        <v>1.6</v>
+        <v>0.1</v>
       </c>
       <c r="G97" t="n">
-        <v>63028.33333333334</v>
+        <v>63031.66666666666</v>
       </c>
       <c r="H97" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I97" t="n">
         <v>0</v>
       </c>
-      <c r="J97" t="n">
-        <v>62850</v>
-      </c>
-      <c r="K97" t="n">
-        <v>62700</v>
-      </c>
-      <c r="L97" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J97" t="inlineStr"/>
+      <c r="K97" t="inlineStr"/>
+      <c r="L97" t="inlineStr"/>
       <c r="M97" t="n">
         <v>1</v>
       </c>
@@ -3805,40 +3809,32 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>62700</v>
+        <v>62800</v>
       </c>
       <c r="C98" t="n">
-        <v>62700</v>
+        <v>62800</v>
       </c>
       <c r="D98" t="n">
-        <v>62700</v>
+        <v>62800</v>
       </c>
       <c r="E98" t="n">
-        <v>62700</v>
+        <v>62800</v>
       </c>
       <c r="F98" t="n">
-        <v>0.4734</v>
+        <v>1.6</v>
       </c>
       <c r="G98" t="n">
-        <v>63023.33333333334</v>
+        <v>63028.33333333334</v>
       </c>
       <c r="H98" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I98" t="n">
         <v>0</v>
       </c>
-      <c r="J98" t="n">
-        <v>62800</v>
-      </c>
-      <c r="K98" t="n">
-        <v>62700</v>
-      </c>
-      <c r="L98" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J98" t="inlineStr"/>
+      <c r="K98" t="inlineStr"/>
+      <c r="L98" t="inlineStr"/>
       <c r="M98" t="n">
         <v>1</v>
       </c>
@@ -3848,35 +3844,31 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>62750</v>
+        <v>62700</v>
       </c>
       <c r="C99" t="n">
-        <v>62750</v>
+        <v>62700</v>
       </c>
       <c r="D99" t="n">
-        <v>62750</v>
+        <v>62700</v>
       </c>
       <c r="E99" t="n">
-        <v>62750</v>
+        <v>62700</v>
       </c>
       <c r="F99" t="n">
-        <v>1</v>
+        <v>0.4734</v>
       </c>
       <c r="G99" t="n">
-        <v>63015.83333333334</v>
+        <v>63023.33333333334</v>
       </c>
       <c r="H99" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I99" t="n">
         <v>0</v>
       </c>
-      <c r="J99" t="n">
-        <v>62700</v>
-      </c>
-      <c r="K99" t="n">
-        <v>62700</v>
-      </c>
+      <c r="J99" t="inlineStr"/>
+      <c r="K99" t="inlineStr"/>
       <c r="L99" t="inlineStr"/>
       <c r="M99" t="n">
         <v>1</v>
@@ -3887,40 +3879,32 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>62850</v>
+        <v>62750</v>
       </c>
       <c r="C100" t="n">
         <v>62750</v>
       </c>
       <c r="D100" t="n">
-        <v>62850</v>
+        <v>62750</v>
       </c>
       <c r="E100" t="n">
         <v>62750</v>
       </c>
       <c r="F100" t="n">
-        <v>0.53535401</v>
+        <v>1</v>
       </c>
       <c r="G100" t="n">
-        <v>63008.33333333334</v>
+        <v>63015.83333333334</v>
       </c>
       <c r="H100" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I100" t="n">
         <v>0</v>
       </c>
-      <c r="J100" t="n">
-        <v>62750</v>
-      </c>
-      <c r="K100" t="n">
-        <v>62700</v>
-      </c>
-      <c r="L100" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J100" t="inlineStr"/>
+      <c r="K100" t="inlineStr"/>
+      <c r="L100" t="inlineStr"/>
       <c r="M100" t="n">
         <v>1</v>
       </c>
@@ -3930,40 +3914,32 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>62900</v>
+        <v>62850</v>
       </c>
       <c r="C101" t="n">
-        <v>62900</v>
+        <v>62750</v>
       </c>
       <c r="D101" t="n">
-        <v>62900</v>
+        <v>62850</v>
       </c>
       <c r="E101" t="n">
-        <v>62900</v>
+        <v>62750</v>
       </c>
       <c r="F101" t="n">
-        <v>25.9411</v>
+        <v>0.53535401</v>
       </c>
       <c r="G101" t="n">
-        <v>63003.33333333334</v>
+        <v>63008.33333333334</v>
       </c>
       <c r="H101" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I101" t="n">
         <v>0</v>
       </c>
-      <c r="J101" t="n">
-        <v>62750</v>
-      </c>
-      <c r="K101" t="n">
-        <v>62700</v>
-      </c>
-      <c r="L101" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J101" t="inlineStr"/>
+      <c r="K101" t="inlineStr"/>
+      <c r="L101" t="inlineStr"/>
       <c r="M101" t="n">
         <v>1</v>
       </c>
@@ -3985,23 +3961,19 @@
         <v>62900</v>
       </c>
       <c r="F102" t="n">
-        <v>0.579</v>
+        <v>25.9411</v>
       </c>
       <c r="G102" t="n">
-        <v>62997.5</v>
+        <v>63003.33333333334</v>
       </c>
       <c r="H102" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I102" t="n">
         <v>0</v>
       </c>
-      <c r="J102" t="n">
-        <v>62900</v>
-      </c>
-      <c r="K102" t="n">
-        <v>62900</v>
-      </c>
+      <c r="J102" t="inlineStr"/>
+      <c r="K102" t="inlineStr"/>
       <c r="L102" t="inlineStr"/>
       <c r="M102" t="n">
         <v>1</v>
@@ -4024,28 +3996,20 @@
         <v>62900</v>
       </c>
       <c r="F103" t="n">
-        <v>3.90885182</v>
+        <v>0.579</v>
       </c>
       <c r="G103" t="n">
-        <v>62991.66666666666</v>
+        <v>62997.5</v>
       </c>
       <c r="H103" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I103" t="n">
         <v>0</v>
       </c>
-      <c r="J103" t="n">
-        <v>62900</v>
-      </c>
-      <c r="K103" t="n">
-        <v>62900</v>
-      </c>
-      <c r="L103" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J103" t="inlineStr"/>
+      <c r="K103" t="inlineStr"/>
+      <c r="L103" t="inlineStr"/>
       <c r="M103" t="n">
         <v>1</v>
       </c>
@@ -4055,22 +4019,22 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>62850</v>
+        <v>62900</v>
       </c>
       <c r="C104" t="n">
-        <v>62850</v>
+        <v>62900</v>
       </c>
       <c r="D104" t="n">
-        <v>62850</v>
+        <v>62900</v>
       </c>
       <c r="E104" t="n">
-        <v>62850</v>
+        <v>62900</v>
       </c>
       <c r="F104" t="n">
-        <v>1.18</v>
+        <v>3.90885182</v>
       </c>
       <c r="G104" t="n">
-        <v>62985</v>
+        <v>62991.66666666666</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -4079,14 +4043,8 @@
         <v>0</v>
       </c>
       <c r="J104" t="inlineStr"/>
-      <c r="K104" t="n">
-        <v>62900</v>
-      </c>
-      <c r="L104" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="K104" t="inlineStr"/>
+      <c r="L104" t="inlineStr"/>
       <c r="M104" t="n">
         <v>1</v>
       </c>
@@ -4096,22 +4054,22 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>62900</v>
+        <v>62850</v>
       </c>
       <c r="C105" t="n">
-        <v>63000</v>
+        <v>62850</v>
       </c>
       <c r="D105" t="n">
-        <v>63000</v>
+        <v>62850</v>
       </c>
       <c r="E105" t="n">
-        <v>62900</v>
+        <v>62850</v>
       </c>
       <c r="F105" t="n">
-        <v>32.4</v>
+        <v>1.18</v>
       </c>
       <c r="G105" t="n">
-        <v>62980</v>
+        <v>62985</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -4131,22 +4089,22 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>63100</v>
+        <v>62900</v>
       </c>
       <c r="C106" t="n">
-        <v>63100</v>
+        <v>63000</v>
       </c>
       <c r="D106" t="n">
-        <v>63100</v>
+        <v>63000</v>
       </c>
       <c r="E106" t="n">
-        <v>63100</v>
+        <v>62900</v>
       </c>
       <c r="F106" t="n">
-        <v>6.557</v>
+        <v>32.4</v>
       </c>
       <c r="G106" t="n">
-        <v>62975.83333333334</v>
+        <v>62980</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -4166,22 +4124,22 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>63200</v>
+        <v>63100</v>
       </c>
       <c r="C107" t="n">
-        <v>63200</v>
+        <v>63100</v>
       </c>
       <c r="D107" t="n">
-        <v>63350</v>
+        <v>63100</v>
       </c>
       <c r="E107" t="n">
-        <v>63200</v>
+        <v>63100</v>
       </c>
       <c r="F107" t="n">
-        <v>71.9121</v>
+        <v>6.557</v>
       </c>
       <c r="G107" t="n">
-        <v>62973.33333333334</v>
+        <v>62975.83333333334</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -4201,22 +4159,22 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>63350</v>
+        <v>63200</v>
       </c>
       <c r="C108" t="n">
-        <v>63300</v>
+        <v>63200</v>
       </c>
       <c r="D108" t="n">
         <v>63350</v>
       </c>
       <c r="E108" t="n">
-        <v>63300</v>
+        <v>63200</v>
       </c>
       <c r="F108" t="n">
-        <v>104.026</v>
+        <v>71.9121</v>
       </c>
       <c r="G108" t="n">
-        <v>62975</v>
+        <v>62973.33333333334</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -4236,22 +4194,22 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>63400</v>
+        <v>63350</v>
       </c>
       <c r="C109" t="n">
         <v>63300</v>
       </c>
       <c r="D109" t="n">
-        <v>63450</v>
+        <v>63350</v>
       </c>
       <c r="E109" t="n">
-        <v>63200</v>
+        <v>63300</v>
       </c>
       <c r="F109" t="n">
-        <v>295.68410473</v>
+        <v>104.026</v>
       </c>
       <c r="G109" t="n">
-        <v>62976.66666666666</v>
+        <v>62975</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -4271,22 +4229,22 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>63350</v>
+        <v>63400</v>
       </c>
       <c r="C110" t="n">
-        <v>63350</v>
+        <v>63300</v>
       </c>
       <c r="D110" t="n">
-        <v>63350</v>
+        <v>63450</v>
       </c>
       <c r="E110" t="n">
-        <v>63350</v>
+        <v>63200</v>
       </c>
       <c r="F110" t="n">
-        <v>76.59139999999999</v>
+        <v>295.68410473</v>
       </c>
       <c r="G110" t="n">
-        <v>62979.16666666666</v>
+        <v>62976.66666666666</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -4306,19 +4264,19 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>63400</v>
+        <v>63350</v>
       </c>
       <c r="C111" t="n">
-        <v>63300</v>
+        <v>63350</v>
       </c>
       <c r="D111" t="n">
-        <v>63400</v>
+        <v>63350</v>
       </c>
       <c r="E111" t="n">
-        <v>63300</v>
+        <v>63350</v>
       </c>
       <c r="F111" t="n">
-        <v>100.0745</v>
+        <v>76.59139999999999</v>
       </c>
       <c r="G111" t="n">
         <v>62979.16666666666</v>
@@ -4341,28 +4299,28 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>63300</v>
+        <v>63400</v>
       </c>
       <c r="C112" t="n">
         <v>63300</v>
       </c>
       <c r="D112" t="n">
-        <v>63300</v>
+        <v>63400</v>
       </c>
       <c r="E112" t="n">
         <v>63300</v>
       </c>
       <c r="F112" t="n">
-        <v>5.5974</v>
+        <v>100.0745</v>
       </c>
       <c r="G112" t="n">
-        <v>62980.83333333334</v>
+        <v>62979.16666666666</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
       </c>
       <c r="I112" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J112" t="inlineStr"/>
       <c r="K112" t="inlineStr"/>
@@ -4376,28 +4334,28 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>63400</v>
+        <v>63300</v>
       </c>
       <c r="C113" t="n">
-        <v>63400</v>
+        <v>63300</v>
       </c>
       <c r="D113" t="n">
-        <v>63400</v>
+        <v>63300</v>
       </c>
       <c r="E113" t="n">
-        <v>63400</v>
+        <v>63300</v>
       </c>
       <c r="F113" t="n">
-        <v>6.0533</v>
+        <v>5.5974</v>
       </c>
       <c r="G113" t="n">
-        <v>62984.16666666666</v>
+        <v>62980.83333333334</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
       </c>
       <c r="I113" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J113" t="inlineStr"/>
       <c r="K113" t="inlineStr"/>
@@ -4414,25 +4372,25 @@
         <v>63400</v>
       </c>
       <c r="C114" t="n">
-        <v>63500</v>
+        <v>63400</v>
       </c>
       <c r="D114" t="n">
-        <v>63500</v>
+        <v>63400</v>
       </c>
       <c r="E114" t="n">
         <v>63400</v>
       </c>
       <c r="F114" t="n">
-        <v>33.5997</v>
+        <v>6.0533</v>
       </c>
       <c r="G114" t="n">
-        <v>62989.16666666666</v>
+        <v>62984.16666666666</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
       </c>
       <c r="I114" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J114" t="inlineStr"/>
       <c r="K114" t="inlineStr"/>
@@ -4446,22 +4404,22 @@
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>63550</v>
+        <v>63400</v>
       </c>
       <c r="C115" t="n">
-        <v>63550</v>
+        <v>63500</v>
       </c>
       <c r="D115" t="n">
-        <v>63550</v>
+        <v>63500</v>
       </c>
       <c r="E115" t="n">
-        <v>63550</v>
+        <v>63400</v>
       </c>
       <c r="F115" t="n">
-        <v>14.4291</v>
+        <v>33.5997</v>
       </c>
       <c r="G115" t="n">
-        <v>62996.66666666666</v>
+        <v>62989.16666666666</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -4481,28 +4439,28 @@
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>63500</v>
+        <v>63550</v>
       </c>
       <c r="C116" t="n">
-        <v>63500</v>
+        <v>63550</v>
       </c>
       <c r="D116" t="n">
-        <v>63500</v>
+        <v>63550</v>
       </c>
       <c r="E116" t="n">
-        <v>63500</v>
+        <v>63550</v>
       </c>
       <c r="F116" t="n">
-        <v>5.4618</v>
+        <v>14.4291</v>
       </c>
       <c r="G116" t="n">
-        <v>63000</v>
+        <v>62996.66666666666</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
       </c>
       <c r="I116" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J116" t="inlineStr"/>
       <c r="K116" t="inlineStr"/>
@@ -4516,22 +4474,22 @@
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>63400</v>
+        <v>63500</v>
       </c>
       <c r="C117" t="n">
-        <v>63400</v>
+        <v>63500</v>
       </c>
       <c r="D117" t="n">
-        <v>63400</v>
+        <v>63500</v>
       </c>
       <c r="E117" t="n">
-        <v>63400</v>
+        <v>63500</v>
       </c>
       <c r="F117" t="n">
-        <v>2.2871</v>
+        <v>5.4618</v>
       </c>
       <c r="G117" t="n">
-        <v>63005</v>
+        <v>63000</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -4563,10 +4521,10 @@
         <v>63400</v>
       </c>
       <c r="F118" t="n">
-        <v>8.667199999999999</v>
+        <v>2.2871</v>
       </c>
       <c r="G118" t="n">
-        <v>63009.16666666666</v>
+        <v>63005</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -4586,22 +4544,22 @@
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>63350</v>
+        <v>63400</v>
       </c>
       <c r="C119" t="n">
-        <v>63350</v>
+        <v>63400</v>
       </c>
       <c r="D119" t="n">
-        <v>63350</v>
+        <v>63400</v>
       </c>
       <c r="E119" t="n">
-        <v>63350</v>
+        <v>63400</v>
       </c>
       <c r="F119" t="n">
-        <v>2.3394</v>
+        <v>8.667199999999999</v>
       </c>
       <c r="G119" t="n">
-        <v>63013.33333333334</v>
+        <v>63009.16666666666</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -4624,19 +4582,19 @@
         <v>63350</v>
       </c>
       <c r="C120" t="n">
-        <v>63200</v>
+        <v>63350</v>
       </c>
       <c r="D120" t="n">
         <v>63350</v>
       </c>
       <c r="E120" t="n">
-        <v>63200</v>
+        <v>63350</v>
       </c>
       <c r="F120" t="n">
-        <v>37.5124</v>
+        <v>2.3394</v>
       </c>
       <c r="G120" t="n">
-        <v>63016.66666666666</v>
+        <v>63013.33333333334</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -4656,22 +4614,22 @@
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>63200</v>
+        <v>63350</v>
       </c>
       <c r="C121" t="n">
-        <v>63150</v>
+        <v>63200</v>
       </c>
       <c r="D121" t="n">
-        <v>63250</v>
+        <v>63350</v>
       </c>
       <c r="E121" t="n">
-        <v>63100</v>
+        <v>63200</v>
       </c>
       <c r="F121" t="n">
-        <v>272.078</v>
+        <v>37.5124</v>
       </c>
       <c r="G121" t="n">
-        <v>63017.5</v>
+        <v>63016.66666666666</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -4691,22 +4649,22 @@
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>63150</v>
+        <v>63200</v>
       </c>
       <c r="C122" t="n">
         <v>63150</v>
       </c>
       <c r="D122" t="n">
-        <v>63150</v>
+        <v>63250</v>
       </c>
       <c r="E122" t="n">
-        <v>63150</v>
+        <v>63100</v>
       </c>
       <c r="F122" t="n">
-        <v>3</v>
+        <v>272.078</v>
       </c>
       <c r="G122" t="n">
-        <v>63019.16666666666</v>
+        <v>63017.5</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -4726,22 +4684,22 @@
         <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>63200</v>
+        <v>63150</v>
       </c>
       <c r="C123" t="n">
-        <v>63200</v>
+        <v>63150</v>
       </c>
       <c r="D123" t="n">
-        <v>63200</v>
+        <v>63150</v>
       </c>
       <c r="E123" t="n">
-        <v>63200</v>
+        <v>63150</v>
       </c>
       <c r="F123" t="n">
-        <v>0.1</v>
+        <v>3</v>
       </c>
       <c r="G123" t="n">
-        <v>63021.66666666666</v>
+        <v>63019.16666666666</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -4761,22 +4719,22 @@
         <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>63100</v>
+        <v>63200</v>
       </c>
       <c r="C124" t="n">
-        <v>63100</v>
+        <v>63200</v>
       </c>
       <c r="D124" t="n">
-        <v>63100</v>
+        <v>63200</v>
       </c>
       <c r="E124" t="n">
-        <v>63100</v>
+        <v>63200</v>
       </c>
       <c r="F124" t="n">
-        <v>9.997</v>
+        <v>0.1</v>
       </c>
       <c r="G124" t="n">
-        <v>63022.5</v>
+        <v>63021.66666666666</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -4796,22 +4754,22 @@
         <v>123</v>
       </c>
       <c r="B125" t="n">
-        <v>63000</v>
+        <v>63100</v>
       </c>
       <c r="C125" t="n">
-        <v>63000</v>
+        <v>63100</v>
       </c>
       <c r="D125" t="n">
-        <v>63000</v>
+        <v>63100</v>
       </c>
       <c r="E125" t="n">
-        <v>63000</v>
+        <v>63100</v>
       </c>
       <c r="F125" t="n">
-        <v>0.4807</v>
+        <v>9.997</v>
       </c>
       <c r="G125" t="n">
-        <v>63024.16666666666</v>
+        <v>63022.5</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -4831,22 +4789,22 @@
         <v>124</v>
       </c>
       <c r="B126" t="n">
-        <v>63350</v>
+        <v>63000</v>
       </c>
       <c r="C126" t="n">
-        <v>63350</v>
+        <v>63000</v>
       </c>
       <c r="D126" t="n">
-        <v>63350</v>
+        <v>63000</v>
       </c>
       <c r="E126" t="n">
-        <v>63350</v>
+        <v>63000</v>
       </c>
       <c r="F126" t="n">
-        <v>0.0646</v>
+        <v>0.4807</v>
       </c>
       <c r="G126" t="n">
-        <v>63030.83333333334</v>
+        <v>63024.16666666666</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
@@ -4866,22 +4824,22 @@
         <v>125</v>
       </c>
       <c r="B127" t="n">
-        <v>63200</v>
+        <v>63350</v>
       </c>
       <c r="C127" t="n">
-        <v>63200</v>
+        <v>63350</v>
       </c>
       <c r="D127" t="n">
-        <v>63200</v>
+        <v>63350</v>
       </c>
       <c r="E127" t="n">
-        <v>63200</v>
+        <v>63350</v>
       </c>
       <c r="F127" t="n">
-        <v>28.4566</v>
+        <v>0.0646</v>
       </c>
       <c r="G127" t="n">
-        <v>63034.16666666666</v>
+        <v>63030.83333333334</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
@@ -4913,10 +4871,10 @@
         <v>63200</v>
       </c>
       <c r="F128" t="n">
-        <v>1.7164</v>
+        <v>28.4566</v>
       </c>
       <c r="G128" t="n">
-        <v>63038.33333333334</v>
+        <v>63034.16666666666</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
@@ -4936,22 +4894,22 @@
         <v>127</v>
       </c>
       <c r="B129" t="n">
-        <v>63250</v>
+        <v>63200</v>
       </c>
       <c r="C129" t="n">
-        <v>63250</v>
+        <v>63200</v>
       </c>
       <c r="D129" t="n">
-        <v>63250</v>
+        <v>63200</v>
       </c>
       <c r="E129" t="n">
-        <v>63250</v>
+        <v>63200</v>
       </c>
       <c r="F129" t="n">
-        <v>1.2408</v>
+        <v>1.7164</v>
       </c>
       <c r="G129" t="n">
-        <v>63043.33333333334</v>
+        <v>63038.33333333334</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
@@ -4971,22 +4929,22 @@
         <v>128</v>
       </c>
       <c r="B130" t="n">
-        <v>63200</v>
+        <v>63250</v>
       </c>
       <c r="C130" t="n">
-        <v>63200</v>
+        <v>63250</v>
       </c>
       <c r="D130" t="n">
-        <v>63200</v>
+        <v>63250</v>
       </c>
       <c r="E130" t="n">
-        <v>63200</v>
+        <v>63250</v>
       </c>
       <c r="F130" t="n">
-        <v>10.9984</v>
+        <v>1.2408</v>
       </c>
       <c r="G130" t="n">
-        <v>63048.33333333334</v>
+        <v>63043.33333333334</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>
@@ -5018,10 +4976,10 @@
         <v>63200</v>
       </c>
       <c r="F131" t="n">
-        <v>38.4599</v>
+        <v>10.9984</v>
       </c>
       <c r="G131" t="n">
-        <v>63053.33333333334</v>
+        <v>63048.33333333334</v>
       </c>
       <c r="H131" t="n">
         <v>0</v>
@@ -5053,10 +5011,10 @@
         <v>63200</v>
       </c>
       <c r="F132" t="n">
-        <v>4.8765</v>
+        <v>38.4599</v>
       </c>
       <c r="G132" t="n">
-        <v>63058.33333333334</v>
+        <v>63053.33333333334</v>
       </c>
       <c r="H132" t="n">
         <v>0</v>
@@ -5088,10 +5046,10 @@
         <v>63200</v>
       </c>
       <c r="F133" t="n">
-        <v>1.1507</v>
+        <v>4.8765</v>
       </c>
       <c r="G133" t="n">
-        <v>63063.33333333334</v>
+        <v>63058.33333333334</v>
       </c>
       <c r="H133" t="n">
         <v>0</v>
@@ -5123,10 +5081,10 @@
         <v>63200</v>
       </c>
       <c r="F134" t="n">
-        <v>0.7193000000000001</v>
+        <v>1.1507</v>
       </c>
       <c r="G134" t="n">
-        <v>63068.33333333334</v>
+        <v>63063.33333333334</v>
       </c>
       <c r="H134" t="n">
         <v>0</v>
@@ -5146,22 +5104,22 @@
         <v>133</v>
       </c>
       <c r="B135" t="n">
-        <v>63300</v>
+        <v>63200</v>
       </c>
       <c r="C135" t="n">
-        <v>63300</v>
+        <v>63200</v>
       </c>
       <c r="D135" t="n">
-        <v>63300</v>
+        <v>63200</v>
       </c>
       <c r="E135" t="n">
-        <v>63300</v>
+        <v>63200</v>
       </c>
       <c r="F135" t="n">
-        <v>0.05</v>
+        <v>0.7193000000000001</v>
       </c>
       <c r="G135" t="n">
-        <v>63075</v>
+        <v>63068.33333333334</v>
       </c>
       <c r="H135" t="n">
         <v>0</v>
@@ -5181,22 +5139,22 @@
         <v>134</v>
       </c>
       <c r="B136" t="n">
-        <v>63200</v>
+        <v>63300</v>
       </c>
       <c r="C136" t="n">
-        <v>63200</v>
+        <v>63300</v>
       </c>
       <c r="D136" t="n">
-        <v>63200</v>
+        <v>63300</v>
       </c>
       <c r="E136" t="n">
-        <v>63200</v>
+        <v>63300</v>
       </c>
       <c r="F136" t="n">
-        <v>1.16</v>
+        <v>0.05</v>
       </c>
       <c r="G136" t="n">
-        <v>63080</v>
+        <v>63075</v>
       </c>
       <c r="H136" t="n">
         <v>0</v>
@@ -5228,10 +5186,10 @@
         <v>63200</v>
       </c>
       <c r="F137" t="n">
-        <v>12.4622</v>
+        <v>1.16</v>
       </c>
       <c r="G137" t="n">
-        <v>63083.33333333334</v>
+        <v>63080</v>
       </c>
       <c r="H137" t="n">
         <v>0</v>
@@ -5254,19 +5212,19 @@
         <v>63200</v>
       </c>
       <c r="C138" t="n">
-        <v>63050</v>
+        <v>63200</v>
       </c>
       <c r="D138" t="n">
         <v>63200</v>
       </c>
       <c r="E138" t="n">
-        <v>63050</v>
+        <v>63200</v>
       </c>
       <c r="F138" t="n">
-        <v>56.62475822</v>
+        <v>12.4622</v>
       </c>
       <c r="G138" t="n">
-        <v>63085.83333333334</v>
+        <v>63083.33333333334</v>
       </c>
       <c r="H138" t="n">
         <v>0</v>
@@ -5286,22 +5244,22 @@
         <v>137</v>
       </c>
       <c r="B139" t="n">
-        <v>63050</v>
+        <v>63200</v>
       </c>
       <c r="C139" t="n">
         <v>63050</v>
       </c>
       <c r="D139" t="n">
-        <v>63050</v>
+        <v>63200</v>
       </c>
       <c r="E139" t="n">
         <v>63050</v>
       </c>
       <c r="F139" t="n">
-        <v>1.3244</v>
+        <v>56.62475822</v>
       </c>
       <c r="G139" t="n">
-        <v>63088.33333333334</v>
+        <v>63085.83333333334</v>
       </c>
       <c r="H139" t="n">
         <v>0</v>
@@ -5324,19 +5282,19 @@
         <v>63050</v>
       </c>
       <c r="C140" t="n">
-        <v>63000</v>
+        <v>63050</v>
       </c>
       <c r="D140" t="n">
         <v>63050</v>
       </c>
       <c r="E140" t="n">
-        <v>63000</v>
+        <v>63050</v>
       </c>
       <c r="F140" t="n">
-        <v>5.9239</v>
+        <v>1.3244</v>
       </c>
       <c r="G140" t="n">
-        <v>63090</v>
+        <v>63088.33333333334</v>
       </c>
       <c r="H140" t="n">
         <v>0</v>
@@ -5356,32 +5314,38 @@
         <v>139</v>
       </c>
       <c r="B141" t="n">
-        <v>63000</v>
+        <v>63050</v>
       </c>
       <c r="C141" t="n">
         <v>63000</v>
       </c>
       <c r="D141" t="n">
-        <v>63000</v>
+        <v>63050</v>
       </c>
       <c r="E141" t="n">
         <v>63000</v>
       </c>
       <c r="F141" t="n">
-        <v>30.2567</v>
+        <v>5.9239</v>
       </c>
       <c r="G141" t="n">
-        <v>63090.83333333334</v>
+        <v>63090</v>
       </c>
       <c r="H141" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I141" t="n">
         <v>0</v>
       </c>
-      <c r="J141" t="inlineStr"/>
+      <c r="J141" t="n">
+        <v>63050</v>
+      </c>
       <c r="K141" t="inlineStr"/>
-      <c r="L141" t="inlineStr"/>
+      <c r="L141" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="M141" t="n">
         <v>1</v>
       </c>
@@ -5391,32 +5355,38 @@
         <v>140</v>
       </c>
       <c r="B142" t="n">
-        <v>63150</v>
+        <v>63000</v>
       </c>
       <c r="C142" t="n">
-        <v>63150</v>
+        <v>63000</v>
       </c>
       <c r="D142" t="n">
-        <v>63150</v>
+        <v>63000</v>
       </c>
       <c r="E142" t="n">
-        <v>63150</v>
+        <v>63000</v>
       </c>
       <c r="F142" t="n">
-        <v>0.05277909</v>
+        <v>30.2567</v>
       </c>
       <c r="G142" t="n">
-        <v>63092.5</v>
+        <v>63090.83333333334</v>
       </c>
       <c r="H142" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I142" t="n">
         <v>0</v>
       </c>
-      <c r="J142" t="inlineStr"/>
+      <c r="J142" t="n">
+        <v>63000</v>
+      </c>
       <c r="K142" t="inlineStr"/>
-      <c r="L142" t="inlineStr"/>
+      <c r="L142" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M142" t="n">
         <v>1</v>
       </c>
@@ -5426,32 +5396,38 @@
         <v>141</v>
       </c>
       <c r="B143" t="n">
-        <v>63050</v>
+        <v>63150</v>
       </c>
       <c r="C143" t="n">
-        <v>63050</v>
+        <v>63150</v>
       </c>
       <c r="D143" t="n">
-        <v>63050</v>
+        <v>63150</v>
       </c>
       <c r="E143" t="n">
-        <v>63050</v>
+        <v>63150</v>
       </c>
       <c r="F143" t="n">
-        <v>1.5286</v>
+        <v>0.05277909</v>
       </c>
       <c r="G143" t="n">
-        <v>63094.16666666666</v>
+        <v>63092.5</v>
       </c>
       <c r="H143" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I143" t="n">
         <v>0</v>
       </c>
-      <c r="J143" t="inlineStr"/>
+      <c r="J143" t="n">
+        <v>63000</v>
+      </c>
       <c r="K143" t="inlineStr"/>
-      <c r="L143" t="inlineStr"/>
+      <c r="L143" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M143" t="n">
         <v>1</v>
       </c>
@@ -5473,10 +5449,10 @@
         <v>63050</v>
       </c>
       <c r="F144" t="n">
-        <v>0.0872</v>
+        <v>1.5286</v>
       </c>
       <c r="G144" t="n">
-        <v>63095.83333333334</v>
+        <v>63094.16666666666</v>
       </c>
       <c r="H144" t="n">
         <v>0</v>
@@ -5486,7 +5462,11 @@
       </c>
       <c r="J144" t="inlineStr"/>
       <c r="K144" t="inlineStr"/>
-      <c r="L144" t="inlineStr"/>
+      <c r="L144" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M144" t="n">
         <v>1</v>
       </c>
@@ -5508,10 +5488,10 @@
         <v>63050</v>
       </c>
       <c r="F145" t="n">
-        <v>2.158</v>
+        <v>0.0872</v>
       </c>
       <c r="G145" t="n">
-        <v>63097.5</v>
+        <v>63095.83333333334</v>
       </c>
       <c r="H145" t="n">
         <v>0</v>
@@ -5521,7 +5501,11 @@
       </c>
       <c r="J145" t="inlineStr"/>
       <c r="K145" t="inlineStr"/>
-      <c r="L145" t="inlineStr"/>
+      <c r="L145" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M145" t="n">
         <v>1</v>
       </c>
@@ -5531,19 +5515,19 @@
         <v>144</v>
       </c>
       <c r="B146" t="n">
-        <v>63000</v>
+        <v>63050</v>
       </c>
       <c r="C146" t="n">
-        <v>63000</v>
+        <v>63050</v>
       </c>
       <c r="D146" t="n">
-        <v>63000</v>
+        <v>63050</v>
       </c>
       <c r="E146" t="n">
-        <v>63000</v>
+        <v>63050</v>
       </c>
       <c r="F146" t="n">
-        <v>5.8391</v>
+        <v>2.158</v>
       </c>
       <c r="G146" t="n">
         <v>63097.5</v>
@@ -5556,7 +5540,11 @@
       </c>
       <c r="J146" t="inlineStr"/>
       <c r="K146" t="inlineStr"/>
-      <c r="L146" t="inlineStr"/>
+      <c r="L146" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M146" t="n">
         <v>1</v>
       </c>
@@ -5566,22 +5554,22 @@
         <v>145</v>
       </c>
       <c r="B147" t="n">
-        <v>63100</v>
+        <v>63000</v>
       </c>
       <c r="C147" t="n">
-        <v>63100</v>
+        <v>63000</v>
       </c>
       <c r="D147" t="n">
-        <v>63100</v>
+        <v>63000</v>
       </c>
       <c r="E147" t="n">
-        <v>63100</v>
+        <v>63000</v>
       </c>
       <c r="F147" t="n">
-        <v>22.2024</v>
+        <v>5.8391</v>
       </c>
       <c r="G147" t="n">
-        <v>63100</v>
+        <v>63097.5</v>
       </c>
       <c r="H147" t="n">
         <v>0</v>
@@ -5591,7 +5579,11 @@
       </c>
       <c r="J147" t="inlineStr"/>
       <c r="K147" t="inlineStr"/>
-      <c r="L147" t="inlineStr"/>
+      <c r="L147" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M147" t="n">
         <v>1</v>
       </c>
@@ -5601,22 +5593,22 @@
         <v>146</v>
       </c>
       <c r="B148" t="n">
-        <v>63200</v>
+        <v>63100</v>
       </c>
       <c r="C148" t="n">
-        <v>63200</v>
+        <v>63100</v>
       </c>
       <c r="D148" t="n">
-        <v>63200</v>
+        <v>63100</v>
       </c>
       <c r="E148" t="n">
-        <v>63200</v>
+        <v>63100</v>
       </c>
       <c r="F148" t="n">
-        <v>0.1592</v>
+        <v>22.2024</v>
       </c>
       <c r="G148" t="n">
-        <v>63104.16666666666</v>
+        <v>63100</v>
       </c>
       <c r="H148" t="n">
         <v>0</v>
@@ -5626,7 +5618,11 @@
       </c>
       <c r="J148" t="inlineStr"/>
       <c r="K148" t="inlineStr"/>
-      <c r="L148" t="inlineStr"/>
+      <c r="L148" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M148" t="n">
         <v>1</v>
       </c>
@@ -5636,22 +5632,22 @@
         <v>147</v>
       </c>
       <c r="B149" t="n">
-        <v>63100</v>
+        <v>63200</v>
       </c>
       <c r="C149" t="n">
-        <v>63100</v>
+        <v>63200</v>
       </c>
       <c r="D149" t="n">
-        <v>63100</v>
+        <v>63200</v>
       </c>
       <c r="E149" t="n">
-        <v>63100</v>
+        <v>63200</v>
       </c>
       <c r="F149" t="n">
-        <v>2.341</v>
+        <v>0.1592</v>
       </c>
       <c r="G149" t="n">
-        <v>63106.66666666666</v>
+        <v>63104.16666666666</v>
       </c>
       <c r="H149" t="n">
         <v>0</v>
@@ -5661,7 +5657,11 @@
       </c>
       <c r="J149" t="inlineStr"/>
       <c r="K149" t="inlineStr"/>
-      <c r="L149" t="inlineStr"/>
+      <c r="L149" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M149" t="n">
         <v>1</v>
       </c>
@@ -5671,22 +5671,22 @@
         <v>148</v>
       </c>
       <c r="B150" t="n">
-        <v>63000</v>
+        <v>63100</v>
       </c>
       <c r="C150" t="n">
-        <v>63000</v>
+        <v>63100</v>
       </c>
       <c r="D150" t="n">
-        <v>63000</v>
+        <v>63100</v>
       </c>
       <c r="E150" t="n">
-        <v>63000</v>
+        <v>63100</v>
       </c>
       <c r="F150" t="n">
-        <v>0.9184</v>
+        <v>2.341</v>
       </c>
       <c r="G150" t="n">
-        <v>63107.5</v>
+        <v>63106.66666666666</v>
       </c>
       <c r="H150" t="n">
         <v>0</v>
@@ -5696,7 +5696,11 @@
       </c>
       <c r="J150" t="inlineStr"/>
       <c r="K150" t="inlineStr"/>
-      <c r="L150" t="inlineStr"/>
+      <c r="L150" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M150" t="n">
         <v>1</v>
       </c>
@@ -5718,10 +5722,10 @@
         <v>63000</v>
       </c>
       <c r="F151" t="n">
-        <v>17.1044</v>
+        <v>0.9184</v>
       </c>
       <c r="G151" t="n">
-        <v>63110.83333333334</v>
+        <v>63107.5</v>
       </c>
       <c r="H151" t="n">
         <v>0</v>
@@ -5731,7 +5735,11 @@
       </c>
       <c r="J151" t="inlineStr"/>
       <c r="K151" t="inlineStr"/>
-      <c r="L151" t="inlineStr"/>
+      <c r="L151" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M151" t="n">
         <v>1</v>
       </c>
@@ -5753,10 +5761,10 @@
         <v>63000</v>
       </c>
       <c r="F152" t="n">
-        <v>107.8064</v>
+        <v>17.1044</v>
       </c>
       <c r="G152" t="n">
-        <v>63114.16666666666</v>
+        <v>63110.83333333334</v>
       </c>
       <c r="H152" t="n">
         <v>0</v>
@@ -5766,7 +5774,11 @@
       </c>
       <c r="J152" t="inlineStr"/>
       <c r="K152" t="inlineStr"/>
-      <c r="L152" t="inlineStr"/>
+      <c r="L152" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M152" t="n">
         <v>1</v>
       </c>
@@ -5776,22 +5788,22 @@
         <v>151</v>
       </c>
       <c r="B153" t="n">
-        <v>63050</v>
+        <v>63000</v>
       </c>
       <c r="C153" t="n">
-        <v>63050</v>
+        <v>63000</v>
       </c>
       <c r="D153" t="n">
-        <v>63050</v>
+        <v>63000</v>
       </c>
       <c r="E153" t="n">
-        <v>63050</v>
+        <v>63000</v>
       </c>
       <c r="F153" t="n">
-        <v>0.3965107</v>
+        <v>107.8064</v>
       </c>
       <c r="G153" t="n">
-        <v>63118.33333333334</v>
+        <v>63114.16666666666</v>
       </c>
       <c r="H153" t="n">
         <v>0</v>
@@ -5801,7 +5813,11 @@
       </c>
       <c r="J153" t="inlineStr"/>
       <c r="K153" t="inlineStr"/>
-      <c r="L153" t="inlineStr"/>
+      <c r="L153" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M153" t="n">
         <v>1</v>
       </c>
@@ -5811,22 +5827,22 @@
         <v>152</v>
       </c>
       <c r="B154" t="n">
-        <v>62900</v>
+        <v>63050</v>
       </c>
       <c r="C154" t="n">
-        <v>62900</v>
+        <v>63050</v>
       </c>
       <c r="D154" t="n">
-        <v>62900</v>
+        <v>63050</v>
       </c>
       <c r="E154" t="n">
-        <v>62900</v>
+        <v>63050</v>
       </c>
       <c r="F154" t="n">
-        <v>6.49</v>
+        <v>0.3965107</v>
       </c>
       <c r="G154" t="n">
-        <v>63121.66666666666</v>
+        <v>63118.33333333334</v>
       </c>
       <c r="H154" t="n">
         <v>0</v>
@@ -5836,7 +5852,11 @@
       </c>
       <c r="J154" t="inlineStr"/>
       <c r="K154" t="inlineStr"/>
-      <c r="L154" t="inlineStr"/>
+      <c r="L154" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M154" t="n">
         <v>1</v>
       </c>
@@ -5858,10 +5878,10 @@
         <v>62900</v>
       </c>
       <c r="F155" t="n">
-        <v>2.6862</v>
+        <v>6.49</v>
       </c>
       <c r="G155" t="n">
-        <v>63125</v>
+        <v>63121.66666666666</v>
       </c>
       <c r="H155" t="n">
         <v>0</v>
@@ -5871,7 +5891,11 @@
       </c>
       <c r="J155" t="inlineStr"/>
       <c r="K155" t="inlineStr"/>
-      <c r="L155" t="inlineStr"/>
+      <c r="L155" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M155" t="n">
         <v>1</v>
       </c>
@@ -5893,10 +5917,10 @@
         <v>62900</v>
       </c>
       <c r="F156" t="n">
-        <v>6.73</v>
+        <v>2.6862</v>
       </c>
       <c r="G156" t="n">
-        <v>63125.83333333334</v>
+        <v>63125</v>
       </c>
       <c r="H156" t="n">
         <v>0</v>
@@ -5906,7 +5930,11 @@
       </c>
       <c r="J156" t="inlineStr"/>
       <c r="K156" t="inlineStr"/>
-      <c r="L156" t="inlineStr"/>
+      <c r="L156" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M156" t="n">
         <v>1</v>
       </c>
@@ -5928,10 +5956,10 @@
         <v>62900</v>
       </c>
       <c r="F157" t="n">
-        <v>3.977</v>
+        <v>6.73</v>
       </c>
       <c r="G157" t="n">
-        <v>63127.5</v>
+        <v>63125.83333333334</v>
       </c>
       <c r="H157" t="n">
         <v>0</v>
@@ -5941,7 +5969,11 @@
       </c>
       <c r="J157" t="inlineStr"/>
       <c r="K157" t="inlineStr"/>
-      <c r="L157" t="inlineStr"/>
+      <c r="L157" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M157" t="n">
         <v>1</v>
       </c>
@@ -5951,22 +5983,22 @@
         <v>156</v>
       </c>
       <c r="B158" t="n">
-        <v>63000</v>
+        <v>62900</v>
       </c>
       <c r="C158" t="n">
-        <v>63000</v>
+        <v>62900</v>
       </c>
       <c r="D158" t="n">
-        <v>63000</v>
+        <v>62900</v>
       </c>
       <c r="E158" t="n">
-        <v>63000</v>
+        <v>62900</v>
       </c>
       <c r="F158" t="n">
-        <v>21.7067</v>
+        <v>3.977</v>
       </c>
       <c r="G158" t="n">
-        <v>63132.5</v>
+        <v>63127.5</v>
       </c>
       <c r="H158" t="n">
         <v>0</v>
@@ -5976,7 +6008,11 @@
       </c>
       <c r="J158" t="inlineStr"/>
       <c r="K158" t="inlineStr"/>
-      <c r="L158" t="inlineStr"/>
+      <c r="L158" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M158" t="n">
         <v>1</v>
       </c>
@@ -5986,22 +6022,22 @@
         <v>157</v>
       </c>
       <c r="B159" t="n">
-        <v>63050</v>
+        <v>63000</v>
       </c>
       <c r="C159" t="n">
-        <v>63100</v>
+        <v>63000</v>
       </c>
       <c r="D159" t="n">
-        <v>63100</v>
+        <v>63000</v>
       </c>
       <c r="E159" t="n">
-        <v>63050</v>
+        <v>63000</v>
       </c>
       <c r="F159" t="n">
-        <v>29.4653</v>
+        <v>21.7067</v>
       </c>
       <c r="G159" t="n">
-        <v>63138.33333333334</v>
+        <v>63132.5</v>
       </c>
       <c r="H159" t="n">
         <v>0</v>
@@ -6011,7 +6047,11 @@
       </c>
       <c r="J159" t="inlineStr"/>
       <c r="K159" t="inlineStr"/>
-      <c r="L159" t="inlineStr"/>
+      <c r="L159" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M159" t="n">
         <v>1</v>
       </c>
@@ -6021,7 +6061,7 @@
         <v>158</v>
       </c>
       <c r="B160" t="n">
-        <v>63100</v>
+        <v>63050</v>
       </c>
       <c r="C160" t="n">
         <v>63100</v>
@@ -6030,13 +6070,13 @@
         <v>63100</v>
       </c>
       <c r="E160" t="n">
-        <v>63100</v>
+        <v>63050</v>
       </c>
       <c r="F160" t="n">
-        <v>19.7386</v>
+        <v>29.4653</v>
       </c>
       <c r="G160" t="n">
-        <v>63144.16666666666</v>
+        <v>63138.33333333334</v>
       </c>
       <c r="H160" t="n">
         <v>0</v>
@@ -6046,7 +6086,11 @@
       </c>
       <c r="J160" t="inlineStr"/>
       <c r="K160" t="inlineStr"/>
-      <c r="L160" t="inlineStr"/>
+      <c r="L160" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M160" t="n">
         <v>1</v>
       </c>
@@ -6059,19 +6103,19 @@
         <v>63100</v>
       </c>
       <c r="C161" t="n">
-        <v>63050</v>
+        <v>63100</v>
       </c>
       <c r="D161" t="n">
         <v>63100</v>
       </c>
       <c r="E161" t="n">
-        <v>63050</v>
+        <v>63100</v>
       </c>
       <c r="F161" t="n">
-        <v>55.2473</v>
+        <v>19.7386</v>
       </c>
       <c r="G161" t="n">
-        <v>63146.66666666666</v>
+        <v>63144.16666666666</v>
       </c>
       <c r="H161" t="n">
         <v>0</v>
@@ -6081,7 +6125,11 @@
       </c>
       <c r="J161" t="inlineStr"/>
       <c r="K161" t="inlineStr"/>
-      <c r="L161" t="inlineStr"/>
+      <c r="L161" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M161" t="n">
         <v>1</v>
       </c>
@@ -6091,22 +6139,22 @@
         <v>160</v>
       </c>
       <c r="B162" t="n">
-        <v>63050</v>
+        <v>63100</v>
       </c>
       <c r="C162" t="n">
         <v>63050</v>
       </c>
       <c r="D162" t="n">
-        <v>63050</v>
+        <v>63100</v>
       </c>
       <c r="E162" t="n">
         <v>63050</v>
       </c>
       <c r="F162" t="n">
-        <v>9.976800000000001</v>
+        <v>55.2473</v>
       </c>
       <c r="G162" t="n">
-        <v>63149.16666666666</v>
+        <v>63146.66666666666</v>
       </c>
       <c r="H162" t="n">
         <v>0</v>
@@ -6116,7 +6164,11 @@
       </c>
       <c r="J162" t="inlineStr"/>
       <c r="K162" t="inlineStr"/>
-      <c r="L162" t="inlineStr"/>
+      <c r="L162" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M162" t="n">
         <v>1</v>
       </c>
@@ -6126,22 +6178,22 @@
         <v>161</v>
       </c>
       <c r="B163" t="n">
-        <v>63000</v>
+        <v>63050</v>
       </c>
       <c r="C163" t="n">
-        <v>63000</v>
+        <v>63050</v>
       </c>
       <c r="D163" t="n">
-        <v>63000</v>
+        <v>63050</v>
       </c>
       <c r="E163" t="n">
-        <v>63000</v>
+        <v>63050</v>
       </c>
       <c r="F163" t="n">
-        <v>39.9732</v>
+        <v>9.976800000000001</v>
       </c>
       <c r="G163" t="n">
-        <v>63150.83333333334</v>
+        <v>63149.16666666666</v>
       </c>
       <c r="H163" t="n">
         <v>0</v>
@@ -6151,7 +6203,11 @@
       </c>
       <c r="J163" t="inlineStr"/>
       <c r="K163" t="inlineStr"/>
-      <c r="L163" t="inlineStr"/>
+      <c r="L163" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M163" t="n">
         <v>1</v>
       </c>
@@ -6161,22 +6217,22 @@
         <v>162</v>
       </c>
       <c r="B164" t="n">
-        <v>63100</v>
+        <v>63000</v>
       </c>
       <c r="C164" t="n">
-        <v>63100</v>
+        <v>63000</v>
       </c>
       <c r="D164" t="n">
-        <v>63100</v>
+        <v>63000</v>
       </c>
       <c r="E164" t="n">
-        <v>63100</v>
+        <v>63000</v>
       </c>
       <c r="F164" t="n">
-        <v>0.01760697</v>
+        <v>39.9732</v>
       </c>
       <c r="G164" t="n">
-        <v>63155</v>
+        <v>63150.83333333334</v>
       </c>
       <c r="H164" t="n">
         <v>0</v>
@@ -6186,7 +6242,11 @@
       </c>
       <c r="J164" t="inlineStr"/>
       <c r="K164" t="inlineStr"/>
-      <c r="L164" t="inlineStr"/>
+      <c r="L164" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M164" t="n">
         <v>1</v>
       </c>
@@ -6196,22 +6256,22 @@
         <v>163</v>
       </c>
       <c r="B165" t="n">
-        <v>63050</v>
+        <v>63100</v>
       </c>
       <c r="C165" t="n">
-        <v>63050</v>
+        <v>63100</v>
       </c>
       <c r="D165" t="n">
-        <v>63050</v>
+        <v>63100</v>
       </c>
       <c r="E165" t="n">
-        <v>63050</v>
+        <v>63100</v>
       </c>
       <c r="F165" t="n">
-        <v>7.3162</v>
+        <v>0.01760697</v>
       </c>
       <c r="G165" t="n">
-        <v>63155.83333333334</v>
+        <v>63155</v>
       </c>
       <c r="H165" t="n">
         <v>0</v>
@@ -6221,7 +6281,11 @@
       </c>
       <c r="J165" t="inlineStr"/>
       <c r="K165" t="inlineStr"/>
-      <c r="L165" t="inlineStr"/>
+      <c r="L165" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M165" t="n">
         <v>1</v>
       </c>
@@ -6231,22 +6295,22 @@
         <v>164</v>
       </c>
       <c r="B166" t="n">
-        <v>62950</v>
+        <v>63050</v>
       </c>
       <c r="C166" t="n">
-        <v>62950</v>
+        <v>63050</v>
       </c>
       <c r="D166" t="n">
-        <v>62950</v>
+        <v>63050</v>
       </c>
       <c r="E166" t="n">
-        <v>62950</v>
+        <v>63050</v>
       </c>
       <c r="F166" t="n">
-        <v>2.0849</v>
+        <v>7.3162</v>
       </c>
       <c r="G166" t="n">
-        <v>63153.33333333334</v>
+        <v>63155.83333333334</v>
       </c>
       <c r="H166" t="n">
         <v>0</v>
@@ -6256,7 +6320,11 @@
       </c>
       <c r="J166" t="inlineStr"/>
       <c r="K166" t="inlineStr"/>
-      <c r="L166" t="inlineStr"/>
+      <c r="L166" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M166" t="n">
         <v>1</v>
       </c>
@@ -6266,22 +6334,22 @@
         <v>165</v>
       </c>
       <c r="B167" t="n">
-        <v>63100</v>
+        <v>62950</v>
       </c>
       <c r="C167" t="n">
-        <v>63100</v>
+        <v>62950</v>
       </c>
       <c r="D167" t="n">
-        <v>63100</v>
+        <v>62950</v>
       </c>
       <c r="E167" t="n">
-        <v>63100</v>
+        <v>62950</v>
       </c>
       <c r="F167" t="n">
-        <v>0.799</v>
+        <v>2.0849</v>
       </c>
       <c r="G167" t="n">
-        <v>63151.66666666666</v>
+        <v>63153.33333333334</v>
       </c>
       <c r="H167" t="n">
         <v>0</v>
@@ -6291,7 +6359,11 @@
       </c>
       <c r="J167" t="inlineStr"/>
       <c r="K167" t="inlineStr"/>
-      <c r="L167" t="inlineStr"/>
+      <c r="L167" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M167" t="n">
         <v>1</v>
       </c>
@@ -6301,22 +6373,22 @@
         <v>166</v>
       </c>
       <c r="B168" t="n">
-        <v>63000</v>
+        <v>63100</v>
       </c>
       <c r="C168" t="n">
-        <v>62900</v>
+        <v>63100</v>
       </c>
       <c r="D168" t="n">
-        <v>63000</v>
+        <v>63100</v>
       </c>
       <c r="E168" t="n">
-        <v>62900</v>
+        <v>63100</v>
       </c>
       <c r="F168" t="n">
-        <v>4.6269</v>
+        <v>0.799</v>
       </c>
       <c r="G168" t="n">
-        <v>63145</v>
+        <v>63151.66666666666</v>
       </c>
       <c r="H168" t="n">
         <v>0</v>
@@ -6326,7 +6398,11 @@
       </c>
       <c r="J168" t="inlineStr"/>
       <c r="K168" t="inlineStr"/>
-      <c r="L168" t="inlineStr"/>
+      <c r="L168" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M168" t="n">
         <v>1</v>
       </c>
@@ -6339,19 +6415,19 @@
         <v>63000</v>
       </c>
       <c r="C169" t="n">
-        <v>63000</v>
+        <v>62900</v>
       </c>
       <c r="D169" t="n">
         <v>63000</v>
       </c>
       <c r="E169" t="n">
-        <v>63000</v>
+        <v>62900</v>
       </c>
       <c r="F169" t="n">
-        <v>3.1277</v>
+        <v>4.6269</v>
       </c>
       <c r="G169" t="n">
-        <v>63140</v>
+        <v>63145</v>
       </c>
       <c r="H169" t="n">
         <v>0</v>
@@ -6361,7 +6437,11 @@
       </c>
       <c r="J169" t="inlineStr"/>
       <c r="K169" t="inlineStr"/>
-      <c r="L169" t="inlineStr"/>
+      <c r="L169" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M169" t="n">
         <v>1</v>
       </c>
@@ -6371,22 +6451,22 @@
         <v>168</v>
       </c>
       <c r="B170" t="n">
-        <v>62950</v>
+        <v>63000</v>
       </c>
       <c r="C170" t="n">
-        <v>62950</v>
+        <v>63000</v>
       </c>
       <c r="D170" t="n">
-        <v>62950</v>
+        <v>63000</v>
       </c>
       <c r="E170" t="n">
-        <v>62950</v>
+        <v>63000</v>
       </c>
       <c r="F170" t="n">
-        <v>2.6958</v>
+        <v>3.1277</v>
       </c>
       <c r="G170" t="n">
-        <v>63133.33333333334</v>
+        <v>63140</v>
       </c>
       <c r="H170" t="n">
         <v>0</v>
@@ -6396,7 +6476,11 @@
       </c>
       <c r="J170" t="inlineStr"/>
       <c r="K170" t="inlineStr"/>
-      <c r="L170" t="inlineStr"/>
+      <c r="L170" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M170" t="n">
         <v>1</v>
       </c>
@@ -6418,10 +6502,10 @@
         <v>62950</v>
       </c>
       <c r="F171" t="n">
-        <v>6.8851</v>
+        <v>2.6958</v>
       </c>
       <c r="G171" t="n">
-        <v>63127.5</v>
+        <v>63133.33333333334</v>
       </c>
       <c r="H171" t="n">
         <v>0</v>
@@ -6431,7 +6515,11 @@
       </c>
       <c r="J171" t="inlineStr"/>
       <c r="K171" t="inlineStr"/>
-      <c r="L171" t="inlineStr"/>
+      <c r="L171" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M171" t="n">
         <v>1</v>
       </c>
@@ -6441,22 +6529,22 @@
         <v>170</v>
       </c>
       <c r="B172" t="n">
-        <v>63000</v>
+        <v>62950</v>
       </c>
       <c r="C172" t="n">
         <v>62950</v>
       </c>
       <c r="D172" t="n">
-        <v>63000</v>
+        <v>62950</v>
       </c>
       <c r="E172" t="n">
         <v>62950</v>
       </c>
       <c r="F172" t="n">
-        <v>1.8393</v>
+        <v>6.8851</v>
       </c>
       <c r="G172" t="n">
-        <v>63121.66666666666</v>
+        <v>63127.5</v>
       </c>
       <c r="H172" t="n">
         <v>0</v>
@@ -6466,7 +6554,11 @@
       </c>
       <c r="J172" t="inlineStr"/>
       <c r="K172" t="inlineStr"/>
-      <c r="L172" t="inlineStr"/>
+      <c r="L172" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M172" t="n">
         <v>1</v>
       </c>
@@ -6476,22 +6568,22 @@
         <v>171</v>
       </c>
       <c r="B173" t="n">
-        <v>62950</v>
+        <v>63000</v>
       </c>
       <c r="C173" t="n">
         <v>62950</v>
       </c>
       <c r="D173" t="n">
-        <v>62950</v>
+        <v>63000</v>
       </c>
       <c r="E173" t="n">
         <v>62950</v>
       </c>
       <c r="F173" t="n">
-        <v>14.4191</v>
+        <v>1.8393</v>
       </c>
       <c r="G173" t="n">
-        <v>63114.16666666666</v>
+        <v>63121.66666666666</v>
       </c>
       <c r="H173" t="n">
         <v>0</v>
@@ -6501,7 +6593,11 @@
       </c>
       <c r="J173" t="inlineStr"/>
       <c r="K173" t="inlineStr"/>
-      <c r="L173" t="inlineStr"/>
+      <c r="L173" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M173" t="n">
         <v>1</v>
       </c>
@@ -6511,22 +6607,22 @@
         <v>172</v>
       </c>
       <c r="B174" t="n">
-        <v>63000</v>
+        <v>62950</v>
       </c>
       <c r="C174" t="n">
-        <v>63000</v>
+        <v>62950</v>
       </c>
       <c r="D174" t="n">
-        <v>63000</v>
+        <v>62950</v>
       </c>
       <c r="E174" t="n">
-        <v>63000</v>
+        <v>62950</v>
       </c>
       <c r="F174" t="n">
-        <v>0.7402</v>
+        <v>14.4191</v>
       </c>
       <c r="G174" t="n">
-        <v>63105.83333333334</v>
+        <v>63114.16666666666</v>
       </c>
       <c r="H174" t="n">
         <v>0</v>
@@ -6536,7 +6632,11 @@
       </c>
       <c r="J174" t="inlineStr"/>
       <c r="K174" t="inlineStr"/>
-      <c r="L174" t="inlineStr"/>
+      <c r="L174" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M174" t="n">
         <v>1</v>
       </c>
@@ -6558,10 +6658,10 @@
         <v>63000</v>
       </c>
       <c r="F175" t="n">
-        <v>0.3843</v>
+        <v>0.7402</v>
       </c>
       <c r="G175" t="n">
-        <v>63096.66666666666</v>
+        <v>63105.83333333334</v>
       </c>
       <c r="H175" t="n">
         <v>0</v>
@@ -6571,7 +6671,11 @@
       </c>
       <c r="J175" t="inlineStr"/>
       <c r="K175" t="inlineStr"/>
-      <c r="L175" t="inlineStr"/>
+      <c r="L175" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M175" t="n">
         <v>1</v>
       </c>
@@ -6581,22 +6685,22 @@
         <v>174</v>
       </c>
       <c r="B176" t="n">
-        <v>62900</v>
+        <v>63000</v>
       </c>
       <c r="C176" t="n">
-        <v>62900</v>
+        <v>63000</v>
       </c>
       <c r="D176" t="n">
-        <v>62900</v>
+        <v>63000</v>
       </c>
       <c r="E176" t="n">
-        <v>62900</v>
+        <v>63000</v>
       </c>
       <c r="F176" t="n">
-        <v>16.552</v>
+        <v>0.3843</v>
       </c>
       <c r="G176" t="n">
-        <v>63086.66666666666</v>
+        <v>63096.66666666666</v>
       </c>
       <c r="H176" t="n">
         <v>0</v>
@@ -6606,7 +6710,11 @@
       </c>
       <c r="J176" t="inlineStr"/>
       <c r="K176" t="inlineStr"/>
-      <c r="L176" t="inlineStr"/>
+      <c r="L176" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M176" t="n">
         <v>1</v>
       </c>
@@ -6616,22 +6724,22 @@
         <v>175</v>
       </c>
       <c r="B177" t="n">
-        <v>62800</v>
+        <v>62900</v>
       </c>
       <c r="C177" t="n">
-        <v>62800</v>
+        <v>62900</v>
       </c>
       <c r="D177" t="n">
-        <v>62800</v>
+        <v>62900</v>
       </c>
       <c r="E177" t="n">
-        <v>62800</v>
+        <v>62900</v>
       </c>
       <c r="F177" t="n">
-        <v>91.6262</v>
+        <v>16.552</v>
       </c>
       <c r="G177" t="n">
-        <v>63076.66666666666</v>
+        <v>63086.66666666666</v>
       </c>
       <c r="H177" t="n">
         <v>0</v>
@@ -6641,7 +6749,11 @@
       </c>
       <c r="J177" t="inlineStr"/>
       <c r="K177" t="inlineStr"/>
-      <c r="L177" t="inlineStr"/>
+      <c r="L177" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M177" t="n">
         <v>1</v>
       </c>
@@ -6663,10 +6775,10 @@
         <v>62800</v>
       </c>
       <c r="F178" t="n">
-        <v>18.2837</v>
+        <v>91.6262</v>
       </c>
       <c r="G178" t="n">
-        <v>63066.66666666666</v>
+        <v>63076.66666666666</v>
       </c>
       <c r="H178" t="n">
         <v>0</v>
@@ -6676,7 +6788,11 @@
       </c>
       <c r="J178" t="inlineStr"/>
       <c r="K178" t="inlineStr"/>
-      <c r="L178" t="inlineStr"/>
+      <c r="L178" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M178" t="n">
         <v>1</v>
       </c>
@@ -6695,13 +6811,13 @@
         <v>62800</v>
       </c>
       <c r="E179" t="n">
-        <v>62750</v>
+        <v>62800</v>
       </c>
       <c r="F179" t="n">
-        <v>57.7636</v>
+        <v>18.2837</v>
       </c>
       <c r="G179" t="n">
-        <v>63057.5</v>
+        <v>63066.66666666666</v>
       </c>
       <c r="H179" t="n">
         <v>0</v>
@@ -6711,7 +6827,11 @@
       </c>
       <c r="J179" t="inlineStr"/>
       <c r="K179" t="inlineStr"/>
-      <c r="L179" t="inlineStr"/>
+      <c r="L179" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M179" t="n">
         <v>1</v>
       </c>
@@ -6721,22 +6841,22 @@
         <v>178</v>
       </c>
       <c r="B180" t="n">
-        <v>62900</v>
+        <v>62800</v>
       </c>
       <c r="C180" t="n">
-        <v>62900</v>
+        <v>62800</v>
       </c>
       <c r="D180" t="n">
-        <v>62900</v>
+        <v>62800</v>
       </c>
       <c r="E180" t="n">
-        <v>62900</v>
+        <v>62750</v>
       </c>
       <c r="F180" t="n">
-        <v>0.01799682</v>
+        <v>57.7636</v>
       </c>
       <c r="G180" t="n">
-        <v>63052.5</v>
+        <v>63057.5</v>
       </c>
       <c r="H180" t="n">
         <v>0</v>
@@ -6746,7 +6866,11 @@
       </c>
       <c r="J180" t="inlineStr"/>
       <c r="K180" t="inlineStr"/>
-      <c r="L180" t="inlineStr"/>
+      <c r="L180" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M180" t="n">
         <v>1</v>
       </c>
@@ -6768,10 +6892,10 @@
         <v>62900</v>
       </c>
       <c r="F181" t="n">
-        <v>0.15</v>
+        <v>0.01799682</v>
       </c>
       <c r="G181" t="n">
-        <v>63048.33333333334</v>
+        <v>63052.5</v>
       </c>
       <c r="H181" t="n">
         <v>0</v>
@@ -6781,7 +6905,11 @@
       </c>
       <c r="J181" t="inlineStr"/>
       <c r="K181" t="inlineStr"/>
-      <c r="L181" t="inlineStr"/>
+      <c r="L181" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M181" t="n">
         <v>1</v>
       </c>
@@ -6791,22 +6919,22 @@
         <v>180</v>
       </c>
       <c r="B182" t="n">
-        <v>63000</v>
+        <v>62900</v>
       </c>
       <c r="C182" t="n">
-        <v>63050</v>
+        <v>62900</v>
       </c>
       <c r="D182" t="n">
-        <v>63050</v>
+        <v>62900</v>
       </c>
       <c r="E182" t="n">
-        <v>63000</v>
+        <v>62900</v>
       </c>
       <c r="F182" t="n">
-        <v>29.7144</v>
+        <v>0.15</v>
       </c>
       <c r="G182" t="n">
-        <v>63046.66666666666</v>
+        <v>63048.33333333334</v>
       </c>
       <c r="H182" t="n">
         <v>0</v>
@@ -6816,7 +6944,11 @@
       </c>
       <c r="J182" t="inlineStr"/>
       <c r="K182" t="inlineStr"/>
-      <c r="L182" t="inlineStr"/>
+      <c r="L182" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M182" t="n">
         <v>1</v>
       </c>
@@ -6826,22 +6958,22 @@
         <v>181</v>
       </c>
       <c r="B183" t="n">
+        <v>63000</v>
+      </c>
+      <c r="C183" t="n">
         <v>63050</v>
       </c>
-      <c r="C183" t="n">
-        <v>63100</v>
-      </c>
       <c r="D183" t="n">
-        <v>63100</v>
+        <v>63050</v>
       </c>
       <c r="E183" t="n">
-        <v>63050</v>
+        <v>63000</v>
       </c>
       <c r="F183" t="n">
-        <v>1.2056</v>
+        <v>29.7144</v>
       </c>
       <c r="G183" t="n">
-        <v>63045</v>
+        <v>63046.66666666666</v>
       </c>
       <c r="H183" t="n">
         <v>0</v>
@@ -6851,7 +6983,11 @@
       </c>
       <c r="J183" t="inlineStr"/>
       <c r="K183" t="inlineStr"/>
-      <c r="L183" t="inlineStr"/>
+      <c r="L183" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M183" t="n">
         <v>1</v>
       </c>
@@ -6861,22 +6997,22 @@
         <v>182</v>
       </c>
       <c r="B184" t="n">
-        <v>63200</v>
+        <v>63050</v>
       </c>
       <c r="C184" t="n">
-        <v>63200</v>
+        <v>63100</v>
       </c>
       <c r="D184" t="n">
-        <v>63200</v>
+        <v>63100</v>
       </c>
       <c r="E184" t="n">
-        <v>63200</v>
+        <v>63050</v>
       </c>
       <c r="F184" t="n">
-        <v>53.6806</v>
+        <v>1.2056</v>
       </c>
       <c r="G184" t="n">
-        <v>63046.66666666666</v>
+        <v>63045</v>
       </c>
       <c r="H184" t="n">
         <v>0</v>
@@ -6886,7 +7022,11 @@
       </c>
       <c r="J184" t="inlineStr"/>
       <c r="K184" t="inlineStr"/>
-      <c r="L184" t="inlineStr"/>
+      <c r="L184" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M184" t="n">
         <v>1</v>
       </c>
@@ -6896,22 +7036,22 @@
         <v>183</v>
       </c>
       <c r="B185" t="n">
-        <v>63300</v>
+        <v>63200</v>
       </c>
       <c r="C185" t="n">
-        <v>63250</v>
+        <v>63200</v>
       </c>
       <c r="D185" t="n">
-        <v>63300</v>
+        <v>63200</v>
       </c>
       <c r="E185" t="n">
-        <v>63250</v>
+        <v>63200</v>
       </c>
       <c r="F185" t="n">
-        <v>41.7798</v>
+        <v>53.6806</v>
       </c>
       <c r="G185" t="n">
-        <v>63050.83333333334</v>
+        <v>63046.66666666666</v>
       </c>
       <c r="H185" t="n">
         <v>0</v>
@@ -6921,7 +7061,11 @@
       </c>
       <c r="J185" t="inlineStr"/>
       <c r="K185" t="inlineStr"/>
-      <c r="L185" t="inlineStr"/>
+      <c r="L185" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M185" t="n">
         <v>1</v>
       </c>
@@ -6934,19 +7078,19 @@
         <v>63300</v>
       </c>
       <c r="C186" t="n">
-        <v>63300</v>
+        <v>63250</v>
       </c>
       <c r="D186" t="n">
         <v>63300</v>
       </c>
       <c r="E186" t="n">
-        <v>63300</v>
+        <v>63250</v>
       </c>
       <c r="F186" t="n">
-        <v>5.262</v>
+        <v>41.7798</v>
       </c>
       <c r="G186" t="n">
-        <v>63050</v>
+        <v>63050.83333333334</v>
       </c>
       <c r="H186" t="n">
         <v>0</v>
@@ -6956,7 +7100,11 @@
       </c>
       <c r="J186" t="inlineStr"/>
       <c r="K186" t="inlineStr"/>
-      <c r="L186" t="inlineStr"/>
+      <c r="L186" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M186" t="n">
         <v>1</v>
       </c>
@@ -6978,10 +7126,10 @@
         <v>63300</v>
       </c>
       <c r="F187" t="n">
-        <v>43.1608</v>
+        <v>5.262</v>
       </c>
       <c r="G187" t="n">
-        <v>63051.66666666666</v>
+        <v>63050</v>
       </c>
       <c r="H187" t="n">
         <v>0</v>
@@ -6991,7 +7139,11 @@
       </c>
       <c r="J187" t="inlineStr"/>
       <c r="K187" t="inlineStr"/>
-      <c r="L187" t="inlineStr"/>
+      <c r="L187" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M187" t="n">
         <v>1</v>
       </c>
@@ -7013,10 +7165,10 @@
         <v>63300</v>
       </c>
       <c r="F188" t="n">
-        <v>0.524</v>
+        <v>43.1608</v>
       </c>
       <c r="G188" t="n">
-        <v>63053.33333333334</v>
+        <v>63051.66666666666</v>
       </c>
       <c r="H188" t="n">
         <v>0</v>
@@ -7026,7 +7178,11 @@
       </c>
       <c r="J188" t="inlineStr"/>
       <c r="K188" t="inlineStr"/>
-      <c r="L188" t="inlineStr"/>
+      <c r="L188" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M188" t="n">
         <v>1</v>
       </c>
@@ -7048,10 +7204,10 @@
         <v>63300</v>
       </c>
       <c r="F189" t="n">
-        <v>0.3368</v>
+        <v>0.524</v>
       </c>
       <c r="G189" t="n">
-        <v>63054.16666666666</v>
+        <v>63053.33333333334</v>
       </c>
       <c r="H189" t="n">
         <v>0</v>
@@ -7061,7 +7217,11 @@
       </c>
       <c r="J189" t="inlineStr"/>
       <c r="K189" t="inlineStr"/>
-      <c r="L189" t="inlineStr"/>
+      <c r="L189" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M189" t="n">
         <v>1</v>
       </c>
@@ -7083,10 +7243,10 @@
         <v>63300</v>
       </c>
       <c r="F190" t="n">
-        <v>3.7271</v>
+        <v>0.3368</v>
       </c>
       <c r="G190" t="n">
-        <v>63055.83333333334</v>
+        <v>63054.16666666666</v>
       </c>
       <c r="H190" t="n">
         <v>0</v>
@@ -7096,7 +7256,11 @@
       </c>
       <c r="J190" t="inlineStr"/>
       <c r="K190" t="inlineStr"/>
-      <c r="L190" t="inlineStr"/>
+      <c r="L190" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M190" t="n">
         <v>1</v>
       </c>
@@ -7106,19 +7270,19 @@
         <v>189</v>
       </c>
       <c r="B191" t="n">
-        <v>63200</v>
+        <v>63300</v>
       </c>
       <c r="C191" t="n">
-        <v>63200</v>
+        <v>63300</v>
       </c>
       <c r="D191" t="n">
-        <v>63200</v>
+        <v>63300</v>
       </c>
       <c r="E191" t="n">
-        <v>63200</v>
+        <v>63300</v>
       </c>
       <c r="F191" t="n">
-        <v>46.5394</v>
+        <v>3.7271</v>
       </c>
       <c r="G191" t="n">
         <v>63055.83333333334</v>
@@ -7131,7 +7295,11 @@
       </c>
       <c r="J191" t="inlineStr"/>
       <c r="K191" t="inlineStr"/>
-      <c r="L191" t="inlineStr"/>
+      <c r="L191" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M191" t="n">
         <v>1</v>
       </c>
@@ -7141,22 +7309,22 @@
         <v>190</v>
       </c>
       <c r="B192" t="n">
-        <v>63250</v>
+        <v>63200</v>
       </c>
       <c r="C192" t="n">
-        <v>63250</v>
+        <v>63200</v>
       </c>
       <c r="D192" t="n">
-        <v>63250</v>
+        <v>63200</v>
       </c>
       <c r="E192" t="n">
-        <v>63250</v>
+        <v>63200</v>
       </c>
       <c r="F192" t="n">
-        <v>1.0863</v>
+        <v>46.5394</v>
       </c>
       <c r="G192" t="n">
-        <v>63056.66666666666</v>
+        <v>63055.83333333334</v>
       </c>
       <c r="H192" t="n">
         <v>0</v>
@@ -7166,7 +7334,11 @@
       </c>
       <c r="J192" t="inlineStr"/>
       <c r="K192" t="inlineStr"/>
-      <c r="L192" t="inlineStr"/>
+      <c r="L192" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M192" t="n">
         <v>1</v>
       </c>
@@ -7188,10 +7360,10 @@
         <v>63250</v>
       </c>
       <c r="F193" t="n">
-        <v>0.7544</v>
+        <v>1.0863</v>
       </c>
       <c r="G193" t="n">
-        <v>63057.5</v>
+        <v>63056.66666666666</v>
       </c>
       <c r="H193" t="n">
         <v>0</v>
@@ -7201,7 +7373,11 @@
       </c>
       <c r="J193" t="inlineStr"/>
       <c r="K193" t="inlineStr"/>
-      <c r="L193" t="inlineStr"/>
+      <c r="L193" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M193" t="n">
         <v>1</v>
       </c>
@@ -7214,19 +7390,19 @@
         <v>63250</v>
       </c>
       <c r="C194" t="n">
-        <v>63300</v>
+        <v>63250</v>
       </c>
       <c r="D194" t="n">
-        <v>63300</v>
+        <v>63250</v>
       </c>
       <c r="E194" t="n">
         <v>63250</v>
       </c>
       <c r="F194" t="n">
-        <v>21.388</v>
+        <v>0.7544</v>
       </c>
       <c r="G194" t="n">
-        <v>63059.16666666666</v>
+        <v>63057.5</v>
       </c>
       <c r="H194" t="n">
         <v>0</v>
@@ -7236,7 +7412,11 @@
       </c>
       <c r="J194" t="inlineStr"/>
       <c r="K194" t="inlineStr"/>
-      <c r="L194" t="inlineStr"/>
+      <c r="L194" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M194" t="n">
         <v>1</v>
       </c>
@@ -7246,19 +7426,19 @@
         <v>193</v>
       </c>
       <c r="B195" t="n">
-        <v>63350</v>
+        <v>63250</v>
       </c>
       <c r="C195" t="n">
         <v>63300</v>
       </c>
       <c r="D195" t="n">
-        <v>63400</v>
+        <v>63300</v>
       </c>
       <c r="E195" t="n">
-        <v>63300</v>
+        <v>63250</v>
       </c>
       <c r="F195" t="n">
-        <v>22.7466</v>
+        <v>21.388</v>
       </c>
       <c r="G195" t="n">
         <v>63059.16666666666</v>
@@ -7271,7 +7451,11 @@
       </c>
       <c r="J195" t="inlineStr"/>
       <c r="K195" t="inlineStr"/>
-      <c r="L195" t="inlineStr"/>
+      <c r="L195" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M195" t="n">
         <v>1</v>
       </c>
@@ -7281,22 +7465,22 @@
         <v>194</v>
       </c>
       <c r="B196" t="n">
-        <v>63300</v>
+        <v>63350</v>
       </c>
       <c r="C196" t="n">
         <v>63300</v>
       </c>
       <c r="D196" t="n">
-        <v>63300</v>
+        <v>63400</v>
       </c>
       <c r="E196" t="n">
         <v>63300</v>
       </c>
       <c r="F196" t="n">
-        <v>0.04458135</v>
+        <v>22.7466</v>
       </c>
       <c r="G196" t="n">
-        <v>63060.83333333334</v>
+        <v>63059.16666666666</v>
       </c>
       <c r="H196" t="n">
         <v>0</v>
@@ -7306,7 +7490,11 @@
       </c>
       <c r="J196" t="inlineStr"/>
       <c r="K196" t="inlineStr"/>
-      <c r="L196" t="inlineStr"/>
+      <c r="L196" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M196" t="n">
         <v>1</v>
       </c>
@@ -7316,22 +7504,22 @@
         <v>195</v>
       </c>
       <c r="B197" t="n">
-        <v>63350</v>
+        <v>63300</v>
       </c>
       <c r="C197" t="n">
-        <v>63350</v>
+        <v>63300</v>
       </c>
       <c r="D197" t="n">
-        <v>63350</v>
+        <v>63300</v>
       </c>
       <c r="E197" t="n">
-        <v>63350</v>
+        <v>63300</v>
       </c>
       <c r="F197" t="n">
-        <v>0.15853196</v>
+        <v>0.04458135</v>
       </c>
       <c r="G197" t="n">
-        <v>63063.33333333334</v>
+        <v>63060.83333333334</v>
       </c>
       <c r="H197" t="n">
         <v>0</v>
@@ -7341,7 +7529,11 @@
       </c>
       <c r="J197" t="inlineStr"/>
       <c r="K197" t="inlineStr"/>
-      <c r="L197" t="inlineStr"/>
+      <c r="L197" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M197" t="n">
         <v>1</v>
       </c>
@@ -7351,22 +7543,22 @@
         <v>196</v>
       </c>
       <c r="B198" t="n">
-        <v>63200</v>
+        <v>63350</v>
       </c>
       <c r="C198" t="n">
-        <v>63200</v>
+        <v>63350</v>
       </c>
       <c r="D198" t="n">
-        <v>63200</v>
+        <v>63350</v>
       </c>
       <c r="E198" t="n">
-        <v>63200</v>
+        <v>63350</v>
       </c>
       <c r="F198" t="n">
-        <v>0.3847</v>
+        <v>0.15853196</v>
       </c>
       <c r="G198" t="n">
-        <v>63065.83333333334</v>
+        <v>63063.33333333334</v>
       </c>
       <c r="H198" t="n">
         <v>0</v>
@@ -7376,7 +7568,11 @@
       </c>
       <c r="J198" t="inlineStr"/>
       <c r="K198" t="inlineStr"/>
-      <c r="L198" t="inlineStr"/>
+      <c r="L198" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M198" t="n">
         <v>1</v>
       </c>
@@ -7386,22 +7582,22 @@
         <v>197</v>
       </c>
       <c r="B199" t="n">
-        <v>63350</v>
+        <v>63200</v>
       </c>
       <c r="C199" t="n">
-        <v>63300</v>
+        <v>63200</v>
       </c>
       <c r="D199" t="n">
-        <v>63350</v>
+        <v>63200</v>
       </c>
       <c r="E199" t="n">
-        <v>63300</v>
+        <v>63200</v>
       </c>
       <c r="F199" t="n">
-        <v>1.22999897</v>
+        <v>0.3847</v>
       </c>
       <c r="G199" t="n">
-        <v>63070</v>
+        <v>63065.83333333334</v>
       </c>
       <c r="H199" t="n">
         <v>0</v>
@@ -7411,7 +7607,11 @@
       </c>
       <c r="J199" t="inlineStr"/>
       <c r="K199" t="inlineStr"/>
-      <c r="L199" t="inlineStr"/>
+      <c r="L199" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M199" t="n">
         <v>1</v>
       </c>
@@ -7421,22 +7621,22 @@
         <v>198</v>
       </c>
       <c r="B200" t="n">
-        <v>63300</v>
+        <v>63350</v>
       </c>
       <c r="C200" t="n">
         <v>63300</v>
       </c>
       <c r="D200" t="n">
-        <v>63300</v>
+        <v>63350</v>
       </c>
       <c r="E200" t="n">
         <v>63300</v>
       </c>
       <c r="F200" t="n">
-        <v>0.15797788</v>
+        <v>1.22999897</v>
       </c>
       <c r="G200" t="n">
-        <v>63075</v>
+        <v>63070</v>
       </c>
       <c r="H200" t="n">
         <v>0</v>
@@ -7446,7 +7646,11 @@
       </c>
       <c r="J200" t="inlineStr"/>
       <c r="K200" t="inlineStr"/>
-      <c r="L200" t="inlineStr"/>
+      <c r="L200" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M200" t="n">
         <v>1</v>
       </c>
@@ -7456,22 +7660,22 @@
         <v>199</v>
       </c>
       <c r="B201" t="n">
-        <v>63350</v>
+        <v>63300</v>
       </c>
       <c r="C201" t="n">
-        <v>63350</v>
+        <v>63300</v>
       </c>
       <c r="D201" t="n">
-        <v>63350</v>
+        <v>63300</v>
       </c>
       <c r="E201" t="n">
-        <v>63350</v>
+        <v>63300</v>
       </c>
       <c r="F201" t="n">
-        <v>8.5</v>
+        <v>0.15797788</v>
       </c>
       <c r="G201" t="n">
-        <v>63080.83333333334</v>
+        <v>63075</v>
       </c>
       <c r="H201" t="n">
         <v>0</v>
@@ -7481,7 +7685,11 @@
       </c>
       <c r="J201" t="inlineStr"/>
       <c r="K201" t="inlineStr"/>
-      <c r="L201" t="inlineStr"/>
+      <c r="L201" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M201" t="n">
         <v>1</v>
       </c>
@@ -7491,22 +7699,22 @@
         <v>200</v>
       </c>
       <c r="B202" t="n">
-        <v>63200</v>
+        <v>63350</v>
       </c>
       <c r="C202" t="n">
-        <v>63200</v>
+        <v>63350</v>
       </c>
       <c r="D202" t="n">
-        <v>63200</v>
+        <v>63350</v>
       </c>
       <c r="E202" t="n">
-        <v>63200</v>
+        <v>63350</v>
       </c>
       <c r="F202" t="n">
-        <v>16.7804</v>
+        <v>8.5</v>
       </c>
       <c r="G202" t="n">
-        <v>63081.66666666666</v>
+        <v>63080.83333333334</v>
       </c>
       <c r="H202" t="n">
         <v>0</v>
@@ -7516,7 +7724,11 @@
       </c>
       <c r="J202" t="inlineStr"/>
       <c r="K202" t="inlineStr"/>
-      <c r="L202" t="inlineStr"/>
+      <c r="L202" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M202" t="n">
         <v>1</v>
       </c>
@@ -7538,10 +7750,10 @@
         <v>63200</v>
       </c>
       <c r="F203" t="n">
-        <v>36.2955</v>
+        <v>16.7804</v>
       </c>
       <c r="G203" t="n">
-        <v>63084.16666666666</v>
+        <v>63081.66666666666</v>
       </c>
       <c r="H203" t="n">
         <v>0</v>
@@ -7551,7 +7763,11 @@
       </c>
       <c r="J203" t="inlineStr"/>
       <c r="K203" t="inlineStr"/>
-      <c r="L203" t="inlineStr"/>
+      <c r="L203" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M203" t="n">
         <v>1</v>
       </c>
@@ -7561,22 +7777,22 @@
         <v>202</v>
       </c>
       <c r="B204" t="n">
-        <v>63100</v>
+        <v>63200</v>
       </c>
       <c r="C204" t="n">
-        <v>63100</v>
+        <v>63200</v>
       </c>
       <c r="D204" t="n">
-        <v>63100</v>
+        <v>63200</v>
       </c>
       <c r="E204" t="n">
-        <v>63100</v>
+        <v>63200</v>
       </c>
       <c r="F204" t="n">
-        <v>1.1017</v>
+        <v>36.2955</v>
       </c>
       <c r="G204" t="n">
-        <v>63085</v>
+        <v>63084.16666666666</v>
       </c>
       <c r="H204" t="n">
         <v>0</v>
@@ -7586,7 +7802,11 @@
       </c>
       <c r="J204" t="inlineStr"/>
       <c r="K204" t="inlineStr"/>
-      <c r="L204" t="inlineStr"/>
+      <c r="L204" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M204" t="n">
         <v>1</v>
       </c>
@@ -7608,10 +7828,10 @@
         <v>63100</v>
       </c>
       <c r="F205" t="n">
-        <v>0.3157</v>
+        <v>1.1017</v>
       </c>
       <c r="G205" t="n">
-        <v>63085.83333333334</v>
+        <v>63085</v>
       </c>
       <c r="H205" t="n">
         <v>0</v>
@@ -7621,7 +7841,11 @@
       </c>
       <c r="J205" t="inlineStr"/>
       <c r="K205" t="inlineStr"/>
-      <c r="L205" t="inlineStr"/>
+      <c r="L205" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M205" t="n">
         <v>1</v>
       </c>
@@ -7631,22 +7855,22 @@
         <v>204</v>
       </c>
       <c r="B206" t="n">
-        <v>63150</v>
+        <v>63100</v>
       </c>
       <c r="C206" t="n">
-        <v>63200</v>
+        <v>63100</v>
       </c>
       <c r="D206" t="n">
-        <v>63200</v>
+        <v>63100</v>
       </c>
       <c r="E206" t="n">
-        <v>63150</v>
+        <v>63100</v>
       </c>
       <c r="F206" t="n">
-        <v>12.4806</v>
+        <v>0.3157</v>
       </c>
       <c r="G206" t="n">
-        <v>63089.16666666666</v>
+        <v>63085.83333333334</v>
       </c>
       <c r="H206" t="n">
         <v>0</v>
@@ -7656,7 +7880,11 @@
       </c>
       <c r="J206" t="inlineStr"/>
       <c r="K206" t="inlineStr"/>
-      <c r="L206" t="inlineStr"/>
+      <c r="L206" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M206" t="n">
         <v>1</v>
       </c>
@@ -7666,7 +7894,7 @@
         <v>205</v>
       </c>
       <c r="B207" t="n">
-        <v>63200</v>
+        <v>63150</v>
       </c>
       <c r="C207" t="n">
         <v>63200</v>
@@ -7675,13 +7903,13 @@
         <v>63200</v>
       </c>
       <c r="E207" t="n">
-        <v>63200</v>
+        <v>63150</v>
       </c>
       <c r="F207" t="n">
-        <v>69.7492</v>
+        <v>12.4806</v>
       </c>
       <c r="G207" t="n">
-        <v>63090.83333333334</v>
+        <v>63089.16666666666</v>
       </c>
       <c r="H207" t="n">
         <v>0</v>
@@ -7691,7 +7919,11 @@
       </c>
       <c r="J207" t="inlineStr"/>
       <c r="K207" t="inlineStr"/>
-      <c r="L207" t="inlineStr"/>
+      <c r="L207" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M207" t="n">
         <v>1</v>
       </c>
@@ -7713,7 +7945,7 @@
         <v>63200</v>
       </c>
       <c r="F208" t="n">
-        <v>1.1782</v>
+        <v>69.7492</v>
       </c>
       <c r="G208" t="n">
         <v>63090.83333333334</v>
@@ -7726,7 +7958,11 @@
       </c>
       <c r="J208" t="inlineStr"/>
       <c r="K208" t="inlineStr"/>
-      <c r="L208" t="inlineStr"/>
+      <c r="L208" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M208" t="n">
         <v>1</v>
       </c>
@@ -7748,10 +7984,10 @@
         <v>63200</v>
       </c>
       <c r="F209" t="n">
-        <v>5.1906</v>
+        <v>1.1782</v>
       </c>
       <c r="G209" t="n">
-        <v>63092.5</v>
+        <v>63090.83333333334</v>
       </c>
       <c r="H209" t="n">
         <v>0</v>
@@ -7761,7 +7997,11 @@
       </c>
       <c r="J209" t="inlineStr"/>
       <c r="K209" t="inlineStr"/>
-      <c r="L209" t="inlineStr"/>
+      <c r="L209" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M209" t="n">
         <v>1</v>
       </c>
@@ -7783,10 +8023,10 @@
         <v>63200</v>
       </c>
       <c r="F210" t="n">
-        <v>4.0124</v>
+        <v>5.1906</v>
       </c>
       <c r="G210" t="n">
-        <v>63095.83333333334</v>
+        <v>63092.5</v>
       </c>
       <c r="H210" t="n">
         <v>0</v>
@@ -7796,7 +8036,11 @@
       </c>
       <c r="J210" t="inlineStr"/>
       <c r="K210" t="inlineStr"/>
-      <c r="L210" t="inlineStr"/>
+      <c r="L210" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M210" t="n">
         <v>1</v>
       </c>
@@ -7818,10 +8062,10 @@
         <v>63200</v>
       </c>
       <c r="F211" t="n">
-        <v>1.738</v>
+        <v>4.0124</v>
       </c>
       <c r="G211" t="n">
-        <v>63099.16666666666</v>
+        <v>63095.83333333334</v>
       </c>
       <c r="H211" t="n">
         <v>0</v>
@@ -7831,7 +8075,11 @@
       </c>
       <c r="J211" t="inlineStr"/>
       <c r="K211" t="inlineStr"/>
-      <c r="L211" t="inlineStr"/>
+      <c r="L211" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M211" t="n">
         <v>1</v>
       </c>
@@ -7853,10 +8101,10 @@
         <v>63200</v>
       </c>
       <c r="F212" t="n">
-        <v>2.2845</v>
+        <v>1.738</v>
       </c>
       <c r="G212" t="n">
-        <v>63102.5</v>
+        <v>63099.16666666666</v>
       </c>
       <c r="H212" t="n">
         <v>0</v>
@@ -7866,7 +8114,11 @@
       </c>
       <c r="J212" t="inlineStr"/>
       <c r="K212" t="inlineStr"/>
-      <c r="L212" t="inlineStr"/>
+      <c r="L212" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M212" t="n">
         <v>1</v>
       </c>
@@ -7876,22 +8128,22 @@
         <v>211</v>
       </c>
       <c r="B213" t="n">
-        <v>63300</v>
+        <v>63200</v>
       </c>
       <c r="C213" t="n">
-        <v>63300</v>
+        <v>63200</v>
       </c>
       <c r="D213" t="n">
-        <v>63300</v>
+        <v>63200</v>
       </c>
       <c r="E213" t="n">
-        <v>63300</v>
+        <v>63200</v>
       </c>
       <c r="F213" t="n">
-        <v>2.8297</v>
+        <v>2.2845</v>
       </c>
       <c r="G213" t="n">
-        <v>63106.66666666666</v>
+        <v>63102.5</v>
       </c>
       <c r="H213" t="n">
         <v>0</v>
@@ -7901,7 +8153,11 @@
       </c>
       <c r="J213" t="inlineStr"/>
       <c r="K213" t="inlineStr"/>
-      <c r="L213" t="inlineStr"/>
+      <c r="L213" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M213" t="n">
         <v>1</v>
       </c>
@@ -7923,10 +8179,10 @@
         <v>63300</v>
       </c>
       <c r="F214" t="n">
-        <v>0.5809</v>
+        <v>2.8297</v>
       </c>
       <c r="G214" t="n">
-        <v>63113.33333333334</v>
+        <v>63106.66666666666</v>
       </c>
       <c r="H214" t="n">
         <v>0</v>
@@ -7936,7 +8192,11 @@
       </c>
       <c r="J214" t="inlineStr"/>
       <c r="K214" t="inlineStr"/>
-      <c r="L214" t="inlineStr"/>
+      <c r="L214" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M214" t="n">
         <v>1</v>
       </c>
@@ -7946,22 +8206,22 @@
         <v>213</v>
       </c>
       <c r="B215" t="n">
-        <v>63200</v>
+        <v>63300</v>
       </c>
       <c r="C215" t="n">
-        <v>63200</v>
+        <v>63300</v>
       </c>
       <c r="D215" t="n">
-        <v>63200</v>
+        <v>63300</v>
       </c>
       <c r="E215" t="n">
-        <v>63200</v>
+        <v>63300</v>
       </c>
       <c r="F215" t="n">
-        <v>28.5</v>
+        <v>0.5809</v>
       </c>
       <c r="G215" t="n">
-        <v>63118.33333333334</v>
+        <v>63113.33333333334</v>
       </c>
       <c r="H215" t="n">
         <v>0</v>
@@ -7971,7 +8231,11 @@
       </c>
       <c r="J215" t="inlineStr"/>
       <c r="K215" t="inlineStr"/>
-      <c r="L215" t="inlineStr"/>
+      <c r="L215" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M215" t="n">
         <v>1</v>
       </c>
@@ -7984,19 +8248,19 @@
         <v>63200</v>
       </c>
       <c r="C216" t="n">
-        <v>63300</v>
+        <v>63200</v>
       </c>
       <c r="D216" t="n">
-        <v>63300</v>
+        <v>63200</v>
       </c>
       <c r="E216" t="n">
         <v>63200</v>
       </c>
       <c r="F216" t="n">
-        <v>16.954</v>
+        <v>28.5</v>
       </c>
       <c r="G216" t="n">
-        <v>63125</v>
+        <v>63118.33333333334</v>
       </c>
       <c r="H216" t="n">
         <v>0</v>
@@ -8006,7 +8270,11 @@
       </c>
       <c r="J216" t="inlineStr"/>
       <c r="K216" t="inlineStr"/>
-      <c r="L216" t="inlineStr"/>
+      <c r="L216" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M216" t="n">
         <v>1</v>
       </c>
@@ -8016,22 +8284,22 @@
         <v>215</v>
       </c>
       <c r="B217" t="n">
-        <v>63350</v>
+        <v>63200</v>
       </c>
       <c r="C217" t="n">
-        <v>63350</v>
+        <v>63300</v>
       </c>
       <c r="D217" t="n">
-        <v>63350</v>
+        <v>63300</v>
       </c>
       <c r="E217" t="n">
-        <v>63350</v>
+        <v>63200</v>
       </c>
       <c r="F217" t="n">
-        <v>0.4021</v>
+        <v>16.954</v>
       </c>
       <c r="G217" t="n">
-        <v>63132.5</v>
+        <v>63125</v>
       </c>
       <c r="H217" t="n">
         <v>0</v>
@@ -8041,7 +8309,11 @@
       </c>
       <c r="J217" t="inlineStr"/>
       <c r="K217" t="inlineStr"/>
-      <c r="L217" t="inlineStr"/>
+      <c r="L217" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M217" t="n">
         <v>1</v>
       </c>
@@ -8051,22 +8323,22 @@
         <v>216</v>
       </c>
       <c r="B218" t="n">
-        <v>63200</v>
+        <v>63350</v>
       </c>
       <c r="C218" t="n">
-        <v>63200</v>
+        <v>63350</v>
       </c>
       <c r="D218" t="n">
-        <v>63200</v>
+        <v>63350</v>
       </c>
       <c r="E218" t="n">
-        <v>63200</v>
+        <v>63350</v>
       </c>
       <c r="F218" t="n">
-        <v>11.0225</v>
+        <v>0.4021</v>
       </c>
       <c r="G218" t="n">
-        <v>63135.83333333334</v>
+        <v>63132.5</v>
       </c>
       <c r="H218" t="n">
         <v>0</v>
@@ -8076,7 +8348,11 @@
       </c>
       <c r="J218" t="inlineStr"/>
       <c r="K218" t="inlineStr"/>
-      <c r="L218" t="inlineStr"/>
+      <c r="L218" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M218" t="n">
         <v>1</v>
       </c>
@@ -8098,10 +8374,10 @@
         <v>63200</v>
       </c>
       <c r="F219" t="n">
-        <v>0.7</v>
+        <v>11.0225</v>
       </c>
       <c r="G219" t="n">
-        <v>63137.5</v>
+        <v>63135.83333333334</v>
       </c>
       <c r="H219" t="n">
         <v>0</v>
@@ -8111,7 +8387,11 @@
       </c>
       <c r="J219" t="inlineStr"/>
       <c r="K219" t="inlineStr"/>
-      <c r="L219" t="inlineStr"/>
+      <c r="L219" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M219" t="n">
         <v>1</v>
       </c>
@@ -8121,22 +8401,22 @@
         <v>218</v>
       </c>
       <c r="B220" t="n">
-        <v>63350</v>
+        <v>63200</v>
       </c>
       <c r="C220" t="n">
-        <v>63350</v>
+        <v>63200</v>
       </c>
       <c r="D220" t="n">
-        <v>63350</v>
+        <v>63200</v>
       </c>
       <c r="E220" t="n">
-        <v>63350</v>
+        <v>63200</v>
       </c>
       <c r="F220" t="n">
-        <v>1.8484925</v>
+        <v>0.7</v>
       </c>
       <c r="G220" t="n">
-        <v>63141.66666666666</v>
+        <v>63137.5</v>
       </c>
       <c r="H220" t="n">
         <v>0</v>
@@ -8146,7 +8426,11 @@
       </c>
       <c r="J220" t="inlineStr"/>
       <c r="K220" t="inlineStr"/>
-      <c r="L220" t="inlineStr"/>
+      <c r="L220" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M220" t="n">
         <v>1</v>
       </c>
@@ -8156,22 +8440,22 @@
         <v>219</v>
       </c>
       <c r="B221" t="n">
-        <v>63250</v>
+        <v>63350</v>
       </c>
       <c r="C221" t="n">
-        <v>63250</v>
+        <v>63350</v>
       </c>
       <c r="D221" t="n">
-        <v>63250</v>
+        <v>63350</v>
       </c>
       <c r="E221" t="n">
-        <v>63250</v>
+        <v>63350</v>
       </c>
       <c r="F221" t="n">
-        <v>5.8121</v>
+        <v>1.8484925</v>
       </c>
       <c r="G221" t="n">
-        <v>63145</v>
+        <v>63141.66666666666</v>
       </c>
       <c r="H221" t="n">
         <v>0</v>
@@ -8181,7 +8465,11 @@
       </c>
       <c r="J221" t="inlineStr"/>
       <c r="K221" t="inlineStr"/>
-      <c r="L221" t="inlineStr"/>
+      <c r="L221" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M221" t="n">
         <v>1</v>
       </c>
@@ -8194,19 +8482,19 @@
         <v>63250</v>
       </c>
       <c r="C222" t="n">
-        <v>63200</v>
+        <v>63250</v>
       </c>
       <c r="D222" t="n">
         <v>63250</v>
       </c>
       <c r="E222" t="n">
-        <v>63200</v>
+        <v>63250</v>
       </c>
       <c r="F222" t="n">
-        <v>95.83410000000001</v>
+        <v>5.8121</v>
       </c>
       <c r="G222" t="n">
-        <v>63147.5</v>
+        <v>63145</v>
       </c>
       <c r="H222" t="n">
         <v>0</v>
@@ -8216,7 +8504,11 @@
       </c>
       <c r="J222" t="inlineStr"/>
       <c r="K222" t="inlineStr"/>
-      <c r="L222" t="inlineStr"/>
+      <c r="L222" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M222" t="n">
         <v>1</v>
       </c>
@@ -8226,22 +8518,22 @@
         <v>221</v>
       </c>
       <c r="B223" t="n">
-        <v>63200</v>
+        <v>63250</v>
       </c>
       <c r="C223" t="n">
         <v>63200</v>
       </c>
       <c r="D223" t="n">
-        <v>63200</v>
+        <v>63250</v>
       </c>
       <c r="E223" t="n">
         <v>63200</v>
       </c>
       <c r="F223" t="n">
-        <v>11.1</v>
+        <v>95.83410000000001</v>
       </c>
       <c r="G223" t="n">
-        <v>63150.83333333334</v>
+        <v>63147.5</v>
       </c>
       <c r="H223" t="n">
         <v>0</v>
@@ -8251,7 +8543,11 @@
       </c>
       <c r="J223" t="inlineStr"/>
       <c r="K223" t="inlineStr"/>
-      <c r="L223" t="inlineStr"/>
+      <c r="L223" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M223" t="n">
         <v>1</v>
       </c>
@@ -8261,22 +8557,22 @@
         <v>222</v>
       </c>
       <c r="B224" t="n">
-        <v>63100</v>
+        <v>63200</v>
       </c>
       <c r="C224" t="n">
-        <v>63050</v>
+        <v>63200</v>
       </c>
       <c r="D224" t="n">
-        <v>63150</v>
+        <v>63200</v>
       </c>
       <c r="E224" t="n">
-        <v>63050</v>
+        <v>63200</v>
       </c>
       <c r="F224" t="n">
-        <v>106.0546</v>
+        <v>11.1</v>
       </c>
       <c r="G224" t="n">
-        <v>63150</v>
+        <v>63150.83333333334</v>
       </c>
       <c r="H224" t="n">
         <v>0</v>
@@ -8286,7 +8582,11 @@
       </c>
       <c r="J224" t="inlineStr"/>
       <c r="K224" t="inlineStr"/>
-      <c r="L224" t="inlineStr"/>
+      <c r="L224" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M224" t="n">
         <v>1</v>
       </c>
@@ -8296,22 +8596,22 @@
         <v>223</v>
       </c>
       <c r="B225" t="n">
-        <v>63000</v>
+        <v>63100</v>
       </c>
       <c r="C225" t="n">
-        <v>63000</v>
+        <v>63050</v>
       </c>
       <c r="D225" t="n">
-        <v>63000</v>
+        <v>63150</v>
       </c>
       <c r="E225" t="n">
-        <v>63000</v>
+        <v>63050</v>
       </c>
       <c r="F225" t="n">
-        <v>33.4797</v>
+        <v>106.0546</v>
       </c>
       <c r="G225" t="n">
-        <v>63149.16666666666</v>
+        <v>63150</v>
       </c>
       <c r="H225" t="n">
         <v>0</v>
@@ -8321,7 +8621,11 @@
       </c>
       <c r="J225" t="inlineStr"/>
       <c r="K225" t="inlineStr"/>
-      <c r="L225" t="inlineStr"/>
+      <c r="L225" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M225" t="n">
         <v>1</v>
       </c>
@@ -8343,10 +8647,10 @@
         <v>63000</v>
       </c>
       <c r="F226" t="n">
-        <v>5</v>
+        <v>33.4797</v>
       </c>
       <c r="G226" t="n">
-        <v>63150</v>
+        <v>63149.16666666666</v>
       </c>
       <c r="H226" t="n">
         <v>0</v>
@@ -8356,7 +8660,11 @@
       </c>
       <c r="J226" t="inlineStr"/>
       <c r="K226" t="inlineStr"/>
-      <c r="L226" t="inlineStr"/>
+      <c r="L226" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M226" t="n">
         <v>1</v>
       </c>
@@ -8366,22 +8674,22 @@
         <v>225</v>
       </c>
       <c r="B227" t="n">
-        <v>63200</v>
+        <v>63000</v>
       </c>
       <c r="C227" t="n">
-        <v>63200</v>
+        <v>63000</v>
       </c>
       <c r="D227" t="n">
-        <v>63200</v>
+        <v>63000</v>
       </c>
       <c r="E227" t="n">
-        <v>63200</v>
+        <v>63000</v>
       </c>
       <c r="F227" t="n">
-        <v>3.2614</v>
+        <v>5</v>
       </c>
       <c r="G227" t="n">
-        <v>63151.66666666666</v>
+        <v>63150</v>
       </c>
       <c r="H227" t="n">
         <v>0</v>
@@ -8391,7 +8699,11 @@
       </c>
       <c r="J227" t="inlineStr"/>
       <c r="K227" t="inlineStr"/>
-      <c r="L227" t="inlineStr"/>
+      <c r="L227" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M227" t="n">
         <v>1</v>
       </c>
@@ -8401,22 +8713,22 @@
         <v>226</v>
       </c>
       <c r="B228" t="n">
-        <v>63100</v>
+        <v>63200</v>
       </c>
       <c r="C228" t="n">
-        <v>63100</v>
+        <v>63200</v>
       </c>
       <c r="D228" t="n">
-        <v>63100</v>
+        <v>63200</v>
       </c>
       <c r="E228" t="n">
-        <v>63100</v>
+        <v>63200</v>
       </c>
       <c r="F228" t="n">
-        <v>3.552</v>
+        <v>3.2614</v>
       </c>
       <c r="G228" t="n">
-        <v>63155</v>
+        <v>63151.66666666666</v>
       </c>
       <c r="H228" t="n">
         <v>0</v>
@@ -8426,7 +8738,11 @@
       </c>
       <c r="J228" t="inlineStr"/>
       <c r="K228" t="inlineStr"/>
-      <c r="L228" t="inlineStr"/>
+      <c r="L228" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M228" t="n">
         <v>1</v>
       </c>
@@ -8436,19 +8752,19 @@
         <v>227</v>
       </c>
       <c r="B229" t="n">
-        <v>63000</v>
+        <v>63100</v>
       </c>
       <c r="C229" t="n">
-        <v>63000</v>
+        <v>63100</v>
       </c>
       <c r="D229" t="n">
-        <v>63000</v>
+        <v>63100</v>
       </c>
       <c r="E229" t="n">
-        <v>63000</v>
+        <v>63100</v>
       </c>
       <c r="F229" t="n">
-        <v>56.3452</v>
+        <v>3.552</v>
       </c>
       <c r="G229" t="n">
         <v>63155</v>
@@ -8461,7 +8777,11 @@
       </c>
       <c r="J229" t="inlineStr"/>
       <c r="K229" t="inlineStr"/>
-      <c r="L229" t="inlineStr"/>
+      <c r="L229" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M229" t="n">
         <v>1</v>
       </c>
@@ -8483,10 +8803,10 @@
         <v>63000</v>
       </c>
       <c r="F230" t="n">
-        <v>5.175</v>
+        <v>56.3452</v>
       </c>
       <c r="G230" t="n">
-        <v>63155.83333333334</v>
+        <v>63155</v>
       </c>
       <c r="H230" t="n">
         <v>0</v>
@@ -8496,7 +8816,11 @@
       </c>
       <c r="J230" t="inlineStr"/>
       <c r="K230" t="inlineStr"/>
-      <c r="L230" t="inlineStr"/>
+      <c r="L230" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M230" t="n">
         <v>1</v>
       </c>
@@ -8506,22 +8830,22 @@
         <v>229</v>
       </c>
       <c r="B231" t="n">
-        <v>63050</v>
+        <v>63000</v>
       </c>
       <c r="C231" t="n">
-        <v>63050</v>
+        <v>63000</v>
       </c>
       <c r="D231" t="n">
-        <v>63050</v>
+        <v>63000</v>
       </c>
       <c r="E231" t="n">
-        <v>63050</v>
+        <v>63000</v>
       </c>
       <c r="F231" t="n">
-        <v>2.0244</v>
+        <v>5.175</v>
       </c>
       <c r="G231" t="n">
-        <v>63157.5</v>
+        <v>63155.83333333334</v>
       </c>
       <c r="H231" t="n">
         <v>0</v>
@@ -8531,7 +8855,11 @@
       </c>
       <c r="J231" t="inlineStr"/>
       <c r="K231" t="inlineStr"/>
-      <c r="L231" t="inlineStr"/>
+      <c r="L231" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M231" t="n">
         <v>1</v>
       </c>
@@ -8541,22 +8869,22 @@
         <v>230</v>
       </c>
       <c r="B232" t="n">
-        <v>63100</v>
+        <v>63050</v>
       </c>
       <c r="C232" t="n">
-        <v>63100</v>
+        <v>63050</v>
       </c>
       <c r="D232" t="n">
-        <v>63100</v>
+        <v>63050</v>
       </c>
       <c r="E232" t="n">
-        <v>63100</v>
+        <v>63050</v>
       </c>
       <c r="F232" t="n">
-        <v>18.5465</v>
+        <v>2.0244</v>
       </c>
       <c r="G232" t="n">
-        <v>63160</v>
+        <v>63157.5</v>
       </c>
       <c r="H232" t="n">
         <v>0</v>
@@ -8566,7 +8894,11 @@
       </c>
       <c r="J232" t="inlineStr"/>
       <c r="K232" t="inlineStr"/>
-      <c r="L232" t="inlineStr"/>
+      <c r="L232" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M232" t="n">
         <v>1</v>
       </c>
@@ -8588,10 +8920,10 @@
         <v>63100</v>
       </c>
       <c r="F233" t="n">
-        <v>0.5987</v>
+        <v>18.5465</v>
       </c>
       <c r="G233" t="n">
-        <v>63162.5</v>
+        <v>63160</v>
       </c>
       <c r="H233" t="n">
         <v>0</v>
@@ -8601,7 +8933,11 @@
       </c>
       <c r="J233" t="inlineStr"/>
       <c r="K233" t="inlineStr"/>
-      <c r="L233" t="inlineStr"/>
+      <c r="L233" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M233" t="n">
         <v>1</v>
       </c>
@@ -8623,10 +8959,10 @@
         <v>63100</v>
       </c>
       <c r="F234" t="n">
-        <v>8.897399999999999</v>
+        <v>0.5987</v>
       </c>
       <c r="G234" t="n">
-        <v>63164.16666666666</v>
+        <v>63162.5</v>
       </c>
       <c r="H234" t="n">
         <v>0</v>
@@ -8636,7 +8972,11 @@
       </c>
       <c r="J234" t="inlineStr"/>
       <c r="K234" t="inlineStr"/>
-      <c r="L234" t="inlineStr"/>
+      <c r="L234" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M234" t="n">
         <v>1</v>
       </c>
@@ -8649,19 +8989,19 @@
         <v>63100</v>
       </c>
       <c r="C235" t="n">
-        <v>63200</v>
+        <v>63100</v>
       </c>
       <c r="D235" t="n">
-        <v>63200</v>
+        <v>63100</v>
       </c>
       <c r="E235" t="n">
         <v>63100</v>
       </c>
       <c r="F235" t="n">
-        <v>19.6601</v>
+        <v>8.897399999999999</v>
       </c>
       <c r="G235" t="n">
-        <v>63167.5</v>
+        <v>63164.16666666666</v>
       </c>
       <c r="H235" t="n">
         <v>0</v>
@@ -8671,7 +9011,11 @@
       </c>
       <c r="J235" t="inlineStr"/>
       <c r="K235" t="inlineStr"/>
-      <c r="L235" t="inlineStr"/>
+      <c r="L235" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M235" t="n">
         <v>1</v>
       </c>
@@ -8681,7 +9025,7 @@
         <v>234</v>
       </c>
       <c r="B236" t="n">
-        <v>63200</v>
+        <v>63100</v>
       </c>
       <c r="C236" t="n">
         <v>63200</v>
@@ -8690,13 +9034,13 @@
         <v>63200</v>
       </c>
       <c r="E236" t="n">
-        <v>63200</v>
+        <v>63100</v>
       </c>
       <c r="F236" t="n">
-        <v>1.2428</v>
+        <v>19.6601</v>
       </c>
       <c r="G236" t="n">
-        <v>63172.5</v>
+        <v>63167.5</v>
       </c>
       <c r="H236" t="n">
         <v>0</v>
@@ -8706,7 +9050,11 @@
       </c>
       <c r="J236" t="inlineStr"/>
       <c r="K236" t="inlineStr"/>
-      <c r="L236" t="inlineStr"/>
+      <c r="L236" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M236" t="n">
         <v>1</v>
       </c>
@@ -8716,22 +9064,22 @@
         <v>235</v>
       </c>
       <c r="B237" t="n">
-        <v>63150</v>
+        <v>63200</v>
       </c>
       <c r="C237" t="n">
-        <v>63150</v>
+        <v>63200</v>
       </c>
       <c r="D237" t="n">
-        <v>63150</v>
+        <v>63200</v>
       </c>
       <c r="E237" t="n">
-        <v>63150</v>
+        <v>63200</v>
       </c>
       <c r="F237" t="n">
-        <v>0.3892</v>
+        <v>1.2428</v>
       </c>
       <c r="G237" t="n">
-        <v>63178.33333333334</v>
+        <v>63172.5</v>
       </c>
       <c r="H237" t="n">
         <v>0</v>
@@ -8741,7 +9089,11 @@
       </c>
       <c r="J237" t="inlineStr"/>
       <c r="K237" t="inlineStr"/>
-      <c r="L237" t="inlineStr"/>
+      <c r="L237" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M237" t="n">
         <v>1</v>
       </c>
@@ -8751,22 +9103,22 @@
         <v>236</v>
       </c>
       <c r="B238" t="n">
-        <v>63200</v>
+        <v>63150</v>
       </c>
       <c r="C238" t="n">
-        <v>63200</v>
+        <v>63150</v>
       </c>
       <c r="D238" t="n">
-        <v>63200</v>
+        <v>63150</v>
       </c>
       <c r="E238" t="n">
-        <v>63200</v>
+        <v>63150</v>
       </c>
       <c r="F238" t="n">
-        <v>0.5971</v>
+        <v>0.3892</v>
       </c>
       <c r="G238" t="n">
-        <v>63185</v>
+        <v>63178.33333333334</v>
       </c>
       <c r="H238" t="n">
         <v>0</v>
@@ -8776,7 +9128,11 @@
       </c>
       <c r="J238" t="inlineStr"/>
       <c r="K238" t="inlineStr"/>
-      <c r="L238" t="inlineStr"/>
+      <c r="L238" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M238" t="n">
         <v>1</v>
       </c>
@@ -8798,10 +9154,10 @@
         <v>63200</v>
       </c>
       <c r="F239" t="n">
-        <v>0.7999000000000001</v>
+        <v>0.5971</v>
       </c>
       <c r="G239" t="n">
-        <v>63191.66666666666</v>
+        <v>63185</v>
       </c>
       <c r="H239" t="n">
         <v>0</v>
@@ -8811,7 +9167,11 @@
       </c>
       <c r="J239" t="inlineStr"/>
       <c r="K239" t="inlineStr"/>
-      <c r="L239" t="inlineStr"/>
+      <c r="L239" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M239" t="n">
         <v>1</v>
       </c>
@@ -8821,22 +9181,22 @@
         <v>238</v>
       </c>
       <c r="B240" t="n">
-        <v>63100</v>
+        <v>63200</v>
       </c>
       <c r="C240" t="n">
-        <v>63050</v>
+        <v>63200</v>
       </c>
       <c r="D240" t="n">
-        <v>63100</v>
+        <v>63200</v>
       </c>
       <c r="E240" t="n">
-        <v>63050</v>
+        <v>63200</v>
       </c>
       <c r="F240" t="n">
-        <v>63.8477</v>
+        <v>0.7999000000000001</v>
       </c>
       <c r="G240" t="n">
-        <v>63194.16666666666</v>
+        <v>63191.66666666666</v>
       </c>
       <c r="H240" t="n">
         <v>0</v>
@@ -8846,7 +9206,11 @@
       </c>
       <c r="J240" t="inlineStr"/>
       <c r="K240" t="inlineStr"/>
-      <c r="L240" t="inlineStr"/>
+      <c r="L240" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M240" t="n">
         <v>1</v>
       </c>
@@ -8856,22 +9220,22 @@
         <v>239</v>
       </c>
       <c r="B241" t="n">
-        <v>63050</v>
+        <v>63100</v>
       </c>
       <c r="C241" t="n">
         <v>63050</v>
       </c>
       <c r="D241" t="n">
-        <v>63050</v>
+        <v>63100</v>
       </c>
       <c r="E241" t="n">
         <v>63050</v>
       </c>
       <c r="F241" t="n">
-        <v>65.32989999999999</v>
+        <v>63.8477</v>
       </c>
       <c r="G241" t="n">
-        <v>63196.66666666666</v>
+        <v>63194.16666666666</v>
       </c>
       <c r="H241" t="n">
         <v>0</v>
@@ -8881,7 +9245,11 @@
       </c>
       <c r="J241" t="inlineStr"/>
       <c r="K241" t="inlineStr"/>
-      <c r="L241" t="inlineStr"/>
+      <c r="L241" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M241" t="n">
         <v>1</v>
       </c>
@@ -8903,7 +9271,7 @@
         <v>63050</v>
       </c>
       <c r="F242" t="n">
-        <v>10.6428</v>
+        <v>65.32989999999999</v>
       </c>
       <c r="G242" t="n">
         <v>63196.66666666666</v>
@@ -8916,7 +9284,11 @@
       </c>
       <c r="J242" t="inlineStr"/>
       <c r="K242" t="inlineStr"/>
-      <c r="L242" t="inlineStr"/>
+      <c r="L242" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M242" t="n">
         <v>1</v>
       </c>
@@ -8926,22 +9298,22 @@
         <v>241</v>
       </c>
       <c r="B243" t="n">
-        <v>63100</v>
+        <v>63050</v>
       </c>
       <c r="C243" t="n">
-        <v>63000</v>
+        <v>63050</v>
       </c>
       <c r="D243" t="n">
-        <v>63100</v>
+        <v>63050</v>
       </c>
       <c r="E243" t="n">
-        <v>63000</v>
+        <v>63050</v>
       </c>
       <c r="F243" t="n">
-        <v>12.4087</v>
+        <v>10.6428</v>
       </c>
       <c r="G243" t="n">
-        <v>63195</v>
+        <v>63196.66666666666</v>
       </c>
       <c r="H243" t="n">
         <v>0</v>
@@ -8951,7 +9323,11 @@
       </c>
       <c r="J243" t="inlineStr"/>
       <c r="K243" t="inlineStr"/>
-      <c r="L243" t="inlineStr"/>
+      <c r="L243" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M243" t="n">
         <v>1</v>
       </c>
@@ -8964,19 +9340,19 @@
         <v>63100</v>
       </c>
       <c r="C244" t="n">
-        <v>63100</v>
+        <v>63000</v>
       </c>
       <c r="D244" t="n">
         <v>63100</v>
       </c>
       <c r="E244" t="n">
-        <v>63100</v>
+        <v>63000</v>
       </c>
       <c r="F244" t="n">
-        <v>7</v>
+        <v>12.4087</v>
       </c>
       <c r="G244" t="n">
-        <v>63193.33333333334</v>
+        <v>63195</v>
       </c>
       <c r="H244" t="n">
         <v>0</v>
@@ -8986,7 +9362,11 @@
       </c>
       <c r="J244" t="inlineStr"/>
       <c r="K244" t="inlineStr"/>
-      <c r="L244" t="inlineStr"/>
+      <c r="L244" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M244" t="n">
         <v>1</v>
       </c>
@@ -9008,10 +9388,10 @@
         <v>63100</v>
       </c>
       <c r="F245" t="n">
-        <v>1.9265</v>
+        <v>7</v>
       </c>
       <c r="G245" t="n">
-        <v>63190.83333333334</v>
+        <v>63193.33333333334</v>
       </c>
       <c r="H245" t="n">
         <v>0</v>
@@ -9021,7 +9401,11 @@
       </c>
       <c r="J245" t="inlineStr"/>
       <c r="K245" t="inlineStr"/>
-      <c r="L245" t="inlineStr"/>
+      <c r="L245" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M245" t="n">
         <v>1</v>
       </c>
@@ -9043,10 +9427,10 @@
         <v>63100</v>
       </c>
       <c r="F246" t="n">
-        <v>96.251</v>
+        <v>1.9265</v>
       </c>
       <c r="G246" t="n">
-        <v>63187.5</v>
+        <v>63190.83333333334</v>
       </c>
       <c r="H246" t="n">
         <v>0</v>
@@ -9056,7 +9440,11 @@
       </c>
       <c r="J246" t="inlineStr"/>
       <c r="K246" t="inlineStr"/>
-      <c r="L246" t="inlineStr"/>
+      <c r="L246" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M246" t="n">
         <v>1</v>
       </c>
@@ -9069,19 +9457,19 @@
         <v>63100</v>
       </c>
       <c r="C247" t="n">
-        <v>63150</v>
+        <v>63100</v>
       </c>
       <c r="D247" t="n">
-        <v>63150</v>
+        <v>63100</v>
       </c>
       <c r="E247" t="n">
         <v>63100</v>
       </c>
       <c r="F247" t="n">
-        <v>0.9231</v>
+        <v>96.251</v>
       </c>
       <c r="G247" t="n">
-        <v>63185</v>
+        <v>63187.5</v>
       </c>
       <c r="H247" t="n">
         <v>0</v>
@@ -9091,7 +9479,11 @@
       </c>
       <c r="J247" t="inlineStr"/>
       <c r="K247" t="inlineStr"/>
-      <c r="L247" t="inlineStr"/>
+      <c r="L247" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M247" t="n">
         <v>1</v>
       </c>
@@ -9101,7 +9493,7 @@
         <v>246</v>
       </c>
       <c r="B248" t="n">
-        <v>63150</v>
+        <v>63100</v>
       </c>
       <c r="C248" t="n">
         <v>63150</v>
@@ -9110,13 +9502,13 @@
         <v>63150</v>
       </c>
       <c r="E248" t="n">
-        <v>63150</v>
+        <v>63100</v>
       </c>
       <c r="F248" t="n">
-        <v>1.31881234</v>
+        <v>0.9231</v>
       </c>
       <c r="G248" t="n">
-        <v>63182.5</v>
+        <v>63185</v>
       </c>
       <c r="H248" t="n">
         <v>0</v>
@@ -9126,7 +9518,11 @@
       </c>
       <c r="J248" t="inlineStr"/>
       <c r="K248" t="inlineStr"/>
-      <c r="L248" t="inlineStr"/>
+      <c r="L248" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M248" t="n">
         <v>1</v>
       </c>
@@ -9136,22 +9532,22 @@
         <v>247</v>
       </c>
       <c r="B249" t="n">
-        <v>63000</v>
+        <v>63150</v>
       </c>
       <c r="C249" t="n">
-        <v>63000</v>
+        <v>63150</v>
       </c>
       <c r="D249" t="n">
-        <v>63000</v>
+        <v>63150</v>
       </c>
       <c r="E249" t="n">
-        <v>63000</v>
+        <v>63150</v>
       </c>
       <c r="F249" t="n">
-        <v>0.0448</v>
+        <v>1.31881234</v>
       </c>
       <c r="G249" t="n">
-        <v>63177.5</v>
+        <v>63182.5</v>
       </c>
       <c r="H249" t="n">
         <v>0</v>
@@ -9161,7 +9557,11 @@
       </c>
       <c r="J249" t="inlineStr"/>
       <c r="K249" t="inlineStr"/>
-      <c r="L249" t="inlineStr"/>
+      <c r="L249" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M249" t="n">
         <v>1</v>
       </c>
@@ -9174,19 +9574,19 @@
         <v>63000</v>
       </c>
       <c r="C250" t="n">
-        <v>62750</v>
+        <v>63000</v>
       </c>
       <c r="D250" t="n">
         <v>63000</v>
       </c>
       <c r="E250" t="n">
-        <v>62750</v>
+        <v>63000</v>
       </c>
       <c r="F250" t="n">
-        <v>371.0002</v>
+        <v>0.0448</v>
       </c>
       <c r="G250" t="n">
-        <v>63168.33333333334</v>
+        <v>63177.5</v>
       </c>
       <c r="H250" t="n">
         <v>0</v>
@@ -9196,7 +9596,11 @@
       </c>
       <c r="J250" t="inlineStr"/>
       <c r="K250" t="inlineStr"/>
-      <c r="L250" t="inlineStr"/>
+      <c r="L250" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M250" t="n">
         <v>1</v>
       </c>
@@ -9206,22 +9610,22 @@
         <v>249</v>
       </c>
       <c r="B251" t="n">
-        <v>62600</v>
+        <v>63000</v>
       </c>
       <c r="C251" t="n">
-        <v>62500</v>
+        <v>62750</v>
       </c>
       <c r="D251" t="n">
-        <v>62600</v>
+        <v>63000</v>
       </c>
       <c r="E251" t="n">
-        <v>62500</v>
+        <v>62750</v>
       </c>
       <c r="F251" t="n">
-        <v>40.5083</v>
+        <v>371.0002</v>
       </c>
       <c r="G251" t="n">
-        <v>63156.66666666666</v>
+        <v>63168.33333333334</v>
       </c>
       <c r="H251" t="n">
         <v>0</v>
@@ -9231,7 +9635,11 @@
       </c>
       <c r="J251" t="inlineStr"/>
       <c r="K251" t="inlineStr"/>
-      <c r="L251" t="inlineStr"/>
+      <c r="L251" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M251" t="n">
         <v>1</v>
       </c>
@@ -9244,7 +9652,7 @@
         <v>62600</v>
       </c>
       <c r="C252" t="n">
-        <v>62600</v>
+        <v>62500</v>
       </c>
       <c r="D252" t="n">
         <v>62600</v>
@@ -9253,10 +9661,10 @@
         <v>62500</v>
       </c>
       <c r="F252" t="n">
-        <v>22.5211</v>
+        <v>40.5083</v>
       </c>
       <c r="G252" t="n">
-        <v>63145.83333333334</v>
+        <v>63156.66666666666</v>
       </c>
       <c r="H252" t="n">
         <v>0</v>
@@ -9266,7 +9674,11 @@
       </c>
       <c r="J252" t="inlineStr"/>
       <c r="K252" t="inlineStr"/>
-      <c r="L252" t="inlineStr"/>
+      <c r="L252" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M252" t="n">
         <v>1</v>
       </c>
@@ -9276,22 +9688,22 @@
         <v>251</v>
       </c>
       <c r="B253" t="n">
-        <v>62700</v>
+        <v>62600</v>
       </c>
       <c r="C253" t="n">
-        <v>62750</v>
+        <v>62600</v>
       </c>
       <c r="D253" t="n">
-        <v>62750</v>
+        <v>62600</v>
       </c>
       <c r="E253" t="n">
-        <v>62700</v>
+        <v>62500</v>
       </c>
       <c r="F253" t="n">
-        <v>16.2758</v>
+        <v>22.5211</v>
       </c>
       <c r="G253" t="n">
-        <v>63137.5</v>
+        <v>63145.83333333334</v>
       </c>
       <c r="H253" t="n">
         <v>0</v>
@@ -9301,7 +9713,11 @@
       </c>
       <c r="J253" t="inlineStr"/>
       <c r="K253" t="inlineStr"/>
-      <c r="L253" t="inlineStr"/>
+      <c r="L253" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M253" t="n">
         <v>1</v>
       </c>
@@ -9314,19 +9730,19 @@
         <v>62700</v>
       </c>
       <c r="C254" t="n">
-        <v>62700</v>
+        <v>62750</v>
       </c>
       <c r="D254" t="n">
-        <v>62700</v>
+        <v>62750</v>
       </c>
       <c r="E254" t="n">
         <v>62700</v>
       </c>
       <c r="F254" t="n">
-        <v>32.853</v>
+        <v>16.2758</v>
       </c>
       <c r="G254" t="n">
-        <v>63127.5</v>
+        <v>63137.5</v>
       </c>
       <c r="H254" t="n">
         <v>0</v>
@@ -9336,7 +9752,11 @@
       </c>
       <c r="J254" t="inlineStr"/>
       <c r="K254" t="inlineStr"/>
-      <c r="L254" t="inlineStr"/>
+      <c r="L254" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M254" t="n">
         <v>1</v>
       </c>
@@ -9346,22 +9766,22 @@
         <v>253</v>
       </c>
       <c r="B255" t="n">
-        <v>62800</v>
+        <v>62700</v>
       </c>
       <c r="C255" t="n">
-        <v>62800</v>
+        <v>62700</v>
       </c>
       <c r="D255" t="n">
-        <v>62800</v>
+        <v>62700</v>
       </c>
       <c r="E255" t="n">
-        <v>62800</v>
+        <v>62700</v>
       </c>
       <c r="F255" t="n">
-        <v>0.9173</v>
+        <v>32.853</v>
       </c>
       <c r="G255" t="n">
-        <v>63119.16666666666</v>
+        <v>63127.5</v>
       </c>
       <c r="H255" t="n">
         <v>0</v>
@@ -9371,7 +9791,11 @@
       </c>
       <c r="J255" t="inlineStr"/>
       <c r="K255" t="inlineStr"/>
-      <c r="L255" t="inlineStr"/>
+      <c r="L255" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M255" t="n">
         <v>1</v>
       </c>
@@ -9393,10 +9817,10 @@
         <v>62800</v>
       </c>
       <c r="F256" t="n">
-        <v>1.417</v>
+        <v>0.9173</v>
       </c>
       <c r="G256" t="n">
-        <v>63110.83333333334</v>
+        <v>63119.16666666666</v>
       </c>
       <c r="H256" t="n">
         <v>0</v>
@@ -9406,7 +9830,11 @@
       </c>
       <c r="J256" t="inlineStr"/>
       <c r="K256" t="inlineStr"/>
-      <c r="L256" t="inlineStr"/>
+      <c r="L256" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M256" t="n">
         <v>1</v>
       </c>
@@ -9416,22 +9844,22 @@
         <v>255</v>
       </c>
       <c r="B257" t="n">
-        <v>62700</v>
+        <v>62800</v>
       </c>
       <c r="C257" t="n">
-        <v>62700</v>
+        <v>62800</v>
       </c>
       <c r="D257" t="n">
-        <v>62700</v>
+        <v>62800</v>
       </c>
       <c r="E257" t="n">
-        <v>62700</v>
+        <v>62800</v>
       </c>
       <c r="F257" t="n">
-        <v>34.925</v>
+        <v>1.417</v>
       </c>
       <c r="G257" t="n">
-        <v>63100</v>
+        <v>63110.83333333334</v>
       </c>
       <c r="H257" t="n">
         <v>0</v>
@@ -9441,7 +9869,11 @@
       </c>
       <c r="J257" t="inlineStr"/>
       <c r="K257" t="inlineStr"/>
-      <c r="L257" t="inlineStr"/>
+      <c r="L257" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M257" t="n">
         <v>1</v>
       </c>
@@ -9463,10 +9895,10 @@
         <v>62700</v>
       </c>
       <c r="F258" t="n">
-        <v>1.5703</v>
+        <v>34.925</v>
       </c>
       <c r="G258" t="n">
-        <v>63091.66666666666</v>
+        <v>63100</v>
       </c>
       <c r="H258" t="n">
         <v>0</v>
@@ -9476,7 +9908,11 @@
       </c>
       <c r="J258" t="inlineStr"/>
       <c r="K258" t="inlineStr"/>
-      <c r="L258" t="inlineStr"/>
+      <c r="L258" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M258" t="n">
         <v>1</v>
       </c>
@@ -9486,22 +9922,22 @@
         <v>257</v>
       </c>
       <c r="B259" t="n">
-        <v>62800</v>
+        <v>62700</v>
       </c>
       <c r="C259" t="n">
-        <v>62800</v>
+        <v>62700</v>
       </c>
       <c r="D259" t="n">
-        <v>62800</v>
+        <v>62700</v>
       </c>
       <c r="E259" t="n">
-        <v>62800</v>
+        <v>62700</v>
       </c>
       <c r="F259" t="n">
-        <v>6.0093</v>
+        <v>1.5703</v>
       </c>
       <c r="G259" t="n">
-        <v>63083.33333333334</v>
+        <v>63091.66666666666</v>
       </c>
       <c r="H259" t="n">
         <v>0</v>
@@ -9511,8 +9947,51 @@
       </c>
       <c r="J259" t="inlineStr"/>
       <c r="K259" t="inlineStr"/>
-      <c r="L259" t="inlineStr"/>
+      <c r="L259" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M259" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" s="1" t="n">
+        <v>258</v>
+      </c>
+      <c r="B260" t="n">
+        <v>62800</v>
+      </c>
+      <c r="C260" t="n">
+        <v>62800</v>
+      </c>
+      <c r="D260" t="n">
+        <v>62800</v>
+      </c>
+      <c r="E260" t="n">
+        <v>62800</v>
+      </c>
+      <c r="F260" t="n">
+        <v>6.0093</v>
+      </c>
+      <c r="G260" t="n">
+        <v>63083.33333333334</v>
+      </c>
+      <c r="H260" t="n">
+        <v>0</v>
+      </c>
+      <c r="I260" t="n">
+        <v>0</v>
+      </c>
+      <c r="J260" t="inlineStr"/>
+      <c r="K260" t="inlineStr"/>
+      <c r="L260" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M260" t="n">
         <v>1</v>
       </c>
     </row>

--- a/BackTest/2019-10-19 BackTest LTC.xlsx
+++ b/BackTest/2019-10-19 BackTest LTC.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -1507,7 +1507,7 @@
         <v>64.99036839999999</v>
       </c>
       <c r="H34" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
@@ -1540,7 +1540,7 @@
         <v>-2.509131600000003</v>
       </c>
       <c r="H35" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
@@ -1573,7 +1573,7 @@
         <v>-2.509131600000003</v>
       </c>
       <c r="H36" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
@@ -1903,7 +1903,7 @@
         <v>61.4050684</v>
       </c>
       <c r="H46" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
@@ -2035,7 +2035,7 @@
         <v>37.76156839999999</v>
       </c>
       <c r="H50" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
@@ -2134,7 +2134,7 @@
         <v>29.04386839999999</v>
       </c>
       <c r="H53" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
@@ -2167,7 +2167,7 @@
         <v>6.223568399999994</v>
       </c>
       <c r="H54" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
@@ -2200,7 +2200,7 @@
         <v>3.248468399999994</v>
       </c>
       <c r="H55" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
@@ -2827,14 +2827,10 @@
         <v>71.01926840000002</v>
       </c>
       <c r="H74" t="n">
-        <v>2</v>
-      </c>
-      <c r="I74" t="n">
-        <v>63100</v>
-      </c>
-      <c r="J74" t="n">
-        <v>63100</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I74" t="inlineStr"/>
+      <c r="J74" t="inlineStr"/>
       <c r="K74" t="inlineStr"/>
       <c r="L74" t="n">
         <v>1</v>
@@ -2867,14 +2863,8 @@
         <v>0</v>
       </c>
       <c r="I75" t="inlineStr"/>
-      <c r="J75" t="n">
-        <v>63100</v>
-      </c>
-      <c r="K75" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J75" t="inlineStr"/>
+      <c r="K75" t="inlineStr"/>
       <c r="L75" t="n">
         <v>1</v>
       </c>
@@ -2906,14 +2896,8 @@
         <v>0</v>
       </c>
       <c r="I76" t="inlineStr"/>
-      <c r="J76" t="n">
-        <v>63100</v>
-      </c>
-      <c r="K76" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J76" t="inlineStr"/>
+      <c r="K76" t="inlineStr"/>
       <c r="L76" t="n">
         <v>1</v>
       </c>
@@ -3041,7 +3025,7 @@
         <v>120.3093684</v>
       </c>
       <c r="H80" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
@@ -3074,7 +3058,7 @@
         <v>108.0335684</v>
       </c>
       <c r="H81" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
@@ -3107,7 +3091,7 @@
         <v>108.0335684</v>
       </c>
       <c r="H82" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
@@ -3140,7 +3124,7 @@
         <v>107.7842684</v>
       </c>
       <c r="H83" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
@@ -3173,7 +3157,7 @@
         <v>109.6643684</v>
       </c>
       <c r="H84" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
@@ -3338,7 +3322,7 @@
         <v>142.6677684</v>
       </c>
       <c r="H89" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
@@ -3371,7 +3355,7 @@
         <v>142.6677684</v>
       </c>
       <c r="H90" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
@@ -3404,7 +3388,7 @@
         <v>142.6677684</v>
       </c>
       <c r="H91" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
@@ -3437,7 +3421,7 @@
         <v>142.6677684</v>
       </c>
       <c r="H92" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
@@ -3470,7 +3454,7 @@
         <v>142.6677684</v>
       </c>
       <c r="H93" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
@@ -3503,7 +3487,7 @@
         <v>125.9771684</v>
       </c>
       <c r="H94" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
@@ -3536,7 +3520,7 @@
         <v>126.9802684</v>
       </c>
       <c r="H95" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
@@ -3569,7 +3553,7 @@
         <v>124.0725684</v>
       </c>
       <c r="H96" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
@@ -3602,7 +3586,7 @@
         <v>124.0725684</v>
       </c>
       <c r="H97" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
@@ -3635,7 +3619,7 @@
         <v>125.0725684</v>
       </c>
       <c r="H98" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
@@ -3668,7 +3652,7 @@
         <v>125.0725684</v>
       </c>
       <c r="H99" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
@@ -3701,7 +3685,7 @@
         <v>125.0725684</v>
       </c>
       <c r="H100" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
@@ -3734,7 +3718,7 @@
         <v>125.5487684</v>
       </c>
       <c r="H101" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
@@ -3800,7 +3784,7 @@
         <v>125.5487684</v>
       </c>
       <c r="H103" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
@@ -3833,7 +3817,7 @@
         <v>127.6377684</v>
       </c>
       <c r="H104" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
@@ -3866,7 +3850,7 @@
         <v>131.9659684</v>
       </c>
       <c r="H105" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
@@ -3899,7 +3883,7 @@
         <v>131.9659684</v>
       </c>
       <c r="H106" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
@@ -3932,7 +3916,7 @@
         <v>126.8504684</v>
       </c>
       <c r="H107" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
@@ -3965,7 +3949,7 @@
         <v>126.8504684</v>
       </c>
       <c r="H108" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
@@ -3998,7 +3982,7 @@
         <v>126.8504684</v>
       </c>
       <c r="H109" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
@@ -4031,7 +4015,7 @@
         <v>138.0089684</v>
       </c>
       <c r="H110" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
@@ -4064,7 +4048,7 @@
         <v>136.7631684</v>
       </c>
       <c r="H111" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
@@ -4097,7 +4081,7 @@
         <v>136.7631684</v>
       </c>
       <c r="H112" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
@@ -4130,7 +4114,7 @@
         <v>136.7631684</v>
       </c>
       <c r="H113" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
@@ -4163,7 +4147,7 @@
         <v>121.4238684</v>
       </c>
       <c r="H114" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
@@ -4196,7 +4180,7 @@
         <v>177.4596684</v>
       </c>
       <c r="H115" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
@@ -4229,7 +4213,7 @@
         <v>140.7724684</v>
       </c>
       <c r="H116" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
@@ -4262,7 +4246,7 @@
         <v>146.2853684</v>
       </c>
       <c r="H117" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
@@ -4295,7 +4279,7 @@
         <v>145.7417684</v>
       </c>
       <c r="H118" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
@@ -4328,7 +4312,7 @@
         <v>108.4105684</v>
       </c>
       <c r="H119" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
@@ -4361,7 +4345,7 @@
         <v>109.0029684</v>
       </c>
       <c r="H120" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
@@ -4394,7 +4378,7 @@
         <v>101.1636684</v>
       </c>
       <c r="H121" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
@@ -4427,7 +4411,7 @@
         <v>101.1636684</v>
       </c>
       <c r="H122" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
@@ -4460,7 +4444,7 @@
         <v>101.1636684</v>
       </c>
       <c r="H123" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
@@ -4493,7 +4477,7 @@
         <v>89.50816840000005</v>
       </c>
       <c r="H124" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
@@ -4526,7 +4510,7 @@
         <v>90.06566840000005</v>
       </c>
       <c r="H125" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
@@ -4559,7 +4543,7 @@
         <v>96.46566840000006</v>
       </c>
       <c r="H126" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
@@ -4592,7 +4576,7 @@
         <v>93.91656840000006</v>
       </c>
       <c r="H127" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
@@ -4625,7 +4609,7 @@
         <v>93.91656840000006</v>
       </c>
       <c r="H128" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
@@ -4658,7 +4642,7 @@
         <v>93.22826840000006</v>
       </c>
       <c r="H129" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
@@ -4691,7 +4675,7 @@
         <v>93.22826840000006</v>
       </c>
       <c r="H130" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
@@ -4757,7 +4741,7 @@
         <v>93.22826840000006</v>
       </c>
       <c r="H132" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
@@ -4790,7 +4774,7 @@
         <v>93.22826840000006</v>
       </c>
       <c r="H133" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
@@ -4823,7 +4807,7 @@
         <v>93.22826840000006</v>
       </c>
       <c r="H134" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
@@ -4856,7 +4840,7 @@
         <v>93.22826840000006</v>
       </c>
       <c r="H135" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
@@ -4889,7 +4873,7 @@
         <v>93.32826840000006</v>
       </c>
       <c r="H136" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
@@ -4922,7 +4906,7 @@
         <v>85.41386840000006</v>
       </c>
       <c r="H137" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
@@ -4990,12 +4974,8 @@
       <c r="H139" t="n">
         <v>2</v>
       </c>
-      <c r="I139" t="n">
-        <v>62900</v>
-      </c>
-      <c r="J139" t="n">
-        <v>62900</v>
-      </c>
+      <c r="I139" t="inlineStr"/>
+      <c r="J139" t="inlineStr"/>
       <c r="K139" t="inlineStr"/>
       <c r="L139" t="n">
         <v>1</v>
@@ -5025,19 +5005,11 @@
         <v>85.76886840000006</v>
       </c>
       <c r="H140" t="n">
-        <v>2</v>
-      </c>
-      <c r="I140" t="n">
-        <v>62900</v>
-      </c>
-      <c r="J140" t="n">
-        <v>62900</v>
-      </c>
-      <c r="K140" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I140" t="inlineStr"/>
+      <c r="J140" t="inlineStr"/>
+      <c r="K140" t="inlineStr"/>
       <c r="L140" t="n">
         <v>1</v>
       </c>
@@ -5066,19 +5038,11 @@
         <v>86.76886840000006</v>
       </c>
       <c r="H141" t="n">
-        <v>2</v>
-      </c>
-      <c r="I141" t="n">
-        <v>62950</v>
-      </c>
-      <c r="J141" t="n">
-        <v>62900</v>
-      </c>
-      <c r="K141" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I141" t="inlineStr"/>
+      <c r="J141" t="inlineStr"/>
+      <c r="K141" t="inlineStr"/>
       <c r="L141" t="n">
         <v>1</v>
       </c>
@@ -5109,12 +5073,8 @@
       <c r="H142" t="n">
         <v>2</v>
       </c>
-      <c r="I142" t="n">
-        <v>63050</v>
-      </c>
-      <c r="J142" t="n">
-        <v>63050</v>
-      </c>
+      <c r="I142" t="inlineStr"/>
+      <c r="J142" t="inlineStr"/>
       <c r="K142" t="inlineStr"/>
       <c r="L142" t="n">
         <v>1</v>
@@ -5144,19 +5104,11 @@
         <v>84.01766840000006</v>
       </c>
       <c r="H143" t="n">
-        <v>2</v>
-      </c>
-      <c r="I143" t="n">
-        <v>62950</v>
-      </c>
-      <c r="J143" t="n">
-        <v>63050</v>
-      </c>
-      <c r="K143" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I143" t="inlineStr"/>
+      <c r="J143" t="inlineStr"/>
+      <c r="K143" t="inlineStr"/>
       <c r="L143" t="n">
         <v>1</v>
       </c>
@@ -5188,14 +5140,8 @@
         <v>0</v>
       </c>
       <c r="I144" t="inlineStr"/>
-      <c r="J144" t="n">
-        <v>63050</v>
-      </c>
-      <c r="K144" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J144" t="inlineStr"/>
+      <c r="K144" t="inlineStr"/>
       <c r="L144" t="n">
         <v>1</v>
       </c>
@@ -5290,14 +5236,10 @@
         <v>178.6398684</v>
       </c>
       <c r="H147" t="n">
-        <v>2</v>
-      </c>
-      <c r="I147" t="n">
-        <v>62950</v>
-      </c>
-      <c r="J147" t="n">
-        <v>62950</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I147" t="inlineStr"/>
+      <c r="J147" t="inlineStr"/>
       <c r="K147" t="inlineStr"/>
       <c r="L147" t="n">
         <v>1</v>
@@ -5327,19 +5269,11 @@
         <v>178.6398684</v>
       </c>
       <c r="H148" t="n">
-        <v>2</v>
-      </c>
-      <c r="I148" t="n">
-        <v>62950</v>
-      </c>
-      <c r="J148" t="n">
-        <v>62950</v>
-      </c>
-      <c r="K148" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I148" t="inlineStr"/>
+      <c r="J148" t="inlineStr"/>
+      <c r="K148" t="inlineStr"/>
       <c r="L148" t="n">
         <v>1</v>
       </c>
@@ -5368,19 +5302,11 @@
         <v>178.6398684</v>
       </c>
       <c r="H149" t="n">
-        <v>2</v>
-      </c>
-      <c r="I149" t="n">
-        <v>62950</v>
-      </c>
-      <c r="J149" t="n">
-        <v>62950</v>
-      </c>
-      <c r="K149" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I149" t="inlineStr"/>
+      <c r="J149" t="inlineStr"/>
+      <c r="K149" t="inlineStr"/>
       <c r="L149" t="n">
         <v>1</v>
       </c>
@@ -5411,17 +5337,9 @@
       <c r="H150" t="n">
         <v>2</v>
       </c>
-      <c r="I150" t="n">
-        <v>62950</v>
-      </c>
-      <c r="J150" t="n">
-        <v>62950</v>
-      </c>
-      <c r="K150" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="I150" t="inlineStr"/>
+      <c r="J150" t="inlineStr"/>
+      <c r="K150" t="inlineStr"/>
       <c r="L150" t="n">
         <v>1</v>
       </c>
@@ -5450,19 +5368,11 @@
         <v>126.4729684</v>
       </c>
       <c r="H151" t="n">
-        <v>2</v>
-      </c>
-      <c r="I151" t="n">
-        <v>62800</v>
-      </c>
-      <c r="J151" t="n">
-        <v>62950</v>
-      </c>
-      <c r="K151" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I151" t="inlineStr"/>
+      <c r="J151" t="inlineStr"/>
+      <c r="K151" t="inlineStr"/>
       <c r="L151" t="n">
         <v>1</v>
       </c>
@@ -5491,19 +5401,11 @@
         <v>126.4729684</v>
       </c>
       <c r="H152" t="n">
-        <v>2</v>
-      </c>
-      <c r="I152" t="n">
-        <v>62800</v>
-      </c>
-      <c r="J152" t="n">
-        <v>62950</v>
-      </c>
-      <c r="K152" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I152" t="inlineStr"/>
+      <c r="J152" t="inlineStr"/>
+      <c r="K152" t="inlineStr"/>
       <c r="L152" t="n">
         <v>1</v>
       </c>
@@ -5532,19 +5434,11 @@
         <v>124.9748684</v>
       </c>
       <c r="H153" t="n">
-        <v>2</v>
-      </c>
-      <c r="I153" t="n">
-        <v>62800</v>
-      </c>
-      <c r="J153" t="n">
-        <v>62950</v>
-      </c>
-      <c r="K153" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I153" t="inlineStr"/>
+      <c r="J153" t="inlineStr"/>
+      <c r="K153" t="inlineStr"/>
       <c r="L153" t="n">
         <v>1</v>
       </c>
@@ -5573,19 +5467,11 @@
         <v>124.9748684</v>
       </c>
       <c r="H154" t="n">
-        <v>2</v>
-      </c>
-      <c r="I154" t="n">
-        <v>62700</v>
-      </c>
-      <c r="J154" t="n">
-        <v>62950</v>
-      </c>
-      <c r="K154" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I154" t="inlineStr"/>
+      <c r="J154" t="inlineStr"/>
+      <c r="K154" t="inlineStr"/>
       <c r="L154" t="n">
         <v>1</v>
       </c>
@@ -5614,19 +5500,11 @@
         <v>125.0748684</v>
       </c>
       <c r="H155" t="n">
-        <v>2</v>
-      </c>
-      <c r="I155" t="n">
-        <v>62700</v>
-      </c>
-      <c r="J155" t="n">
-        <v>62950</v>
-      </c>
-      <c r="K155" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I155" t="inlineStr"/>
+      <c r="J155" t="inlineStr"/>
+      <c r="K155" t="inlineStr"/>
       <c r="L155" t="n">
         <v>1</v>
       </c>
@@ -5655,19 +5533,11 @@
         <v>123.4748684</v>
       </c>
       <c r="H156" t="n">
-        <v>2</v>
-      </c>
-      <c r="I156" t="n">
-        <v>62850</v>
-      </c>
-      <c r="J156" t="n">
-        <v>62950</v>
-      </c>
-      <c r="K156" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I156" t="inlineStr"/>
+      <c r="J156" t="inlineStr"/>
+      <c r="K156" t="inlineStr"/>
       <c r="L156" t="n">
         <v>1</v>
       </c>
@@ -5696,19 +5566,11 @@
         <v>123.0014684</v>
       </c>
       <c r="H157" t="n">
-        <v>2</v>
-      </c>
-      <c r="I157" t="n">
-        <v>62800</v>
-      </c>
-      <c r="J157" t="n">
-        <v>62950</v>
-      </c>
-      <c r="K157" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I157" t="inlineStr"/>
+      <c r="J157" t="inlineStr"/>
+      <c r="K157" t="inlineStr"/>
       <c r="L157" t="n">
         <v>1</v>
       </c>
@@ -5737,19 +5599,11 @@
         <v>124.0014684</v>
       </c>
       <c r="H158" t="n">
-        <v>2</v>
-      </c>
-      <c r="I158" t="n">
-        <v>62700</v>
-      </c>
-      <c r="J158" t="n">
-        <v>62950</v>
-      </c>
-      <c r="K158" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I158" t="inlineStr"/>
+      <c r="J158" t="inlineStr"/>
+      <c r="K158" t="inlineStr"/>
       <c r="L158" t="n">
         <v>1</v>
       </c>
@@ -5781,14 +5635,8 @@
         <v>0</v>
       </c>
       <c r="I159" t="inlineStr"/>
-      <c r="J159" t="n">
-        <v>62950</v>
-      </c>
-      <c r="K159" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J159" t="inlineStr"/>
+      <c r="K159" t="inlineStr"/>
       <c r="L159" t="n">
         <v>1</v>
       </c>
@@ -5817,19 +5665,11 @@
         <v>149.9425684000001</v>
       </c>
       <c r="H160" t="n">
-        <v>2</v>
-      </c>
-      <c r="I160" t="n">
-        <v>62750</v>
-      </c>
-      <c r="J160" t="n">
-        <v>62950</v>
-      </c>
-      <c r="K160" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I160" t="inlineStr"/>
+      <c r="J160" t="inlineStr"/>
+      <c r="K160" t="inlineStr"/>
       <c r="L160" t="n">
         <v>1</v>
       </c>
@@ -5858,19 +5698,11 @@
         <v>149.9425684000001</v>
       </c>
       <c r="H161" t="n">
-        <v>2</v>
-      </c>
-      <c r="I161" t="n">
-        <v>62900</v>
-      </c>
-      <c r="J161" t="n">
-        <v>62950</v>
-      </c>
-      <c r="K161" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I161" t="inlineStr"/>
+      <c r="J161" t="inlineStr"/>
+      <c r="K161" t="inlineStr"/>
       <c r="L161" t="n">
         <v>1</v>
       </c>
@@ -5899,19 +5731,11 @@
         <v>149.9425684000001</v>
       </c>
       <c r="H162" t="n">
-        <v>2</v>
-      </c>
-      <c r="I162" t="n">
-        <v>62900</v>
-      </c>
-      <c r="J162" t="n">
-        <v>62950</v>
-      </c>
-      <c r="K162" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I162" t="inlineStr"/>
+      <c r="J162" t="inlineStr"/>
+      <c r="K162" t="inlineStr"/>
       <c r="L162" t="n">
         <v>1</v>
       </c>
@@ -5943,14 +5767,8 @@
         <v>0</v>
       </c>
       <c r="I163" t="inlineStr"/>
-      <c r="J163" t="n">
-        <v>62950</v>
-      </c>
-      <c r="K163" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J163" t="inlineStr"/>
+      <c r="K163" t="inlineStr"/>
       <c r="L163" t="n">
         <v>1</v>
       </c>
@@ -5979,19 +5797,11 @@
         <v>181.1625684000001</v>
       </c>
       <c r="H164" t="n">
-        <v>2</v>
-      </c>
-      <c r="I164" t="n">
-        <v>62850</v>
-      </c>
-      <c r="J164" t="n">
-        <v>62950</v>
-      </c>
-      <c r="K164" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I164" t="inlineStr"/>
+      <c r="J164" t="inlineStr"/>
+      <c r="K164" t="inlineStr"/>
       <c r="L164" t="n">
         <v>1</v>
       </c>
@@ -6020,19 +5830,11 @@
         <v>187.7195684</v>
       </c>
       <c r="H165" t="n">
-        <v>2</v>
-      </c>
-      <c r="I165" t="n">
-        <v>63000</v>
-      </c>
-      <c r="J165" t="n">
-        <v>62950</v>
-      </c>
-      <c r="K165" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I165" t="inlineStr"/>
+      <c r="J165" t="inlineStr"/>
+      <c r="K165" t="inlineStr"/>
       <c r="L165" t="n">
         <v>1</v>
       </c>
@@ -6064,14 +5866,8 @@
         <v>0</v>
       </c>
       <c r="I166" t="inlineStr"/>
-      <c r="J166" t="n">
-        <v>62950</v>
-      </c>
-      <c r="K166" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J166" t="inlineStr"/>
+      <c r="K166" t="inlineStr"/>
       <c r="L166" t="n">
         <v>1</v>
       </c>
@@ -6103,14 +5899,8 @@
         <v>0</v>
       </c>
       <c r="I167" t="inlineStr"/>
-      <c r="J167" t="n">
-        <v>62950</v>
-      </c>
-      <c r="K167" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J167" t="inlineStr"/>
+      <c r="K167" t="inlineStr"/>
       <c r="L167" t="n">
         <v>1</v>
       </c>
@@ -6142,14 +5932,8 @@
         <v>0</v>
       </c>
       <c r="I168" t="inlineStr"/>
-      <c r="J168" t="n">
-        <v>62950</v>
-      </c>
-      <c r="K168" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J168" t="inlineStr"/>
+      <c r="K168" t="inlineStr"/>
       <c r="L168" t="n">
         <v>1</v>
       </c>
@@ -6178,19 +5962,13 @@
         <v>440.2490684000001</v>
       </c>
       <c r="H169" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I169" t="inlineStr"/>
-      <c r="J169" t="n">
-        <v>62950</v>
-      </c>
-      <c r="K169" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
+      <c r="J169" t="inlineStr"/>
+      <c r="K169" t="inlineStr"/>
       <c r="L169" t="n">
-        <v>1.001354249404289</v>
+        <v>1</v>
       </c>
       <c r="M169" t="inlineStr"/>
     </row>
@@ -6415,7 +6193,7 @@
         <v>386.5077684</v>
       </c>
       <c r="H176" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
@@ -6448,7 +6226,7 @@
         <v>386.5077684</v>
       </c>
       <c r="H177" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
@@ -6481,7 +6259,7 @@
         <v>384.1683684</v>
       </c>
       <c r="H178" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
@@ -6514,7 +6292,7 @@
         <v>346.6559684</v>
       </c>
       <c r="H179" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
@@ -6547,7 +6325,7 @@
         <v>74.57796840000003</v>
       </c>
       <c r="H180" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
@@ -6580,7 +6358,7 @@
         <v>74.57796840000003</v>
       </c>
       <c r="H181" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
@@ -6613,7 +6391,7 @@
         <v>74.67796840000003</v>
       </c>
       <c r="H182" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
@@ -6646,7 +6424,7 @@
         <v>64.68096840000003</v>
       </c>
       <c r="H183" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr"/>
@@ -6679,7 +6457,7 @@
         <v>64.20026840000003</v>
       </c>
       <c r="H184" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr"/>
@@ -6712,7 +6490,7 @@
         <v>64.26486840000003</v>
       </c>
       <c r="H185" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr"/>
@@ -6745,7 +6523,7 @@
         <v>35.80826840000002</v>
       </c>
       <c r="H186" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I186" t="inlineStr"/>
       <c r="J186" t="inlineStr"/>
@@ -6778,7 +6556,7 @@
         <v>35.80826840000002</v>
       </c>
       <c r="H187" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
@@ -6811,7 +6589,7 @@
         <v>37.04906840000002</v>
       </c>
       <c r="H188" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr"/>
@@ -6844,7 +6622,7 @@
         <v>26.05066840000002</v>
       </c>
       <c r="H189" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr"/>
@@ -6877,7 +6655,7 @@
         <v>26.05066840000002</v>
       </c>
       <c r="H190" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I190" t="inlineStr"/>
       <c r="J190" t="inlineStr"/>
@@ -6910,7 +6688,7 @@
         <v>26.05066840000002</v>
       </c>
       <c r="H191" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I191" t="inlineStr"/>
       <c r="J191" t="inlineStr"/>
@@ -6943,7 +6721,7 @@
         <v>26.05066840000002</v>
       </c>
       <c r="H192" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I192" t="inlineStr"/>
       <c r="J192" t="inlineStr"/>
@@ -6976,7 +6754,7 @@
         <v>26.05066840000002</v>
       </c>
       <c r="H193" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I193" t="inlineStr"/>
       <c r="J193" t="inlineStr"/>
@@ -7009,7 +6787,7 @@
         <v>26.10066840000002</v>
       </c>
       <c r="H194" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I194" t="inlineStr"/>
       <c r="J194" t="inlineStr"/>
@@ -7042,7 +6820,7 @@
         <v>24.94066840000002</v>
       </c>
       <c r="H195" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I195" t="inlineStr"/>
       <c r="J195" t="inlineStr"/>
@@ -7075,7 +6853,7 @@
         <v>24.94066840000002</v>
       </c>
       <c r="H196" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I196" t="inlineStr"/>
       <c r="J196" t="inlineStr"/>
@@ -7108,7 +6886,7 @@
         <v>-31.68408981999997</v>
       </c>
       <c r="H197" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I197" t="inlineStr"/>
       <c r="J197" t="inlineStr"/>
@@ -7141,7 +6919,7 @@
         <v>-31.68408981999997</v>
       </c>
       <c r="H198" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I198" t="inlineStr"/>
       <c r="J198" t="inlineStr"/>
@@ -7174,7 +6952,7 @@
         <v>-37.60798981999997</v>
       </c>
       <c r="H199" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I199" t="inlineStr"/>
       <c r="J199" t="inlineStr"/>
@@ -7207,7 +6985,7 @@
         <v>-37.60798981999997</v>
       </c>
       <c r="H200" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I200" t="inlineStr"/>
       <c r="J200" t="inlineStr"/>
@@ -7240,7 +7018,7 @@
         <v>-37.55521072999997</v>
       </c>
       <c r="H201" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I201" t="inlineStr"/>
       <c r="J201" t="inlineStr"/>
@@ -7273,7 +7051,7 @@
         <v>-39.08381072999997</v>
       </c>
       <c r="H202" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I202" t="inlineStr"/>
       <c r="J202" t="inlineStr"/>
@@ -7306,7 +7084,7 @@
         <v>-39.08381072999997</v>
       </c>
       <c r="H203" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I203" t="inlineStr"/>
       <c r="J203" t="inlineStr"/>
@@ -7405,7 +7183,7 @@
         <v>-22.72051072999997</v>
       </c>
       <c r="H206" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I206" t="inlineStr"/>
       <c r="J206" t="inlineStr"/>
@@ -7438,7 +7216,7 @@
         <v>-22.56131072999997</v>
       </c>
       <c r="H207" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I207" t="inlineStr"/>
       <c r="J207" t="inlineStr"/>
@@ -7471,7 +7249,7 @@
         <v>-24.90231072999997</v>
       </c>
       <c r="H208" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I208" t="inlineStr"/>
       <c r="J208" t="inlineStr"/>
@@ -7504,7 +7282,7 @@
         <v>-25.82071072999997</v>
       </c>
       <c r="H209" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I209" t="inlineStr"/>
       <c r="J209" t="inlineStr"/>
@@ -7537,7 +7315,7 @@
         <v>-25.82071072999997</v>
       </c>
       <c r="H210" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I210" t="inlineStr"/>
       <c r="J210" t="inlineStr"/>
@@ -7570,7 +7348,7 @@
         <v>-25.82071072999997</v>
       </c>
       <c r="H211" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I211" t="inlineStr"/>
       <c r="J211" t="inlineStr"/>
@@ -7603,7 +7381,7 @@
         <v>-25.42420002999997</v>
       </c>
       <c r="H212" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I212" t="inlineStr"/>
       <c r="J212" t="inlineStr"/>
@@ -7636,7 +7414,7 @@
         <v>-31.91420002999997</v>
       </c>
       <c r="H213" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I213" t="inlineStr"/>
       <c r="J213" t="inlineStr"/>
@@ -7669,7 +7447,7 @@
         <v>-31.91420002999997</v>
       </c>
       <c r="H214" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I214" t="inlineStr"/>
       <c r="J214" t="inlineStr"/>
@@ -7702,7 +7480,7 @@
         <v>-31.91420002999997</v>
       </c>
       <c r="H215" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I215" t="inlineStr"/>
       <c r="J215" t="inlineStr"/>
@@ -7735,7 +7513,7 @@
         <v>-31.91420002999997</v>
       </c>
       <c r="H216" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I216" t="inlineStr"/>
       <c r="J216" t="inlineStr"/>
@@ -7768,7 +7546,7 @@
         <v>-10.20750002999997</v>
       </c>
       <c r="H217" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I217" t="inlineStr"/>
       <c r="J217" t="inlineStr"/>
@@ -7801,7 +7579,7 @@
         <v>19.25779997000003</v>
       </c>
       <c r="H218" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I218" t="inlineStr"/>
       <c r="J218" t="inlineStr"/>
@@ -7834,7 +7612,7 @@
         <v>19.25779997000003</v>
       </c>
       <c r="H219" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I219" t="inlineStr"/>
       <c r="J219" t="inlineStr"/>
@@ -7867,7 +7645,7 @@
         <v>-35.98950002999997</v>
       </c>
       <c r="H220" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I220" t="inlineStr"/>
       <c r="J220" t="inlineStr"/>
@@ -7900,7 +7678,7 @@
         <v>-35.98950002999997</v>
       </c>
       <c r="H221" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I221" t="inlineStr"/>
       <c r="J221" t="inlineStr"/>
@@ -7933,7 +7711,7 @@
         <v>-75.96270002999998</v>
       </c>
       <c r="H222" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I222" t="inlineStr"/>
       <c r="J222" t="inlineStr"/>
@@ -7966,7 +7744,7 @@
         <v>-75.94509305999998</v>
       </c>
       <c r="H223" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I223" t="inlineStr"/>
       <c r="J223" t="inlineStr"/>
@@ -7999,7 +7777,7 @@
         <v>-83.26129305999997</v>
       </c>
       <c r="H224" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I224" t="inlineStr"/>
       <c r="J224" t="inlineStr"/>
@@ -8428,14 +8206,10 @@
         <v>-196.18019306</v>
       </c>
       <c r="H237" t="n">
-        <v>2</v>
-      </c>
-      <c r="I237" t="n">
-        <v>62800</v>
-      </c>
-      <c r="J237" t="n">
-        <v>62800</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I237" t="inlineStr"/>
+      <c r="J237" t="inlineStr"/>
       <c r="K237" t="inlineStr"/>
       <c r="L237" t="n">
         <v>1</v>
@@ -8468,14 +8242,8 @@
         <v>0</v>
       </c>
       <c r="I238" t="inlineStr"/>
-      <c r="J238" t="n">
-        <v>62800</v>
-      </c>
-      <c r="K238" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="J238" t="inlineStr"/>
+      <c r="K238" t="inlineStr"/>
       <c r="L238" t="n">
         <v>1</v>
       </c>
@@ -8507,14 +8275,8 @@
         <v>0</v>
       </c>
       <c r="I239" t="inlineStr"/>
-      <c r="J239" t="n">
-        <v>62800</v>
-      </c>
-      <c r="K239" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J239" t="inlineStr"/>
+      <c r="K239" t="inlineStr"/>
       <c r="L239" t="n">
         <v>1</v>
       </c>
@@ -8543,19 +8305,11 @@
         <v>-196.16219624</v>
       </c>
       <c r="H240" t="n">
-        <v>2</v>
-      </c>
-      <c r="I240" t="n">
-        <v>62900</v>
-      </c>
-      <c r="J240" t="n">
-        <v>62800</v>
-      </c>
-      <c r="K240" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I240" t="inlineStr"/>
+      <c r="J240" t="inlineStr"/>
+      <c r="K240" t="inlineStr"/>
       <c r="L240" t="n">
         <v>1</v>
       </c>
@@ -8584,19 +8338,11 @@
         <v>-166.4477962399999</v>
       </c>
       <c r="H241" t="n">
-        <v>2</v>
-      </c>
-      <c r="I241" t="n">
-        <v>62900</v>
-      </c>
-      <c r="J241" t="n">
-        <v>62800</v>
-      </c>
-      <c r="K241" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I241" t="inlineStr"/>
+      <c r="J241" t="inlineStr"/>
+      <c r="K241" t="inlineStr"/>
       <c r="L241" t="n">
         <v>1</v>
       </c>
@@ -8628,14 +8374,8 @@
         <v>0</v>
       </c>
       <c r="I242" t="inlineStr"/>
-      <c r="J242" t="n">
-        <v>62800</v>
-      </c>
-      <c r="K242" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J242" t="inlineStr"/>
+      <c r="K242" t="inlineStr"/>
       <c r="L242" t="n">
         <v>1</v>
       </c>
@@ -8667,14 +8407,8 @@
         <v>0</v>
       </c>
       <c r="I243" t="inlineStr"/>
-      <c r="J243" t="n">
-        <v>62800</v>
-      </c>
-      <c r="K243" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J243" t="inlineStr"/>
+      <c r="K243" t="inlineStr"/>
       <c r="L243" t="n">
         <v>1</v>
       </c>
@@ -8706,14 +8440,8 @@
         <v>0</v>
       </c>
       <c r="I244" t="inlineStr"/>
-      <c r="J244" t="n">
-        <v>62800</v>
-      </c>
-      <c r="K244" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J244" t="inlineStr"/>
+      <c r="K244" t="inlineStr"/>
       <c r="L244" t="n">
         <v>1</v>
       </c>
@@ -8745,14 +8473,8 @@
         <v>0</v>
       </c>
       <c r="I245" t="inlineStr"/>
-      <c r="J245" t="n">
-        <v>62800</v>
-      </c>
-      <c r="K245" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J245" t="inlineStr"/>
+      <c r="K245" t="inlineStr"/>
       <c r="L245" t="n">
         <v>1</v>
       </c>
@@ -8784,14 +8506,8 @@
         <v>0</v>
       </c>
       <c r="I246" t="inlineStr"/>
-      <c r="J246" t="n">
-        <v>62800</v>
-      </c>
-      <c r="K246" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J246" t="inlineStr"/>
+      <c r="K246" t="inlineStr"/>
       <c r="L246" t="n">
         <v>1</v>
       </c>
@@ -8823,14 +8539,8 @@
         <v>0</v>
       </c>
       <c r="I247" t="inlineStr"/>
-      <c r="J247" t="n">
-        <v>62800</v>
-      </c>
-      <c r="K247" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J247" t="inlineStr"/>
+      <c r="K247" t="inlineStr"/>
       <c r="L247" t="n">
         <v>1</v>
       </c>
@@ -8862,14 +8572,8 @@
         <v>0</v>
       </c>
       <c r="I248" t="inlineStr"/>
-      <c r="J248" t="n">
-        <v>62800</v>
-      </c>
-      <c r="K248" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J248" t="inlineStr"/>
+      <c r="K248" t="inlineStr"/>
       <c r="L248" t="n">
         <v>1</v>
       </c>
@@ -8901,14 +8605,8 @@
         <v>0</v>
       </c>
       <c r="I249" t="inlineStr"/>
-      <c r="J249" t="n">
-        <v>62800</v>
-      </c>
-      <c r="K249" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J249" t="inlineStr"/>
+      <c r="K249" t="inlineStr"/>
       <c r="L249" t="n">
         <v>1</v>
       </c>
@@ -8940,14 +8638,8 @@
         <v>0</v>
       </c>
       <c r="I250" t="inlineStr"/>
-      <c r="J250" t="n">
-        <v>62800</v>
-      </c>
-      <c r="K250" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J250" t="inlineStr"/>
+      <c r="K250" t="inlineStr"/>
       <c r="L250" t="n">
         <v>1</v>
       </c>
@@ -8979,14 +8671,8 @@
         <v>0</v>
       </c>
       <c r="I251" t="inlineStr"/>
-      <c r="J251" t="n">
-        <v>62800</v>
-      </c>
-      <c r="K251" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J251" t="inlineStr"/>
+      <c r="K251" t="inlineStr"/>
       <c r="L251" t="n">
         <v>1</v>
       </c>
@@ -9015,17 +8701,11 @@
         <v>-109.97289624</v>
       </c>
       <c r="H252" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I252" t="inlineStr"/>
-      <c r="J252" t="n">
-        <v>62800</v>
-      </c>
-      <c r="K252" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J252" t="inlineStr"/>
+      <c r="K252" t="inlineStr"/>
       <c r="L252" t="n">
         <v>1</v>
       </c>
@@ -9057,14 +8737,8 @@
         <v>0</v>
       </c>
       <c r="I253" t="inlineStr"/>
-      <c r="J253" t="n">
-        <v>62800</v>
-      </c>
-      <c r="K253" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J253" t="inlineStr"/>
+      <c r="K253" t="inlineStr"/>
       <c r="L253" t="n">
         <v>1</v>
       </c>
@@ -9096,14 +8770,8 @@
         <v>0</v>
       </c>
       <c r="I254" t="inlineStr"/>
-      <c r="J254" t="n">
-        <v>62800</v>
-      </c>
-      <c r="K254" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J254" t="inlineStr"/>
+      <c r="K254" t="inlineStr"/>
       <c r="L254" t="n">
         <v>1</v>
       </c>
@@ -9132,19 +8800,13 @@
         <v>-88.58489623999995</v>
       </c>
       <c r="H255" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I255" t="inlineStr"/>
-      <c r="J255" t="n">
-        <v>62800</v>
-      </c>
-      <c r="K255" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
+      <c r="J255" t="inlineStr"/>
+      <c r="K255" t="inlineStr"/>
       <c r="L255" t="n">
-        <v>1.002961783439491</v>
+        <v>1</v>
       </c>
       <c r="M255" t="inlineStr"/>
     </row>
@@ -9171,7 +8833,7 @@
         <v>-88.42636427999994</v>
       </c>
       <c r="H256" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I256" t="inlineStr"/>
       <c r="J256" t="inlineStr"/>
@@ -9204,7 +8866,7 @@
         <v>-88.81106427999994</v>
       </c>
       <c r="H257" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I257" t="inlineStr"/>
       <c r="J257" t="inlineStr"/>
@@ -9237,7 +8899,7 @@
         <v>-87.58106530999994</v>
       </c>
       <c r="H258" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I258" t="inlineStr"/>
       <c r="J258" t="inlineStr"/>
@@ -9270,7 +8932,7 @@
         <v>-87.58106530999994</v>
       </c>
       <c r="H259" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I259" t="inlineStr"/>
       <c r="J259" t="inlineStr"/>
@@ -9303,7 +8965,7 @@
         <v>-79.08106530999994</v>
       </c>
       <c r="H260" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I260" t="inlineStr"/>
       <c r="J260" t="inlineStr"/>
@@ -9567,7 +9229,7 @@
         <v>-84.48256530999994</v>
       </c>
       <c r="H268" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I268" t="inlineStr"/>
       <c r="J268" t="inlineStr"/>
@@ -10194,7 +9856,7 @@
         <v>-343.4418728099999</v>
       </c>
       <c r="H287" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I287" t="inlineStr"/>
       <c r="J287" t="inlineStr"/>
@@ -10227,7 +9889,7 @@
         <v>-399.7870728099999</v>
       </c>
       <c r="H288" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I288" t="inlineStr"/>
       <c r="J288" t="inlineStr"/>
@@ -11151,14 +10813,10 @@
         <v>-867.2985728099999</v>
       </c>
       <c r="H316" t="n">
-        <v>2</v>
-      </c>
-      <c r="I316" t="n">
-        <v>62800</v>
-      </c>
-      <c r="J316" t="n">
-        <v>62800</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I316" t="inlineStr"/>
+      <c r="J316" t="inlineStr"/>
       <c r="K316" t="inlineStr"/>
       <c r="L316" t="n">
         <v>1</v>
@@ -11188,19 +10846,15 @@
         <v>-867.2985728099999</v>
       </c>
       <c r="H317" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I317" t="n">
         <v>62700</v>
       </c>
       <c r="J317" t="n">
-        <v>62800</v>
-      </c>
-      <c r="K317" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>62700</v>
+      </c>
+      <c r="K317" t="inlineStr"/>
       <c r="L317" t="n">
         <v>1</v>
       </c>
@@ -11229,13 +10883,13 @@
         <v>-861.2892728099998</v>
       </c>
       <c r="H318" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I318" t="n">
         <v>62700</v>
       </c>
       <c r="J318" t="n">
-        <v>62800</v>
+        <v>62700</v>
       </c>
       <c r="K318" t="inlineStr">
         <is>
@@ -11270,15 +10924,19 @@
         <v>-760.2455728099999</v>
       </c>
       <c r="H319" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I319" t="n">
         <v>62800</v>
       </c>
       <c r="J319" t="n">
-        <v>62800</v>
-      </c>
-      <c r="K319" t="inlineStr"/>
+        <v>62700</v>
+      </c>
+      <c r="K319" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L319" t="n">
         <v>1</v>
       </c>
@@ -11307,19 +10965,11 @@
         <v>-787.1194728099999</v>
       </c>
       <c r="H320" t="n">
-        <v>2</v>
-      </c>
-      <c r="I320" t="n">
-        <v>62950</v>
-      </c>
-      <c r="J320" t="n">
-        <v>62800</v>
-      </c>
-      <c r="K320" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I320" t="inlineStr"/>
+      <c r="J320" t="inlineStr"/>
+      <c r="K320" t="inlineStr"/>
       <c r="L320" t="n">
         <v>1</v>
       </c>
@@ -11351,14 +11001,8 @@
         <v>0</v>
       </c>
       <c r="I321" t="inlineStr"/>
-      <c r="J321" t="n">
-        <v>62800</v>
-      </c>
-      <c r="K321" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J321" t="inlineStr"/>
+      <c r="K321" t="inlineStr"/>
       <c r="L321" t="n">
         <v>1</v>
       </c>
@@ -11486,14 +11130,10 @@
         <v>-687.1536728099999</v>
       </c>
       <c r="H325" t="n">
-        <v>2</v>
-      </c>
-      <c r="I325" t="n">
-        <v>62750</v>
-      </c>
-      <c r="J325" t="n">
-        <v>62750</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I325" t="inlineStr"/>
+      <c r="J325" t="inlineStr"/>
       <c r="K325" t="inlineStr"/>
       <c r="L325" t="n">
         <v>1</v>
@@ -11523,19 +11163,11 @@
         <v>-116.3924728099998</v>
       </c>
       <c r="H326" t="n">
-        <v>2</v>
-      </c>
-      <c r="I326" t="n">
-        <v>62900</v>
-      </c>
-      <c r="J326" t="n">
-        <v>62750</v>
-      </c>
-      <c r="K326" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I326" t="inlineStr"/>
+      <c r="J326" t="inlineStr"/>
+      <c r="K326" t="inlineStr"/>
       <c r="L326" t="n">
         <v>1</v>
       </c>
@@ -11567,14 +11199,8 @@
         <v>0</v>
       </c>
       <c r="I327" t="inlineStr"/>
-      <c r="J327" t="n">
-        <v>62750</v>
-      </c>
-      <c r="K327" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J327" t="inlineStr"/>
+      <c r="K327" t="inlineStr"/>
       <c r="L327" t="n">
         <v>1</v>
       </c>
@@ -11614,6 +11240,6 @@
       <c r="M328" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2019-10-19 BackTest LTC.xlsx
+++ b/BackTest/2019-10-19 BackTest LTC.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -880,10 +880,14 @@
         <v>-263.6464316</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
-      </c>
-      <c r="I15" t="inlineStr"/>
-      <c r="J15" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I15" t="n">
+        <v>62650</v>
+      </c>
+      <c r="J15" t="n">
+        <v>62650</v>
+      </c>
       <c r="K15" t="inlineStr"/>
       <c r="L15" t="n">
         <v>1</v>
@@ -916,8 +920,14 @@
         <v>0</v>
       </c>
       <c r="I16" t="inlineStr"/>
-      <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
+      <c r="J16" t="n">
+        <v>62650</v>
+      </c>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L16" t="n">
         <v>1</v>
       </c>
@@ -949,8 +959,14 @@
         <v>0</v>
       </c>
       <c r="I17" t="inlineStr"/>
-      <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
+      <c r="J17" t="n">
+        <v>62650</v>
+      </c>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L17" t="n">
         <v>1</v>
       </c>
@@ -979,10 +995,14 @@
         <v>-264.0835316</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
-      </c>
-      <c r="I18" t="inlineStr"/>
-      <c r="J18" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I18" t="n">
+        <v>62850</v>
+      </c>
+      <c r="J18" t="n">
+        <v>62850</v>
+      </c>
       <c r="K18" t="inlineStr"/>
       <c r="L18" t="n">
         <v>1</v>
@@ -1012,11 +1032,19 @@
         <v>-256.6586316</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
-      </c>
-      <c r="I19" t="inlineStr"/>
-      <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I19" t="n">
+        <v>62800</v>
+      </c>
+      <c r="J19" t="n">
+        <v>62850</v>
+      </c>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L19" t="n">
         <v>1</v>
       </c>
@@ -1045,11 +1073,19 @@
         <v>-254.9610316</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
-      </c>
-      <c r="I20" t="inlineStr"/>
-      <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I20" t="n">
+        <v>62850</v>
+      </c>
+      <c r="J20" t="n">
+        <v>62850</v>
+      </c>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L20" t="n">
         <v>1</v>
       </c>
@@ -2233,7 +2269,7 @@
         <v>0.4324683999999945</v>
       </c>
       <c r="H56" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
@@ -2266,7 +2302,7 @@
         <v>9.963768399999994</v>
       </c>
       <c r="H57" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
@@ -2299,7 +2335,7 @@
         <v>10.30436839999999</v>
       </c>
       <c r="H58" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
@@ -2365,7 +2401,7 @@
         <v>10.30436839999999</v>
       </c>
       <c r="H60" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
@@ -2398,7 +2434,7 @@
         <v>10.30436839999999</v>
       </c>
       <c r="H61" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
@@ -2431,7 +2467,7 @@
         <v>10.30436839999999</v>
       </c>
       <c r="H62" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
@@ -2464,7 +2500,7 @@
         <v>10.30436839999999</v>
       </c>
       <c r="H63" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
@@ -2497,7 +2533,7 @@
         <v>66.0043684</v>
       </c>
       <c r="H64" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
@@ -2530,7 +2566,7 @@
         <v>65.68646840000001</v>
       </c>
       <c r="H65" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
@@ -3025,7 +3061,7 @@
         <v>120.3093684</v>
       </c>
       <c r="H80" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
@@ -3058,7 +3094,7 @@
         <v>108.0335684</v>
       </c>
       <c r="H81" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
@@ -3091,7 +3127,7 @@
         <v>108.0335684</v>
       </c>
       <c r="H82" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
@@ -3124,7 +3160,7 @@
         <v>107.7842684</v>
       </c>
       <c r="H83" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
@@ -3157,7 +3193,7 @@
         <v>109.6643684</v>
       </c>
       <c r="H84" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
@@ -3322,7 +3358,7 @@
         <v>142.6677684</v>
       </c>
       <c r="H89" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
@@ -3355,7 +3391,7 @@
         <v>142.6677684</v>
       </c>
       <c r="H90" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
@@ -3388,7 +3424,7 @@
         <v>142.6677684</v>
       </c>
       <c r="H91" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
@@ -3421,7 +3457,7 @@
         <v>142.6677684</v>
       </c>
       <c r="H92" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
@@ -3454,7 +3490,7 @@
         <v>142.6677684</v>
       </c>
       <c r="H93" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
@@ -3487,7 +3523,7 @@
         <v>125.9771684</v>
       </c>
       <c r="H94" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
@@ -3520,7 +3556,7 @@
         <v>126.9802684</v>
       </c>
       <c r="H95" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
@@ -3553,7 +3589,7 @@
         <v>124.0725684</v>
       </c>
       <c r="H96" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
@@ -3586,7 +3622,7 @@
         <v>124.0725684</v>
       </c>
       <c r="H97" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
@@ -3619,7 +3655,7 @@
         <v>125.0725684</v>
       </c>
       <c r="H98" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
@@ -3652,7 +3688,7 @@
         <v>125.0725684</v>
       </c>
       <c r="H99" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
@@ -3685,7 +3721,7 @@
         <v>125.0725684</v>
       </c>
       <c r="H100" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
@@ -3718,7 +3754,7 @@
         <v>125.5487684</v>
       </c>
       <c r="H101" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
@@ -3784,7 +3820,7 @@
         <v>125.5487684</v>
       </c>
       <c r="H103" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
@@ -3817,7 +3853,7 @@
         <v>127.6377684</v>
       </c>
       <c r="H104" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
@@ -3850,7 +3886,7 @@
         <v>131.9659684</v>
       </c>
       <c r="H105" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
@@ -3883,7 +3919,7 @@
         <v>131.9659684</v>
       </c>
       <c r="H106" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
@@ -3916,7 +3952,7 @@
         <v>126.8504684</v>
       </c>
       <c r="H107" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
@@ -3949,7 +3985,7 @@
         <v>126.8504684</v>
       </c>
       <c r="H108" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
@@ -3982,7 +4018,7 @@
         <v>126.8504684</v>
       </c>
       <c r="H109" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
@@ -4015,7 +4051,7 @@
         <v>138.0089684</v>
       </c>
       <c r="H110" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
@@ -4048,7 +4084,7 @@
         <v>136.7631684</v>
       </c>
       <c r="H111" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
@@ -4081,7 +4117,7 @@
         <v>136.7631684</v>
       </c>
       <c r="H112" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
@@ -4114,7 +4150,7 @@
         <v>136.7631684</v>
       </c>
       <c r="H113" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
@@ -4147,7 +4183,7 @@
         <v>121.4238684</v>
       </c>
       <c r="H114" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
@@ -4180,7 +4216,7 @@
         <v>177.4596684</v>
       </c>
       <c r="H115" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
@@ -4213,7 +4249,7 @@
         <v>140.7724684</v>
       </c>
       <c r="H116" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
@@ -4246,7 +4282,7 @@
         <v>146.2853684</v>
       </c>
       <c r="H117" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
@@ -4279,7 +4315,7 @@
         <v>145.7417684</v>
       </c>
       <c r="H118" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
@@ -4312,7 +4348,7 @@
         <v>108.4105684</v>
       </c>
       <c r="H119" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
@@ -4345,7 +4381,7 @@
         <v>109.0029684</v>
       </c>
       <c r="H120" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
@@ -4378,7 +4414,7 @@
         <v>101.1636684</v>
       </c>
       <c r="H121" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
@@ -4411,7 +4447,7 @@
         <v>101.1636684</v>
       </c>
       <c r="H122" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
@@ -4444,7 +4480,7 @@
         <v>101.1636684</v>
       </c>
       <c r="H123" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
@@ -4477,7 +4513,7 @@
         <v>89.50816840000005</v>
       </c>
       <c r="H124" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
@@ -4510,7 +4546,7 @@
         <v>90.06566840000005</v>
       </c>
       <c r="H125" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
@@ -4543,7 +4579,7 @@
         <v>96.46566840000006</v>
       </c>
       <c r="H126" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
@@ -4576,7 +4612,7 @@
         <v>93.91656840000006</v>
       </c>
       <c r="H127" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
@@ -4609,7 +4645,7 @@
         <v>93.91656840000006</v>
       </c>
       <c r="H128" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
@@ -4642,7 +4678,7 @@
         <v>93.22826840000006</v>
       </c>
       <c r="H129" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
@@ -4675,7 +4711,7 @@
         <v>93.22826840000006</v>
       </c>
       <c r="H130" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
@@ -4741,7 +4777,7 @@
         <v>93.22826840000006</v>
       </c>
       <c r="H132" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
@@ -4774,7 +4810,7 @@
         <v>93.22826840000006</v>
       </c>
       <c r="H133" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
@@ -4807,7 +4843,7 @@
         <v>93.22826840000006</v>
       </c>
       <c r="H134" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
@@ -4840,7 +4876,7 @@
         <v>93.22826840000006</v>
       </c>
       <c r="H135" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
@@ -4873,7 +4909,7 @@
         <v>93.32826840000006</v>
       </c>
       <c r="H136" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
@@ -4906,7 +4942,7 @@
         <v>85.41386840000006</v>
       </c>
       <c r="H137" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
@@ -4972,7 +5008,7 @@
         <v>85.41386840000006</v>
       </c>
       <c r="H139" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
@@ -5071,7 +5107,7 @@
         <v>84.01766840000006</v>
       </c>
       <c r="H142" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
@@ -5335,7 +5371,7 @@
         <v>126.4729684</v>
       </c>
       <c r="H150" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
@@ -6259,7 +6295,7 @@
         <v>384.1683684</v>
       </c>
       <c r="H178" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
@@ -6292,7 +6328,7 @@
         <v>346.6559684</v>
       </c>
       <c r="H179" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
@@ -6325,7 +6361,7 @@
         <v>74.57796840000003</v>
       </c>
       <c r="H180" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
@@ -6358,7 +6394,7 @@
         <v>74.57796840000003</v>
       </c>
       <c r="H181" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
@@ -6391,7 +6427,7 @@
         <v>74.67796840000003</v>
       </c>
       <c r="H182" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
@@ -6424,7 +6460,7 @@
         <v>64.68096840000003</v>
       </c>
       <c r="H183" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr"/>
@@ -6457,7 +6493,7 @@
         <v>64.20026840000003</v>
       </c>
       <c r="H184" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr"/>
@@ -6490,7 +6526,7 @@
         <v>64.26486840000003</v>
       </c>
       <c r="H185" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr"/>
@@ -6523,7 +6559,7 @@
         <v>35.80826840000002</v>
       </c>
       <c r="H186" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I186" t="inlineStr"/>
       <c r="J186" t="inlineStr"/>
@@ -6556,7 +6592,7 @@
         <v>35.80826840000002</v>
       </c>
       <c r="H187" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
@@ -6589,7 +6625,7 @@
         <v>37.04906840000002</v>
       </c>
       <c r="H188" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr"/>
@@ -6622,7 +6658,7 @@
         <v>26.05066840000002</v>
       </c>
       <c r="H189" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr"/>
@@ -6655,7 +6691,7 @@
         <v>26.05066840000002</v>
       </c>
       <c r="H190" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I190" t="inlineStr"/>
       <c r="J190" t="inlineStr"/>
@@ -6688,7 +6724,7 @@
         <v>26.05066840000002</v>
       </c>
       <c r="H191" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I191" t="inlineStr"/>
       <c r="J191" t="inlineStr"/>
@@ -6721,7 +6757,7 @@
         <v>26.05066840000002</v>
       </c>
       <c r="H192" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I192" t="inlineStr"/>
       <c r="J192" t="inlineStr"/>
@@ -6754,7 +6790,7 @@
         <v>26.05066840000002</v>
       </c>
       <c r="H193" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I193" t="inlineStr"/>
       <c r="J193" t="inlineStr"/>
@@ -6787,7 +6823,7 @@
         <v>26.10066840000002</v>
       </c>
       <c r="H194" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I194" t="inlineStr"/>
       <c r="J194" t="inlineStr"/>
@@ -6820,7 +6856,7 @@
         <v>24.94066840000002</v>
       </c>
       <c r="H195" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I195" t="inlineStr"/>
       <c r="J195" t="inlineStr"/>
@@ -6853,7 +6889,7 @@
         <v>24.94066840000002</v>
       </c>
       <c r="H196" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I196" t="inlineStr"/>
       <c r="J196" t="inlineStr"/>
@@ -6886,7 +6922,7 @@
         <v>-31.68408981999997</v>
       </c>
       <c r="H197" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I197" t="inlineStr"/>
       <c r="J197" t="inlineStr"/>
@@ -6919,7 +6955,7 @@
         <v>-31.68408981999997</v>
       </c>
       <c r="H198" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I198" t="inlineStr"/>
       <c r="J198" t="inlineStr"/>
@@ -6952,7 +6988,7 @@
         <v>-37.60798981999997</v>
       </c>
       <c r="H199" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I199" t="inlineStr"/>
       <c r="J199" t="inlineStr"/>
@@ -6985,7 +7021,7 @@
         <v>-37.60798981999997</v>
       </c>
       <c r="H200" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I200" t="inlineStr"/>
       <c r="J200" t="inlineStr"/>
@@ -7018,7 +7054,7 @@
         <v>-37.55521072999997</v>
       </c>
       <c r="H201" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I201" t="inlineStr"/>
       <c r="J201" t="inlineStr"/>
@@ -7051,7 +7087,7 @@
         <v>-39.08381072999997</v>
       </c>
       <c r="H202" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I202" t="inlineStr"/>
       <c r="J202" t="inlineStr"/>
@@ -7084,7 +7120,7 @@
         <v>-39.08381072999997</v>
       </c>
       <c r="H203" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I203" t="inlineStr"/>
       <c r="J203" t="inlineStr"/>
@@ -7183,7 +7219,7 @@
         <v>-22.72051072999997</v>
       </c>
       <c r="H206" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I206" t="inlineStr"/>
       <c r="J206" t="inlineStr"/>
@@ -7216,7 +7252,7 @@
         <v>-22.56131072999997</v>
       </c>
       <c r="H207" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I207" t="inlineStr"/>
       <c r="J207" t="inlineStr"/>
@@ -7249,7 +7285,7 @@
         <v>-24.90231072999997</v>
       </c>
       <c r="H208" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I208" t="inlineStr"/>
       <c r="J208" t="inlineStr"/>
@@ -7282,7 +7318,7 @@
         <v>-25.82071072999997</v>
       </c>
       <c r="H209" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I209" t="inlineStr"/>
       <c r="J209" t="inlineStr"/>
@@ -7315,7 +7351,7 @@
         <v>-25.82071072999997</v>
       </c>
       <c r="H210" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I210" t="inlineStr"/>
       <c r="J210" t="inlineStr"/>
@@ -7348,7 +7384,7 @@
         <v>-25.82071072999997</v>
       </c>
       <c r="H211" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I211" t="inlineStr"/>
       <c r="J211" t="inlineStr"/>
@@ -7381,7 +7417,7 @@
         <v>-25.42420002999997</v>
       </c>
       <c r="H212" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I212" t="inlineStr"/>
       <c r="J212" t="inlineStr"/>
@@ -7414,7 +7450,7 @@
         <v>-31.91420002999997</v>
       </c>
       <c r="H213" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I213" t="inlineStr"/>
       <c r="J213" t="inlineStr"/>
@@ -7447,7 +7483,7 @@
         <v>-31.91420002999997</v>
       </c>
       <c r="H214" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I214" t="inlineStr"/>
       <c r="J214" t="inlineStr"/>
@@ -7480,7 +7516,7 @@
         <v>-31.91420002999997</v>
       </c>
       <c r="H215" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I215" t="inlineStr"/>
       <c r="J215" t="inlineStr"/>
@@ -7513,7 +7549,7 @@
         <v>-31.91420002999997</v>
       </c>
       <c r="H216" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I216" t="inlineStr"/>
       <c r="J216" t="inlineStr"/>
@@ -7546,7 +7582,7 @@
         <v>-10.20750002999997</v>
       </c>
       <c r="H217" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I217" t="inlineStr"/>
       <c r="J217" t="inlineStr"/>
@@ -7579,7 +7615,7 @@
         <v>19.25779997000003</v>
       </c>
       <c r="H218" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I218" t="inlineStr"/>
       <c r="J218" t="inlineStr"/>
@@ -7612,7 +7648,7 @@
         <v>19.25779997000003</v>
       </c>
       <c r="H219" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I219" t="inlineStr"/>
       <c r="J219" t="inlineStr"/>
@@ -7645,7 +7681,7 @@
         <v>-35.98950002999997</v>
       </c>
       <c r="H220" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I220" t="inlineStr"/>
       <c r="J220" t="inlineStr"/>
@@ -7678,7 +7714,7 @@
         <v>-35.98950002999997</v>
       </c>
       <c r="H221" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I221" t="inlineStr"/>
       <c r="J221" t="inlineStr"/>
@@ -7711,7 +7747,7 @@
         <v>-75.96270002999998</v>
       </c>
       <c r="H222" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I222" t="inlineStr"/>
       <c r="J222" t="inlineStr"/>
@@ -7744,7 +7780,7 @@
         <v>-75.94509305999998</v>
       </c>
       <c r="H223" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I223" t="inlineStr"/>
       <c r="J223" t="inlineStr"/>
@@ -7777,7 +7813,7 @@
         <v>-83.26129305999997</v>
       </c>
       <c r="H224" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I224" t="inlineStr"/>
       <c r="J224" t="inlineStr"/>
@@ -10780,10 +10816,14 @@
         <v>-832.3735728099999</v>
       </c>
       <c r="H315" t="n">
-        <v>0</v>
-      </c>
-      <c r="I315" t="inlineStr"/>
-      <c r="J315" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I315" t="n">
+        <v>62800</v>
+      </c>
+      <c r="J315" t="n">
+        <v>62800</v>
+      </c>
       <c r="K315" t="inlineStr"/>
       <c r="L315" t="n">
         <v>1</v>
@@ -10816,8 +10856,14 @@
         <v>0</v>
       </c>
       <c r="I316" t="inlineStr"/>
-      <c r="J316" t="inlineStr"/>
-      <c r="K316" t="inlineStr"/>
+      <c r="J316" t="n">
+        <v>62800</v>
+      </c>
+      <c r="K316" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L316" t="n">
         <v>1</v>
       </c>
@@ -10852,9 +10898,13 @@
         <v>62700</v>
       </c>
       <c r="J317" t="n">
-        <v>62700</v>
-      </c>
-      <c r="K317" t="inlineStr"/>
+        <v>62800</v>
+      </c>
+      <c r="K317" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L317" t="n">
         <v>1</v>
       </c>
@@ -10891,11 +10941,7 @@
       <c r="J318" t="n">
         <v>62700</v>
       </c>
-      <c r="K318" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="K318" t="inlineStr"/>
       <c r="L318" t="n">
         <v>1</v>
       </c>
@@ -10968,8 +11014,14 @@
         <v>0</v>
       </c>
       <c r="I320" t="inlineStr"/>
-      <c r="J320" t="inlineStr"/>
-      <c r="K320" t="inlineStr"/>
+      <c r="J320" t="n">
+        <v>62700</v>
+      </c>
+      <c r="K320" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L320" t="n">
         <v>1</v>
       </c>
@@ -11130,10 +11182,14 @@
         <v>-687.1536728099999</v>
       </c>
       <c r="H325" t="n">
-        <v>0</v>
-      </c>
-      <c r="I325" t="inlineStr"/>
-      <c r="J325" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I325" t="n">
+        <v>62750</v>
+      </c>
+      <c r="J325" t="n">
+        <v>62750</v>
+      </c>
       <c r="K325" t="inlineStr"/>
       <c r="L325" t="n">
         <v>1</v>
@@ -11163,11 +11219,19 @@
         <v>-116.3924728099998</v>
       </c>
       <c r="H326" t="n">
-        <v>0</v>
-      </c>
-      <c r="I326" t="inlineStr"/>
-      <c r="J326" t="inlineStr"/>
-      <c r="K326" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I326" t="n">
+        <v>62900</v>
+      </c>
+      <c r="J326" t="n">
+        <v>62750</v>
+      </c>
+      <c r="K326" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L326" t="n">
         <v>1</v>
       </c>
@@ -11199,8 +11263,14 @@
         <v>0</v>
       </c>
       <c r="I327" t="inlineStr"/>
-      <c r="J327" t="inlineStr"/>
-      <c r="K327" t="inlineStr"/>
+      <c r="J327" t="n">
+        <v>62750</v>
+      </c>
+      <c r="K327" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L327" t="n">
         <v>1</v>
       </c>
@@ -11240,6 +11310,6 @@
       <c r="M328" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2019-10-19 BackTest LTC.xlsx
+++ b/BackTest/2019-10-19 BackTest LTC.xlsx
@@ -880,14 +880,10 @@
         <v>-263.6464316</v>
       </c>
       <c r="H15" t="n">
-        <v>1</v>
-      </c>
-      <c r="I15" t="n">
-        <v>62650</v>
-      </c>
-      <c r="J15" t="n">
-        <v>62650</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I15" t="inlineStr"/>
+      <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
       <c r="L15" t="n">
         <v>1</v>
@@ -920,14 +916,8 @@
         <v>0</v>
       </c>
       <c r="I16" t="inlineStr"/>
-      <c r="J16" t="n">
-        <v>62650</v>
-      </c>
-      <c r="K16" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J16" t="inlineStr"/>
+      <c r="K16" t="inlineStr"/>
       <c r="L16" t="n">
         <v>1</v>
       </c>
@@ -959,14 +949,8 @@
         <v>0</v>
       </c>
       <c r="I17" t="inlineStr"/>
-      <c r="J17" t="n">
-        <v>62650</v>
-      </c>
-      <c r="K17" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J17" t="inlineStr"/>
+      <c r="K17" t="inlineStr"/>
       <c r="L17" t="n">
         <v>1</v>
       </c>
@@ -995,14 +979,10 @@
         <v>-264.0835316</v>
       </c>
       <c r="H18" t="n">
-        <v>1</v>
-      </c>
-      <c r="I18" t="n">
-        <v>62850</v>
-      </c>
-      <c r="J18" t="n">
-        <v>62850</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I18" t="inlineStr"/>
+      <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr"/>
       <c r="L18" t="n">
         <v>1</v>
@@ -1032,19 +1012,11 @@
         <v>-256.6586316</v>
       </c>
       <c r="H19" t="n">
-        <v>1</v>
-      </c>
-      <c r="I19" t="n">
-        <v>62800</v>
-      </c>
-      <c r="J19" t="n">
-        <v>62850</v>
-      </c>
-      <c r="K19" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I19" t="inlineStr"/>
+      <c r="J19" t="inlineStr"/>
+      <c r="K19" t="inlineStr"/>
       <c r="L19" t="n">
         <v>1</v>
       </c>
@@ -1073,19 +1045,11 @@
         <v>-254.9610316</v>
       </c>
       <c r="H20" t="n">
-        <v>1</v>
-      </c>
-      <c r="I20" t="n">
-        <v>62850</v>
-      </c>
-      <c r="J20" t="n">
-        <v>62850</v>
-      </c>
-      <c r="K20" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I20" t="inlineStr"/>
+      <c r="J20" t="inlineStr"/>
+      <c r="K20" t="inlineStr"/>
       <c r="L20" t="n">
         <v>1</v>
       </c>
@@ -1543,7 +1507,7 @@
         <v>64.99036839999999</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
@@ -1576,7 +1540,7 @@
         <v>-2.509131600000003</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
@@ -2005,7 +1969,7 @@
         <v>75.54506839999999</v>
       </c>
       <c r="H48" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
@@ -2038,7 +2002,7 @@
         <v>66.0597684</v>
       </c>
       <c r="H49" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
@@ -2071,7 +2035,7 @@
         <v>37.76156839999999</v>
       </c>
       <c r="H50" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
@@ -2170,7 +2134,7 @@
         <v>29.04386839999999</v>
       </c>
       <c r="H53" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
@@ -2203,7 +2167,7 @@
         <v>6.223568399999994</v>
       </c>
       <c r="H54" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
@@ -2236,7 +2200,7 @@
         <v>3.248468399999994</v>
       </c>
       <c r="H55" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
@@ -2269,7 +2233,7 @@
         <v>0.4324683999999945</v>
       </c>
       <c r="H56" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
@@ -2302,7 +2266,7 @@
         <v>9.963768399999994</v>
       </c>
       <c r="H57" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
@@ -2335,7 +2299,7 @@
         <v>10.30436839999999</v>
       </c>
       <c r="H58" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
@@ -2401,7 +2365,7 @@
         <v>10.30436839999999</v>
       </c>
       <c r="H60" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
@@ -2434,7 +2398,7 @@
         <v>10.30436839999999</v>
       </c>
       <c r="H61" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
@@ -2467,7 +2431,7 @@
         <v>10.30436839999999</v>
       </c>
       <c r="H62" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
@@ -2500,7 +2464,7 @@
         <v>10.30436839999999</v>
       </c>
       <c r="H63" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
@@ -2533,7 +2497,7 @@
         <v>66.0043684</v>
       </c>
       <c r="H64" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
@@ -2566,7 +2530,7 @@
         <v>65.68646840000001</v>
       </c>
       <c r="H65" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
@@ -3061,7 +3025,7 @@
         <v>120.3093684</v>
       </c>
       <c r="H80" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
@@ -3094,7 +3058,7 @@
         <v>108.0335684</v>
       </c>
       <c r="H81" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
@@ -3127,7 +3091,7 @@
         <v>108.0335684</v>
       </c>
       <c r="H82" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
@@ -3259,7 +3223,7 @@
         <v>156.0641684</v>
       </c>
       <c r="H86" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
@@ -3292,7 +3256,7 @@
         <v>145.8776684</v>
       </c>
       <c r="H87" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
@@ -3325,7 +3289,7 @@
         <v>145.8776684</v>
       </c>
       <c r="H88" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
@@ -3721,7 +3685,7 @@
         <v>125.0725684</v>
       </c>
       <c r="H100" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
@@ -3787,7 +3751,7 @@
         <v>125.5487684</v>
       </c>
       <c r="H102" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
@@ -3853,7 +3817,7 @@
         <v>127.6377684</v>
       </c>
       <c r="H104" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
@@ -3886,7 +3850,7 @@
         <v>131.9659684</v>
       </c>
       <c r="H105" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
@@ -3919,7 +3883,7 @@
         <v>131.9659684</v>
       </c>
       <c r="H106" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
@@ -3952,7 +3916,7 @@
         <v>126.8504684</v>
       </c>
       <c r="H107" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
@@ -3985,7 +3949,7 @@
         <v>126.8504684</v>
       </c>
       <c r="H108" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
@@ -4018,7 +3982,7 @@
         <v>126.8504684</v>
       </c>
       <c r="H109" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
@@ -4051,7 +4015,7 @@
         <v>138.0089684</v>
       </c>
       <c r="H110" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
@@ -4084,7 +4048,7 @@
         <v>136.7631684</v>
       </c>
       <c r="H111" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
@@ -4117,7 +4081,7 @@
         <v>136.7631684</v>
       </c>
       <c r="H112" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
@@ -4150,7 +4114,7 @@
         <v>136.7631684</v>
       </c>
       <c r="H113" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
@@ -4183,7 +4147,7 @@
         <v>121.4238684</v>
       </c>
       <c r="H114" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
@@ -4249,7 +4213,7 @@
         <v>140.7724684</v>
       </c>
       <c r="H116" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
@@ -4282,7 +4246,7 @@
         <v>146.2853684</v>
       </c>
       <c r="H117" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
@@ -6163,7 +6127,7 @@
         <v>394.2566684</v>
       </c>
       <c r="H174" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
@@ -6196,7 +6160,7 @@
         <v>388.7948684</v>
       </c>
       <c r="H175" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
@@ -6229,7 +6193,7 @@
         <v>386.5077684</v>
       </c>
       <c r="H176" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
@@ -6262,7 +6226,7 @@
         <v>386.5077684</v>
       </c>
       <c r="H177" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
@@ -6295,7 +6259,7 @@
         <v>384.1683684</v>
       </c>
       <c r="H178" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
@@ -6328,7 +6292,7 @@
         <v>346.6559684</v>
       </c>
       <c r="H179" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
@@ -6361,7 +6325,7 @@
         <v>74.57796840000003</v>
       </c>
       <c r="H180" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
@@ -6592,7 +6556,7 @@
         <v>35.80826840000002</v>
       </c>
       <c r="H187" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
@@ -6823,7 +6787,7 @@
         <v>26.10066840000002</v>
       </c>
       <c r="H194" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I194" t="inlineStr"/>
       <c r="J194" t="inlineStr"/>
@@ -6856,7 +6820,7 @@
         <v>24.94066840000002</v>
       </c>
       <c r="H195" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I195" t="inlineStr"/>
       <c r="J195" t="inlineStr"/>
@@ -6889,7 +6853,7 @@
         <v>24.94066840000002</v>
       </c>
       <c r="H196" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I196" t="inlineStr"/>
       <c r="J196" t="inlineStr"/>
@@ -6922,7 +6886,7 @@
         <v>-31.68408981999997</v>
       </c>
       <c r="H197" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I197" t="inlineStr"/>
       <c r="J197" t="inlineStr"/>
@@ -6955,7 +6919,7 @@
         <v>-31.68408981999997</v>
       </c>
       <c r="H198" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I198" t="inlineStr"/>
       <c r="J198" t="inlineStr"/>
@@ -8869,7 +8833,7 @@
         <v>-88.42636427999994</v>
       </c>
       <c r="H256" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I256" t="inlineStr"/>
       <c r="J256" t="inlineStr"/>
@@ -8902,7 +8866,7 @@
         <v>-88.81106427999994</v>
       </c>
       <c r="H257" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I257" t="inlineStr"/>
       <c r="J257" t="inlineStr"/>
@@ -9001,7 +8965,7 @@
         <v>-79.08106530999994</v>
       </c>
       <c r="H260" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I260" t="inlineStr"/>
       <c r="J260" t="inlineStr"/>
@@ -9034,7 +8998,7 @@
         <v>-95.86146530999994</v>
       </c>
       <c r="H261" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I261" t="inlineStr"/>
       <c r="J261" t="inlineStr"/>
@@ -9232,7 +9196,7 @@
         <v>-84.48256530999994</v>
       </c>
       <c r="H267" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I267" t="inlineStr"/>
       <c r="J267" t="inlineStr"/>
@@ -9265,7 +9229,7 @@
         <v>-84.48256530999994</v>
       </c>
       <c r="H268" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I268" t="inlineStr"/>
       <c r="J268" t="inlineStr"/>
@@ -9298,7 +9262,7 @@
         <v>-84.48256530999994</v>
       </c>
       <c r="H269" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I269" t="inlineStr"/>
       <c r="J269" t="inlineStr"/>
@@ -9331,7 +9295,7 @@
         <v>-84.48256530999994</v>
       </c>
       <c r="H270" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I270" t="inlineStr"/>
       <c r="J270" t="inlineStr"/>
@@ -9430,7 +9394,7 @@
         <v>-81.65286530999994</v>
       </c>
       <c r="H273" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I273" t="inlineStr"/>
       <c r="J273" t="inlineStr"/>
@@ -9463,7 +9427,7 @@
         <v>-110.1528653099999</v>
       </c>
       <c r="H274" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I274" t="inlineStr"/>
       <c r="J274" t="inlineStr"/>
@@ -9496,7 +9460,7 @@
         <v>-93.19886530999995</v>
       </c>
       <c r="H275" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I275" t="inlineStr"/>
       <c r="J275" t="inlineStr"/>
@@ -9529,7 +9493,7 @@
         <v>-92.79676530999994</v>
       </c>
       <c r="H276" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I276" t="inlineStr"/>
       <c r="J276" t="inlineStr"/>
@@ -9562,7 +9526,7 @@
         <v>-103.8192653099999</v>
       </c>
       <c r="H277" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I277" t="inlineStr"/>
       <c r="J277" t="inlineStr"/>
@@ -9595,7 +9559,7 @@
         <v>-103.8192653099999</v>
       </c>
       <c r="H278" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I278" t="inlineStr"/>
       <c r="J278" t="inlineStr"/>
@@ -9628,7 +9592,7 @@
         <v>-101.9707728099999</v>
       </c>
       <c r="H279" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I279" t="inlineStr"/>
       <c r="J279" t="inlineStr"/>
@@ -9661,7 +9625,7 @@
         <v>-107.7828728099999</v>
       </c>
       <c r="H280" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I280" t="inlineStr"/>
       <c r="J280" t="inlineStr"/>
@@ -9694,7 +9658,7 @@
         <v>-203.6169728099999</v>
       </c>
       <c r="H281" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I281" t="inlineStr"/>
       <c r="J281" t="inlineStr"/>
@@ -9727,7 +9691,7 @@
         <v>-203.6169728099999</v>
       </c>
       <c r="H282" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I282" t="inlineStr"/>
       <c r="J282" t="inlineStr"/>
@@ -9760,7 +9724,7 @@
         <v>-309.6715728099999</v>
       </c>
       <c r="H283" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I283" t="inlineStr"/>
       <c r="J283" t="inlineStr"/>
@@ -10853,9 +10817,11 @@
         <v>-867.2985728099999</v>
       </c>
       <c r="H316" t="n">
-        <v>0</v>
-      </c>
-      <c r="I316" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I316" t="n">
+        <v>62800</v>
+      </c>
       <c r="J316" t="n">
         <v>62800</v>
       </c>
@@ -11011,9 +10977,11 @@
         <v>-787.1194728099999</v>
       </c>
       <c r="H320" t="n">
-        <v>0</v>
-      </c>
-      <c r="I320" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I320" t="n">
+        <v>62950</v>
+      </c>
       <c r="J320" t="n">
         <v>62700</v>
       </c>
@@ -11083,10 +11051,14 @@
         <v>-787.1194728099999</v>
       </c>
       <c r="H322" t="n">
-        <v>0</v>
-      </c>
-      <c r="I322" t="inlineStr"/>
-      <c r="J322" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I322" t="n">
+        <v>62900</v>
+      </c>
+      <c r="J322" t="n">
+        <v>62900</v>
+      </c>
       <c r="K322" t="inlineStr"/>
       <c r="L322" t="n">
         <v>1</v>
@@ -11116,11 +11088,19 @@
         <v>-787.1194728099999</v>
       </c>
       <c r="H323" t="n">
-        <v>0</v>
-      </c>
-      <c r="I323" t="inlineStr"/>
-      <c r="J323" t="inlineStr"/>
-      <c r="K323" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I323" t="n">
+        <v>62900</v>
+      </c>
+      <c r="J323" t="n">
+        <v>62900</v>
+      </c>
+      <c r="K323" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L323" t="n">
         <v>1</v>
       </c>
@@ -11149,11 +11129,19 @@
         <v>-787.1426728099999</v>
       </c>
       <c r="H324" t="n">
-        <v>0</v>
-      </c>
-      <c r="I324" t="inlineStr"/>
-      <c r="J324" t="inlineStr"/>
-      <c r="K324" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I324" t="n">
+        <v>62900</v>
+      </c>
+      <c r="J324" t="n">
+        <v>62900</v>
+      </c>
+      <c r="K324" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L324" t="n">
         <v>1</v>
       </c>
@@ -11182,15 +11170,17 @@
         <v>-687.1536728099999</v>
       </c>
       <c r="H325" t="n">
-        <v>1</v>
-      </c>
-      <c r="I325" t="n">
-        <v>62750</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I325" t="inlineStr"/>
       <c r="J325" t="n">
-        <v>62750</v>
-      </c>
-      <c r="K325" t="inlineStr"/>
+        <v>62900</v>
+      </c>
+      <c r="K325" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L325" t="n">
         <v>1</v>
       </c>
@@ -11219,17 +11209,15 @@
         <v>-116.3924728099998</v>
       </c>
       <c r="H326" t="n">
-        <v>1</v>
-      </c>
-      <c r="I326" t="n">
-        <v>62900</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I326" t="inlineStr"/>
       <c r="J326" t="n">
-        <v>62750</v>
+        <v>62900</v>
       </c>
       <c r="K326" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L326" t="n">
@@ -11264,11 +11252,11 @@
       </c>
       <c r="I327" t="inlineStr"/>
       <c r="J327" t="n">
-        <v>62750</v>
+        <v>62900</v>
       </c>
       <c r="K327" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L327" t="n">
@@ -11302,8 +11290,14 @@
         <v>0</v>
       </c>
       <c r="I328" t="inlineStr"/>
-      <c r="J328" t="inlineStr"/>
-      <c r="K328" t="inlineStr"/>
+      <c r="J328" t="n">
+        <v>62900</v>
+      </c>
+      <c r="K328" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L328" t="n">
         <v>1</v>
       </c>

--- a/BackTest/2019-10-19 BackTest LTC.xlsx
+++ b/BackTest/2019-10-19 BackTest LTC.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M328"/>
+  <dimension ref="A1:L328"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -389,40 +389,35 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>volume</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
           <t>OBV</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>trade_state</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>BuyPrice</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>bprelay</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>Condition</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>Profits</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>Price_point</t>
         </is>
@@ -448,18 +443,15 @@
         <v>1.9986</v>
       </c>
       <c r="G2" t="n">
-        <v>-175.2560316</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H2" t="inlineStr"/>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
-      <c r="K2" t="inlineStr"/>
-      <c r="L2" t="n">
-        <v>1</v>
-      </c>
-      <c r="M2" t="inlineStr"/>
+      <c r="K2" t="n">
+        <v>1</v>
+      </c>
+      <c r="L2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -481,18 +473,15 @@
         <v>5.7878</v>
       </c>
       <c r="G3" t="n">
-        <v>-175.2560316</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H3" t="inlineStr"/>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
-      <c r="L3" t="n">
-        <v>1</v>
-      </c>
-      <c r="M3" t="inlineStr"/>
+      <c r="K3" t="n">
+        <v>1</v>
+      </c>
+      <c r="L3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -514,18 +503,15 @@
         <v>0.0137</v>
       </c>
       <c r="G4" t="n">
-        <v>-175.2560316</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H4" t="inlineStr"/>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
-      <c r="L4" t="n">
-        <v>1</v>
-      </c>
-      <c r="M4" t="inlineStr"/>
+      <c r="K4" t="n">
+        <v>1</v>
+      </c>
+      <c r="L4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -547,18 +533,15 @@
         <v>9.0244</v>
       </c>
       <c r="G5" t="n">
-        <v>-175.2560316</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H5" t="inlineStr"/>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
-      <c r="L5" t="n">
-        <v>1</v>
-      </c>
-      <c r="M5" t="inlineStr"/>
+      <c r="K5" t="n">
+        <v>1</v>
+      </c>
+      <c r="L5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -580,18 +563,15 @@
         <v>11.1423</v>
       </c>
       <c r="G6" t="n">
-        <v>-186.3983316</v>
-      </c>
-      <c r="H6" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H6" t="inlineStr"/>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
-      <c r="L6" t="n">
-        <v>1</v>
-      </c>
-      <c r="M6" t="inlineStr"/>
+      <c r="K6" t="n">
+        <v>1</v>
+      </c>
+      <c r="L6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -613,18 +593,15 @@
         <v>0.0161</v>
       </c>
       <c r="G7" t="n">
-        <v>-186.3822316</v>
-      </c>
-      <c r="H7" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H7" t="inlineStr"/>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
-      <c r="L7" t="n">
-        <v>1</v>
-      </c>
-      <c r="M7" t="inlineStr"/>
+      <c r="K7" t="n">
+        <v>1</v>
+      </c>
+      <c r="L7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -646,18 +623,15 @@
         <v>22.8503</v>
       </c>
       <c r="G8" t="n">
-        <v>-209.2325316</v>
-      </c>
-      <c r="H8" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H8" t="inlineStr"/>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
-      <c r="L8" t="n">
-        <v>1</v>
-      </c>
-      <c r="M8" t="inlineStr"/>
+      <c r="K8" t="n">
+        <v>1</v>
+      </c>
+      <c r="L8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -679,18 +653,15 @@
         <v>38.3803</v>
       </c>
       <c r="G9" t="n">
-        <v>-247.6128316</v>
-      </c>
-      <c r="H9" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H9" t="inlineStr"/>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
-      <c r="L9" t="n">
-        <v>1</v>
-      </c>
-      <c r="M9" t="inlineStr"/>
+      <c r="K9" t="n">
+        <v>1</v>
+      </c>
+      <c r="L9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -712,18 +683,15 @@
         <v>8.0923</v>
       </c>
       <c r="G10" t="n">
-        <v>-255.7051316</v>
-      </c>
-      <c r="H10" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H10" t="inlineStr"/>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
-      <c r="L10" t="n">
-        <v>1</v>
-      </c>
-      <c r="M10" t="inlineStr"/>
+      <c r="K10" t="n">
+        <v>1</v>
+      </c>
+      <c r="L10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -745,18 +713,15 @@
         <v>1.3462</v>
       </c>
       <c r="G11" t="n">
-        <v>-255.7051316</v>
-      </c>
-      <c r="H11" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H11" t="inlineStr"/>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
-      <c r="L11" t="n">
-        <v>1</v>
-      </c>
-      <c r="M11" t="inlineStr"/>
+      <c r="K11" t="n">
+        <v>1</v>
+      </c>
+      <c r="L11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -778,18 +743,15 @@
         <v>11.7383</v>
       </c>
       <c r="G12" t="n">
-        <v>-267.4434316</v>
-      </c>
-      <c r="H12" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H12" t="inlineStr"/>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
-      <c r="L12" t="n">
-        <v>1</v>
-      </c>
-      <c r="M12" t="inlineStr"/>
+      <c r="K12" t="n">
+        <v>1</v>
+      </c>
+      <c r="L12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -811,18 +773,15 @@
         <v>6.7287</v>
       </c>
       <c r="G13" t="n">
-        <v>-260.7147316</v>
-      </c>
-      <c r="H13" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H13" t="inlineStr"/>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
-      <c r="L13" t="n">
-        <v>1</v>
-      </c>
-      <c r="M13" t="inlineStr"/>
+      <c r="K13" t="n">
+        <v>1</v>
+      </c>
+      <c r="L13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -844,18 +803,15 @@
         <v>6.7287</v>
       </c>
       <c r="G14" t="n">
-        <v>-267.4434316</v>
-      </c>
-      <c r="H14" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H14" t="inlineStr"/>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
-      <c r="L14" t="n">
-        <v>1</v>
-      </c>
-      <c r="M14" t="inlineStr"/>
+      <c r="K14" t="n">
+        <v>1</v>
+      </c>
+      <c r="L14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -877,18 +833,15 @@
         <v>3.797</v>
       </c>
       <c r="G15" t="n">
-        <v>-263.6464316</v>
-      </c>
-      <c r="H15" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H15" t="inlineStr"/>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
-      <c r="L15" t="n">
-        <v>1</v>
-      </c>
-      <c r="M15" t="inlineStr"/>
+      <c r="K15" t="n">
+        <v>1</v>
+      </c>
+      <c r="L15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -910,18 +863,15 @@
         <v>19.1784</v>
       </c>
       <c r="G16" t="n">
-        <v>-263.6464316</v>
-      </c>
-      <c r="H16" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H16" t="inlineStr"/>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
-      <c r="L16" t="n">
-        <v>1</v>
-      </c>
-      <c r="M16" t="inlineStr"/>
+      <c r="K16" t="n">
+        <v>1</v>
+      </c>
+      <c r="L16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -943,18 +893,15 @@
         <v>15.1732</v>
       </c>
       <c r="G17" t="n">
-        <v>-248.4732316</v>
-      </c>
-      <c r="H17" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H17" t="inlineStr"/>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
-      <c r="L17" t="n">
-        <v>1</v>
-      </c>
-      <c r="M17" t="inlineStr"/>
+      <c r="K17" t="n">
+        <v>1</v>
+      </c>
+      <c r="L17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -976,18 +923,15 @@
         <v>15.6103</v>
       </c>
       <c r="G18" t="n">
-        <v>-264.0835316</v>
-      </c>
-      <c r="H18" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H18" t="inlineStr"/>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
-      <c r="L18" t="n">
-        <v>1</v>
-      </c>
-      <c r="M18" t="inlineStr"/>
+      <c r="K18" t="n">
+        <v>1</v>
+      </c>
+      <c r="L18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1009,18 +953,15 @@
         <v>7.4249</v>
       </c>
       <c r="G19" t="n">
-        <v>-256.6586316</v>
-      </c>
-      <c r="H19" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H19" t="inlineStr"/>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
-      <c r="L19" t="n">
-        <v>1</v>
-      </c>
-      <c r="M19" t="inlineStr"/>
+      <c r="K19" t="n">
+        <v>1</v>
+      </c>
+      <c r="L19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1042,18 +983,15 @@
         <v>1.6976</v>
       </c>
       <c r="G20" t="n">
-        <v>-254.9610316</v>
-      </c>
-      <c r="H20" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H20" t="inlineStr"/>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
-      <c r="L20" t="n">
-        <v>1</v>
-      </c>
-      <c r="M20" t="inlineStr"/>
+      <c r="K20" t="n">
+        <v>1</v>
+      </c>
+      <c r="L20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1075,18 +1013,15 @@
         <v>3.8993</v>
       </c>
       <c r="G21" t="n">
-        <v>-251.0617316</v>
-      </c>
-      <c r="H21" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H21" t="inlineStr"/>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
-      <c r="L21" t="n">
-        <v>1</v>
-      </c>
-      <c r="M21" t="inlineStr"/>
+      <c r="K21" t="n">
+        <v>1</v>
+      </c>
+      <c r="L21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1108,18 +1043,15 @@
         <v>10.1285</v>
       </c>
       <c r="G22" t="n">
-        <v>-240.9332316</v>
-      </c>
-      <c r="H22" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H22" t="inlineStr"/>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
-      <c r="L22" t="n">
-        <v>1</v>
-      </c>
-      <c r="M22" t="inlineStr"/>
+      <c r="K22" t="n">
+        <v>1</v>
+      </c>
+      <c r="L22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1141,18 +1073,15 @@
         <v>36.2537</v>
       </c>
       <c r="G23" t="n">
-        <v>-240.9332316</v>
-      </c>
-      <c r="H23" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H23" t="inlineStr"/>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
-      <c r="L23" t="n">
-        <v>1</v>
-      </c>
-      <c r="M23" t="inlineStr"/>
+      <c r="K23" t="n">
+        <v>1</v>
+      </c>
+      <c r="L23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1174,18 +1103,15 @@
         <v>11.8</v>
       </c>
       <c r="G24" t="n">
-        <v>-240.9332316</v>
-      </c>
-      <c r="H24" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H24" t="inlineStr"/>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
-      <c r="L24" t="n">
-        <v>1</v>
-      </c>
-      <c r="M24" t="inlineStr"/>
+      <c r="K24" t="n">
+        <v>1</v>
+      </c>
+      <c r="L24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1207,18 +1133,15 @@
         <v>0.08359999999999999</v>
       </c>
       <c r="G25" t="n">
-        <v>-240.8496316</v>
-      </c>
-      <c r="H25" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H25" t="inlineStr"/>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
-      <c r="L25" t="n">
-        <v>1</v>
-      </c>
-      <c r="M25" t="inlineStr"/>
+      <c r="K25" t="n">
+        <v>1</v>
+      </c>
+      <c r="L25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1240,18 +1163,15 @@
         <v>0.04746835</v>
       </c>
       <c r="G26" t="n">
-        <v>-240.8496316</v>
-      </c>
-      <c r="H26" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H26" t="inlineStr"/>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
-      <c r="L26" t="n">
-        <v>1</v>
-      </c>
-      <c r="M26" t="inlineStr"/>
+      <c r="K26" t="n">
+        <v>1</v>
+      </c>
+      <c r="L26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1273,18 +1193,15 @@
         <v>1.4555</v>
       </c>
       <c r="G27" t="n">
-        <v>-242.3051316</v>
-      </c>
-      <c r="H27" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H27" t="inlineStr"/>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
-      <c r="L27" t="n">
-        <v>1</v>
-      </c>
-      <c r="M27" t="inlineStr"/>
+      <c r="K27" t="n">
+        <v>1</v>
+      </c>
+      <c r="L27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1306,18 +1223,15 @@
         <v>2.8136</v>
       </c>
       <c r="G28" t="n">
-        <v>-242.3051316</v>
-      </c>
-      <c r="H28" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H28" t="inlineStr"/>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
-      <c r="L28" t="n">
-        <v>1</v>
-      </c>
-      <c r="M28" t="inlineStr"/>
+      <c r="K28" t="n">
+        <v>1</v>
+      </c>
+      <c r="L28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1339,18 +1253,15 @@
         <v>2.4981</v>
       </c>
       <c r="G29" t="n">
-        <v>-239.8070316</v>
-      </c>
-      <c r="H29" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H29" t="inlineStr"/>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
-      <c r="L29" t="n">
-        <v>1</v>
-      </c>
-      <c r="M29" t="inlineStr"/>
+      <c r="K29" t="n">
+        <v>1</v>
+      </c>
+      <c r="L29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1372,18 +1283,15 @@
         <v>46.7738</v>
       </c>
       <c r="G30" t="n">
-        <v>-193.0332316</v>
-      </c>
-      <c r="H30" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H30" t="inlineStr"/>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
-      <c r="L30" t="n">
-        <v>1</v>
-      </c>
-      <c r="M30" t="inlineStr"/>
+      <c r="K30" t="n">
+        <v>1</v>
+      </c>
+      <c r="L30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1405,18 +1313,15 @@
         <v>0.7747000000000001</v>
       </c>
       <c r="G31" t="n">
-        <v>-193.0332316</v>
-      </c>
-      <c r="H31" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H31" t="inlineStr"/>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
-      <c r="L31" t="n">
-        <v>1</v>
-      </c>
-      <c r="M31" t="inlineStr"/>
+      <c r="K31" t="n">
+        <v>1</v>
+      </c>
+      <c r="L31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1438,18 +1343,15 @@
         <v>125.42</v>
       </c>
       <c r="G32" t="n">
-        <v>-67.61323159999999</v>
-      </c>
-      <c r="H32" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H32" t="inlineStr"/>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
-      <c r="L32" t="n">
-        <v>1</v>
-      </c>
-      <c r="M32" t="inlineStr"/>
+      <c r="K32" t="n">
+        <v>1</v>
+      </c>
+      <c r="L32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1471,18 +1373,15 @@
         <v>166.6017</v>
       </c>
       <c r="G33" t="n">
-        <v>98.9884684</v>
-      </c>
-      <c r="H33" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H33" t="inlineStr"/>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr"/>
-      <c r="L33" t="n">
-        <v>1</v>
-      </c>
-      <c r="M33" t="inlineStr"/>
+      <c r="K33" t="n">
+        <v>1</v>
+      </c>
+      <c r="L33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1504,18 +1403,15 @@
         <v>33.9981</v>
       </c>
       <c r="G34" t="n">
-        <v>64.99036839999999</v>
-      </c>
-      <c r="H34" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H34" t="inlineStr"/>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr"/>
-      <c r="L34" t="n">
-        <v>1</v>
-      </c>
-      <c r="M34" t="inlineStr"/>
+      <c r="K34" t="n">
+        <v>1</v>
+      </c>
+      <c r="L34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1537,18 +1433,15 @@
         <v>67.4995</v>
       </c>
       <c r="G35" t="n">
-        <v>-2.509131600000003</v>
-      </c>
-      <c r="H35" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H35" t="inlineStr"/>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
-      <c r="L35" t="n">
-        <v>1</v>
-      </c>
-      <c r="M35" t="inlineStr"/>
+      <c r="K35" t="n">
+        <v>1</v>
+      </c>
+      <c r="L35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1570,18 +1463,15 @@
         <v>0.1582</v>
       </c>
       <c r="G36" t="n">
-        <v>-2.509131600000003</v>
-      </c>
-      <c r="H36" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H36" t="inlineStr"/>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
-      <c r="L36" t="n">
-        <v>1</v>
-      </c>
-      <c r="M36" t="inlineStr"/>
+      <c r="K36" t="n">
+        <v>1</v>
+      </c>
+      <c r="L36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1603,18 +1493,15 @@
         <v>15.1188</v>
       </c>
       <c r="G37" t="n">
-        <v>-17.6279316</v>
-      </c>
-      <c r="H37" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H37" t="inlineStr"/>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr"/>
-      <c r="L37" t="n">
-        <v>1</v>
-      </c>
-      <c r="M37" t="inlineStr"/>
+      <c r="K37" t="n">
+        <v>1</v>
+      </c>
+      <c r="L37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1636,18 +1523,15 @@
         <v>0.1586</v>
       </c>
       <c r="G38" t="n">
-        <v>-17.7865316</v>
-      </c>
-      <c r="H38" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H38" t="inlineStr"/>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr"/>
-      <c r="L38" t="n">
-        <v>1</v>
-      </c>
-      <c r="M38" t="inlineStr"/>
+      <c r="K38" t="n">
+        <v>1</v>
+      </c>
+      <c r="L38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1669,18 +1553,15 @@
         <v>40.1</v>
       </c>
       <c r="G39" t="n">
-        <v>22.3134684</v>
-      </c>
-      <c r="H39" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H39" t="inlineStr"/>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr"/>
-      <c r="L39" t="n">
-        <v>1</v>
-      </c>
-      <c r="M39" t="inlineStr"/>
+      <c r="K39" t="n">
+        <v>1</v>
+      </c>
+      <c r="L39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1702,18 +1583,15 @@
         <v>24.1852</v>
       </c>
       <c r="G40" t="n">
-        <v>22.3134684</v>
-      </c>
-      <c r="H40" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H40" t="inlineStr"/>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr"/>
-      <c r="L40" t="n">
-        <v>1</v>
-      </c>
-      <c r="M40" t="inlineStr"/>
+      <c r="K40" t="n">
+        <v>1</v>
+      </c>
+      <c r="L40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1735,18 +1613,15 @@
         <v>40.389</v>
       </c>
       <c r="G41" t="n">
-        <v>22.3134684</v>
-      </c>
-      <c r="H41" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H41" t="inlineStr"/>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr"/>
-      <c r="L41" t="n">
-        <v>1</v>
-      </c>
-      <c r="M41" t="inlineStr"/>
+      <c r="K41" t="n">
+        <v>1</v>
+      </c>
+      <c r="L41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1768,18 +1643,15 @@
         <v>0.4747</v>
       </c>
       <c r="G42" t="n">
-        <v>22.3134684</v>
-      </c>
-      <c r="H42" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H42" t="inlineStr"/>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr"/>
-      <c r="L42" t="n">
-        <v>1</v>
-      </c>
-      <c r="M42" t="inlineStr"/>
+      <c r="K42" t="n">
+        <v>1</v>
+      </c>
+      <c r="L42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1801,18 +1673,15 @@
         <v>17.9084</v>
       </c>
       <c r="G43" t="n">
-        <v>4.405068399999998</v>
-      </c>
-      <c r="H43" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H43" t="inlineStr"/>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr"/>
-      <c r="L43" t="n">
-        <v>1</v>
-      </c>
-      <c r="M43" t="inlineStr"/>
+      <c r="K43" t="n">
+        <v>1</v>
+      </c>
+      <c r="L43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1834,18 +1703,15 @@
         <v>0.3269</v>
       </c>
       <c r="G44" t="n">
-        <v>4.405068399999998</v>
-      </c>
-      <c r="H44" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H44" t="inlineStr"/>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr"/>
-      <c r="L44" t="n">
-        <v>1</v>
-      </c>
-      <c r="M44" t="inlineStr"/>
+      <c r="K44" t="n">
+        <v>1</v>
+      </c>
+      <c r="L44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -1867,18 +1733,15 @@
         <v>7.48</v>
       </c>
       <c r="G45" t="n">
-        <v>4.405068399999998</v>
-      </c>
-      <c r="H45" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H45" t="inlineStr"/>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr"/>
-      <c r="L45" t="n">
-        <v>1</v>
-      </c>
-      <c r="M45" t="inlineStr"/>
+      <c r="K45" t="n">
+        <v>1</v>
+      </c>
+      <c r="L45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -1900,18 +1763,15 @@
         <v>57</v>
       </c>
       <c r="G46" t="n">
-        <v>61.4050684</v>
-      </c>
-      <c r="H46" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H46" t="inlineStr"/>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr"/>
-      <c r="L46" t="n">
-        <v>1</v>
-      </c>
-      <c r="M46" t="inlineStr"/>
+      <c r="K46" t="n">
+        <v>1</v>
+      </c>
+      <c r="L46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -1933,18 +1793,15 @@
         <v>14.14</v>
       </c>
       <c r="G47" t="n">
-        <v>75.54506839999999</v>
-      </c>
-      <c r="H47" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H47" t="inlineStr"/>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr"/>
-      <c r="L47" t="n">
-        <v>1</v>
-      </c>
-      <c r="M47" t="inlineStr"/>
+      <c r="K47" t="n">
+        <v>1</v>
+      </c>
+      <c r="L47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -1966,18 +1823,15 @@
         <v>45.957</v>
       </c>
       <c r="G48" t="n">
-        <v>75.54506839999999</v>
-      </c>
-      <c r="H48" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H48" t="inlineStr"/>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr"/>
-      <c r="L48" t="n">
-        <v>1</v>
-      </c>
-      <c r="M48" t="inlineStr"/>
+      <c r="K48" t="n">
+        <v>1</v>
+      </c>
+      <c r="L48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -1999,18 +1853,15 @@
         <v>9.485300000000001</v>
       </c>
       <c r="G49" t="n">
-        <v>66.0597684</v>
-      </c>
-      <c r="H49" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H49" t="inlineStr"/>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr"/>
-      <c r="L49" t="n">
-        <v>1</v>
-      </c>
-      <c r="M49" t="inlineStr"/>
+      <c r="K49" t="n">
+        <v>1</v>
+      </c>
+      <c r="L49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2032,18 +1883,15 @@
         <v>28.2982</v>
       </c>
       <c r="G50" t="n">
-        <v>37.76156839999999</v>
-      </c>
-      <c r="H50" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H50" t="inlineStr"/>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr"/>
-      <c r="L50" t="n">
-        <v>1</v>
-      </c>
-      <c r="M50" t="inlineStr"/>
+      <c r="K50" t="n">
+        <v>1</v>
+      </c>
+      <c r="L50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2065,18 +1913,15 @@
         <v>71.35299999999999</v>
       </c>
       <c r="G51" t="n">
-        <v>37.76156839999999</v>
-      </c>
-      <c r="H51" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H51" t="inlineStr"/>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr"/>
-      <c r="L51" t="n">
-        <v>1</v>
-      </c>
-      <c r="M51" t="inlineStr"/>
+      <c r="K51" t="n">
+        <v>1</v>
+      </c>
+      <c r="L51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2098,18 +1943,15 @@
         <v>8.243600000000001</v>
       </c>
       <c r="G52" t="n">
-        <v>29.51796839999999</v>
-      </c>
-      <c r="H52" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H52" t="inlineStr"/>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
-      <c r="L52" t="n">
-        <v>1</v>
-      </c>
-      <c r="M52" t="inlineStr"/>
+      <c r="K52" t="n">
+        <v>1</v>
+      </c>
+      <c r="L52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2131,18 +1973,15 @@
         <v>0.4741</v>
       </c>
       <c r="G53" t="n">
-        <v>29.04386839999999</v>
-      </c>
-      <c r="H53" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H53" t="inlineStr"/>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr"/>
-      <c r="L53" t="n">
-        <v>1</v>
-      </c>
-      <c r="M53" t="inlineStr"/>
+      <c r="K53" t="n">
+        <v>1</v>
+      </c>
+      <c r="L53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2164,18 +2003,15 @@
         <v>22.8203</v>
       </c>
       <c r="G54" t="n">
-        <v>6.223568399999994</v>
-      </c>
-      <c r="H54" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H54" t="inlineStr"/>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr"/>
-      <c r="L54" t="n">
-        <v>1</v>
-      </c>
-      <c r="M54" t="inlineStr"/>
+      <c r="K54" t="n">
+        <v>1</v>
+      </c>
+      <c r="L54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2197,18 +2033,15 @@
         <v>2.9751</v>
       </c>
       <c r="G55" t="n">
-        <v>3.248468399999994</v>
-      </c>
-      <c r="H55" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H55" t="inlineStr"/>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr"/>
-      <c r="L55" t="n">
-        <v>1</v>
-      </c>
-      <c r="M55" t="inlineStr"/>
+      <c r="K55" t="n">
+        <v>1</v>
+      </c>
+      <c r="L55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2230,18 +2063,15 @@
         <v>2.816</v>
       </c>
       <c r="G56" t="n">
-        <v>0.4324683999999945</v>
-      </c>
-      <c r="H56" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H56" t="inlineStr"/>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr"/>
-      <c r="L56" t="n">
-        <v>1</v>
-      </c>
-      <c r="M56" t="inlineStr"/>
+      <c r="K56" t="n">
+        <v>1</v>
+      </c>
+      <c r="L56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2263,18 +2093,15 @@
         <v>9.5313</v>
       </c>
       <c r="G57" t="n">
-        <v>9.963768399999994</v>
-      </c>
-      <c r="H57" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H57" t="inlineStr"/>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
-      <c r="L57" t="n">
-        <v>1</v>
-      </c>
-      <c r="M57" t="inlineStr"/>
+      <c r="K57" t="n">
+        <v>1</v>
+      </c>
+      <c r="L57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2296,18 +2123,15 @@
         <v>0.3406</v>
       </c>
       <c r="G58" t="n">
-        <v>10.30436839999999</v>
-      </c>
-      <c r="H58" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H58" t="inlineStr"/>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr"/>
-      <c r="L58" t="n">
-        <v>1</v>
-      </c>
-      <c r="M58" t="inlineStr"/>
+      <c r="K58" t="n">
+        <v>1</v>
+      </c>
+      <c r="L58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2329,18 +2153,15 @@
         <v>4.838</v>
       </c>
       <c r="G59" t="n">
-        <v>10.30436839999999</v>
-      </c>
-      <c r="H59" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H59" t="inlineStr"/>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr"/>
-      <c r="L59" t="n">
-        <v>1</v>
-      </c>
-      <c r="M59" t="inlineStr"/>
+      <c r="K59" t="n">
+        <v>1</v>
+      </c>
+      <c r="L59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2362,18 +2183,15 @@
         <v>3.7674</v>
       </c>
       <c r="G60" t="n">
-        <v>10.30436839999999</v>
-      </c>
-      <c r="H60" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H60" t="inlineStr"/>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr"/>
-      <c r="L60" t="n">
-        <v>1</v>
-      </c>
-      <c r="M60" t="inlineStr"/>
+      <c r="K60" t="n">
+        <v>1</v>
+      </c>
+      <c r="L60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2395,18 +2213,15 @@
         <v>25.2107</v>
       </c>
       <c r="G61" t="n">
-        <v>10.30436839999999</v>
-      </c>
-      <c r="H61" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H61" t="inlineStr"/>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
-      <c r="L61" t="n">
-        <v>1</v>
-      </c>
-      <c r="M61" t="inlineStr"/>
+      <c r="K61" t="n">
+        <v>1</v>
+      </c>
+      <c r="L61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2428,18 +2243,15 @@
         <v>11.0101</v>
       </c>
       <c r="G62" t="n">
-        <v>10.30436839999999</v>
-      </c>
-      <c r="H62" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H62" t="inlineStr"/>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
-      <c r="L62" t="n">
-        <v>1</v>
-      </c>
-      <c r="M62" t="inlineStr"/>
+      <c r="K62" t="n">
+        <v>1</v>
+      </c>
+      <c r="L62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2461,18 +2273,15 @@
         <v>36.2572</v>
       </c>
       <c r="G63" t="n">
-        <v>10.30436839999999</v>
-      </c>
-      <c r="H63" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H63" t="inlineStr"/>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr"/>
-      <c r="L63" t="n">
-        <v>1</v>
-      </c>
-      <c r="M63" t="inlineStr"/>
+      <c r="K63" t="n">
+        <v>1</v>
+      </c>
+      <c r="L63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2494,18 +2303,15 @@
         <v>55.7</v>
       </c>
       <c r="G64" t="n">
-        <v>66.0043684</v>
-      </c>
-      <c r="H64" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H64" t="inlineStr"/>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr"/>
-      <c r="L64" t="n">
-        <v>1</v>
-      </c>
-      <c r="M64" t="inlineStr"/>
+      <c r="K64" t="n">
+        <v>1</v>
+      </c>
+      <c r="L64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2527,18 +2333,15 @@
         <v>0.3179</v>
       </c>
       <c r="G65" t="n">
-        <v>65.68646840000001</v>
-      </c>
-      <c r="H65" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H65" t="inlineStr"/>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
-      <c r="L65" t="n">
-        <v>1</v>
-      </c>
-      <c r="M65" t="inlineStr"/>
+      <c r="K65" t="n">
+        <v>1</v>
+      </c>
+      <c r="L65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2560,18 +2363,15 @@
         <v>0.1019</v>
       </c>
       <c r="G66" t="n">
-        <v>65.58456840000001</v>
-      </c>
-      <c r="H66" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H66" t="inlineStr"/>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
-      <c r="L66" t="n">
-        <v>1</v>
-      </c>
-      <c r="M66" t="inlineStr"/>
+      <c r="K66" t="n">
+        <v>1</v>
+      </c>
+      <c r="L66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2593,18 +2393,15 @@
         <v>7.3310405</v>
       </c>
       <c r="G67" t="n">
-        <v>65.58456840000001</v>
-      </c>
-      <c r="H67" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H67" t="inlineStr"/>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr"/>
-      <c r="L67" t="n">
-        <v>1</v>
-      </c>
-      <c r="M67" t="inlineStr"/>
+      <c r="K67" t="n">
+        <v>1</v>
+      </c>
+      <c r="L67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2626,18 +2423,15 @@
         <v>1</v>
       </c>
       <c r="G68" t="n">
-        <v>66.58456840000001</v>
-      </c>
-      <c r="H68" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H68" t="inlineStr"/>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
-      <c r="L68" t="n">
-        <v>1</v>
-      </c>
-      <c r="M68" t="inlineStr"/>
+      <c r="K68" t="n">
+        <v>1</v>
+      </c>
+      <c r="L68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2659,18 +2453,15 @@
         <v>3.5</v>
       </c>
       <c r="G69" t="n">
-        <v>66.58456840000001</v>
-      </c>
-      <c r="H69" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H69" t="inlineStr"/>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr"/>
-      <c r="L69" t="n">
-        <v>1</v>
-      </c>
-      <c r="M69" t="inlineStr"/>
+      <c r="K69" t="n">
+        <v>1</v>
+      </c>
+      <c r="L69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2692,18 +2483,15 @@
         <v>11.1674</v>
       </c>
       <c r="G70" t="n">
-        <v>66.58456840000001</v>
-      </c>
-      <c r="H70" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H70" t="inlineStr"/>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr"/>
-      <c r="L70" t="n">
-        <v>1</v>
-      </c>
-      <c r="M70" t="inlineStr"/>
+      <c r="K70" t="n">
+        <v>1</v>
+      </c>
+      <c r="L70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2725,18 +2513,15 @@
         <v>4.479</v>
       </c>
       <c r="G71" t="n">
-        <v>66.58456840000001</v>
-      </c>
-      <c r="H71" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H71" t="inlineStr"/>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr"/>
-      <c r="L71" t="n">
-        <v>1</v>
-      </c>
-      <c r="M71" t="inlineStr"/>
+      <c r="K71" t="n">
+        <v>1</v>
+      </c>
+      <c r="L71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -2758,18 +2543,15 @@
         <v>4.4347</v>
       </c>
       <c r="G72" t="n">
-        <v>71.01926840000002</v>
-      </c>
-      <c r="H72" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H72" t="inlineStr"/>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr"/>
-      <c r="L72" t="n">
-        <v>1</v>
-      </c>
-      <c r="M72" t="inlineStr"/>
+      <c r="K72" t="n">
+        <v>1</v>
+      </c>
+      <c r="L72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -2791,18 +2573,15 @@
         <v>0.2136</v>
       </c>
       <c r="G73" t="n">
-        <v>71.01926840000002</v>
-      </c>
-      <c r="H73" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H73" t="inlineStr"/>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr"/>
-      <c r="L73" t="n">
-        <v>1</v>
-      </c>
-      <c r="M73" t="inlineStr"/>
+      <c r="K73" t="n">
+        <v>1</v>
+      </c>
+      <c r="L73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -2824,18 +2603,15 @@
         <v>22.8001</v>
       </c>
       <c r="G74" t="n">
-        <v>71.01926840000002</v>
-      </c>
-      <c r="H74" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H74" t="inlineStr"/>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr"/>
-      <c r="L74" t="n">
-        <v>1</v>
-      </c>
-      <c r="M74" t="inlineStr"/>
+      <c r="K74" t="n">
+        <v>1</v>
+      </c>
+      <c r="L74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -2857,18 +2633,15 @@
         <v>10.66</v>
       </c>
       <c r="G75" t="n">
-        <v>71.01926840000002</v>
-      </c>
-      <c r="H75" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H75" t="inlineStr"/>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr"/>
-      <c r="L75" t="n">
-        <v>1</v>
-      </c>
-      <c r="M75" t="inlineStr"/>
+      <c r="K75" t="n">
+        <v>1</v>
+      </c>
+      <c r="L75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -2890,18 +2663,15 @@
         <v>1.0419</v>
       </c>
       <c r="G76" t="n">
-        <v>71.01926840000002</v>
-      </c>
-      <c r="H76" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H76" t="inlineStr"/>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr"/>
-      <c r="L76" t="n">
-        <v>1</v>
-      </c>
-      <c r="M76" t="inlineStr"/>
+      <c r="K76" t="n">
+        <v>1</v>
+      </c>
+      <c r="L76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -2923,18 +2693,15 @@
         <v>30</v>
       </c>
       <c r="G77" t="n">
-        <v>101.0192684</v>
-      </c>
-      <c r="H77" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H77" t="inlineStr"/>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr"/>
-      <c r="L77" t="n">
-        <v>1</v>
-      </c>
-      <c r="M77" t="inlineStr"/>
+      <c r="K77" t="n">
+        <v>1</v>
+      </c>
+      <c r="L77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -2956,18 +2723,15 @@
         <v>23.0901</v>
       </c>
       <c r="G78" t="n">
-        <v>124.1093684</v>
-      </c>
-      <c r="H78" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H78" t="inlineStr"/>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr"/>
-      <c r="L78" t="n">
-        <v>1</v>
-      </c>
-      <c r="M78" t="inlineStr"/>
+      <c r="K78" t="n">
+        <v>1</v>
+      </c>
+      <c r="L78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -2989,18 +2753,15 @@
         <v>3.8</v>
       </c>
       <c r="G79" t="n">
-        <v>120.3093684</v>
-      </c>
-      <c r="H79" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H79" t="inlineStr"/>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr"/>
-      <c r="L79" t="n">
-        <v>1</v>
-      </c>
-      <c r="M79" t="inlineStr"/>
+      <c r="K79" t="n">
+        <v>1</v>
+      </c>
+      <c r="L79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3022,18 +2783,15 @@
         <v>18.5484</v>
       </c>
       <c r="G80" t="n">
-        <v>120.3093684</v>
-      </c>
-      <c r="H80" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H80" t="inlineStr"/>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr"/>
-      <c r="L80" t="n">
-        <v>1</v>
-      </c>
-      <c r="M80" t="inlineStr"/>
+      <c r="K80" t="n">
+        <v>1</v>
+      </c>
+      <c r="L80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3055,18 +2813,15 @@
         <v>12.2758</v>
       </c>
       <c r="G81" t="n">
-        <v>108.0335684</v>
-      </c>
-      <c r="H81" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H81" t="inlineStr"/>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr"/>
-      <c r="L81" t="n">
-        <v>1</v>
-      </c>
-      <c r="M81" t="inlineStr"/>
+      <c r="K81" t="n">
+        <v>1</v>
+      </c>
+      <c r="L81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3088,18 +2843,15 @@
         <v>28.6544</v>
       </c>
       <c r="G82" t="n">
-        <v>108.0335684</v>
-      </c>
-      <c r="H82" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H82" t="inlineStr"/>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr"/>
-      <c r="L82" t="n">
-        <v>1</v>
-      </c>
-      <c r="M82" t="inlineStr"/>
+      <c r="K82" t="n">
+        <v>1</v>
+      </c>
+      <c r="L82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3121,18 +2873,15 @@
         <v>0.2493</v>
       </c>
       <c r="G83" t="n">
-        <v>107.7842684</v>
-      </c>
-      <c r="H83" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H83" t="inlineStr"/>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr"/>
-      <c r="L83" t="n">
-        <v>1</v>
-      </c>
-      <c r="M83" t="inlineStr"/>
+      <c r="K83" t="n">
+        <v>1</v>
+      </c>
+      <c r="L83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3154,18 +2903,15 @@
         <v>1.8801</v>
       </c>
       <c r="G84" t="n">
-        <v>109.6643684</v>
-      </c>
-      <c r="H84" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H84" t="inlineStr"/>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr"/>
-      <c r="L84" t="n">
-        <v>1</v>
-      </c>
-      <c r="M84" t="inlineStr"/>
+      <c r="K84" t="n">
+        <v>1</v>
+      </c>
+      <c r="L84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3187,18 +2933,15 @@
         <v>58.4</v>
       </c>
       <c r="G85" t="n">
-        <v>168.0643684</v>
-      </c>
-      <c r="H85" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H85" t="inlineStr"/>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
-      <c r="L85" t="n">
-        <v>1</v>
-      </c>
-      <c r="M85" t="inlineStr"/>
+      <c r="K85" t="n">
+        <v>1</v>
+      </c>
+      <c r="L85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3220,18 +2963,15 @@
         <v>12.0002</v>
       </c>
       <c r="G86" t="n">
-        <v>156.0641684</v>
-      </c>
-      <c r="H86" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H86" t="inlineStr"/>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
-      <c r="L86" t="n">
-        <v>1</v>
-      </c>
-      <c r="M86" t="inlineStr"/>
+      <c r="K86" t="n">
+        <v>1</v>
+      </c>
+      <c r="L86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3253,18 +2993,15 @@
         <v>10.1865</v>
       </c>
       <c r="G87" t="n">
-        <v>145.8776684</v>
-      </c>
-      <c r="H87" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H87" t="inlineStr"/>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
-      <c r="L87" t="n">
-        <v>1</v>
-      </c>
-      <c r="M87" t="inlineStr"/>
+      <c r="K87" t="n">
+        <v>1</v>
+      </c>
+      <c r="L87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3286,18 +3023,15 @@
         <v>86.8412</v>
       </c>
       <c r="G88" t="n">
-        <v>145.8776684</v>
-      </c>
-      <c r="H88" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H88" t="inlineStr"/>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
-      <c r="L88" t="n">
-        <v>1</v>
-      </c>
-      <c r="M88" t="inlineStr"/>
+      <c r="K88" t="n">
+        <v>1</v>
+      </c>
+      <c r="L88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -3319,18 +3053,15 @@
         <v>3.2099</v>
       </c>
       <c r="G89" t="n">
-        <v>142.6677684</v>
-      </c>
-      <c r="H89" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H89" t="inlineStr"/>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
-      <c r="L89" t="n">
-        <v>1</v>
-      </c>
-      <c r="M89" t="inlineStr"/>
+      <c r="K89" t="n">
+        <v>1</v>
+      </c>
+      <c r="L89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -3352,18 +3083,15 @@
         <v>45.5559</v>
       </c>
       <c r="G90" t="n">
-        <v>142.6677684</v>
-      </c>
-      <c r="H90" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H90" t="inlineStr"/>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
-      <c r="L90" t="n">
-        <v>1</v>
-      </c>
-      <c r="M90" t="inlineStr"/>
+      <c r="K90" t="n">
+        <v>1</v>
+      </c>
+      <c r="L90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -3385,18 +3113,15 @@
         <v>44.6154</v>
       </c>
       <c r="G91" t="n">
-        <v>142.6677684</v>
-      </c>
-      <c r="H91" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H91" t="inlineStr"/>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr"/>
-      <c r="L91" t="n">
-        <v>1</v>
-      </c>
-      <c r="M91" t="inlineStr"/>
+      <c r="K91" t="n">
+        <v>1</v>
+      </c>
+      <c r="L91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3418,18 +3143,15 @@
         <v>5.3481</v>
       </c>
       <c r="G92" t="n">
-        <v>142.6677684</v>
-      </c>
-      <c r="H92" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H92" t="inlineStr"/>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr"/>
-      <c r="L92" t="n">
-        <v>1</v>
-      </c>
-      <c r="M92" t="inlineStr"/>
+      <c r="K92" t="n">
+        <v>1</v>
+      </c>
+      <c r="L92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3451,18 +3173,15 @@
         <v>6.0001</v>
       </c>
       <c r="G93" t="n">
-        <v>142.6677684</v>
-      </c>
-      <c r="H93" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H93" t="inlineStr"/>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr"/>
-      <c r="L93" t="n">
-        <v>1</v>
-      </c>
-      <c r="M93" t="inlineStr"/>
+      <c r="K93" t="n">
+        <v>1</v>
+      </c>
+      <c r="L93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3484,18 +3203,15 @@
         <v>16.6906</v>
       </c>
       <c r="G94" t="n">
-        <v>125.9771684</v>
-      </c>
-      <c r="H94" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H94" t="inlineStr"/>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr"/>
-      <c r="L94" t="n">
-        <v>1</v>
-      </c>
-      <c r="M94" t="inlineStr"/>
+      <c r="K94" t="n">
+        <v>1</v>
+      </c>
+      <c r="L94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3517,18 +3233,15 @@
         <v>1.0031</v>
       </c>
       <c r="G95" t="n">
-        <v>126.9802684</v>
-      </c>
-      <c r="H95" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H95" t="inlineStr"/>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr"/>
-      <c r="L95" t="n">
-        <v>1</v>
-      </c>
-      <c r="M95" t="inlineStr"/>
+      <c r="K95" t="n">
+        <v>1</v>
+      </c>
+      <c r="L95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3550,18 +3263,15 @@
         <v>2.9077</v>
       </c>
       <c r="G96" t="n">
-        <v>124.0725684</v>
-      </c>
-      <c r="H96" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H96" t="inlineStr"/>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr"/>
-      <c r="L96" t="n">
-        <v>1</v>
-      </c>
-      <c r="M96" t="inlineStr"/>
+      <c r="K96" t="n">
+        <v>1</v>
+      </c>
+      <c r="L96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3583,18 +3293,15 @@
         <v>6.3214</v>
       </c>
       <c r="G97" t="n">
-        <v>124.0725684</v>
-      </c>
-      <c r="H97" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H97" t="inlineStr"/>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
-      <c r="L97" t="n">
-        <v>1</v>
-      </c>
-      <c r="M97" t="inlineStr"/>
+      <c r="K97" t="n">
+        <v>1</v>
+      </c>
+      <c r="L97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -3616,18 +3323,15 @@
         <v>1</v>
       </c>
       <c r="G98" t="n">
-        <v>125.0725684</v>
-      </c>
-      <c r="H98" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H98" t="inlineStr"/>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
-      <c r="L98" t="n">
-        <v>1</v>
-      </c>
-      <c r="M98" t="inlineStr"/>
+      <c r="K98" t="n">
+        <v>1</v>
+      </c>
+      <c r="L98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -3649,18 +3353,15 @@
         <v>16.3507</v>
       </c>
       <c r="G99" t="n">
-        <v>125.0725684</v>
-      </c>
-      <c r="H99" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H99" t="inlineStr"/>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr"/>
-      <c r="L99" t="n">
-        <v>1</v>
-      </c>
-      <c r="M99" t="inlineStr"/>
+      <c r="K99" t="n">
+        <v>1</v>
+      </c>
+      <c r="L99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3682,18 +3383,15 @@
         <v>82.6493</v>
       </c>
       <c r="G100" t="n">
-        <v>125.0725684</v>
-      </c>
-      <c r="H100" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H100" t="inlineStr"/>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr"/>
-      <c r="L100" t="n">
-        <v>1</v>
-      </c>
-      <c r="M100" t="inlineStr"/>
+      <c r="K100" t="n">
+        <v>1</v>
+      </c>
+      <c r="L100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -3715,18 +3413,15 @@
         <v>0.4762</v>
       </c>
       <c r="G101" t="n">
-        <v>125.5487684</v>
-      </c>
-      <c r="H101" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H101" t="inlineStr"/>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr"/>
-      <c r="L101" t="n">
-        <v>1</v>
-      </c>
-      <c r="M101" t="inlineStr"/>
+      <c r="K101" t="n">
+        <v>1</v>
+      </c>
+      <c r="L101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -3748,18 +3443,15 @@
         <v>0.6548</v>
       </c>
       <c r="G102" t="n">
-        <v>125.5487684</v>
-      </c>
-      <c r="H102" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H102" t="inlineStr"/>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr"/>
-      <c r="L102" t="n">
-        <v>1</v>
-      </c>
-      <c r="M102" t="inlineStr"/>
+      <c r="K102" t="n">
+        <v>1</v>
+      </c>
+      <c r="L102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -3781,18 +3473,15 @@
         <v>64.1982</v>
       </c>
       <c r="G103" t="n">
-        <v>125.5487684</v>
-      </c>
-      <c r="H103" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H103" t="inlineStr"/>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr"/>
-      <c r="L103" t="n">
-        <v>1</v>
-      </c>
-      <c r="M103" t="inlineStr"/>
+      <c r="K103" t="n">
+        <v>1</v>
+      </c>
+      <c r="L103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -3814,18 +3503,15 @@
         <v>2.089</v>
       </c>
       <c r="G104" t="n">
-        <v>127.6377684</v>
-      </c>
-      <c r="H104" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H104" t="inlineStr"/>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr"/>
-      <c r="L104" t="n">
-        <v>1</v>
-      </c>
-      <c r="M104" t="inlineStr"/>
+      <c r="K104" t="n">
+        <v>1</v>
+      </c>
+      <c r="L104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -3847,18 +3533,15 @@
         <v>4.3282</v>
       </c>
       <c r="G105" t="n">
-        <v>131.9659684</v>
-      </c>
-      <c r="H105" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H105" t="inlineStr"/>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr"/>
-      <c r="L105" t="n">
-        <v>1</v>
-      </c>
-      <c r="M105" t="inlineStr"/>
+      <c r="K105" t="n">
+        <v>1</v>
+      </c>
+      <c r="L105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -3880,18 +3563,15 @@
         <v>13.3059</v>
       </c>
       <c r="G106" t="n">
-        <v>131.9659684</v>
-      </c>
-      <c r="H106" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H106" t="inlineStr"/>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr"/>
-      <c r="L106" t="n">
-        <v>1</v>
-      </c>
-      <c r="M106" t="inlineStr"/>
+      <c r="K106" t="n">
+        <v>1</v>
+      </c>
+      <c r="L106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -3913,18 +3593,15 @@
         <v>5.1155</v>
       </c>
       <c r="G107" t="n">
-        <v>126.8504684</v>
-      </c>
-      <c r="H107" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H107" t="inlineStr"/>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr"/>
-      <c r="L107" t="n">
-        <v>1</v>
-      </c>
-      <c r="M107" t="inlineStr"/>
+      <c r="K107" t="n">
+        <v>1</v>
+      </c>
+      <c r="L107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -3946,18 +3623,15 @@
         <v>4.8863</v>
       </c>
       <c r="G108" t="n">
-        <v>126.8504684</v>
-      </c>
-      <c r="H108" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H108" t="inlineStr"/>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr"/>
-      <c r="L108" t="n">
-        <v>1</v>
-      </c>
-      <c r="M108" t="inlineStr"/>
+      <c r="K108" t="n">
+        <v>1</v>
+      </c>
+      <c r="L108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -3979,18 +3653,15 @@
         <v>21.9873</v>
       </c>
       <c r="G109" t="n">
-        <v>126.8504684</v>
-      </c>
-      <c r="H109" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H109" t="inlineStr"/>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr"/>
-      <c r="L109" t="n">
-        <v>1</v>
-      </c>
-      <c r="M109" t="inlineStr"/>
+      <c r="K109" t="n">
+        <v>1</v>
+      </c>
+      <c r="L109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -4012,18 +3683,15 @@
         <v>11.1585</v>
       </c>
       <c r="G110" t="n">
-        <v>138.0089684</v>
-      </c>
-      <c r="H110" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H110" t="inlineStr"/>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr"/>
-      <c r="L110" t="n">
-        <v>1</v>
-      </c>
-      <c r="M110" t="inlineStr"/>
+      <c r="K110" t="n">
+        <v>1</v>
+      </c>
+      <c r="L110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -4045,18 +3713,15 @@
         <v>1.2458</v>
       </c>
       <c r="G111" t="n">
-        <v>136.7631684</v>
-      </c>
-      <c r="H111" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H111" t="inlineStr"/>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr"/>
-      <c r="L111" t="n">
-        <v>1</v>
-      </c>
-      <c r="M111" t="inlineStr"/>
+      <c r="K111" t="n">
+        <v>1</v>
+      </c>
+      <c r="L111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -4078,18 +3743,15 @@
         <v>3.3463</v>
       </c>
       <c r="G112" t="n">
-        <v>136.7631684</v>
-      </c>
-      <c r="H112" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H112" t="inlineStr"/>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr"/>
-      <c r="L112" t="n">
-        <v>1</v>
-      </c>
-      <c r="M112" t="inlineStr"/>
+      <c r="K112" t="n">
+        <v>1</v>
+      </c>
+      <c r="L112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -4111,18 +3773,15 @@
         <v>3.627</v>
       </c>
       <c r="G113" t="n">
-        <v>136.7631684</v>
-      </c>
-      <c r="H113" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H113" t="inlineStr"/>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr"/>
-      <c r="L113" t="n">
-        <v>1</v>
-      </c>
-      <c r="M113" t="inlineStr"/>
+      <c r="K113" t="n">
+        <v>1</v>
+      </c>
+      <c r="L113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -4144,18 +3803,15 @@
         <v>15.3393</v>
       </c>
       <c r="G114" t="n">
-        <v>121.4238684</v>
-      </c>
-      <c r="H114" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H114" t="inlineStr"/>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr"/>
-      <c r="L114" t="n">
-        <v>1</v>
-      </c>
-      <c r="M114" t="inlineStr"/>
+      <c r="K114" t="n">
+        <v>1</v>
+      </c>
+      <c r="L114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -4177,18 +3833,15 @@
         <v>56.0358</v>
       </c>
       <c r="G115" t="n">
-        <v>177.4596684</v>
-      </c>
-      <c r="H115" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H115" t="inlineStr"/>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr"/>
-      <c r="L115" t="n">
-        <v>1</v>
-      </c>
-      <c r="M115" t="inlineStr"/>
+      <c r="K115" t="n">
+        <v>1</v>
+      </c>
+      <c r="L115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -4210,18 +3863,15 @@
         <v>36.6872</v>
       </c>
       <c r="G116" t="n">
-        <v>140.7724684</v>
-      </c>
-      <c r="H116" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H116" t="inlineStr"/>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr"/>
-      <c r="L116" t="n">
-        <v>1</v>
-      </c>
-      <c r="M116" t="inlineStr"/>
+      <c r="K116" t="n">
+        <v>1</v>
+      </c>
+      <c r="L116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -4243,18 +3893,15 @@
         <v>5.5129</v>
       </c>
       <c r="G117" t="n">
-        <v>146.2853684</v>
-      </c>
-      <c r="H117" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H117" t="inlineStr"/>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr"/>
-      <c r="L117" t="n">
-        <v>1</v>
-      </c>
-      <c r="M117" t="inlineStr"/>
+      <c r="K117" t="n">
+        <v>1</v>
+      </c>
+      <c r="L117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -4276,18 +3923,15 @@
         <v>0.5436</v>
       </c>
       <c r="G118" t="n">
-        <v>145.7417684</v>
-      </c>
-      <c r="H118" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H118" t="inlineStr"/>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr"/>
-      <c r="L118" t="n">
-        <v>1</v>
-      </c>
-      <c r="M118" t="inlineStr"/>
+      <c r="K118" t="n">
+        <v>1</v>
+      </c>
+      <c r="L118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -4309,18 +3953,15 @@
         <v>37.3312</v>
       </c>
       <c r="G119" t="n">
-        <v>108.4105684</v>
-      </c>
-      <c r="H119" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H119" t="inlineStr"/>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr"/>
-      <c r="L119" t="n">
-        <v>1</v>
-      </c>
-      <c r="M119" t="inlineStr"/>
+      <c r="K119" t="n">
+        <v>1</v>
+      </c>
+      <c r="L119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -4342,18 +3983,15 @@
         <v>0.5924</v>
       </c>
       <c r="G120" t="n">
-        <v>109.0029684</v>
-      </c>
-      <c r="H120" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H120" t="inlineStr"/>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr"/>
-      <c r="L120" t="n">
-        <v>1</v>
-      </c>
-      <c r="M120" t="inlineStr"/>
+      <c r="K120" t="n">
+        <v>1</v>
+      </c>
+      <c r="L120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -4375,18 +4013,15 @@
         <v>7.8393</v>
       </c>
       <c r="G121" t="n">
-        <v>101.1636684</v>
-      </c>
-      <c r="H121" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H121" t="inlineStr"/>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr"/>
-      <c r="L121" t="n">
-        <v>1</v>
-      </c>
-      <c r="M121" t="inlineStr"/>
+      <c r="K121" t="n">
+        <v>1</v>
+      </c>
+      <c r="L121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -4408,18 +4043,15 @@
         <v>69.5305</v>
       </c>
       <c r="G122" t="n">
-        <v>101.1636684</v>
-      </c>
-      <c r="H122" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H122" t="inlineStr"/>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr"/>
-      <c r="L122" t="n">
-        <v>1</v>
-      </c>
-      <c r="M122" t="inlineStr"/>
+      <c r="K122" t="n">
+        <v>1</v>
+      </c>
+      <c r="L122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -4441,18 +4073,15 @@
         <v>1.0989</v>
       </c>
       <c r="G123" t="n">
-        <v>101.1636684</v>
-      </c>
-      <c r="H123" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H123" t="inlineStr"/>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr"/>
-      <c r="L123" t="n">
-        <v>1</v>
-      </c>
-      <c r="M123" t="inlineStr"/>
+      <c r="K123" t="n">
+        <v>1</v>
+      </c>
+      <c r="L123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -4474,18 +4103,15 @@
         <v>11.6555</v>
       </c>
       <c r="G124" t="n">
-        <v>89.50816840000005</v>
-      </c>
-      <c r="H124" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H124" t="inlineStr"/>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr"/>
-      <c r="L124" t="n">
-        <v>1</v>
-      </c>
-      <c r="M124" t="inlineStr"/>
+      <c r="K124" t="n">
+        <v>1</v>
+      </c>
+      <c r="L124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -4507,18 +4133,15 @@
         <v>0.5575</v>
       </c>
       <c r="G125" t="n">
-        <v>90.06566840000005</v>
-      </c>
-      <c r="H125" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H125" t="inlineStr"/>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr"/>
-      <c r="L125" t="n">
-        <v>1</v>
-      </c>
-      <c r="M125" t="inlineStr"/>
+      <c r="K125" t="n">
+        <v>1</v>
+      </c>
+      <c r="L125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -4540,18 +4163,15 @@
         <v>6.4</v>
       </c>
       <c r="G126" t="n">
-        <v>96.46566840000006</v>
-      </c>
-      <c r="H126" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H126" t="inlineStr"/>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr"/>
-      <c r="L126" t="n">
-        <v>1</v>
-      </c>
-      <c r="M126" t="inlineStr"/>
+      <c r="K126" t="n">
+        <v>1</v>
+      </c>
+      <c r="L126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -4573,18 +4193,15 @@
         <v>2.5491</v>
       </c>
       <c r="G127" t="n">
-        <v>93.91656840000006</v>
-      </c>
-      <c r="H127" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H127" t="inlineStr"/>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr"/>
-      <c r="L127" t="n">
-        <v>1</v>
-      </c>
-      <c r="M127" t="inlineStr"/>
+      <c r="K127" t="n">
+        <v>1</v>
+      </c>
+      <c r="L127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -4606,18 +4223,15 @@
         <v>26.1049</v>
       </c>
       <c r="G128" t="n">
-        <v>93.91656840000006</v>
-      </c>
-      <c r="H128" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H128" t="inlineStr"/>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr"/>
-      <c r="L128" t="n">
-        <v>1</v>
-      </c>
-      <c r="M128" t="inlineStr"/>
+      <c r="K128" t="n">
+        <v>1</v>
+      </c>
+      <c r="L128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
@@ -4639,18 +4253,15 @@
         <v>0.6883</v>
       </c>
       <c r="G129" t="n">
-        <v>93.22826840000006</v>
-      </c>
-      <c r="H129" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H129" t="inlineStr"/>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr"/>
-      <c r="L129" t="n">
-        <v>1</v>
-      </c>
-      <c r="M129" t="inlineStr"/>
+      <c r="K129" t="n">
+        <v>1</v>
+      </c>
+      <c r="L129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
@@ -4672,18 +4283,15 @@
         <v>37.5913</v>
       </c>
       <c r="G130" t="n">
-        <v>93.22826840000006</v>
-      </c>
-      <c r="H130" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H130" t="inlineStr"/>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr"/>
-      <c r="L130" t="n">
-        <v>1</v>
-      </c>
-      <c r="M130" t="inlineStr"/>
+      <c r="K130" t="n">
+        <v>1</v>
+      </c>
+      <c r="L130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
@@ -4705,18 +4313,15 @@
         <v>1</v>
       </c>
       <c r="G131" t="n">
-        <v>93.22826840000006</v>
-      </c>
-      <c r="H131" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H131" t="inlineStr"/>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr"/>
-      <c r="L131" t="n">
-        <v>1</v>
-      </c>
-      <c r="M131" t="inlineStr"/>
+      <c r="K131" t="n">
+        <v>1</v>
+      </c>
+      <c r="L131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
@@ -4738,18 +4343,15 @@
         <v>5</v>
       </c>
       <c r="G132" t="n">
-        <v>93.22826840000006</v>
-      </c>
-      <c r="H132" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H132" t="inlineStr"/>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr"/>
-      <c r="L132" t="n">
-        <v>1</v>
-      </c>
-      <c r="M132" t="inlineStr"/>
+      <c r="K132" t="n">
+        <v>1</v>
+      </c>
+      <c r="L132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
@@ -4771,18 +4373,15 @@
         <v>15.5556</v>
       </c>
       <c r="G133" t="n">
-        <v>93.22826840000006</v>
-      </c>
-      <c r="H133" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H133" t="inlineStr"/>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr"/>
-      <c r="L133" t="n">
-        <v>1</v>
-      </c>
-      <c r="M133" t="inlineStr"/>
+      <c r="K133" t="n">
+        <v>1</v>
+      </c>
+      <c r="L133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
@@ -4804,18 +4403,15 @@
         <v>4.014</v>
       </c>
       <c r="G134" t="n">
-        <v>93.22826840000006</v>
-      </c>
-      <c r="H134" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H134" t="inlineStr"/>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr"/>
-      <c r="L134" t="n">
-        <v>1</v>
-      </c>
-      <c r="M134" t="inlineStr"/>
+      <c r="K134" t="n">
+        <v>1</v>
+      </c>
+      <c r="L134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
@@ -4837,18 +4433,15 @@
         <v>66.8391</v>
       </c>
       <c r="G135" t="n">
-        <v>93.22826840000006</v>
-      </c>
-      <c r="H135" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H135" t="inlineStr"/>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr"/>
-      <c r="L135" t="n">
-        <v>1</v>
-      </c>
-      <c r="M135" t="inlineStr"/>
+      <c r="K135" t="n">
+        <v>1</v>
+      </c>
+      <c r="L135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
@@ -4870,18 +4463,15 @@
         <v>0.1</v>
       </c>
       <c r="G136" t="n">
-        <v>93.32826840000006</v>
-      </c>
-      <c r="H136" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H136" t="inlineStr"/>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr"/>
-      <c r="L136" t="n">
-        <v>1</v>
-      </c>
-      <c r="M136" t="inlineStr"/>
+      <c r="K136" t="n">
+        <v>1</v>
+      </c>
+      <c r="L136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
@@ -4903,18 +4493,15 @@
         <v>7.9144</v>
       </c>
       <c r="G137" t="n">
-        <v>85.41386840000006</v>
-      </c>
-      <c r="H137" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H137" t="inlineStr"/>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr"/>
-      <c r="L137" t="n">
-        <v>1</v>
-      </c>
-      <c r="M137" t="inlineStr"/>
+      <c r="K137" t="n">
+        <v>1</v>
+      </c>
+      <c r="L137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
@@ -4936,18 +4523,15 @@
         <v>0.1044</v>
       </c>
       <c r="G138" t="n">
-        <v>85.41386840000006</v>
-      </c>
-      <c r="H138" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H138" t="inlineStr"/>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr"/>
-      <c r="L138" t="n">
-        <v>1</v>
-      </c>
-      <c r="M138" t="inlineStr"/>
+      <c r="K138" t="n">
+        <v>1</v>
+      </c>
+      <c r="L138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
@@ -4969,18 +4553,15 @@
         <v>23.803</v>
       </c>
       <c r="G139" t="n">
-        <v>85.41386840000006</v>
-      </c>
-      <c r="H139" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H139" t="inlineStr"/>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr"/>
-      <c r="L139" t="n">
-        <v>1</v>
-      </c>
-      <c r="M139" t="inlineStr"/>
+      <c r="K139" t="n">
+        <v>1</v>
+      </c>
+      <c r="L139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
@@ -5002,18 +4583,15 @@
         <v>0.355</v>
       </c>
       <c r="G140" t="n">
-        <v>85.76886840000006</v>
-      </c>
-      <c r="H140" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H140" t="inlineStr"/>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr"/>
-      <c r="L140" t="n">
-        <v>1</v>
-      </c>
-      <c r="M140" t="inlineStr"/>
+      <c r="K140" t="n">
+        <v>1</v>
+      </c>
+      <c r="L140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
@@ -5035,18 +4613,15 @@
         <v>1</v>
       </c>
       <c r="G141" t="n">
-        <v>86.76886840000006</v>
-      </c>
-      <c r="H141" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H141" t="inlineStr"/>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr"/>
-      <c r="L141" t="n">
-        <v>1</v>
-      </c>
-      <c r="M141" t="inlineStr"/>
+      <c r="K141" t="n">
+        <v>1</v>
+      </c>
+      <c r="L141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
@@ -5068,18 +4643,15 @@
         <v>2.7512</v>
       </c>
       <c r="G142" t="n">
-        <v>84.01766840000006</v>
-      </c>
-      <c r="H142" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H142" t="inlineStr"/>
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr"/>
-      <c r="L142" t="n">
-        <v>1</v>
-      </c>
-      <c r="M142" t="inlineStr"/>
+      <c r="K142" t="n">
+        <v>1</v>
+      </c>
+      <c r="L142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
@@ -5101,18 +4673,15 @@
         <v>0.3205</v>
       </c>
       <c r="G143" t="n">
-        <v>84.01766840000006</v>
-      </c>
-      <c r="H143" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H143" t="inlineStr"/>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr"/>
-      <c r="L143" t="n">
-        <v>1</v>
-      </c>
-      <c r="M143" t="inlineStr"/>
+      <c r="K143" t="n">
+        <v>1</v>
+      </c>
+      <c r="L143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
@@ -5134,18 +4703,15 @@
         <v>9.9999</v>
       </c>
       <c r="G144" t="n">
-        <v>84.01766840000006</v>
-      </c>
-      <c r="H144" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H144" t="inlineStr"/>
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr"/>
-      <c r="L144" t="n">
-        <v>1</v>
-      </c>
-      <c r="M144" t="inlineStr"/>
+      <c r="K144" t="n">
+        <v>1</v>
+      </c>
+      <c r="L144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
@@ -5167,18 +4733,15 @@
         <v>100</v>
       </c>
       <c r="G145" t="n">
-        <v>184.0176684</v>
-      </c>
-      <c r="H145" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H145" t="inlineStr"/>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr"/>
-      <c r="L145" t="n">
-        <v>1</v>
-      </c>
-      <c r="M145" t="inlineStr"/>
+      <c r="K145" t="n">
+        <v>1</v>
+      </c>
+      <c r="L145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
@@ -5200,18 +4763,15 @@
         <v>5.3778</v>
       </c>
       <c r="G146" t="n">
-        <v>178.6398684</v>
-      </c>
-      <c r="H146" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H146" t="inlineStr"/>
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr"/>
-      <c r="L146" t="n">
-        <v>1</v>
-      </c>
-      <c r="M146" t="inlineStr"/>
+      <c r="K146" t="n">
+        <v>1</v>
+      </c>
+      <c r="L146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
@@ -5233,18 +4793,15 @@
         <v>2.06</v>
       </c>
       <c r="G147" t="n">
-        <v>178.6398684</v>
-      </c>
-      <c r="H147" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H147" t="inlineStr"/>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr"/>
-      <c r="L147" t="n">
-        <v>1</v>
-      </c>
-      <c r="M147" t="inlineStr"/>
+      <c r="K147" t="n">
+        <v>1</v>
+      </c>
+      <c r="L147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
@@ -5266,18 +4823,15 @@
         <v>0.5124</v>
       </c>
       <c r="G148" t="n">
-        <v>178.6398684</v>
-      </c>
-      <c r="H148" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H148" t="inlineStr"/>
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr"/>
-      <c r="L148" t="n">
-        <v>1</v>
-      </c>
-      <c r="M148" t="inlineStr"/>
+      <c r="K148" t="n">
+        <v>1</v>
+      </c>
+      <c r="L148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
@@ -5299,18 +4853,15 @@
         <v>4.356</v>
       </c>
       <c r="G149" t="n">
-        <v>178.6398684</v>
-      </c>
-      <c r="H149" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H149" t="inlineStr"/>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr"/>
-      <c r="L149" t="n">
-        <v>1</v>
-      </c>
-      <c r="M149" t="inlineStr"/>
+      <c r="K149" t="n">
+        <v>1</v>
+      </c>
+      <c r="L149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
@@ -5332,18 +4883,15 @@
         <v>52.1669</v>
       </c>
       <c r="G150" t="n">
-        <v>126.4729684</v>
-      </c>
-      <c r="H150" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H150" t="inlineStr"/>
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr"/>
-      <c r="L150" t="n">
-        <v>1</v>
-      </c>
-      <c r="M150" t="inlineStr"/>
+      <c r="K150" t="n">
+        <v>1</v>
+      </c>
+      <c r="L150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
@@ -5365,18 +4913,15 @@
         <v>2.4249</v>
       </c>
       <c r="G151" t="n">
-        <v>126.4729684</v>
-      </c>
-      <c r="H151" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H151" t="inlineStr"/>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr"/>
-      <c r="L151" t="n">
-        <v>1</v>
-      </c>
-      <c r="M151" t="inlineStr"/>
+      <c r="K151" t="n">
+        <v>1</v>
+      </c>
+      <c r="L151" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
@@ -5398,18 +4943,15 @@
         <v>13.1572</v>
       </c>
       <c r="G152" t="n">
-        <v>126.4729684</v>
-      </c>
-      <c r="H152" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H152" t="inlineStr"/>
       <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr"/>
-      <c r="L152" t="n">
-        <v>1</v>
-      </c>
-      <c r="M152" t="inlineStr"/>
+      <c r="K152" t="n">
+        <v>1</v>
+      </c>
+      <c r="L152" t="inlineStr"/>
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
@@ -5431,18 +4973,15 @@
         <v>1.4981</v>
       </c>
       <c r="G153" t="n">
-        <v>124.9748684</v>
-      </c>
-      <c r="H153" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H153" t="inlineStr"/>
       <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
-      <c r="K153" t="inlineStr"/>
-      <c r="L153" t="n">
-        <v>1</v>
-      </c>
-      <c r="M153" t="inlineStr"/>
+      <c r="K153" t="n">
+        <v>1</v>
+      </c>
+      <c r="L153" t="inlineStr"/>
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
@@ -5464,18 +5003,15 @@
         <v>0.4766</v>
       </c>
       <c r="G154" t="n">
-        <v>124.9748684</v>
-      </c>
-      <c r="H154" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H154" t="inlineStr"/>
       <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
-      <c r="K154" t="inlineStr"/>
-      <c r="L154" t="n">
-        <v>1</v>
-      </c>
-      <c r="M154" t="inlineStr"/>
+      <c r="K154" t="n">
+        <v>1</v>
+      </c>
+      <c r="L154" t="inlineStr"/>
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
@@ -5497,18 +5033,15 @@
         <v>0.1</v>
       </c>
       <c r="G155" t="n">
-        <v>125.0748684</v>
-      </c>
-      <c r="H155" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H155" t="inlineStr"/>
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
-      <c r="K155" t="inlineStr"/>
-      <c r="L155" t="n">
-        <v>1</v>
-      </c>
-      <c r="M155" t="inlineStr"/>
+      <c r="K155" t="n">
+        <v>1</v>
+      </c>
+      <c r="L155" t="inlineStr"/>
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
@@ -5530,18 +5063,15 @@
         <v>1.6</v>
       </c>
       <c r="G156" t="n">
-        <v>123.4748684</v>
-      </c>
-      <c r="H156" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H156" t="inlineStr"/>
       <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
-      <c r="K156" t="inlineStr"/>
-      <c r="L156" t="n">
-        <v>1</v>
-      </c>
-      <c r="M156" t="inlineStr"/>
+      <c r="K156" t="n">
+        <v>1</v>
+      </c>
+      <c r="L156" t="inlineStr"/>
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
@@ -5563,18 +5093,15 @@
         <v>0.4734</v>
       </c>
       <c r="G157" t="n">
-        <v>123.0014684</v>
-      </c>
-      <c r="H157" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H157" t="inlineStr"/>
       <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
-      <c r="K157" t="inlineStr"/>
-      <c r="L157" t="n">
-        <v>1</v>
-      </c>
-      <c r="M157" t="inlineStr"/>
+      <c r="K157" t="n">
+        <v>1</v>
+      </c>
+      <c r="L157" t="inlineStr"/>
     </row>
     <row r="158">
       <c r="A158" s="1" t="n">
@@ -5596,18 +5123,15 @@
         <v>1</v>
       </c>
       <c r="G158" t="n">
-        <v>124.0014684</v>
-      </c>
-      <c r="H158" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H158" t="inlineStr"/>
       <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
-      <c r="K158" t="inlineStr"/>
-      <c r="L158" t="n">
-        <v>1</v>
-      </c>
-      <c r="M158" t="inlineStr"/>
+      <c r="K158" t="n">
+        <v>1</v>
+      </c>
+      <c r="L158" t="inlineStr"/>
     </row>
     <row r="159">
       <c r="A159" s="1" t="n">
@@ -5629,18 +5153,15 @@
         <v>0.53535401</v>
       </c>
       <c r="G159" t="n">
-        <v>124.0014684</v>
-      </c>
-      <c r="H159" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H159" t="inlineStr"/>
       <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
-      <c r="K159" t="inlineStr"/>
-      <c r="L159" t="n">
-        <v>1</v>
-      </c>
-      <c r="M159" t="inlineStr"/>
+      <c r="K159" t="n">
+        <v>1</v>
+      </c>
+      <c r="L159" t="inlineStr"/>
     </row>
     <row r="160">
       <c r="A160" s="1" t="n">
@@ -5662,18 +5183,15 @@
         <v>25.9411</v>
       </c>
       <c r="G160" t="n">
-        <v>149.9425684000001</v>
-      </c>
-      <c r="H160" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H160" t="inlineStr"/>
       <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
-      <c r="K160" t="inlineStr"/>
-      <c r="L160" t="n">
-        <v>1</v>
-      </c>
-      <c r="M160" t="inlineStr"/>
+      <c r="K160" t="n">
+        <v>1</v>
+      </c>
+      <c r="L160" t="inlineStr"/>
     </row>
     <row r="161">
       <c r="A161" s="1" t="n">
@@ -5695,18 +5213,15 @@
         <v>0.579</v>
       </c>
       <c r="G161" t="n">
-        <v>149.9425684000001</v>
-      </c>
-      <c r="H161" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H161" t="inlineStr"/>
       <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
-      <c r="K161" t="inlineStr"/>
-      <c r="L161" t="n">
-        <v>1</v>
-      </c>
-      <c r="M161" t="inlineStr"/>
+      <c r="K161" t="n">
+        <v>1</v>
+      </c>
+      <c r="L161" t="inlineStr"/>
     </row>
     <row r="162">
       <c r="A162" s="1" t="n">
@@ -5728,18 +5243,15 @@
         <v>3.90885182</v>
       </c>
       <c r="G162" t="n">
-        <v>149.9425684000001</v>
-      </c>
-      <c r="H162" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H162" t="inlineStr"/>
       <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
-      <c r="K162" t="inlineStr"/>
-      <c r="L162" t="n">
-        <v>1</v>
-      </c>
-      <c r="M162" t="inlineStr"/>
+      <c r="K162" t="n">
+        <v>1</v>
+      </c>
+      <c r="L162" t="inlineStr"/>
     </row>
     <row r="163">
       <c r="A163" s="1" t="n">
@@ -5761,18 +5273,15 @@
         <v>1.18</v>
       </c>
       <c r="G163" t="n">
-        <v>148.7625684</v>
-      </c>
-      <c r="H163" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H163" t="inlineStr"/>
       <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
-      <c r="K163" t="inlineStr"/>
-      <c r="L163" t="n">
-        <v>1</v>
-      </c>
-      <c r="M163" t="inlineStr"/>
+      <c r="K163" t="n">
+        <v>1</v>
+      </c>
+      <c r="L163" t="inlineStr"/>
     </row>
     <row r="164">
       <c r="A164" s="1" t="n">
@@ -5794,18 +5303,15 @@
         <v>32.4</v>
       </c>
       <c r="G164" t="n">
-        <v>181.1625684000001</v>
-      </c>
-      <c r="H164" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H164" t="inlineStr"/>
       <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
-      <c r="K164" t="inlineStr"/>
-      <c r="L164" t="n">
-        <v>1</v>
-      </c>
-      <c r="M164" t="inlineStr"/>
+      <c r="K164" t="n">
+        <v>1</v>
+      </c>
+      <c r="L164" t="inlineStr"/>
     </row>
     <row r="165">
       <c r="A165" s="1" t="n">
@@ -5827,18 +5333,15 @@
         <v>6.557</v>
       </c>
       <c r="G165" t="n">
-        <v>187.7195684</v>
-      </c>
-      <c r="H165" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H165" t="inlineStr"/>
       <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
-      <c r="K165" t="inlineStr"/>
-      <c r="L165" t="n">
-        <v>1</v>
-      </c>
-      <c r="M165" t="inlineStr"/>
+      <c r="K165" t="n">
+        <v>1</v>
+      </c>
+      <c r="L165" t="inlineStr"/>
     </row>
     <row r="166">
       <c r="A166" s="1" t="n">
@@ -5860,18 +5363,15 @@
         <v>71.9121</v>
       </c>
       <c r="G166" t="n">
-        <v>259.6316684</v>
-      </c>
-      <c r="H166" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H166" t="inlineStr"/>
       <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
-      <c r="K166" t="inlineStr"/>
-      <c r="L166" t="n">
-        <v>1</v>
-      </c>
-      <c r="M166" t="inlineStr"/>
+      <c r="K166" t="n">
+        <v>1</v>
+      </c>
+      <c r="L166" t="inlineStr"/>
     </row>
     <row r="167">
       <c r="A167" s="1" t="n">
@@ -5893,18 +5393,15 @@
         <v>104.026</v>
       </c>
       <c r="G167" t="n">
-        <v>363.6576684</v>
-      </c>
-      <c r="H167" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H167" t="inlineStr"/>
       <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
-      <c r="K167" t="inlineStr"/>
-      <c r="L167" t="n">
-        <v>1</v>
-      </c>
-      <c r="M167" t="inlineStr"/>
+      <c r="K167" t="n">
+        <v>1</v>
+      </c>
+      <c r="L167" t="inlineStr"/>
     </row>
     <row r="168">
       <c r="A168" s="1" t="n">
@@ -5926,18 +5423,15 @@
         <v>295.68410473</v>
       </c>
       <c r="G168" t="n">
-        <v>363.6576684</v>
-      </c>
-      <c r="H168" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H168" t="inlineStr"/>
       <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
-      <c r="K168" t="inlineStr"/>
-      <c r="L168" t="n">
-        <v>1</v>
-      </c>
-      <c r="M168" t="inlineStr"/>
+      <c r="K168" t="n">
+        <v>1</v>
+      </c>
+      <c r="L168" t="inlineStr"/>
     </row>
     <row r="169">
       <c r="A169" s="1" t="n">
@@ -5959,18 +5453,15 @@
         <v>76.59139999999999</v>
       </c>
       <c r="G169" t="n">
-        <v>440.2490684000001</v>
-      </c>
-      <c r="H169" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H169" t="inlineStr"/>
       <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
-      <c r="K169" t="inlineStr"/>
-      <c r="L169" t="n">
-        <v>1</v>
-      </c>
-      <c r="M169" t="inlineStr"/>
+      <c r="K169" t="n">
+        <v>1</v>
+      </c>
+      <c r="L169" t="inlineStr"/>
     </row>
     <row r="170">
       <c r="A170" s="1" t="n">
@@ -5992,18 +5483,15 @@
         <v>100.0745</v>
       </c>
       <c r="G170" t="n">
-        <v>340.1745684000001</v>
-      </c>
-      <c r="H170" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H170" t="inlineStr"/>
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
-      <c r="K170" t="inlineStr"/>
-      <c r="L170" t="n">
-        <v>1</v>
-      </c>
-      <c r="M170" t="inlineStr"/>
+      <c r="K170" t="n">
+        <v>1</v>
+      </c>
+      <c r="L170" t="inlineStr"/>
     </row>
     <row r="171">
       <c r="A171" s="1" t="n">
@@ -6025,18 +5513,15 @@
         <v>5.5974</v>
       </c>
       <c r="G171" t="n">
-        <v>340.1745684000001</v>
-      </c>
-      <c r="H171" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H171" t="inlineStr"/>
       <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
-      <c r="K171" t="inlineStr"/>
-      <c r="L171" t="n">
-        <v>1</v>
-      </c>
-      <c r="M171" t="inlineStr"/>
+      <c r="K171" t="n">
+        <v>1</v>
+      </c>
+      <c r="L171" t="inlineStr"/>
     </row>
     <row r="172">
       <c r="A172" s="1" t="n">
@@ -6058,18 +5543,15 @@
         <v>6.0533</v>
       </c>
       <c r="G172" t="n">
-        <v>346.2278684</v>
-      </c>
-      <c r="H172" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H172" t="inlineStr"/>
       <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
-      <c r="K172" t="inlineStr"/>
-      <c r="L172" t="n">
-        <v>1</v>
-      </c>
-      <c r="M172" t="inlineStr"/>
+      <c r="K172" t="n">
+        <v>1</v>
+      </c>
+      <c r="L172" t="inlineStr"/>
     </row>
     <row r="173">
       <c r="A173" s="1" t="n">
@@ -6091,18 +5573,15 @@
         <v>33.5997</v>
       </c>
       <c r="G173" t="n">
-        <v>379.8275684</v>
-      </c>
-      <c r="H173" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H173" t="inlineStr"/>
       <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
-      <c r="K173" t="inlineStr"/>
-      <c r="L173" t="n">
-        <v>1</v>
-      </c>
-      <c r="M173" t="inlineStr"/>
+      <c r="K173" t="n">
+        <v>1</v>
+      </c>
+      <c r="L173" t="inlineStr"/>
     </row>
     <row r="174">
       <c r="A174" s="1" t="n">
@@ -6124,18 +5603,15 @@
         <v>14.4291</v>
       </c>
       <c r="G174" t="n">
-        <v>394.2566684</v>
-      </c>
-      <c r="H174" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H174" t="inlineStr"/>
       <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
-      <c r="K174" t="inlineStr"/>
-      <c r="L174" t="n">
-        <v>1</v>
-      </c>
-      <c r="M174" t="inlineStr"/>
+      <c r="K174" t="n">
+        <v>1</v>
+      </c>
+      <c r="L174" t="inlineStr"/>
     </row>
     <row r="175">
       <c r="A175" s="1" t="n">
@@ -6157,18 +5633,15 @@
         <v>5.4618</v>
       </c>
       <c r="G175" t="n">
-        <v>388.7948684</v>
-      </c>
-      <c r="H175" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H175" t="inlineStr"/>
       <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
-      <c r="K175" t="inlineStr"/>
-      <c r="L175" t="n">
-        <v>1</v>
-      </c>
-      <c r="M175" t="inlineStr"/>
+      <c r="K175" t="n">
+        <v>1</v>
+      </c>
+      <c r="L175" t="inlineStr"/>
     </row>
     <row r="176">
       <c r="A176" s="1" t="n">
@@ -6190,18 +5663,15 @@
         <v>2.2871</v>
       </c>
       <c r="G176" t="n">
-        <v>386.5077684</v>
-      </c>
-      <c r="H176" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H176" t="inlineStr"/>
       <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
-      <c r="K176" t="inlineStr"/>
-      <c r="L176" t="n">
-        <v>1</v>
-      </c>
-      <c r="M176" t="inlineStr"/>
+      <c r="K176" t="n">
+        <v>1</v>
+      </c>
+      <c r="L176" t="inlineStr"/>
     </row>
     <row r="177">
       <c r="A177" s="1" t="n">
@@ -6223,18 +5693,15 @@
         <v>8.667199999999999</v>
       </c>
       <c r="G177" t="n">
-        <v>386.5077684</v>
-      </c>
-      <c r="H177" t="n">
         <v>2</v>
       </c>
+      <c r="H177" t="inlineStr"/>
       <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
-      <c r="K177" t="inlineStr"/>
-      <c r="L177" t="n">
-        <v>1</v>
-      </c>
-      <c r="M177" t="inlineStr"/>
+      <c r="K177" t="n">
+        <v>1</v>
+      </c>
+      <c r="L177" t="inlineStr"/>
     </row>
     <row r="178">
       <c r="A178" s="1" t="n">
@@ -6256,18 +5723,15 @@
         <v>2.3394</v>
       </c>
       <c r="G178" t="n">
-        <v>384.1683684</v>
-      </c>
-      <c r="H178" t="n">
         <v>2</v>
       </c>
+      <c r="H178" t="inlineStr"/>
       <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
-      <c r="K178" t="inlineStr"/>
-      <c r="L178" t="n">
-        <v>1</v>
-      </c>
-      <c r="M178" t="inlineStr"/>
+      <c r="K178" t="n">
+        <v>1</v>
+      </c>
+      <c r="L178" t="inlineStr"/>
     </row>
     <row r="179">
       <c r="A179" s="1" t="n">
@@ -6289,18 +5753,15 @@
         <v>37.5124</v>
       </c>
       <c r="G179" t="n">
-        <v>346.6559684</v>
-      </c>
-      <c r="H179" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H179" t="inlineStr"/>
       <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
-      <c r="K179" t="inlineStr"/>
-      <c r="L179" t="n">
-        <v>1</v>
-      </c>
-      <c r="M179" t="inlineStr"/>
+      <c r="K179" t="n">
+        <v>1</v>
+      </c>
+      <c r="L179" t="inlineStr"/>
     </row>
     <row r="180">
       <c r="A180" s="1" t="n">
@@ -6322,18 +5783,15 @@
         <v>272.078</v>
       </c>
       <c r="G180" t="n">
-        <v>74.57796840000003</v>
-      </c>
-      <c r="H180" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H180" t="inlineStr"/>
       <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
-      <c r="K180" t="inlineStr"/>
-      <c r="L180" t="n">
-        <v>1</v>
-      </c>
-      <c r="M180" t="inlineStr"/>
+      <c r="K180" t="n">
+        <v>1</v>
+      </c>
+      <c r="L180" t="inlineStr"/>
     </row>
     <row r="181">
       <c r="A181" s="1" t="n">
@@ -6355,18 +5813,15 @@
         <v>3</v>
       </c>
       <c r="G181" t="n">
-        <v>74.57796840000003</v>
-      </c>
-      <c r="H181" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H181" t="inlineStr"/>
       <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
-      <c r="K181" t="inlineStr"/>
-      <c r="L181" t="n">
-        <v>1</v>
-      </c>
-      <c r="M181" t="inlineStr"/>
+      <c r="K181" t="n">
+        <v>1</v>
+      </c>
+      <c r="L181" t="inlineStr"/>
     </row>
     <row r="182">
       <c r="A182" s="1" t="n">
@@ -6388,18 +5843,15 @@
         <v>0.1</v>
       </c>
       <c r="G182" t="n">
-        <v>74.67796840000003</v>
-      </c>
-      <c r="H182" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H182" t="inlineStr"/>
       <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
-      <c r="K182" t="inlineStr"/>
-      <c r="L182" t="n">
-        <v>1</v>
-      </c>
-      <c r="M182" t="inlineStr"/>
+      <c r="K182" t="n">
+        <v>1</v>
+      </c>
+      <c r="L182" t="inlineStr"/>
     </row>
     <row r="183">
       <c r="A183" s="1" t="n">
@@ -6421,18 +5873,15 @@
         <v>9.997</v>
       </c>
       <c r="G183" t="n">
-        <v>64.68096840000003</v>
-      </c>
-      <c r="H183" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H183" t="inlineStr"/>
       <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr"/>
-      <c r="K183" t="inlineStr"/>
-      <c r="L183" t="n">
-        <v>1</v>
-      </c>
-      <c r="M183" t="inlineStr"/>
+      <c r="K183" t="n">
+        <v>1</v>
+      </c>
+      <c r="L183" t="inlineStr"/>
     </row>
     <row r="184">
       <c r="A184" s="1" t="n">
@@ -6454,18 +5903,15 @@
         <v>0.4807</v>
       </c>
       <c r="G184" t="n">
-        <v>64.20026840000003</v>
-      </c>
-      <c r="H184" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H184" t="inlineStr"/>
       <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr"/>
-      <c r="K184" t="inlineStr"/>
-      <c r="L184" t="n">
-        <v>1</v>
-      </c>
-      <c r="M184" t="inlineStr"/>
+      <c r="K184" t="n">
+        <v>1</v>
+      </c>
+      <c r="L184" t="inlineStr"/>
     </row>
     <row r="185">
       <c r="A185" s="1" t="n">
@@ -6487,18 +5933,15 @@
         <v>0.0646</v>
       </c>
       <c r="G185" t="n">
-        <v>64.26486840000003</v>
-      </c>
-      <c r="H185" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H185" t="inlineStr"/>
       <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr"/>
-      <c r="K185" t="inlineStr"/>
-      <c r="L185" t="n">
-        <v>1</v>
-      </c>
-      <c r="M185" t="inlineStr"/>
+      <c r="K185" t="n">
+        <v>1</v>
+      </c>
+      <c r="L185" t="inlineStr"/>
     </row>
     <row r="186">
       <c r="A186" s="1" t="n">
@@ -6520,18 +5963,15 @@
         <v>28.4566</v>
       </c>
       <c r="G186" t="n">
-        <v>35.80826840000002</v>
-      </c>
-      <c r="H186" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H186" t="inlineStr"/>
       <c r="I186" t="inlineStr"/>
       <c r="J186" t="inlineStr"/>
-      <c r="K186" t="inlineStr"/>
-      <c r="L186" t="n">
-        <v>1</v>
-      </c>
-      <c r="M186" t="inlineStr"/>
+      <c r="K186" t="n">
+        <v>1</v>
+      </c>
+      <c r="L186" t="inlineStr"/>
     </row>
     <row r="187">
       <c r="A187" s="1" t="n">
@@ -6553,18 +5993,15 @@
         <v>1.7164</v>
       </c>
       <c r="G187" t="n">
-        <v>35.80826840000002</v>
-      </c>
-      <c r="H187" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H187" t="inlineStr"/>
       <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
-      <c r="K187" t="inlineStr"/>
-      <c r="L187" t="n">
-        <v>1</v>
-      </c>
-      <c r="M187" t="inlineStr"/>
+      <c r="K187" t="n">
+        <v>1</v>
+      </c>
+      <c r="L187" t="inlineStr"/>
     </row>
     <row r="188">
       <c r="A188" s="1" t="n">
@@ -6586,18 +6023,15 @@
         <v>1.2408</v>
       </c>
       <c r="G188" t="n">
-        <v>37.04906840000002</v>
-      </c>
-      <c r="H188" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H188" t="inlineStr"/>
       <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr"/>
-      <c r="K188" t="inlineStr"/>
-      <c r="L188" t="n">
-        <v>1</v>
-      </c>
-      <c r="M188" t="inlineStr"/>
+      <c r="K188" t="n">
+        <v>1</v>
+      </c>
+      <c r="L188" t="inlineStr"/>
     </row>
     <row r="189">
       <c r="A189" s="1" t="n">
@@ -6619,18 +6053,15 @@
         <v>10.9984</v>
       </c>
       <c r="G189" t="n">
-        <v>26.05066840000002</v>
-      </c>
-      <c r="H189" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H189" t="inlineStr"/>
       <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr"/>
-      <c r="K189" t="inlineStr"/>
-      <c r="L189" t="n">
-        <v>1</v>
-      </c>
-      <c r="M189" t="inlineStr"/>
+      <c r="K189" t="n">
+        <v>1</v>
+      </c>
+      <c r="L189" t="inlineStr"/>
     </row>
     <row r="190">
       <c r="A190" s="1" t="n">
@@ -6652,18 +6083,15 @@
         <v>38.4599</v>
       </c>
       <c r="G190" t="n">
-        <v>26.05066840000002</v>
-      </c>
-      <c r="H190" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H190" t="inlineStr"/>
       <c r="I190" t="inlineStr"/>
       <c r="J190" t="inlineStr"/>
-      <c r="K190" t="inlineStr"/>
-      <c r="L190" t="n">
-        <v>1</v>
-      </c>
-      <c r="M190" t="inlineStr"/>
+      <c r="K190" t="n">
+        <v>1</v>
+      </c>
+      <c r="L190" t="inlineStr"/>
     </row>
     <row r="191">
       <c r="A191" s="1" t="n">
@@ -6685,18 +6113,15 @@
         <v>4.8765</v>
       </c>
       <c r="G191" t="n">
-        <v>26.05066840000002</v>
-      </c>
-      <c r="H191" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H191" t="inlineStr"/>
       <c r="I191" t="inlineStr"/>
       <c r="J191" t="inlineStr"/>
-      <c r="K191" t="inlineStr"/>
-      <c r="L191" t="n">
-        <v>1</v>
-      </c>
-      <c r="M191" t="inlineStr"/>
+      <c r="K191" t="n">
+        <v>1</v>
+      </c>
+      <c r="L191" t="inlineStr"/>
     </row>
     <row r="192">
       <c r="A192" s="1" t="n">
@@ -6718,18 +6143,15 @@
         <v>1.1507</v>
       </c>
       <c r="G192" t="n">
-        <v>26.05066840000002</v>
-      </c>
-      <c r="H192" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H192" t="inlineStr"/>
       <c r="I192" t="inlineStr"/>
       <c r="J192" t="inlineStr"/>
-      <c r="K192" t="inlineStr"/>
-      <c r="L192" t="n">
-        <v>1</v>
-      </c>
-      <c r="M192" t="inlineStr"/>
+      <c r="K192" t="n">
+        <v>1</v>
+      </c>
+      <c r="L192" t="inlineStr"/>
     </row>
     <row r="193">
       <c r="A193" s="1" t="n">
@@ -6751,18 +6173,15 @@
         <v>0.7193000000000001</v>
       </c>
       <c r="G193" t="n">
-        <v>26.05066840000002</v>
-      </c>
-      <c r="H193" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H193" t="inlineStr"/>
       <c r="I193" t="inlineStr"/>
       <c r="J193" t="inlineStr"/>
-      <c r="K193" t="inlineStr"/>
-      <c r="L193" t="n">
-        <v>1</v>
-      </c>
-      <c r="M193" t="inlineStr"/>
+      <c r="K193" t="n">
+        <v>1</v>
+      </c>
+      <c r="L193" t="inlineStr"/>
     </row>
     <row r="194">
       <c r="A194" s="1" t="n">
@@ -6784,18 +6203,15 @@
         <v>0.05</v>
       </c>
       <c r="G194" t="n">
-        <v>26.10066840000002</v>
-      </c>
-      <c r="H194" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H194" t="inlineStr"/>
       <c r="I194" t="inlineStr"/>
       <c r="J194" t="inlineStr"/>
-      <c r="K194" t="inlineStr"/>
-      <c r="L194" t="n">
-        <v>1</v>
-      </c>
-      <c r="M194" t="inlineStr"/>
+      <c r="K194" t="n">
+        <v>1</v>
+      </c>
+      <c r="L194" t="inlineStr"/>
     </row>
     <row r="195">
       <c r="A195" s="1" t="n">
@@ -6817,18 +6233,15 @@
         <v>1.16</v>
       </c>
       <c r="G195" t="n">
-        <v>24.94066840000002</v>
-      </c>
-      <c r="H195" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H195" t="inlineStr"/>
       <c r="I195" t="inlineStr"/>
       <c r="J195" t="inlineStr"/>
-      <c r="K195" t="inlineStr"/>
-      <c r="L195" t="n">
-        <v>1</v>
-      </c>
-      <c r="M195" t="inlineStr"/>
+      <c r="K195" t="n">
+        <v>1</v>
+      </c>
+      <c r="L195" t="inlineStr"/>
     </row>
     <row r="196">
       <c r="A196" s="1" t="n">
@@ -6850,18 +6263,15 @@
         <v>12.4622</v>
       </c>
       <c r="G196" t="n">
-        <v>24.94066840000002</v>
-      </c>
-      <c r="H196" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H196" t="inlineStr"/>
       <c r="I196" t="inlineStr"/>
       <c r="J196" t="inlineStr"/>
-      <c r="K196" t="inlineStr"/>
-      <c r="L196" t="n">
-        <v>1</v>
-      </c>
-      <c r="M196" t="inlineStr"/>
+      <c r="K196" t="n">
+        <v>1</v>
+      </c>
+      <c r="L196" t="inlineStr"/>
     </row>
     <row r="197">
       <c r="A197" s="1" t="n">
@@ -6883,18 +6293,15 @@
         <v>56.62475822</v>
       </c>
       <c r="G197" t="n">
-        <v>-31.68408981999997</v>
-      </c>
-      <c r="H197" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H197" t="inlineStr"/>
       <c r="I197" t="inlineStr"/>
       <c r="J197" t="inlineStr"/>
-      <c r="K197" t="inlineStr"/>
-      <c r="L197" t="n">
-        <v>1</v>
-      </c>
-      <c r="M197" t="inlineStr"/>
+      <c r="K197" t="n">
+        <v>1</v>
+      </c>
+      <c r="L197" t="inlineStr"/>
     </row>
     <row r="198">
       <c r="A198" s="1" t="n">
@@ -6916,18 +6323,15 @@
         <v>1.3244</v>
       </c>
       <c r="G198" t="n">
-        <v>-31.68408981999997</v>
-      </c>
-      <c r="H198" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H198" t="inlineStr"/>
       <c r="I198" t="inlineStr"/>
       <c r="J198" t="inlineStr"/>
-      <c r="K198" t="inlineStr"/>
-      <c r="L198" t="n">
-        <v>1</v>
-      </c>
-      <c r="M198" t="inlineStr"/>
+      <c r="K198" t="n">
+        <v>1</v>
+      </c>
+      <c r="L198" t="inlineStr"/>
     </row>
     <row r="199">
       <c r="A199" s="1" t="n">
@@ -6949,18 +6353,15 @@
         <v>5.9239</v>
       </c>
       <c r="G199" t="n">
-        <v>-37.60798981999997</v>
-      </c>
-      <c r="H199" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H199" t="inlineStr"/>
       <c r="I199" t="inlineStr"/>
       <c r="J199" t="inlineStr"/>
-      <c r="K199" t="inlineStr"/>
-      <c r="L199" t="n">
-        <v>1</v>
-      </c>
-      <c r="M199" t="inlineStr"/>
+      <c r="K199" t="n">
+        <v>1</v>
+      </c>
+      <c r="L199" t="inlineStr"/>
     </row>
     <row r="200">
       <c r="A200" s="1" t="n">
@@ -6982,18 +6383,15 @@
         <v>30.2567</v>
       </c>
       <c r="G200" t="n">
-        <v>-37.60798981999997</v>
-      </c>
-      <c r="H200" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H200" t="inlineStr"/>
       <c r="I200" t="inlineStr"/>
       <c r="J200" t="inlineStr"/>
-      <c r="K200" t="inlineStr"/>
-      <c r="L200" t="n">
-        <v>1</v>
-      </c>
-      <c r="M200" t="inlineStr"/>
+      <c r="K200" t="n">
+        <v>1</v>
+      </c>
+      <c r="L200" t="inlineStr"/>
     </row>
     <row r="201">
       <c r="A201" s="1" t="n">
@@ -7015,18 +6413,15 @@
         <v>0.05277909</v>
       </c>
       <c r="G201" t="n">
-        <v>-37.55521072999997</v>
-      </c>
-      <c r="H201" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H201" t="inlineStr"/>
       <c r="I201" t="inlineStr"/>
       <c r="J201" t="inlineStr"/>
-      <c r="K201" t="inlineStr"/>
-      <c r="L201" t="n">
-        <v>1</v>
-      </c>
-      <c r="M201" t="inlineStr"/>
+      <c r="K201" t="n">
+        <v>1</v>
+      </c>
+      <c r="L201" t="inlineStr"/>
     </row>
     <row r="202">
       <c r="A202" s="1" t="n">
@@ -7048,18 +6443,15 @@
         <v>1.5286</v>
       </c>
       <c r="G202" t="n">
-        <v>-39.08381072999997</v>
-      </c>
-      <c r="H202" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H202" t="inlineStr"/>
       <c r="I202" t="inlineStr"/>
       <c r="J202" t="inlineStr"/>
-      <c r="K202" t="inlineStr"/>
-      <c r="L202" t="n">
-        <v>1</v>
-      </c>
-      <c r="M202" t="inlineStr"/>
+      <c r="K202" t="n">
+        <v>1</v>
+      </c>
+      <c r="L202" t="inlineStr"/>
     </row>
     <row r="203">
       <c r="A203" s="1" t="n">
@@ -7081,18 +6473,15 @@
         <v>0.0872</v>
       </c>
       <c r="G203" t="n">
-        <v>-39.08381072999997</v>
-      </c>
-      <c r="H203" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H203" t="inlineStr"/>
       <c r="I203" t="inlineStr"/>
       <c r="J203" t="inlineStr"/>
-      <c r="K203" t="inlineStr"/>
-      <c r="L203" t="n">
-        <v>1</v>
-      </c>
-      <c r="M203" t="inlineStr"/>
+      <c r="K203" t="n">
+        <v>1</v>
+      </c>
+      <c r="L203" t="inlineStr"/>
     </row>
     <row r="204">
       <c r="A204" s="1" t="n">
@@ -7114,18 +6503,15 @@
         <v>2.158</v>
       </c>
       <c r="G204" t="n">
-        <v>-39.08381072999997</v>
-      </c>
-      <c r="H204" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H204" t="inlineStr"/>
       <c r="I204" t="inlineStr"/>
       <c r="J204" t="inlineStr"/>
-      <c r="K204" t="inlineStr"/>
-      <c r="L204" t="n">
-        <v>1</v>
-      </c>
-      <c r="M204" t="inlineStr"/>
+      <c r="K204" t="n">
+        <v>1</v>
+      </c>
+      <c r="L204" t="inlineStr"/>
     </row>
     <row r="205">
       <c r="A205" s="1" t="n">
@@ -7147,18 +6533,15 @@
         <v>5.8391</v>
       </c>
       <c r="G205" t="n">
-        <v>-44.92291072999997</v>
-      </c>
-      <c r="H205" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H205" t="inlineStr"/>
       <c r="I205" t="inlineStr"/>
       <c r="J205" t="inlineStr"/>
-      <c r="K205" t="inlineStr"/>
-      <c r="L205" t="n">
-        <v>1</v>
-      </c>
-      <c r="M205" t="inlineStr"/>
+      <c r="K205" t="n">
+        <v>1</v>
+      </c>
+      <c r="L205" t="inlineStr"/>
     </row>
     <row r="206">
       <c r="A206" s="1" t="n">
@@ -7180,18 +6563,15 @@
         <v>22.2024</v>
       </c>
       <c r="G206" t="n">
-        <v>-22.72051072999997</v>
-      </c>
-      <c r="H206" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H206" t="inlineStr"/>
       <c r="I206" t="inlineStr"/>
       <c r="J206" t="inlineStr"/>
-      <c r="K206" t="inlineStr"/>
-      <c r="L206" t="n">
-        <v>1</v>
-      </c>
-      <c r="M206" t="inlineStr"/>
+      <c r="K206" t="n">
+        <v>1</v>
+      </c>
+      <c r="L206" t="inlineStr"/>
     </row>
     <row r="207">
       <c r="A207" s="1" t="n">
@@ -7213,18 +6593,15 @@
         <v>0.1592</v>
       </c>
       <c r="G207" t="n">
-        <v>-22.56131072999997</v>
-      </c>
-      <c r="H207" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H207" t="inlineStr"/>
       <c r="I207" t="inlineStr"/>
       <c r="J207" t="inlineStr"/>
-      <c r="K207" t="inlineStr"/>
-      <c r="L207" t="n">
-        <v>1</v>
-      </c>
-      <c r="M207" t="inlineStr"/>
+      <c r="K207" t="n">
+        <v>1</v>
+      </c>
+      <c r="L207" t="inlineStr"/>
     </row>
     <row r="208">
       <c r="A208" s="1" t="n">
@@ -7246,18 +6623,15 @@
         <v>2.341</v>
       </c>
       <c r="G208" t="n">
-        <v>-24.90231072999997</v>
-      </c>
-      <c r="H208" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H208" t="inlineStr"/>
       <c r="I208" t="inlineStr"/>
       <c r="J208" t="inlineStr"/>
-      <c r="K208" t="inlineStr"/>
-      <c r="L208" t="n">
-        <v>1</v>
-      </c>
-      <c r="M208" t="inlineStr"/>
+      <c r="K208" t="n">
+        <v>1</v>
+      </c>
+      <c r="L208" t="inlineStr"/>
     </row>
     <row r="209">
       <c r="A209" s="1" t="n">
@@ -7279,18 +6653,15 @@
         <v>0.9184</v>
       </c>
       <c r="G209" t="n">
-        <v>-25.82071072999997</v>
-      </c>
-      <c r="H209" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H209" t="inlineStr"/>
       <c r="I209" t="inlineStr"/>
       <c r="J209" t="inlineStr"/>
-      <c r="K209" t="inlineStr"/>
-      <c r="L209" t="n">
-        <v>1</v>
-      </c>
-      <c r="M209" t="inlineStr"/>
+      <c r="K209" t="n">
+        <v>1</v>
+      </c>
+      <c r="L209" t="inlineStr"/>
     </row>
     <row r="210">
       <c r="A210" s="1" t="n">
@@ -7312,18 +6683,15 @@
         <v>17.1044</v>
       </c>
       <c r="G210" t="n">
-        <v>-25.82071072999997</v>
-      </c>
-      <c r="H210" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H210" t="inlineStr"/>
       <c r="I210" t="inlineStr"/>
       <c r="J210" t="inlineStr"/>
-      <c r="K210" t="inlineStr"/>
-      <c r="L210" t="n">
-        <v>1</v>
-      </c>
-      <c r="M210" t="inlineStr"/>
+      <c r="K210" t="n">
+        <v>1</v>
+      </c>
+      <c r="L210" t="inlineStr"/>
     </row>
     <row r="211">
       <c r="A211" s="1" t="n">
@@ -7345,18 +6713,15 @@
         <v>107.8064</v>
       </c>
       <c r="G211" t="n">
-        <v>-25.82071072999997</v>
-      </c>
-      <c r="H211" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H211" t="inlineStr"/>
       <c r="I211" t="inlineStr"/>
       <c r="J211" t="inlineStr"/>
-      <c r="K211" t="inlineStr"/>
-      <c r="L211" t="n">
-        <v>1</v>
-      </c>
-      <c r="M211" t="inlineStr"/>
+      <c r="K211" t="n">
+        <v>1</v>
+      </c>
+      <c r="L211" t="inlineStr"/>
     </row>
     <row r="212">
       <c r="A212" s="1" t="n">
@@ -7378,18 +6743,15 @@
         <v>0.3965107</v>
       </c>
       <c r="G212" t="n">
-        <v>-25.42420002999997</v>
-      </c>
-      <c r="H212" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H212" t="inlineStr"/>
       <c r="I212" t="inlineStr"/>
       <c r="J212" t="inlineStr"/>
-      <c r="K212" t="inlineStr"/>
-      <c r="L212" t="n">
-        <v>1</v>
-      </c>
-      <c r="M212" t="inlineStr"/>
+      <c r="K212" t="n">
+        <v>1</v>
+      </c>
+      <c r="L212" t="inlineStr"/>
     </row>
     <row r="213">
       <c r="A213" s="1" t="n">
@@ -7411,18 +6773,15 @@
         <v>6.49</v>
       </c>
       <c r="G213" t="n">
-        <v>-31.91420002999997</v>
-      </c>
-      <c r="H213" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H213" t="inlineStr"/>
       <c r="I213" t="inlineStr"/>
       <c r="J213" t="inlineStr"/>
-      <c r="K213" t="inlineStr"/>
-      <c r="L213" t="n">
-        <v>1</v>
-      </c>
-      <c r="M213" t="inlineStr"/>
+      <c r="K213" t="n">
+        <v>1</v>
+      </c>
+      <c r="L213" t="inlineStr"/>
     </row>
     <row r="214">
       <c r="A214" s="1" t="n">
@@ -7444,18 +6803,15 @@
         <v>2.6862</v>
       </c>
       <c r="G214" t="n">
-        <v>-31.91420002999997</v>
-      </c>
-      <c r="H214" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H214" t="inlineStr"/>
       <c r="I214" t="inlineStr"/>
       <c r="J214" t="inlineStr"/>
-      <c r="K214" t="inlineStr"/>
-      <c r="L214" t="n">
-        <v>1</v>
-      </c>
-      <c r="M214" t="inlineStr"/>
+      <c r="K214" t="n">
+        <v>1</v>
+      </c>
+      <c r="L214" t="inlineStr"/>
     </row>
     <row r="215">
       <c r="A215" s="1" t="n">
@@ -7477,18 +6833,15 @@
         <v>6.73</v>
       </c>
       <c r="G215" t="n">
-        <v>-31.91420002999997</v>
-      </c>
-      <c r="H215" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H215" t="inlineStr"/>
       <c r="I215" t="inlineStr"/>
       <c r="J215" t="inlineStr"/>
-      <c r="K215" t="inlineStr"/>
-      <c r="L215" t="n">
-        <v>1</v>
-      </c>
-      <c r="M215" t="inlineStr"/>
+      <c r="K215" t="n">
+        <v>1</v>
+      </c>
+      <c r="L215" t="inlineStr"/>
     </row>
     <row r="216">
       <c r="A216" s="1" t="n">
@@ -7510,18 +6863,15 @@
         <v>3.977</v>
       </c>
       <c r="G216" t="n">
-        <v>-31.91420002999997</v>
-      </c>
-      <c r="H216" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H216" t="inlineStr"/>
       <c r="I216" t="inlineStr"/>
       <c r="J216" t="inlineStr"/>
-      <c r="K216" t="inlineStr"/>
-      <c r="L216" t="n">
-        <v>1</v>
-      </c>
-      <c r="M216" t="inlineStr"/>
+      <c r="K216" t="n">
+        <v>1</v>
+      </c>
+      <c r="L216" t="inlineStr"/>
     </row>
     <row r="217">
       <c r="A217" s="1" t="n">
@@ -7543,18 +6893,15 @@
         <v>21.7067</v>
       </c>
       <c r="G217" t="n">
-        <v>-10.20750002999997</v>
-      </c>
-      <c r="H217" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H217" t="inlineStr"/>
       <c r="I217" t="inlineStr"/>
       <c r="J217" t="inlineStr"/>
-      <c r="K217" t="inlineStr"/>
-      <c r="L217" t="n">
-        <v>1</v>
-      </c>
-      <c r="M217" t="inlineStr"/>
+      <c r="K217" t="n">
+        <v>1</v>
+      </c>
+      <c r="L217" t="inlineStr"/>
     </row>
     <row r="218">
       <c r="A218" s="1" t="n">
@@ -7576,18 +6923,15 @@
         <v>29.4653</v>
       </c>
       <c r="G218" t="n">
-        <v>19.25779997000003</v>
-      </c>
-      <c r="H218" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H218" t="inlineStr"/>
       <c r="I218" t="inlineStr"/>
       <c r="J218" t="inlineStr"/>
-      <c r="K218" t="inlineStr"/>
-      <c r="L218" t="n">
-        <v>1</v>
-      </c>
-      <c r="M218" t="inlineStr"/>
+      <c r="K218" t="n">
+        <v>1</v>
+      </c>
+      <c r="L218" t="inlineStr"/>
     </row>
     <row r="219">
       <c r="A219" s="1" t="n">
@@ -7609,18 +6953,15 @@
         <v>19.7386</v>
       </c>
       <c r="G219" t="n">
-        <v>19.25779997000003</v>
-      </c>
-      <c r="H219" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H219" t="inlineStr"/>
       <c r="I219" t="inlineStr"/>
       <c r="J219" t="inlineStr"/>
-      <c r="K219" t="inlineStr"/>
-      <c r="L219" t="n">
-        <v>1</v>
-      </c>
-      <c r="M219" t="inlineStr"/>
+      <c r="K219" t="n">
+        <v>1</v>
+      </c>
+      <c r="L219" t="inlineStr"/>
     </row>
     <row r="220">
       <c r="A220" s="1" t="n">
@@ -7642,18 +6983,15 @@
         <v>55.2473</v>
       </c>
       <c r="G220" t="n">
-        <v>-35.98950002999997</v>
-      </c>
-      <c r="H220" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H220" t="inlineStr"/>
       <c r="I220" t="inlineStr"/>
       <c r="J220" t="inlineStr"/>
-      <c r="K220" t="inlineStr"/>
-      <c r="L220" t="n">
-        <v>1</v>
-      </c>
-      <c r="M220" t="inlineStr"/>
+      <c r="K220" t="n">
+        <v>1</v>
+      </c>
+      <c r="L220" t="inlineStr"/>
     </row>
     <row r="221">
       <c r="A221" s="1" t="n">
@@ -7675,18 +7013,15 @@
         <v>9.976800000000001</v>
       </c>
       <c r="G221" t="n">
-        <v>-35.98950002999997</v>
-      </c>
-      <c r="H221" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H221" t="inlineStr"/>
       <c r="I221" t="inlineStr"/>
       <c r="J221" t="inlineStr"/>
-      <c r="K221" t="inlineStr"/>
-      <c r="L221" t="n">
-        <v>1</v>
-      </c>
-      <c r="M221" t="inlineStr"/>
+      <c r="K221" t="n">
+        <v>1</v>
+      </c>
+      <c r="L221" t="inlineStr"/>
     </row>
     <row r="222">
       <c r="A222" s="1" t="n">
@@ -7708,18 +7043,15 @@
         <v>39.9732</v>
       </c>
       <c r="G222" t="n">
-        <v>-75.96270002999998</v>
-      </c>
-      <c r="H222" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H222" t="inlineStr"/>
       <c r="I222" t="inlineStr"/>
       <c r="J222" t="inlineStr"/>
-      <c r="K222" t="inlineStr"/>
-      <c r="L222" t="n">
-        <v>1</v>
-      </c>
-      <c r="M222" t="inlineStr"/>
+      <c r="K222" t="n">
+        <v>1</v>
+      </c>
+      <c r="L222" t="inlineStr"/>
     </row>
     <row r="223">
       <c r="A223" s="1" t="n">
@@ -7741,18 +7073,15 @@
         <v>0.01760697</v>
       </c>
       <c r="G223" t="n">
-        <v>-75.94509305999998</v>
-      </c>
-      <c r="H223" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H223" t="inlineStr"/>
       <c r="I223" t="inlineStr"/>
       <c r="J223" t="inlineStr"/>
-      <c r="K223" t="inlineStr"/>
-      <c r="L223" t="n">
-        <v>1</v>
-      </c>
-      <c r="M223" t="inlineStr"/>
+      <c r="K223" t="n">
+        <v>1</v>
+      </c>
+      <c r="L223" t="inlineStr"/>
     </row>
     <row r="224">
       <c r="A224" s="1" t="n">
@@ -7774,18 +7103,15 @@
         <v>7.3162</v>
       </c>
       <c r="G224" t="n">
-        <v>-83.26129305999997</v>
-      </c>
-      <c r="H224" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H224" t="inlineStr"/>
       <c r="I224" t="inlineStr"/>
       <c r="J224" t="inlineStr"/>
-      <c r="K224" t="inlineStr"/>
-      <c r="L224" t="n">
-        <v>1</v>
-      </c>
-      <c r="M224" t="inlineStr"/>
+      <c r="K224" t="n">
+        <v>1</v>
+      </c>
+      <c r="L224" t="inlineStr"/>
     </row>
     <row r="225">
       <c r="A225" s="1" t="n">
@@ -7807,18 +7133,15 @@
         <v>2.0849</v>
       </c>
       <c r="G225" t="n">
-        <v>-85.34619305999998</v>
-      </c>
-      <c r="H225" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H225" t="inlineStr"/>
       <c r="I225" t="inlineStr"/>
       <c r="J225" t="inlineStr"/>
-      <c r="K225" t="inlineStr"/>
-      <c r="L225" t="n">
-        <v>1</v>
-      </c>
-      <c r="M225" t="inlineStr"/>
+      <c r="K225" t="n">
+        <v>1</v>
+      </c>
+      <c r="L225" t="inlineStr"/>
     </row>
     <row r="226">
       <c r="A226" s="1" t="n">
@@ -7840,18 +7163,15 @@
         <v>0.799</v>
       </c>
       <c r="G226" t="n">
-        <v>-84.54719305999997</v>
-      </c>
-      <c r="H226" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H226" t="inlineStr"/>
       <c r="I226" t="inlineStr"/>
       <c r="J226" t="inlineStr"/>
-      <c r="K226" t="inlineStr"/>
-      <c r="L226" t="n">
-        <v>1</v>
-      </c>
-      <c r="M226" t="inlineStr"/>
+      <c r="K226" t="n">
+        <v>1</v>
+      </c>
+      <c r="L226" t="inlineStr"/>
     </row>
     <row r="227">
       <c r="A227" s="1" t="n">
@@ -7873,18 +7193,15 @@
         <v>4.6269</v>
       </c>
       <c r="G227" t="n">
-        <v>-89.17409305999998</v>
-      </c>
-      <c r="H227" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H227" t="inlineStr"/>
       <c r="I227" t="inlineStr"/>
       <c r="J227" t="inlineStr"/>
-      <c r="K227" t="inlineStr"/>
-      <c r="L227" t="n">
-        <v>1</v>
-      </c>
-      <c r="M227" t="inlineStr"/>
+      <c r="K227" t="n">
+        <v>1</v>
+      </c>
+      <c r="L227" t="inlineStr"/>
     </row>
     <row r="228">
       <c r="A228" s="1" t="n">
@@ -7906,18 +7223,15 @@
         <v>3.1277</v>
       </c>
       <c r="G228" t="n">
-        <v>-86.04639305999997</v>
-      </c>
-      <c r="H228" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H228" t="inlineStr"/>
       <c r="I228" t="inlineStr"/>
       <c r="J228" t="inlineStr"/>
-      <c r="K228" t="inlineStr"/>
-      <c r="L228" t="n">
-        <v>1</v>
-      </c>
-      <c r="M228" t="inlineStr"/>
+      <c r="K228" t="n">
+        <v>1</v>
+      </c>
+      <c r="L228" t="inlineStr"/>
     </row>
     <row r="229">
       <c r="A229" s="1" t="n">
@@ -7939,18 +7253,15 @@
         <v>2.6958</v>
       </c>
       <c r="G229" t="n">
-        <v>-88.74219305999998</v>
-      </c>
-      <c r="H229" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H229" t="inlineStr"/>
       <c r="I229" t="inlineStr"/>
       <c r="J229" t="inlineStr"/>
-      <c r="K229" t="inlineStr"/>
-      <c r="L229" t="n">
-        <v>1</v>
-      </c>
-      <c r="M229" t="inlineStr"/>
+      <c r="K229" t="n">
+        <v>1</v>
+      </c>
+      <c r="L229" t="inlineStr"/>
     </row>
     <row r="230">
       <c r="A230" s="1" t="n">
@@ -7972,18 +7283,15 @@
         <v>6.8851</v>
       </c>
       <c r="G230" t="n">
-        <v>-88.74219305999998</v>
-      </c>
-      <c r="H230" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H230" t="inlineStr"/>
       <c r="I230" t="inlineStr"/>
       <c r="J230" t="inlineStr"/>
-      <c r="K230" t="inlineStr"/>
-      <c r="L230" t="n">
-        <v>1</v>
-      </c>
-      <c r="M230" t="inlineStr"/>
+      <c r="K230" t="n">
+        <v>1</v>
+      </c>
+      <c r="L230" t="inlineStr"/>
     </row>
     <row r="231">
       <c r="A231" s="1" t="n">
@@ -8005,18 +7313,15 @@
         <v>1.8393</v>
       </c>
       <c r="G231" t="n">
-        <v>-88.74219305999998</v>
-      </c>
-      <c r="H231" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H231" t="inlineStr"/>
       <c r="I231" t="inlineStr"/>
       <c r="J231" t="inlineStr"/>
-      <c r="K231" t="inlineStr"/>
-      <c r="L231" t="n">
-        <v>1</v>
-      </c>
-      <c r="M231" t="inlineStr"/>
+      <c r="K231" t="n">
+        <v>1</v>
+      </c>
+      <c r="L231" t="inlineStr"/>
     </row>
     <row r="232">
       <c r="A232" s="1" t="n">
@@ -8038,18 +7343,15 @@
         <v>14.4191</v>
       </c>
       <c r="G232" t="n">
-        <v>-88.74219305999998</v>
-      </c>
-      <c r="H232" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H232" t="inlineStr"/>
       <c r="I232" t="inlineStr"/>
       <c r="J232" t="inlineStr"/>
-      <c r="K232" t="inlineStr"/>
-      <c r="L232" t="n">
-        <v>1</v>
-      </c>
-      <c r="M232" t="inlineStr"/>
+      <c r="K232" t="n">
+        <v>1</v>
+      </c>
+      <c r="L232" t="inlineStr"/>
     </row>
     <row r="233">
       <c r="A233" s="1" t="n">
@@ -8071,18 +7373,15 @@
         <v>0.7402</v>
       </c>
       <c r="G233" t="n">
-        <v>-88.00199305999998</v>
-      </c>
-      <c r="H233" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H233" t="inlineStr"/>
       <c r="I233" t="inlineStr"/>
       <c r="J233" t="inlineStr"/>
-      <c r="K233" t="inlineStr"/>
-      <c r="L233" t="n">
-        <v>1</v>
-      </c>
-      <c r="M233" t="inlineStr"/>
+      <c r="K233" t="n">
+        <v>1</v>
+      </c>
+      <c r="L233" t="inlineStr"/>
     </row>
     <row r="234">
       <c r="A234" s="1" t="n">
@@ -8104,18 +7403,15 @@
         <v>0.3843</v>
       </c>
       <c r="G234" t="n">
-        <v>-88.00199305999998</v>
-      </c>
-      <c r="H234" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H234" t="inlineStr"/>
       <c r="I234" t="inlineStr"/>
       <c r="J234" t="inlineStr"/>
-      <c r="K234" t="inlineStr"/>
-      <c r="L234" t="n">
-        <v>1</v>
-      </c>
-      <c r="M234" t="inlineStr"/>
+      <c r="K234" t="n">
+        <v>1</v>
+      </c>
+      <c r="L234" t="inlineStr"/>
     </row>
     <row r="235">
       <c r="A235" s="1" t="n">
@@ -8137,18 +7433,15 @@
         <v>16.552</v>
       </c>
       <c r="G235" t="n">
-        <v>-104.55399306</v>
-      </c>
-      <c r="H235" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H235" t="inlineStr"/>
       <c r="I235" t="inlineStr"/>
       <c r="J235" t="inlineStr"/>
-      <c r="K235" t="inlineStr"/>
-      <c r="L235" t="n">
-        <v>1</v>
-      </c>
-      <c r="M235" t="inlineStr"/>
+      <c r="K235" t="n">
+        <v>1</v>
+      </c>
+      <c r="L235" t="inlineStr"/>
     </row>
     <row r="236">
       <c r="A236" s="1" t="n">
@@ -8170,18 +7463,15 @@
         <v>91.6262</v>
       </c>
       <c r="G236" t="n">
-        <v>-196.18019306</v>
-      </c>
-      <c r="H236" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H236" t="inlineStr"/>
       <c r="I236" t="inlineStr"/>
       <c r="J236" t="inlineStr"/>
-      <c r="K236" t="inlineStr"/>
-      <c r="L236" t="n">
-        <v>1</v>
-      </c>
-      <c r="M236" t="inlineStr"/>
+      <c r="K236" t="n">
+        <v>1</v>
+      </c>
+      <c r="L236" t="inlineStr"/>
     </row>
     <row r="237">
       <c r="A237" s="1" t="n">
@@ -8203,18 +7493,15 @@
         <v>18.2837</v>
       </c>
       <c r="G237" t="n">
-        <v>-196.18019306</v>
-      </c>
-      <c r="H237" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H237" t="inlineStr"/>
       <c r="I237" t="inlineStr"/>
       <c r="J237" t="inlineStr"/>
-      <c r="K237" t="inlineStr"/>
-      <c r="L237" t="n">
-        <v>1</v>
-      </c>
-      <c r="M237" t="inlineStr"/>
+      <c r="K237" t="n">
+        <v>1</v>
+      </c>
+      <c r="L237" t="inlineStr"/>
     </row>
     <row r="238">
       <c r="A238" s="1" t="n">
@@ -8236,18 +7523,15 @@
         <v>57.7636</v>
       </c>
       <c r="G238" t="n">
-        <v>-196.18019306</v>
-      </c>
-      <c r="H238" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H238" t="inlineStr"/>
       <c r="I238" t="inlineStr"/>
       <c r="J238" t="inlineStr"/>
-      <c r="K238" t="inlineStr"/>
-      <c r="L238" t="n">
-        <v>1</v>
-      </c>
-      <c r="M238" t="inlineStr"/>
+      <c r="K238" t="n">
+        <v>1</v>
+      </c>
+      <c r="L238" t="inlineStr"/>
     </row>
     <row r="239">
       <c r="A239" s="1" t="n">
@@ -8269,18 +7553,15 @@
         <v>0.01799682</v>
       </c>
       <c r="G239" t="n">
-        <v>-196.16219624</v>
-      </c>
-      <c r="H239" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H239" t="inlineStr"/>
       <c r="I239" t="inlineStr"/>
       <c r="J239" t="inlineStr"/>
-      <c r="K239" t="inlineStr"/>
-      <c r="L239" t="n">
-        <v>1</v>
-      </c>
-      <c r="M239" t="inlineStr"/>
+      <c r="K239" t="n">
+        <v>1</v>
+      </c>
+      <c r="L239" t="inlineStr"/>
     </row>
     <row r="240">
       <c r="A240" s="1" t="n">
@@ -8302,18 +7583,15 @@
         <v>0.15</v>
       </c>
       <c r="G240" t="n">
-        <v>-196.16219624</v>
-      </c>
-      <c r="H240" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H240" t="inlineStr"/>
       <c r="I240" t="inlineStr"/>
       <c r="J240" t="inlineStr"/>
-      <c r="K240" t="inlineStr"/>
-      <c r="L240" t="n">
-        <v>1</v>
-      </c>
-      <c r="M240" t="inlineStr"/>
+      <c r="K240" t="n">
+        <v>1</v>
+      </c>
+      <c r="L240" t="inlineStr"/>
     </row>
     <row r="241">
       <c r="A241" s="1" t="n">
@@ -8335,18 +7613,15 @@
         <v>29.7144</v>
       </c>
       <c r="G241" t="n">
-        <v>-166.4477962399999</v>
-      </c>
-      <c r="H241" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H241" t="inlineStr"/>
       <c r="I241" t="inlineStr"/>
       <c r="J241" t="inlineStr"/>
-      <c r="K241" t="inlineStr"/>
-      <c r="L241" t="n">
-        <v>1</v>
-      </c>
-      <c r="M241" t="inlineStr"/>
+      <c r="K241" t="n">
+        <v>1</v>
+      </c>
+      <c r="L241" t="inlineStr"/>
     </row>
     <row r="242">
       <c r="A242" s="1" t="n">
@@ -8368,18 +7643,15 @@
         <v>1.2056</v>
       </c>
       <c r="G242" t="n">
-        <v>-165.2421962399999</v>
-      </c>
-      <c r="H242" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H242" t="inlineStr"/>
       <c r="I242" t="inlineStr"/>
       <c r="J242" t="inlineStr"/>
-      <c r="K242" t="inlineStr"/>
-      <c r="L242" t="n">
-        <v>1</v>
-      </c>
-      <c r="M242" t="inlineStr"/>
+      <c r="K242" t="n">
+        <v>1</v>
+      </c>
+      <c r="L242" t="inlineStr"/>
     </row>
     <row r="243">
       <c r="A243" s="1" t="n">
@@ -8401,18 +7673,15 @@
         <v>53.6806</v>
       </c>
       <c r="G243" t="n">
-        <v>-111.5615962399999</v>
-      </c>
-      <c r="H243" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H243" t="inlineStr"/>
       <c r="I243" t="inlineStr"/>
       <c r="J243" t="inlineStr"/>
-      <c r="K243" t="inlineStr"/>
-      <c r="L243" t="n">
-        <v>1</v>
-      </c>
-      <c r="M243" t="inlineStr"/>
+      <c r="K243" t="n">
+        <v>1</v>
+      </c>
+      <c r="L243" t="inlineStr"/>
     </row>
     <row r="244">
       <c r="A244" s="1" t="n">
@@ -8434,18 +7703,15 @@
         <v>41.7798</v>
       </c>
       <c r="G244" t="n">
-        <v>-69.78179623999995</v>
-      </c>
-      <c r="H244" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H244" t="inlineStr"/>
       <c r="I244" t="inlineStr"/>
       <c r="J244" t="inlineStr"/>
-      <c r="K244" t="inlineStr"/>
-      <c r="L244" t="n">
-        <v>1</v>
-      </c>
-      <c r="M244" t="inlineStr"/>
+      <c r="K244" t="n">
+        <v>1</v>
+      </c>
+      <c r="L244" t="inlineStr"/>
     </row>
     <row r="245">
       <c r="A245" s="1" t="n">
@@ -8467,18 +7733,15 @@
         <v>5.262</v>
       </c>
       <c r="G245" t="n">
-        <v>-64.51979623999995</v>
-      </c>
-      <c r="H245" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H245" t="inlineStr"/>
       <c r="I245" t="inlineStr"/>
       <c r="J245" t="inlineStr"/>
-      <c r="K245" t="inlineStr"/>
-      <c r="L245" t="n">
-        <v>1</v>
-      </c>
-      <c r="M245" t="inlineStr"/>
+      <c r="K245" t="n">
+        <v>1</v>
+      </c>
+      <c r="L245" t="inlineStr"/>
     </row>
     <row r="246">
       <c r="A246" s="1" t="n">
@@ -8500,18 +7763,15 @@
         <v>43.1608</v>
       </c>
       <c r="G246" t="n">
-        <v>-64.51979623999995</v>
-      </c>
-      <c r="H246" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H246" t="inlineStr"/>
       <c r="I246" t="inlineStr"/>
       <c r="J246" t="inlineStr"/>
-      <c r="K246" t="inlineStr"/>
-      <c r="L246" t="n">
-        <v>1</v>
-      </c>
-      <c r="M246" t="inlineStr"/>
+      <c r="K246" t="n">
+        <v>1</v>
+      </c>
+      <c r="L246" t="inlineStr"/>
     </row>
     <row r="247">
       <c r="A247" s="1" t="n">
@@ -8533,18 +7793,15 @@
         <v>0.524</v>
       </c>
       <c r="G247" t="n">
-        <v>-64.51979623999995</v>
-      </c>
-      <c r="H247" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H247" t="inlineStr"/>
       <c r="I247" t="inlineStr"/>
       <c r="J247" t="inlineStr"/>
-      <c r="K247" t="inlineStr"/>
-      <c r="L247" t="n">
-        <v>1</v>
-      </c>
-      <c r="M247" t="inlineStr"/>
+      <c r="K247" t="n">
+        <v>1</v>
+      </c>
+      <c r="L247" t="inlineStr"/>
     </row>
     <row r="248">
       <c r="A248" s="1" t="n">
@@ -8566,18 +7823,15 @@
         <v>0.3368</v>
       </c>
       <c r="G248" t="n">
-        <v>-64.51979623999995</v>
-      </c>
-      <c r="H248" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H248" t="inlineStr"/>
       <c r="I248" t="inlineStr"/>
       <c r="J248" t="inlineStr"/>
-      <c r="K248" t="inlineStr"/>
-      <c r="L248" t="n">
-        <v>1</v>
-      </c>
-      <c r="M248" t="inlineStr"/>
+      <c r="K248" t="n">
+        <v>1</v>
+      </c>
+      <c r="L248" t="inlineStr"/>
     </row>
     <row r="249">
       <c r="A249" s="1" t="n">
@@ -8599,18 +7853,15 @@
         <v>3.7271</v>
       </c>
       <c r="G249" t="n">
-        <v>-64.51979623999995</v>
-      </c>
-      <c r="H249" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H249" t="inlineStr"/>
       <c r="I249" t="inlineStr"/>
       <c r="J249" t="inlineStr"/>
-      <c r="K249" t="inlineStr"/>
-      <c r="L249" t="n">
-        <v>1</v>
-      </c>
-      <c r="M249" t="inlineStr"/>
+      <c r="K249" t="n">
+        <v>1</v>
+      </c>
+      <c r="L249" t="inlineStr"/>
     </row>
     <row r="250">
       <c r="A250" s="1" t="n">
@@ -8632,18 +7883,15 @@
         <v>46.5394</v>
       </c>
       <c r="G250" t="n">
-        <v>-111.0591962399999</v>
-      </c>
-      <c r="H250" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H250" t="inlineStr"/>
       <c r="I250" t="inlineStr"/>
       <c r="J250" t="inlineStr"/>
-      <c r="K250" t="inlineStr"/>
-      <c r="L250" t="n">
-        <v>1</v>
-      </c>
-      <c r="M250" t="inlineStr"/>
+      <c r="K250" t="n">
+        <v>1</v>
+      </c>
+      <c r="L250" t="inlineStr"/>
     </row>
     <row r="251">
       <c r="A251" s="1" t="n">
@@ -8665,18 +7913,15 @@
         <v>1.0863</v>
       </c>
       <c r="G251" t="n">
-        <v>-109.97289624</v>
-      </c>
-      <c r="H251" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H251" t="inlineStr"/>
       <c r="I251" t="inlineStr"/>
       <c r="J251" t="inlineStr"/>
-      <c r="K251" t="inlineStr"/>
-      <c r="L251" t="n">
-        <v>1</v>
-      </c>
-      <c r="M251" t="inlineStr"/>
+      <c r="K251" t="n">
+        <v>1</v>
+      </c>
+      <c r="L251" t="inlineStr"/>
     </row>
     <row r="252">
       <c r="A252" s="1" t="n">
@@ -8698,18 +7943,15 @@
         <v>0.7544</v>
       </c>
       <c r="G252" t="n">
-        <v>-109.97289624</v>
-      </c>
-      <c r="H252" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H252" t="inlineStr"/>
       <c r="I252" t="inlineStr"/>
       <c r="J252" t="inlineStr"/>
-      <c r="K252" t="inlineStr"/>
-      <c r="L252" t="n">
-        <v>1</v>
-      </c>
-      <c r="M252" t="inlineStr"/>
+      <c r="K252" t="n">
+        <v>1</v>
+      </c>
+      <c r="L252" t="inlineStr"/>
     </row>
     <row r="253">
       <c r="A253" s="1" t="n">
@@ -8731,18 +7973,15 @@
         <v>21.388</v>
       </c>
       <c r="G253" t="n">
-        <v>-88.58489623999995</v>
-      </c>
-      <c r="H253" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H253" t="inlineStr"/>
       <c r="I253" t="inlineStr"/>
       <c r="J253" t="inlineStr"/>
-      <c r="K253" t="inlineStr"/>
-      <c r="L253" t="n">
-        <v>1</v>
-      </c>
-      <c r="M253" t="inlineStr"/>
+      <c r="K253" t="n">
+        <v>1</v>
+      </c>
+      <c r="L253" t="inlineStr"/>
     </row>
     <row r="254">
       <c r="A254" s="1" t="n">
@@ -8764,18 +8003,15 @@
         <v>22.7466</v>
       </c>
       <c r="G254" t="n">
-        <v>-88.58489623999995</v>
-      </c>
-      <c r="H254" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H254" t="inlineStr"/>
       <c r="I254" t="inlineStr"/>
       <c r="J254" t="inlineStr"/>
-      <c r="K254" t="inlineStr"/>
-      <c r="L254" t="n">
-        <v>1</v>
-      </c>
-      <c r="M254" t="inlineStr"/>
+      <c r="K254" t="n">
+        <v>1</v>
+      </c>
+      <c r="L254" t="inlineStr"/>
     </row>
     <row r="255">
       <c r="A255" s="1" t="n">
@@ -8797,18 +8033,15 @@
         <v>0.04458135</v>
       </c>
       <c r="G255" t="n">
-        <v>-88.58489623999995</v>
-      </c>
-      <c r="H255" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H255" t="inlineStr"/>
       <c r="I255" t="inlineStr"/>
       <c r="J255" t="inlineStr"/>
-      <c r="K255" t="inlineStr"/>
-      <c r="L255" t="n">
-        <v>1</v>
-      </c>
-      <c r="M255" t="inlineStr"/>
+      <c r="K255" t="n">
+        <v>1</v>
+      </c>
+      <c r="L255" t="inlineStr"/>
     </row>
     <row r="256">
       <c r="A256" s="1" t="n">
@@ -8830,18 +8063,15 @@
         <v>0.15853196</v>
       </c>
       <c r="G256" t="n">
-        <v>-88.42636427999994</v>
-      </c>
-      <c r="H256" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H256" t="inlineStr"/>
       <c r="I256" t="inlineStr"/>
       <c r="J256" t="inlineStr"/>
-      <c r="K256" t="inlineStr"/>
-      <c r="L256" t="n">
-        <v>1</v>
-      </c>
-      <c r="M256" t="inlineStr"/>
+      <c r="K256" t="n">
+        <v>1</v>
+      </c>
+      <c r="L256" t="inlineStr"/>
     </row>
     <row r="257">
       <c r="A257" s="1" t="n">
@@ -8863,18 +8093,15 @@
         <v>0.3847</v>
       </c>
       <c r="G257" t="n">
-        <v>-88.81106427999994</v>
-      </c>
-      <c r="H257" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H257" t="inlineStr"/>
       <c r="I257" t="inlineStr"/>
       <c r="J257" t="inlineStr"/>
-      <c r="K257" t="inlineStr"/>
-      <c r="L257" t="n">
-        <v>1</v>
-      </c>
-      <c r="M257" t="inlineStr"/>
+      <c r="K257" t="n">
+        <v>1</v>
+      </c>
+      <c r="L257" t="inlineStr"/>
     </row>
     <row r="258">
       <c r="A258" s="1" t="n">
@@ -8896,18 +8123,15 @@
         <v>1.22999897</v>
       </c>
       <c r="G258" t="n">
-        <v>-87.58106530999994</v>
-      </c>
-      <c r="H258" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H258" t="inlineStr"/>
       <c r="I258" t="inlineStr"/>
       <c r="J258" t="inlineStr"/>
-      <c r="K258" t="inlineStr"/>
-      <c r="L258" t="n">
-        <v>1</v>
-      </c>
-      <c r="M258" t="inlineStr"/>
+      <c r="K258" t="n">
+        <v>1</v>
+      </c>
+      <c r="L258" t="inlineStr"/>
     </row>
     <row r="259">
       <c r="A259" s="1" t="n">
@@ -8929,18 +8153,15 @@
         <v>0.15797788</v>
       </c>
       <c r="G259" t="n">
-        <v>-87.58106530999994</v>
-      </c>
-      <c r="H259" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H259" t="inlineStr"/>
       <c r="I259" t="inlineStr"/>
       <c r="J259" t="inlineStr"/>
-      <c r="K259" t="inlineStr"/>
-      <c r="L259" t="n">
-        <v>1</v>
-      </c>
-      <c r="M259" t="inlineStr"/>
+      <c r="K259" t="n">
+        <v>1</v>
+      </c>
+      <c r="L259" t="inlineStr"/>
     </row>
     <row r="260">
       <c r="A260" s="1" t="n">
@@ -8962,18 +8183,15 @@
         <v>8.5</v>
       </c>
       <c r="G260" t="n">
-        <v>-79.08106530999994</v>
-      </c>
-      <c r="H260" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H260" t="inlineStr"/>
       <c r="I260" t="inlineStr"/>
       <c r="J260" t="inlineStr"/>
-      <c r="K260" t="inlineStr"/>
-      <c r="L260" t="n">
-        <v>1</v>
-      </c>
-      <c r="M260" t="inlineStr"/>
+      <c r="K260" t="n">
+        <v>1</v>
+      </c>
+      <c r="L260" t="inlineStr"/>
     </row>
     <row r="261">
       <c r="A261" s="1" t="n">
@@ -8995,18 +8213,15 @@
         <v>16.7804</v>
       </c>
       <c r="G261" t="n">
-        <v>-95.86146530999994</v>
-      </c>
-      <c r="H261" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H261" t="inlineStr"/>
       <c r="I261" t="inlineStr"/>
       <c r="J261" t="inlineStr"/>
-      <c r="K261" t="inlineStr"/>
-      <c r="L261" t="n">
-        <v>1</v>
-      </c>
-      <c r="M261" t="inlineStr"/>
+      <c r="K261" t="n">
+        <v>1</v>
+      </c>
+      <c r="L261" t="inlineStr"/>
     </row>
     <row r="262">
       <c r="A262" s="1" t="n">
@@ -9028,18 +8243,15 @@
         <v>36.2955</v>
       </c>
       <c r="G262" t="n">
-        <v>-95.86146530999994</v>
-      </c>
-      <c r="H262" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H262" t="inlineStr"/>
       <c r="I262" t="inlineStr"/>
       <c r="J262" t="inlineStr"/>
-      <c r="K262" t="inlineStr"/>
-      <c r="L262" t="n">
-        <v>1</v>
-      </c>
-      <c r="M262" t="inlineStr"/>
+      <c r="K262" t="n">
+        <v>1</v>
+      </c>
+      <c r="L262" t="inlineStr"/>
     </row>
     <row r="263">
       <c r="A263" s="1" t="n">
@@ -9061,18 +8273,15 @@
         <v>1.1017</v>
       </c>
       <c r="G263" t="n">
-        <v>-96.96316530999994</v>
-      </c>
-      <c r="H263" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H263" t="inlineStr"/>
       <c r="I263" t="inlineStr"/>
       <c r="J263" t="inlineStr"/>
-      <c r="K263" t="inlineStr"/>
-      <c r="L263" t="n">
-        <v>1</v>
-      </c>
-      <c r="M263" t="inlineStr"/>
+      <c r="K263" t="n">
+        <v>1</v>
+      </c>
+      <c r="L263" t="inlineStr"/>
     </row>
     <row r="264">
       <c r="A264" s="1" t="n">
@@ -9094,18 +8303,15 @@
         <v>0.3157</v>
       </c>
       <c r="G264" t="n">
-        <v>-96.96316530999994</v>
-      </c>
-      <c r="H264" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H264" t="inlineStr"/>
       <c r="I264" t="inlineStr"/>
       <c r="J264" t="inlineStr"/>
-      <c r="K264" t="inlineStr"/>
-      <c r="L264" t="n">
-        <v>1</v>
-      </c>
-      <c r="M264" t="inlineStr"/>
+      <c r="K264" t="n">
+        <v>1</v>
+      </c>
+      <c r="L264" t="inlineStr"/>
     </row>
     <row r="265">
       <c r="A265" s="1" t="n">
@@ -9127,18 +8333,15 @@
         <v>12.4806</v>
       </c>
       <c r="G265" t="n">
-        <v>-84.48256530999994</v>
-      </c>
-      <c r="H265" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H265" t="inlineStr"/>
       <c r="I265" t="inlineStr"/>
       <c r="J265" t="inlineStr"/>
-      <c r="K265" t="inlineStr"/>
-      <c r="L265" t="n">
-        <v>1</v>
-      </c>
-      <c r="M265" t="inlineStr"/>
+      <c r="K265" t="n">
+        <v>1</v>
+      </c>
+      <c r="L265" t="inlineStr"/>
     </row>
     <row r="266">
       <c r="A266" s="1" t="n">
@@ -9160,18 +8363,15 @@
         <v>69.7492</v>
       </c>
       <c r="G266" t="n">
-        <v>-84.48256530999994</v>
-      </c>
-      <c r="H266" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H266" t="inlineStr"/>
       <c r="I266" t="inlineStr"/>
       <c r="J266" t="inlineStr"/>
-      <c r="K266" t="inlineStr"/>
-      <c r="L266" t="n">
-        <v>1</v>
-      </c>
-      <c r="M266" t="inlineStr"/>
+      <c r="K266" t="n">
+        <v>1</v>
+      </c>
+      <c r="L266" t="inlineStr"/>
     </row>
     <row r="267">
       <c r="A267" s="1" t="n">
@@ -9193,18 +8393,15 @@
         <v>1.1782</v>
       </c>
       <c r="G267" t="n">
-        <v>-84.48256530999994</v>
-      </c>
-      <c r="H267" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H267" t="inlineStr"/>
       <c r="I267" t="inlineStr"/>
       <c r="J267" t="inlineStr"/>
-      <c r="K267" t="inlineStr"/>
-      <c r="L267" t="n">
-        <v>1</v>
-      </c>
-      <c r="M267" t="inlineStr"/>
+      <c r="K267" t="n">
+        <v>1</v>
+      </c>
+      <c r="L267" t="inlineStr"/>
     </row>
     <row r="268">
       <c r="A268" s="1" t="n">
@@ -9226,18 +8423,15 @@
         <v>5.1906</v>
       </c>
       <c r="G268" t="n">
-        <v>-84.48256530999994</v>
-      </c>
-      <c r="H268" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H268" t="inlineStr"/>
       <c r="I268" t="inlineStr"/>
       <c r="J268" t="inlineStr"/>
-      <c r="K268" t="inlineStr"/>
-      <c r="L268" t="n">
-        <v>1</v>
-      </c>
-      <c r="M268" t="inlineStr"/>
+      <c r="K268" t="n">
+        <v>1</v>
+      </c>
+      <c r="L268" t="inlineStr"/>
     </row>
     <row r="269">
       <c r="A269" s="1" t="n">
@@ -9259,18 +8453,15 @@
         <v>4.0124</v>
       </c>
       <c r="G269" t="n">
-        <v>-84.48256530999994</v>
-      </c>
-      <c r="H269" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H269" t="inlineStr"/>
       <c r="I269" t="inlineStr"/>
       <c r="J269" t="inlineStr"/>
-      <c r="K269" t="inlineStr"/>
-      <c r="L269" t="n">
-        <v>1</v>
-      </c>
-      <c r="M269" t="inlineStr"/>
+      <c r="K269" t="n">
+        <v>1</v>
+      </c>
+      <c r="L269" t="inlineStr"/>
     </row>
     <row r="270">
       <c r="A270" s="1" t="n">
@@ -9292,18 +8483,15 @@
         <v>1.738</v>
       </c>
       <c r="G270" t="n">
-        <v>-84.48256530999994</v>
-      </c>
-      <c r="H270" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H270" t="inlineStr"/>
       <c r="I270" t="inlineStr"/>
       <c r="J270" t="inlineStr"/>
-      <c r="K270" t="inlineStr"/>
-      <c r="L270" t="n">
-        <v>1</v>
-      </c>
-      <c r="M270" t="inlineStr"/>
+      <c r="K270" t="n">
+        <v>1</v>
+      </c>
+      <c r="L270" t="inlineStr"/>
     </row>
     <row r="271">
       <c r="A271" s="1" t="n">
@@ -9325,18 +8513,15 @@
         <v>2.2845</v>
       </c>
       <c r="G271" t="n">
-        <v>-84.48256530999994</v>
-      </c>
-      <c r="H271" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H271" t="inlineStr"/>
       <c r="I271" t="inlineStr"/>
       <c r="J271" t="inlineStr"/>
-      <c r="K271" t="inlineStr"/>
-      <c r="L271" t="n">
-        <v>1</v>
-      </c>
-      <c r="M271" t="inlineStr"/>
+      <c r="K271" t="n">
+        <v>1</v>
+      </c>
+      <c r="L271" t="inlineStr"/>
     </row>
     <row r="272">
       <c r="A272" s="1" t="n">
@@ -9358,18 +8543,15 @@
         <v>2.8297</v>
       </c>
       <c r="G272" t="n">
-        <v>-81.65286530999994</v>
-      </c>
-      <c r="H272" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H272" t="inlineStr"/>
       <c r="I272" t="inlineStr"/>
       <c r="J272" t="inlineStr"/>
-      <c r="K272" t="inlineStr"/>
-      <c r="L272" t="n">
-        <v>1</v>
-      </c>
-      <c r="M272" t="inlineStr"/>
+      <c r="K272" t="n">
+        <v>1</v>
+      </c>
+      <c r="L272" t="inlineStr"/>
     </row>
     <row r="273">
       <c r="A273" s="1" t="n">
@@ -9391,18 +8573,15 @@
         <v>0.5809</v>
       </c>
       <c r="G273" t="n">
-        <v>-81.65286530999994</v>
-      </c>
-      <c r="H273" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H273" t="inlineStr"/>
       <c r="I273" t="inlineStr"/>
       <c r="J273" t="inlineStr"/>
-      <c r="K273" t="inlineStr"/>
-      <c r="L273" t="n">
-        <v>1</v>
-      </c>
-      <c r="M273" t="inlineStr"/>
+      <c r="K273" t="n">
+        <v>1</v>
+      </c>
+      <c r="L273" t="inlineStr"/>
     </row>
     <row r="274">
       <c r="A274" s="1" t="n">
@@ -9424,18 +8603,15 @@
         <v>28.5</v>
       </c>
       <c r="G274" t="n">
-        <v>-110.1528653099999</v>
-      </c>
-      <c r="H274" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H274" t="inlineStr"/>
       <c r="I274" t="inlineStr"/>
       <c r="J274" t="inlineStr"/>
-      <c r="K274" t="inlineStr"/>
-      <c r="L274" t="n">
-        <v>1</v>
-      </c>
-      <c r="M274" t="inlineStr"/>
+      <c r="K274" t="n">
+        <v>1</v>
+      </c>
+      <c r="L274" t="inlineStr"/>
     </row>
     <row r="275">
       <c r="A275" s="1" t="n">
@@ -9457,18 +8633,15 @@
         <v>16.954</v>
       </c>
       <c r="G275" t="n">
-        <v>-93.19886530999995</v>
-      </c>
-      <c r="H275" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H275" t="inlineStr"/>
       <c r="I275" t="inlineStr"/>
       <c r="J275" t="inlineStr"/>
-      <c r="K275" t="inlineStr"/>
-      <c r="L275" t="n">
-        <v>1</v>
-      </c>
-      <c r="M275" t="inlineStr"/>
+      <c r="K275" t="n">
+        <v>1</v>
+      </c>
+      <c r="L275" t="inlineStr"/>
     </row>
     <row r="276">
       <c r="A276" s="1" t="n">
@@ -9490,18 +8663,15 @@
         <v>0.4021</v>
       </c>
       <c r="G276" t="n">
-        <v>-92.79676530999994</v>
-      </c>
-      <c r="H276" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H276" t="inlineStr"/>
       <c r="I276" t="inlineStr"/>
       <c r="J276" t="inlineStr"/>
-      <c r="K276" t="inlineStr"/>
-      <c r="L276" t="n">
-        <v>1</v>
-      </c>
-      <c r="M276" t="inlineStr"/>
+      <c r="K276" t="n">
+        <v>1</v>
+      </c>
+      <c r="L276" t="inlineStr"/>
     </row>
     <row r="277">
       <c r="A277" s="1" t="n">
@@ -9523,18 +8693,15 @@
         <v>11.0225</v>
       </c>
       <c r="G277" t="n">
-        <v>-103.8192653099999</v>
-      </c>
-      <c r="H277" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H277" t="inlineStr"/>
       <c r="I277" t="inlineStr"/>
       <c r="J277" t="inlineStr"/>
-      <c r="K277" t="inlineStr"/>
-      <c r="L277" t="n">
-        <v>1</v>
-      </c>
-      <c r="M277" t="inlineStr"/>
+      <c r="K277" t="n">
+        <v>1</v>
+      </c>
+      <c r="L277" t="inlineStr"/>
     </row>
     <row r="278">
       <c r="A278" s="1" t="n">
@@ -9556,18 +8723,15 @@
         <v>0.7</v>
       </c>
       <c r="G278" t="n">
-        <v>-103.8192653099999</v>
-      </c>
-      <c r="H278" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H278" t="inlineStr"/>
       <c r="I278" t="inlineStr"/>
       <c r="J278" t="inlineStr"/>
-      <c r="K278" t="inlineStr"/>
-      <c r="L278" t="n">
-        <v>1</v>
-      </c>
-      <c r="M278" t="inlineStr"/>
+      <c r="K278" t="n">
+        <v>1</v>
+      </c>
+      <c r="L278" t="inlineStr"/>
     </row>
     <row r="279">
       <c r="A279" s="1" t="n">
@@ -9589,18 +8753,15 @@
         <v>1.8484925</v>
       </c>
       <c r="G279" t="n">
-        <v>-101.9707728099999</v>
-      </c>
-      <c r="H279" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H279" t="inlineStr"/>
       <c r="I279" t="inlineStr"/>
       <c r="J279" t="inlineStr"/>
-      <c r="K279" t="inlineStr"/>
-      <c r="L279" t="n">
-        <v>1</v>
-      </c>
-      <c r="M279" t="inlineStr"/>
+      <c r="K279" t="n">
+        <v>1</v>
+      </c>
+      <c r="L279" t="inlineStr"/>
     </row>
     <row r="280">
       <c r="A280" s="1" t="n">
@@ -9622,18 +8783,15 @@
         <v>5.8121</v>
       </c>
       <c r="G280" t="n">
-        <v>-107.7828728099999</v>
-      </c>
-      <c r="H280" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H280" t="inlineStr"/>
       <c r="I280" t="inlineStr"/>
       <c r="J280" t="inlineStr"/>
-      <c r="K280" t="inlineStr"/>
-      <c r="L280" t="n">
-        <v>1</v>
-      </c>
-      <c r="M280" t="inlineStr"/>
+      <c r="K280" t="n">
+        <v>1</v>
+      </c>
+      <c r="L280" t="inlineStr"/>
     </row>
     <row r="281">
       <c r="A281" s="1" t="n">
@@ -9655,18 +8813,15 @@
         <v>95.83410000000001</v>
       </c>
       <c r="G281" t="n">
-        <v>-203.6169728099999</v>
-      </c>
-      <c r="H281" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H281" t="inlineStr"/>
       <c r="I281" t="inlineStr"/>
       <c r="J281" t="inlineStr"/>
-      <c r="K281" t="inlineStr"/>
-      <c r="L281" t="n">
-        <v>1</v>
-      </c>
-      <c r="M281" t="inlineStr"/>
+      <c r="K281" t="n">
+        <v>1</v>
+      </c>
+      <c r="L281" t="inlineStr"/>
     </row>
     <row r="282">
       <c r="A282" s="1" t="n">
@@ -9688,18 +8843,15 @@
         <v>11.1</v>
       </c>
       <c r="G282" t="n">
-        <v>-203.6169728099999</v>
-      </c>
-      <c r="H282" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H282" t="inlineStr"/>
       <c r="I282" t="inlineStr"/>
       <c r="J282" t="inlineStr"/>
-      <c r="K282" t="inlineStr"/>
-      <c r="L282" t="n">
-        <v>1</v>
-      </c>
-      <c r="M282" t="inlineStr"/>
+      <c r="K282" t="n">
+        <v>1</v>
+      </c>
+      <c r="L282" t="inlineStr"/>
     </row>
     <row r="283">
       <c r="A283" s="1" t="n">
@@ -9721,18 +8873,15 @@
         <v>106.0546</v>
       </c>
       <c r="G283" t="n">
-        <v>-309.6715728099999</v>
-      </c>
-      <c r="H283" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H283" t="inlineStr"/>
       <c r="I283" t="inlineStr"/>
       <c r="J283" t="inlineStr"/>
-      <c r="K283" t="inlineStr"/>
-      <c r="L283" t="n">
-        <v>1</v>
-      </c>
-      <c r="M283" t="inlineStr"/>
+      <c r="K283" t="n">
+        <v>1</v>
+      </c>
+      <c r="L283" t="inlineStr"/>
     </row>
     <row r="284">
       <c r="A284" s="1" t="n">
@@ -9754,18 +8903,15 @@
         <v>33.4797</v>
       </c>
       <c r="G284" t="n">
-        <v>-343.1512728099999</v>
-      </c>
-      <c r="H284" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H284" t="inlineStr"/>
       <c r="I284" t="inlineStr"/>
       <c r="J284" t="inlineStr"/>
-      <c r="K284" t="inlineStr"/>
-      <c r="L284" t="n">
-        <v>1</v>
-      </c>
-      <c r="M284" t="inlineStr"/>
+      <c r="K284" t="n">
+        <v>1</v>
+      </c>
+      <c r="L284" t="inlineStr"/>
     </row>
     <row r="285">
       <c r="A285" s="1" t="n">
@@ -9787,18 +8933,15 @@
         <v>5</v>
       </c>
       <c r="G285" t="n">
-        <v>-343.1512728099999</v>
-      </c>
-      <c r="H285" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H285" t="inlineStr"/>
       <c r="I285" t="inlineStr"/>
       <c r="J285" t="inlineStr"/>
-      <c r="K285" t="inlineStr"/>
-      <c r="L285" t="n">
-        <v>1</v>
-      </c>
-      <c r="M285" t="inlineStr"/>
+      <c r="K285" t="n">
+        <v>1</v>
+      </c>
+      <c r="L285" t="inlineStr"/>
     </row>
     <row r="286">
       <c r="A286" s="1" t="n">
@@ -9820,18 +8963,15 @@
         <v>3.2614</v>
       </c>
       <c r="G286" t="n">
-        <v>-339.8898728099999</v>
-      </c>
-      <c r="H286" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H286" t="inlineStr"/>
       <c r="I286" t="inlineStr"/>
       <c r="J286" t="inlineStr"/>
-      <c r="K286" t="inlineStr"/>
-      <c r="L286" t="n">
-        <v>1</v>
-      </c>
-      <c r="M286" t="inlineStr"/>
+      <c r="K286" t="n">
+        <v>1</v>
+      </c>
+      <c r="L286" t="inlineStr"/>
     </row>
     <row r="287">
       <c r="A287" s="1" t="n">
@@ -9853,18 +8993,15 @@
         <v>3.552</v>
       </c>
       <c r="G287" t="n">
-        <v>-343.4418728099999</v>
-      </c>
-      <c r="H287" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H287" t="inlineStr"/>
       <c r="I287" t="inlineStr"/>
       <c r="J287" t="inlineStr"/>
-      <c r="K287" t="inlineStr"/>
-      <c r="L287" t="n">
-        <v>1</v>
-      </c>
-      <c r="M287" t="inlineStr"/>
+      <c r="K287" t="n">
+        <v>1</v>
+      </c>
+      <c r="L287" t="inlineStr"/>
     </row>
     <row r="288">
       <c r="A288" s="1" t="n">
@@ -9886,18 +9023,15 @@
         <v>56.3452</v>
       </c>
       <c r="G288" t="n">
-        <v>-399.7870728099999</v>
-      </c>
-      <c r="H288" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H288" t="inlineStr"/>
       <c r="I288" t="inlineStr"/>
       <c r="J288" t="inlineStr"/>
-      <c r="K288" t="inlineStr"/>
-      <c r="L288" t="n">
-        <v>1</v>
-      </c>
-      <c r="M288" t="inlineStr"/>
+      <c r="K288" t="n">
+        <v>1</v>
+      </c>
+      <c r="L288" t="inlineStr"/>
     </row>
     <row r="289">
       <c r="A289" s="1" t="n">
@@ -9919,18 +9053,15 @@
         <v>5.175</v>
       </c>
       <c r="G289" t="n">
-        <v>-399.7870728099999</v>
-      </c>
-      <c r="H289" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H289" t="inlineStr"/>
       <c r="I289" t="inlineStr"/>
       <c r="J289" t="inlineStr"/>
-      <c r="K289" t="inlineStr"/>
-      <c r="L289" t="n">
-        <v>1</v>
-      </c>
-      <c r="M289" t="inlineStr"/>
+      <c r="K289" t="n">
+        <v>1</v>
+      </c>
+      <c r="L289" t="inlineStr"/>
     </row>
     <row r="290">
       <c r="A290" s="1" t="n">
@@ -9952,18 +9083,15 @@
         <v>2.0244</v>
       </c>
       <c r="G290" t="n">
-        <v>-397.7626728099999</v>
-      </c>
-      <c r="H290" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H290" t="inlineStr"/>
       <c r="I290" t="inlineStr"/>
       <c r="J290" t="inlineStr"/>
-      <c r="K290" t="inlineStr"/>
-      <c r="L290" t="n">
-        <v>1</v>
-      </c>
-      <c r="M290" t="inlineStr"/>
+      <c r="K290" t="n">
+        <v>1</v>
+      </c>
+      <c r="L290" t="inlineStr"/>
     </row>
     <row r="291">
       <c r="A291" s="1" t="n">
@@ -9985,18 +9113,15 @@
         <v>18.5465</v>
       </c>
       <c r="G291" t="n">
-        <v>-379.2161728099999</v>
-      </c>
-      <c r="H291" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H291" t="inlineStr"/>
       <c r="I291" t="inlineStr"/>
       <c r="J291" t="inlineStr"/>
-      <c r="K291" t="inlineStr"/>
-      <c r="L291" t="n">
-        <v>1</v>
-      </c>
-      <c r="M291" t="inlineStr"/>
+      <c r="K291" t="n">
+        <v>1</v>
+      </c>
+      <c r="L291" t="inlineStr"/>
     </row>
     <row r="292">
       <c r="A292" s="1" t="n">
@@ -10018,18 +9143,15 @@
         <v>0.5987</v>
       </c>
       <c r="G292" t="n">
-        <v>-379.2161728099999</v>
-      </c>
-      <c r="H292" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H292" t="inlineStr"/>
       <c r="I292" t="inlineStr"/>
       <c r="J292" t="inlineStr"/>
-      <c r="K292" t="inlineStr"/>
-      <c r="L292" t="n">
-        <v>1</v>
-      </c>
-      <c r="M292" t="inlineStr"/>
+      <c r="K292" t="n">
+        <v>1</v>
+      </c>
+      <c r="L292" t="inlineStr"/>
     </row>
     <row r="293">
       <c r="A293" s="1" t="n">
@@ -10051,18 +9173,15 @@
         <v>8.897399999999999</v>
       </c>
       <c r="G293" t="n">
-        <v>-379.2161728099999</v>
-      </c>
-      <c r="H293" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H293" t="inlineStr"/>
       <c r="I293" t="inlineStr"/>
       <c r="J293" t="inlineStr"/>
-      <c r="K293" t="inlineStr"/>
-      <c r="L293" t="n">
-        <v>1</v>
-      </c>
-      <c r="M293" t="inlineStr"/>
+      <c r="K293" t="n">
+        <v>1</v>
+      </c>
+      <c r="L293" t="inlineStr"/>
     </row>
     <row r="294">
       <c r="A294" s="1" t="n">
@@ -10084,18 +9203,15 @@
         <v>19.6601</v>
       </c>
       <c r="G294" t="n">
-        <v>-359.5560728099999</v>
-      </c>
-      <c r="H294" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H294" t="inlineStr"/>
       <c r="I294" t="inlineStr"/>
       <c r="J294" t="inlineStr"/>
-      <c r="K294" t="inlineStr"/>
-      <c r="L294" t="n">
-        <v>1</v>
-      </c>
-      <c r="M294" t="inlineStr"/>
+      <c r="K294" t="n">
+        <v>1</v>
+      </c>
+      <c r="L294" t="inlineStr"/>
     </row>
     <row r="295">
       <c r="A295" s="1" t="n">
@@ -10117,18 +9233,15 @@
         <v>1.2428</v>
       </c>
       <c r="G295" t="n">
-        <v>-359.5560728099999</v>
-      </c>
-      <c r="H295" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H295" t="inlineStr"/>
       <c r="I295" t="inlineStr"/>
       <c r="J295" t="inlineStr"/>
-      <c r="K295" t="inlineStr"/>
-      <c r="L295" t="n">
-        <v>1</v>
-      </c>
-      <c r="M295" t="inlineStr"/>
+      <c r="K295" t="n">
+        <v>1</v>
+      </c>
+      <c r="L295" t="inlineStr"/>
     </row>
     <row r="296">
       <c r="A296" s="1" t="n">
@@ -10150,18 +9263,15 @@
         <v>0.3892</v>
       </c>
       <c r="G296" t="n">
-        <v>-359.9452728099999</v>
-      </c>
-      <c r="H296" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H296" t="inlineStr"/>
       <c r="I296" t="inlineStr"/>
       <c r="J296" t="inlineStr"/>
-      <c r="K296" t="inlineStr"/>
-      <c r="L296" t="n">
-        <v>1</v>
-      </c>
-      <c r="M296" t="inlineStr"/>
+      <c r="K296" t="n">
+        <v>1</v>
+      </c>
+      <c r="L296" t="inlineStr"/>
     </row>
     <row r="297">
       <c r="A297" s="1" t="n">
@@ -10183,18 +9293,15 @@
         <v>0.5971</v>
       </c>
       <c r="G297" t="n">
-        <v>-359.3481728099999</v>
-      </c>
-      <c r="H297" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H297" t="inlineStr"/>
       <c r="I297" t="inlineStr"/>
       <c r="J297" t="inlineStr"/>
-      <c r="K297" t="inlineStr"/>
-      <c r="L297" t="n">
-        <v>1</v>
-      </c>
-      <c r="M297" t="inlineStr"/>
+      <c r="K297" t="n">
+        <v>1</v>
+      </c>
+      <c r="L297" t="inlineStr"/>
     </row>
     <row r="298">
       <c r="A298" s="1" t="n">
@@ -10216,18 +9323,15 @@
         <v>0.7999000000000001</v>
       </c>
       <c r="G298" t="n">
-        <v>-359.3481728099999</v>
-      </c>
-      <c r="H298" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H298" t="inlineStr"/>
       <c r="I298" t="inlineStr"/>
       <c r="J298" t="inlineStr"/>
-      <c r="K298" t="inlineStr"/>
-      <c r="L298" t="n">
-        <v>1</v>
-      </c>
-      <c r="M298" t="inlineStr"/>
+      <c r="K298" t="n">
+        <v>1</v>
+      </c>
+      <c r="L298" t="inlineStr"/>
     </row>
     <row r="299">
       <c r="A299" s="1" t="n">
@@ -10249,18 +9353,15 @@
         <v>63.8477</v>
       </c>
       <c r="G299" t="n">
-        <v>-423.19587281</v>
-      </c>
-      <c r="H299" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H299" t="inlineStr"/>
       <c r="I299" t="inlineStr"/>
       <c r="J299" t="inlineStr"/>
-      <c r="K299" t="inlineStr"/>
-      <c r="L299" t="n">
-        <v>1</v>
-      </c>
-      <c r="M299" t="inlineStr"/>
+      <c r="K299" t="n">
+        <v>1</v>
+      </c>
+      <c r="L299" t="inlineStr"/>
     </row>
     <row r="300">
       <c r="A300" s="1" t="n">
@@ -10282,18 +9383,15 @@
         <v>65.32989999999999</v>
       </c>
       <c r="G300" t="n">
-        <v>-423.19587281</v>
-      </c>
-      <c r="H300" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H300" t="inlineStr"/>
       <c r="I300" t="inlineStr"/>
       <c r="J300" t="inlineStr"/>
-      <c r="K300" t="inlineStr"/>
-      <c r="L300" t="n">
-        <v>1</v>
-      </c>
-      <c r="M300" t="inlineStr"/>
+      <c r="K300" t="n">
+        <v>1</v>
+      </c>
+      <c r="L300" t="inlineStr"/>
     </row>
     <row r="301">
       <c r="A301" s="1" t="n">
@@ -10315,18 +9413,15 @@
         <v>10.6428</v>
       </c>
       <c r="G301" t="n">
-        <v>-423.19587281</v>
-      </c>
-      <c r="H301" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H301" t="inlineStr"/>
       <c r="I301" t="inlineStr"/>
       <c r="J301" t="inlineStr"/>
-      <c r="K301" t="inlineStr"/>
-      <c r="L301" t="n">
-        <v>1</v>
-      </c>
-      <c r="M301" t="inlineStr"/>
+      <c r="K301" t="n">
+        <v>1</v>
+      </c>
+      <c r="L301" t="inlineStr"/>
     </row>
     <row r="302">
       <c r="A302" s="1" t="n">
@@ -10348,18 +9443,15 @@
         <v>12.4087</v>
       </c>
       <c r="G302" t="n">
-        <v>-435.60457281</v>
-      </c>
-      <c r="H302" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H302" t="inlineStr"/>
       <c r="I302" t="inlineStr"/>
       <c r="J302" t="inlineStr"/>
-      <c r="K302" t="inlineStr"/>
-      <c r="L302" t="n">
-        <v>1</v>
-      </c>
-      <c r="M302" t="inlineStr"/>
+      <c r="K302" t="n">
+        <v>1</v>
+      </c>
+      <c r="L302" t="inlineStr"/>
     </row>
     <row r="303">
       <c r="A303" s="1" t="n">
@@ -10381,18 +9473,15 @@
         <v>7</v>
       </c>
       <c r="G303" t="n">
-        <v>-428.60457281</v>
-      </c>
-      <c r="H303" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H303" t="inlineStr"/>
       <c r="I303" t="inlineStr"/>
       <c r="J303" t="inlineStr"/>
-      <c r="K303" t="inlineStr"/>
-      <c r="L303" t="n">
-        <v>1</v>
-      </c>
-      <c r="M303" t="inlineStr"/>
+      <c r="K303" t="n">
+        <v>1</v>
+      </c>
+      <c r="L303" t="inlineStr"/>
     </row>
     <row r="304">
       <c r="A304" s="1" t="n">
@@ -10414,18 +9503,15 @@
         <v>1.9265</v>
       </c>
       <c r="G304" t="n">
-        <v>-428.60457281</v>
-      </c>
-      <c r="H304" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H304" t="inlineStr"/>
       <c r="I304" t="inlineStr"/>
       <c r="J304" t="inlineStr"/>
-      <c r="K304" t="inlineStr"/>
-      <c r="L304" t="n">
-        <v>1</v>
-      </c>
-      <c r="M304" t="inlineStr"/>
+      <c r="K304" t="n">
+        <v>1</v>
+      </c>
+      <c r="L304" t="inlineStr"/>
     </row>
     <row r="305">
       <c r="A305" s="1" t="n">
@@ -10447,18 +9533,15 @@
         <v>96.251</v>
       </c>
       <c r="G305" t="n">
-        <v>-428.60457281</v>
-      </c>
-      <c r="H305" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H305" t="inlineStr"/>
       <c r="I305" t="inlineStr"/>
       <c r="J305" t="inlineStr"/>
-      <c r="K305" t="inlineStr"/>
-      <c r="L305" t="n">
-        <v>1</v>
-      </c>
-      <c r="M305" t="inlineStr"/>
+      <c r="K305" t="n">
+        <v>1</v>
+      </c>
+      <c r="L305" t="inlineStr"/>
     </row>
     <row r="306">
       <c r="A306" s="1" t="n">
@@ -10480,18 +9563,15 @@
         <v>0.9231</v>
       </c>
       <c r="G306" t="n">
-        <v>-427.68147281</v>
-      </c>
-      <c r="H306" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H306" t="inlineStr"/>
       <c r="I306" t="inlineStr"/>
       <c r="J306" t="inlineStr"/>
-      <c r="K306" t="inlineStr"/>
-      <c r="L306" t="n">
-        <v>1</v>
-      </c>
-      <c r="M306" t="inlineStr"/>
+      <c r="K306" t="n">
+        <v>1</v>
+      </c>
+      <c r="L306" t="inlineStr"/>
     </row>
     <row r="307">
       <c r="A307" s="1" t="n">
@@ -10513,18 +9593,15 @@
         <v>1.31881234</v>
       </c>
       <c r="G307" t="n">
-        <v>-427.68147281</v>
-      </c>
-      <c r="H307" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H307" t="inlineStr"/>
       <c r="I307" t="inlineStr"/>
       <c r="J307" t="inlineStr"/>
-      <c r="K307" t="inlineStr"/>
-      <c r="L307" t="n">
-        <v>1</v>
-      </c>
-      <c r="M307" t="inlineStr"/>
+      <c r="K307" t="n">
+        <v>1</v>
+      </c>
+      <c r="L307" t="inlineStr"/>
     </row>
     <row r="308">
       <c r="A308" s="1" t="n">
@@ -10546,18 +9623,15 @@
         <v>0.0448</v>
       </c>
       <c r="G308" t="n">
-        <v>-427.72627281</v>
-      </c>
-      <c r="H308" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H308" t="inlineStr"/>
       <c r="I308" t="inlineStr"/>
       <c r="J308" t="inlineStr"/>
-      <c r="K308" t="inlineStr"/>
-      <c r="L308" t="n">
-        <v>1</v>
-      </c>
-      <c r="M308" t="inlineStr"/>
+      <c r="K308" t="n">
+        <v>1</v>
+      </c>
+      <c r="L308" t="inlineStr"/>
     </row>
     <row r="309">
       <c r="A309" s="1" t="n">
@@ -10579,18 +9653,15 @@
         <v>371.0002</v>
       </c>
       <c r="G309" t="n">
-        <v>-798.72647281</v>
-      </c>
-      <c r="H309" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H309" t="inlineStr"/>
       <c r="I309" t="inlineStr"/>
       <c r="J309" t="inlineStr"/>
-      <c r="K309" t="inlineStr"/>
-      <c r="L309" t="n">
-        <v>1</v>
-      </c>
-      <c r="M309" t="inlineStr"/>
+      <c r="K309" t="n">
+        <v>1</v>
+      </c>
+      <c r="L309" t="inlineStr"/>
     </row>
     <row r="310">
       <c r="A310" s="1" t="n">
@@ -10612,18 +9683,15 @@
         <v>40.5083</v>
       </c>
       <c r="G310" t="n">
-        <v>-839.23477281</v>
-      </c>
-      <c r="H310" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H310" t="inlineStr"/>
       <c r="I310" t="inlineStr"/>
       <c r="J310" t="inlineStr"/>
-      <c r="K310" t="inlineStr"/>
-      <c r="L310" t="n">
-        <v>1</v>
-      </c>
-      <c r="M310" t="inlineStr"/>
+      <c r="K310" t="n">
+        <v>1</v>
+      </c>
+      <c r="L310" t="inlineStr"/>
     </row>
     <row r="311">
       <c r="A311" s="1" t="n">
@@ -10645,18 +9713,15 @@
         <v>22.5211</v>
       </c>
       <c r="G311" t="n">
-        <v>-816.7136728099999</v>
-      </c>
-      <c r="H311" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H311" t="inlineStr"/>
       <c r="I311" t="inlineStr"/>
       <c r="J311" t="inlineStr"/>
-      <c r="K311" t="inlineStr"/>
-      <c r="L311" t="n">
-        <v>1</v>
-      </c>
-      <c r="M311" t="inlineStr"/>
+      <c r="K311" t="n">
+        <v>1</v>
+      </c>
+      <c r="L311" t="inlineStr"/>
     </row>
     <row r="312">
       <c r="A312" s="1" t="n">
@@ -10678,18 +9743,15 @@
         <v>16.2758</v>
       </c>
       <c r="G312" t="n">
-        <v>-800.4378728099999</v>
-      </c>
-      <c r="H312" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H312" t="inlineStr"/>
       <c r="I312" t="inlineStr"/>
       <c r="J312" t="inlineStr"/>
-      <c r="K312" t="inlineStr"/>
-      <c r="L312" t="n">
-        <v>1</v>
-      </c>
-      <c r="M312" t="inlineStr"/>
+      <c r="K312" t="n">
+        <v>1</v>
+      </c>
+      <c r="L312" t="inlineStr"/>
     </row>
     <row r="313">
       <c r="A313" s="1" t="n">
@@ -10711,18 +9773,15 @@
         <v>32.853</v>
       </c>
       <c r="G313" t="n">
-        <v>-833.2908728099999</v>
-      </c>
-      <c r="H313" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H313" t="inlineStr"/>
       <c r="I313" t="inlineStr"/>
       <c r="J313" t="inlineStr"/>
-      <c r="K313" t="inlineStr"/>
-      <c r="L313" t="n">
-        <v>1</v>
-      </c>
-      <c r="M313" t="inlineStr"/>
+      <c r="K313" t="n">
+        <v>1</v>
+      </c>
+      <c r="L313" t="inlineStr"/>
     </row>
     <row r="314">
       <c r="A314" s="1" t="n">
@@ -10744,18 +9803,15 @@
         <v>0.9173</v>
       </c>
       <c r="G314" t="n">
-        <v>-832.3735728099999</v>
-      </c>
-      <c r="H314" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H314" t="inlineStr"/>
       <c r="I314" t="inlineStr"/>
       <c r="J314" t="inlineStr"/>
-      <c r="K314" t="inlineStr"/>
-      <c r="L314" t="n">
-        <v>1</v>
-      </c>
-      <c r="M314" t="inlineStr"/>
+      <c r="K314" t="n">
+        <v>1</v>
+      </c>
+      <c r="L314" t="inlineStr"/>
     </row>
     <row r="315">
       <c r="A315" s="1" t="n">
@@ -10777,22 +9833,15 @@
         <v>1.417</v>
       </c>
       <c r="G315" t="n">
-        <v>-832.3735728099999</v>
-      </c>
-      <c r="H315" t="n">
-        <v>1</v>
-      </c>
-      <c r="I315" t="n">
-        <v>62800</v>
-      </c>
-      <c r="J315" t="n">
-        <v>62800</v>
-      </c>
-      <c r="K315" t="inlineStr"/>
-      <c r="L315" t="n">
-        <v>1</v>
-      </c>
-      <c r="M315" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H315" t="inlineStr"/>
+      <c r="I315" t="inlineStr"/>
+      <c r="J315" t="inlineStr"/>
+      <c r="K315" t="n">
+        <v>1</v>
+      </c>
+      <c r="L315" t="inlineStr"/>
     </row>
     <row r="316">
       <c r="A316" s="1" t="n">
@@ -10814,219 +9863,183 @@
         <v>34.925</v>
       </c>
       <c r="G316" t="n">
-        <v>-867.2985728099999</v>
-      </c>
-      <c r="H316" t="n">
-        <v>1</v>
-      </c>
-      <c r="I316" t="n">
+        <v>0</v>
+      </c>
+      <c r="H316" t="inlineStr"/>
+      <c r="I316" t="inlineStr"/>
+      <c r="J316" t="inlineStr"/>
+      <c r="K316" t="n">
+        <v>1</v>
+      </c>
+      <c r="L316" t="inlineStr"/>
+    </row>
+    <row r="317">
+      <c r="A317" s="1" t="n">
+        <v>315</v>
+      </c>
+      <c r="B317" t="n">
+        <v>62700</v>
+      </c>
+      <c r="C317" t="n">
+        <v>62700</v>
+      </c>
+      <c r="D317" t="n">
+        <v>62700</v>
+      </c>
+      <c r="E317" t="n">
+        <v>62700</v>
+      </c>
+      <c r="F317" t="n">
+        <v>1.5703</v>
+      </c>
+      <c r="G317" t="n">
+        <v>0</v>
+      </c>
+      <c r="H317" t="inlineStr"/>
+      <c r="I317" t="inlineStr"/>
+      <c r="J317" t="inlineStr"/>
+      <c r="K317" t="n">
+        <v>1</v>
+      </c>
+      <c r="L317" t="inlineStr"/>
+    </row>
+    <row r="318">
+      <c r="A318" s="1" t="n">
+        <v>316</v>
+      </c>
+      <c r="B318" t="n">
         <v>62800</v>
       </c>
-      <c r="J316" t="n">
+      <c r="C318" t="n">
         <v>62800</v>
       </c>
-      <c r="K316" t="inlineStr">
+      <c r="D318" t="n">
+        <v>62800</v>
+      </c>
+      <c r="E318" t="n">
+        <v>62800</v>
+      </c>
+      <c r="F318" t="n">
+        <v>6.0093</v>
+      </c>
+      <c r="G318" t="n">
+        <v>0</v>
+      </c>
+      <c r="H318" t="inlineStr"/>
+      <c r="I318" t="inlineStr"/>
+      <c r="J318" t="inlineStr"/>
+      <c r="K318" t="n">
+        <v>1</v>
+      </c>
+      <c r="L318" t="inlineStr"/>
+    </row>
+    <row r="319">
+      <c r="A319" s="1" t="n">
+        <v>317</v>
+      </c>
+      <c r="B319" t="n">
+        <v>62900</v>
+      </c>
+      <c r="C319" t="n">
+        <v>62950</v>
+      </c>
+      <c r="D319" t="n">
+        <v>62950</v>
+      </c>
+      <c r="E319" t="n">
+        <v>62900</v>
+      </c>
+      <c r="F319" t="n">
+        <v>101.0437</v>
+      </c>
+      <c r="G319" t="n">
+        <v>1</v>
+      </c>
+      <c r="H319" t="n">
+        <v>62800</v>
+      </c>
+      <c r="I319" t="n">
+        <v>62800</v>
+      </c>
+      <c r="J319" t="inlineStr"/>
+      <c r="K319" t="n">
+        <v>1</v>
+      </c>
+      <c r="L319" t="inlineStr"/>
+    </row>
+    <row r="320">
+      <c r="A320" s="1" t="n">
+        <v>318</v>
+      </c>
+      <c r="B320" t="n">
+        <v>62900</v>
+      </c>
+      <c r="C320" t="n">
+        <v>62900</v>
+      </c>
+      <c r="D320" t="n">
+        <v>62900</v>
+      </c>
+      <c r="E320" t="n">
+        <v>62900</v>
+      </c>
+      <c r="F320" t="n">
+        <v>26.8739</v>
+      </c>
+      <c r="G320" t="n">
+        <v>1</v>
+      </c>
+      <c r="H320" t="n">
+        <v>62950</v>
+      </c>
+      <c r="I320" t="n">
+        <v>62800</v>
+      </c>
+      <c r="J320" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="L316" t="n">
-        <v>1</v>
-      </c>
-      <c r="M316" t="inlineStr"/>
-    </row>
-    <row r="317">
-      <c r="A317" s="1" t="n">
-        <v>315</v>
-      </c>
-      <c r="B317" t="n">
-        <v>62700</v>
-      </c>
-      <c r="C317" t="n">
-        <v>62700</v>
-      </c>
-      <c r="D317" t="n">
-        <v>62700</v>
-      </c>
-      <c r="E317" t="n">
-        <v>62700</v>
-      </c>
-      <c r="F317" t="n">
-        <v>1.5703</v>
-      </c>
-      <c r="G317" t="n">
-        <v>-867.2985728099999</v>
-      </c>
-      <c r="H317" t="n">
-        <v>1</v>
-      </c>
-      <c r="I317" t="n">
-        <v>62700</v>
-      </c>
-      <c r="J317" t="n">
+      <c r="K320" t="n">
+        <v>1</v>
+      </c>
+      <c r="L320" t="inlineStr"/>
+    </row>
+    <row r="321">
+      <c r="A321" s="1" t="n">
+        <v>319</v>
+      </c>
+      <c r="B321" t="n">
+        <v>62900</v>
+      </c>
+      <c r="C321" t="n">
+        <v>62900</v>
+      </c>
+      <c r="D321" t="n">
+        <v>62900</v>
+      </c>
+      <c r="E321" t="n">
+        <v>62900</v>
+      </c>
+      <c r="F321" t="n">
+        <v>19.3148</v>
+      </c>
+      <c r="G321" t="n">
+        <v>0</v>
+      </c>
+      <c r="H321" t="inlineStr"/>
+      <c r="I321" t="n">
         <v>62800</v>
       </c>
-      <c r="K317" t="inlineStr">
+      <c r="J321" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="L317" t="n">
-        <v>1</v>
-      </c>
-      <c r="M317" t="inlineStr"/>
-    </row>
-    <row r="318">
-      <c r="A318" s="1" t="n">
-        <v>316</v>
-      </c>
-      <c r="B318" t="n">
-        <v>62800</v>
-      </c>
-      <c r="C318" t="n">
-        <v>62800</v>
-      </c>
-      <c r="D318" t="n">
-        <v>62800</v>
-      </c>
-      <c r="E318" t="n">
-        <v>62800</v>
-      </c>
-      <c r="F318" t="n">
-        <v>6.0093</v>
-      </c>
-      <c r="G318" t="n">
-        <v>-861.2892728099998</v>
-      </c>
-      <c r="H318" t="n">
-        <v>1</v>
-      </c>
-      <c r="I318" t="n">
-        <v>62700</v>
-      </c>
-      <c r="J318" t="n">
-        <v>62700</v>
-      </c>
-      <c r="K318" t="inlineStr"/>
-      <c r="L318" t="n">
-        <v>1</v>
-      </c>
-      <c r="M318" t="inlineStr"/>
-    </row>
-    <row r="319">
-      <c r="A319" s="1" t="n">
-        <v>317</v>
-      </c>
-      <c r="B319" t="n">
-        <v>62900</v>
-      </c>
-      <c r="C319" t="n">
-        <v>62950</v>
-      </c>
-      <c r="D319" t="n">
-        <v>62950</v>
-      </c>
-      <c r="E319" t="n">
-        <v>62900</v>
-      </c>
-      <c r="F319" t="n">
-        <v>101.0437</v>
-      </c>
-      <c r="G319" t="n">
-        <v>-760.2455728099999</v>
-      </c>
-      <c r="H319" t="n">
-        <v>1</v>
-      </c>
-      <c r="I319" t="n">
-        <v>62800</v>
-      </c>
-      <c r="J319" t="n">
-        <v>62700</v>
-      </c>
-      <c r="K319" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L319" t="n">
-        <v>1</v>
-      </c>
-      <c r="M319" t="inlineStr"/>
-    </row>
-    <row r="320">
-      <c r="A320" s="1" t="n">
-        <v>318</v>
-      </c>
-      <c r="B320" t="n">
-        <v>62900</v>
-      </c>
-      <c r="C320" t="n">
-        <v>62900</v>
-      </c>
-      <c r="D320" t="n">
-        <v>62900</v>
-      </c>
-      <c r="E320" t="n">
-        <v>62900</v>
-      </c>
-      <c r="F320" t="n">
-        <v>26.8739</v>
-      </c>
-      <c r="G320" t="n">
-        <v>-787.1194728099999</v>
-      </c>
-      <c r="H320" t="n">
-        <v>1</v>
-      </c>
-      <c r="I320" t="n">
-        <v>62950</v>
-      </c>
-      <c r="J320" t="n">
-        <v>62700</v>
-      </c>
-      <c r="K320" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L320" t="n">
-        <v>1</v>
-      </c>
-      <c r="M320" t="inlineStr"/>
-    </row>
-    <row r="321">
-      <c r="A321" s="1" t="n">
-        <v>319</v>
-      </c>
-      <c r="B321" t="n">
-        <v>62900</v>
-      </c>
-      <c r="C321" t="n">
-        <v>62900</v>
-      </c>
-      <c r="D321" t="n">
-        <v>62900</v>
-      </c>
-      <c r="E321" t="n">
-        <v>62900</v>
-      </c>
-      <c r="F321" t="n">
-        <v>19.3148</v>
-      </c>
-      <c r="G321" t="n">
-        <v>-787.1194728099999</v>
-      </c>
-      <c r="H321" t="n">
-        <v>0</v>
-      </c>
-      <c r="I321" t="inlineStr"/>
-      <c r="J321" t="inlineStr"/>
-      <c r="K321" t="inlineStr"/>
-      <c r="L321" t="n">
-        <v>1</v>
-      </c>
-      <c r="M321" t="inlineStr"/>
+      <c r="K321" t="n">
+        <v>1</v>
+      </c>
+      <c r="L321" t="inlineStr"/>
     </row>
     <row r="322">
       <c r="A322" s="1" t="n">
@@ -11048,22 +10061,15 @@
         <v>1.714</v>
       </c>
       <c r="G322" t="n">
-        <v>-787.1194728099999</v>
-      </c>
-      <c r="H322" t="n">
-        <v>1</v>
-      </c>
-      <c r="I322" t="n">
-        <v>62900</v>
-      </c>
-      <c r="J322" t="n">
-        <v>62900</v>
-      </c>
-      <c r="K322" t="inlineStr"/>
-      <c r="L322" t="n">
-        <v>1</v>
-      </c>
-      <c r="M322" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H322" t="inlineStr"/>
+      <c r="I322" t="inlineStr"/>
+      <c r="J322" t="inlineStr"/>
+      <c r="K322" t="n">
+        <v>1</v>
+      </c>
+      <c r="L322" t="inlineStr"/>
     </row>
     <row r="323">
       <c r="A323" s="1" t="n">
@@ -11085,26 +10091,15 @@
         <v>22.3623</v>
       </c>
       <c r="G323" t="n">
-        <v>-787.1194728099999</v>
-      </c>
-      <c r="H323" t="n">
-        <v>1</v>
-      </c>
-      <c r="I323" t="n">
-        <v>62900</v>
-      </c>
-      <c r="J323" t="n">
-        <v>62900</v>
-      </c>
-      <c r="K323" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L323" t="n">
-        <v>1</v>
-      </c>
-      <c r="M323" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H323" t="inlineStr"/>
+      <c r="I323" t="inlineStr"/>
+      <c r="J323" t="inlineStr"/>
+      <c r="K323" t="n">
+        <v>1</v>
+      </c>
+      <c r="L323" t="inlineStr"/>
     </row>
     <row r="324">
       <c r="A324" s="1" t="n">
@@ -11126,26 +10121,15 @@
         <v>0.0232</v>
       </c>
       <c r="G324" t="n">
-        <v>-787.1426728099999</v>
-      </c>
-      <c r="H324" t="n">
-        <v>1</v>
-      </c>
-      <c r="I324" t="n">
-        <v>62900</v>
-      </c>
-      <c r="J324" t="n">
-        <v>62900</v>
-      </c>
-      <c r="K324" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
-      <c r="L324" t="n">
-        <v>1</v>
-      </c>
-      <c r="M324" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H324" t="inlineStr"/>
+      <c r="I324" t="inlineStr"/>
+      <c r="J324" t="inlineStr"/>
+      <c r="K324" t="n">
+        <v>1</v>
+      </c>
+      <c r="L324" t="inlineStr"/>
     </row>
     <row r="325">
       <c r="A325" s="1" t="n">
@@ -11167,24 +10151,15 @@
         <v>99.989</v>
       </c>
       <c r="G325" t="n">
-        <v>-687.1536728099999</v>
-      </c>
-      <c r="H325" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H325" t="inlineStr"/>
       <c r="I325" t="inlineStr"/>
-      <c r="J325" t="n">
-        <v>62900</v>
-      </c>
-      <c r="K325" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L325" t="n">
-        <v>1</v>
-      </c>
-      <c r="M325" t="inlineStr"/>
+      <c r="J325" t="inlineStr"/>
+      <c r="K325" t="n">
+        <v>1</v>
+      </c>
+      <c r="L325" t="inlineStr"/>
     </row>
     <row r="326">
       <c r="A326" s="1" t="n">
@@ -11206,24 +10181,15 @@
         <v>570.7612</v>
       </c>
       <c r="G326" t="n">
-        <v>-116.3924728099998</v>
-      </c>
-      <c r="H326" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H326" t="inlineStr"/>
       <c r="I326" t="inlineStr"/>
-      <c r="J326" t="n">
-        <v>62900</v>
-      </c>
-      <c r="K326" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L326" t="n">
-        <v>1</v>
-      </c>
-      <c r="M326" t="inlineStr"/>
+      <c r="J326" t="inlineStr"/>
+      <c r="K326" t="n">
+        <v>1</v>
+      </c>
+      <c r="L326" t="inlineStr"/>
     </row>
     <row r="327">
       <c r="A327" s="1" t="n">
@@ -11245,24 +10211,15 @@
         <v>371.1481</v>
       </c>
       <c r="G327" t="n">
-        <v>-116.3924728099998</v>
-      </c>
-      <c r="H327" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H327" t="inlineStr"/>
       <c r="I327" t="inlineStr"/>
-      <c r="J327" t="n">
-        <v>62900</v>
-      </c>
-      <c r="K327" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L327" t="n">
-        <v>1</v>
-      </c>
-      <c r="M327" t="inlineStr"/>
+      <c r="J327" t="inlineStr"/>
+      <c r="K327" t="n">
+        <v>1</v>
+      </c>
+      <c r="L327" t="inlineStr"/>
     </row>
     <row r="328">
       <c r="A328" s="1" t="n">
@@ -11284,24 +10241,15 @@
         <v>146.3292</v>
       </c>
       <c r="G328" t="n">
-        <v>-262.7216728099999</v>
-      </c>
-      <c r="H328" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H328" t="inlineStr"/>
       <c r="I328" t="inlineStr"/>
-      <c r="J328" t="n">
-        <v>62900</v>
-      </c>
-      <c r="K328" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L328" t="n">
-        <v>1</v>
-      </c>
-      <c r="M328" t="inlineStr"/>
+      <c r="J328" t="inlineStr"/>
+      <c r="K328" t="n">
+        <v>1</v>
+      </c>
+      <c r="L328" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
